--- a/senegal_dataframe_FA.xlsx
+++ b/senegal_dataframe_FA.xlsx
@@ -872,7 +872,7 @@
         <v>0.5337064155414436</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.8592625803708123</v>
+        <v>0.8592341543069542</v>
       </c>
     </row>
     <row r="3">
@@ -1061,7 +1061,7 @@
         <v>-0.09738977323592984</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.5999508526848001</v>
+        <v>0.5999702696757436</v>
       </c>
     </row>
     <row r="4">
@@ -1250,7 +1250,7 @@
         <v>0.3303821271678443</v>
       </c>
       <c r="AY4" t="n">
-        <v>-0.7523375921617496</v>
+        <v>-0.752311778871072</v>
       </c>
     </row>
     <row r="5">
@@ -1439,7 +1439,7 @@
         <v>0.4846420747891336</v>
       </c>
       <c r="AY5" t="n">
-        <v>-0.3218886523601464</v>
+        <v>-0.3219166422164831</v>
       </c>
     </row>
     <row r="6">
@@ -1628,7 +1628,7 @@
         <v>0.3136702918539308</v>
       </c>
       <c r="AY6" t="n">
-        <v>-0.5663136167549039</v>
+        <v>-0.5662779618931408</v>
       </c>
     </row>
     <row r="7">
@@ -1817,7 +1817,7 @@
         <v>-0.1490101464237544</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.2084038082934875</v>
+        <v>0.2083760209224221</v>
       </c>
     </row>
     <row r="8">
@@ -1834,7 +1834,7 @@
         <v>-12.1</v>
       </c>
       <c r="E8" t="n">
-        <v>2.90000009536743</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>14.6815065</v>
       </c>
       <c r="X8" t="n">
-        <v>-2.218612805517177</v>
+        <v>-2.187603431349979</v>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
@@ -1985,13 +1985,13 @@
         <v>2.079441541679836</v>
       </c>
       <c r="AR8" t="n">
-        <v>5.477225575051661</v>
+        <v>5.067333269243094</v>
       </c>
       <c r="AS8" t="n">
         <v>1.945910149055313</v>
       </c>
       <c r="AT8" t="n">
-        <v>15.20180516908413</v>
+        <v>15.01988641060509</v>
       </c>
       <c r="AU8" t="n">
         <v>15.20180516908413</v>
@@ -2006,7 +2006,7 @@
         <v>1.961563790729401</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.436492052648372</v>
+        <v>0.4365176811109724</v>
       </c>
     </row>
     <row r="9">
@@ -2017,7 +2017,7 @@
         <v>14.95972715</v>
       </c>
       <c r="C9" t="n">
-        <v>-16.79356695</v>
+        <v>-16.7958891228</v>
       </c>
       <c r="D9" t="n">
         <v>57.519775390625</v>
@@ -2195,7 +2195,7 @@
         <v>-0.3596450420791764</v>
       </c>
       <c r="AY9" t="n">
-        <v>-0.4617172900179585</v>
+        <v>-0.4617504623704748</v>
       </c>
     </row>
     <row r="10">
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>9.903537551286171</v>
+        <v>9.721628742255696</v>
       </c>
       <c r="AQ10" t="n">
         <v>2.19722457733622</v>
@@ -2384,7 +2384,7 @@
         <v>0.9026746210513266</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.03991779565099596</v>
+        <v>0.03995159361835848</v>
       </c>
     </row>
     <row r="11">
@@ -2573,7 +2573,7 @@
         <v>1.39562853400343</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.1263925191015236</v>
+        <v>0.1264271307628216</v>
       </c>
     </row>
     <row r="12">
@@ -2762,7 +2762,7 @@
         <v>0.7009699404232125</v>
       </c>
       <c r="AY12" t="n">
-        <v>1.100639905304135</v>
+        <v>1.10067350803173</v>
       </c>
     </row>
     <row r="13">
@@ -2951,7 +2951,7 @@
         <v>-0.2385478947977616</v>
       </c>
       <c r="AY13" t="n">
-        <v>-0.4120592095512134</v>
+        <v>-0.4120285932186979</v>
       </c>
     </row>
     <row r="14">
@@ -3140,7 +3140,7 @@
         <v>1.151883525305556</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.5011102040952136</v>
+        <v>0.5010192821002516</v>
       </c>
     </row>
     <row r="15">
@@ -3329,7 +3329,7 @@
         <v>0.02739590302743675</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.3823210484011548</v>
+        <v>0.3822668701070381</v>
       </c>
     </row>
     <row r="16">
@@ -3518,7 +3518,7 @@
         <v>-0.2096701433787939</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.3896722180854845</v>
+        <v>0.3896179253828804</v>
       </c>
     </row>
     <row r="17">
@@ -3707,7 +3707,7 @@
         <v>0.239177722065059</v>
       </c>
       <c r="AY17" t="n">
-        <v>-0.1011144295100962</v>
+        <v>-0.1012295620337224</v>
       </c>
     </row>
     <row r="18">
@@ -3896,7 +3896,7 @@
         <v>-0.2846973848768057</v>
       </c>
       <c r="AY18" t="n">
-        <v>0.2587917708299683</v>
+        <v>0.2588269673320361</v>
       </c>
     </row>
     <row r="19">
@@ -4085,7 +4085,7 @@
         <v>0.3210393475645538</v>
       </c>
       <c r="AY19" t="n">
-        <v>0.9487267744110095</v>
+        <v>0.9487616319263326</v>
       </c>
     </row>
     <row r="20">
@@ -4274,7 +4274,7 @@
         <v>-0.6652891984844387</v>
       </c>
       <c r="AY20" t="n">
-        <v>0.6146286431575336</v>
+        <v>0.6146636517413056</v>
       </c>
     </row>
     <row r="21">
@@ -4463,7 +4463,7 @@
         <v>-0.351358379502681</v>
       </c>
       <c r="AY21" t="n">
-        <v>-0.3522438258460689</v>
+        <v>-0.3522074504347599</v>
       </c>
     </row>
     <row r="22">
@@ -4652,7 +4652,7 @@
         <v>-1.271151938224815</v>
       </c>
       <c r="AY22" t="n">
-        <v>0.3707451104139128</v>
+        <v>0.3707809004366863</v>
       </c>
     </row>
     <row r="23">
@@ -4841,7 +4841,7 @@
         <v>-0.2493934398298804</v>
       </c>
       <c r="AY23" t="n">
-        <v>0.02063545305111336</v>
+        <v>0.0206669423737267</v>
       </c>
     </row>
     <row r="24">
@@ -5030,7 +5030,7 @@
         <v>-0.6789758939552527</v>
       </c>
       <c r="AY24" t="n">
-        <v>-0.05435378471602008</v>
+        <v>-0.05431744140168827</v>
       </c>
     </row>
     <row r="25">
@@ -5219,7 +5219,7 @@
         <v>-0.6778039864339885</v>
       </c>
       <c r="AY25" t="n">
-        <v>0.06412369136565924</v>
+        <v>0.06416055751972771</v>
       </c>
     </row>
     <row r="26">
@@ -5408,7 +5408,7 @@
         <v>-0.2659048833087795</v>
       </c>
       <c r="AY26" t="n">
-        <v>0.5315444920194491</v>
+        <v>0.531564305179454</v>
       </c>
     </row>
     <row r="27">
@@ -5597,7 +5597,7 @@
         <v>-0.1452977793297941</v>
       </c>
       <c r="AY27" t="n">
-        <v>1.228729784936053</v>
+        <v>1.228749099514654</v>
       </c>
     </row>
     <row r="28">
@@ -5786,7 +5786,7 @@
         <v>0.5403557456152196</v>
       </c>
       <c r="AY28" t="n">
-        <v>0.6548038902579509</v>
+        <v>0.6548235703660045</v>
       </c>
     </row>
     <row r="29">
@@ -5975,7 +5975,7 @@
         <v>-0.7591786790047723</v>
       </c>
       <c r="AY29" t="n">
-        <v>0.6949842184630474</v>
+        <v>0.6950037271144325</v>
       </c>
     </row>
     <row r="30">
@@ -6164,7 +6164,7 @@
         <v>-0.1211443358998655</v>
       </c>
       <c r="AY30" t="n">
-        <v>1.658651824688399</v>
+        <v>1.389764151643443</v>
       </c>
     </row>
     <row r="31">
@@ -6201,7 +6201,7 @@
         <v>32</v>
       </c>
       <c r="K31" t="n">
-        <v>2.805555555555555</v>
+        <v>2.861111111111111</v>
       </c>
       <c r="L31" t="n">
         <v>5</v>
@@ -6239,7 +6239,7 @@
         <v>2</v>
       </c>
       <c r="W31" t="n">
-        <v>2.85214697</v>
+        <v>2.88147082664</v>
       </c>
       <c r="X31" t="n">
         <v>0.5916117283852138</v>
@@ -6353,7 +6353,7 @@
         <v>-2.001649769497078</v>
       </c>
       <c r="AY31" t="n">
-        <v>-0.2873618996223093</v>
+        <v>-0.2873725727633201</v>
       </c>
     </row>
     <row r="32">
@@ -6542,7 +6542,7 @@
         <v>0.1824921384647814</v>
       </c>
       <c r="AY32" t="n">
-        <v>-0.1000419446817392</v>
+        <v>-0.1000164485837803</v>
       </c>
     </row>
     <row r="33">
@@ -6731,7 +6731,7 @@
         <v>-0.02060980017297021</v>
       </c>
       <c r="AY33" t="n">
-        <v>-0.9513883100899335</v>
+        <v>-0.9513575637186524</v>
       </c>
     </row>
     <row r="34">
@@ -6920,7 +6920,7 @@
         <v>1.048002667387265</v>
       </c>
       <c r="AY34" t="n">
-        <v>-0.003614576949193704</v>
+        <v>-0.003583271878689467</v>
       </c>
     </row>
     <row r="35">
@@ -7109,7 +7109,7 @@
         <v>0.3195113590740312</v>
       </c>
       <c r="AY35" t="n">
-        <v>-0.7532163555741249</v>
+        <v>-0.753183933228859</v>
       </c>
     </row>
     <row r="36">
@@ -7120,7 +7120,7 @@
         <v>14.8631066666666</v>
       </c>
       <c r="C36" t="n">
-        <v>-17.1381183333333</v>
+        <v>-17.1371198</v>
       </c>
       <c r="D36" t="n">
         <v>-19.5</v>
@@ -7292,13 +7292,13 @@
         <v>0</v>
       </c>
       <c r="AW36" t="n">
-        <v>5.808404496933732</v>
+        <v>5.812260964841825</v>
       </c>
       <c r="AX36" t="n">
         <v>0.1117904379740237</v>
       </c>
       <c r="AY36" t="n">
-        <v>-0.6034101378899506</v>
+        <v>-0.6033794889176274</v>
       </c>
     </row>
     <row r="37">
@@ -7487,7 +7487,7 @@
         <v>-2.042903742394826</v>
       </c>
       <c r="AY37" t="n">
-        <v>-0.4447723397631155</v>
+        <v>-0.4447788446736011</v>
       </c>
     </row>
     <row r="38">
@@ -7676,7 +7676,7 @@
         <v>-1.26800308148512</v>
       </c>
       <c r="AY38" t="n">
-        <v>-0.08661168565886757</v>
+        <v>-0.0866183794387041</v>
       </c>
     </row>
     <row r="39">
@@ -7865,7 +7865,7 @@
         <v>0.4378086564858223</v>
       </c>
       <c r="AY39" t="n">
-        <v>-0.7329651115440554</v>
+        <v>-0.7330450281222862</v>
       </c>
     </row>
     <row r="40">
@@ -7888,7 +7888,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H40" t="n">
         <v>99</v>
@@ -8054,7 +8054,7 @@
         <v>-1.206872738938113</v>
       </c>
       <c r="AY40" t="n">
-        <v>-0.5678188760858548</v>
+        <v>-0.5678942229171415</v>
       </c>
     </row>
     <row r="41">
@@ -8243,7 +8243,7 @@
         <v>0.2547830197200748</v>
       </c>
       <c r="AY41" t="n">
-        <v>-0.2103572958905722</v>
+        <v>-0.2103856259465509</v>
       </c>
     </row>
     <row r="42">
@@ -8432,7 +8432,7 @@
         <v>-0.6535418193184106</v>
       </c>
       <c r="AY42" t="n">
-        <v>0.2107175642019906</v>
+        <v>0.2106897987164977</v>
       </c>
     </row>
     <row r="43">
@@ -8621,7 +8621,7 @@
         <v>0.5575324051659212</v>
       </c>
       <c r="AY43" t="n">
-        <v>-0.1824241323671533</v>
+        <v>-0.1824526793822408</v>
       </c>
     </row>
     <row r="44">
@@ -8696,7 +8696,7 @@
         <v>2</v>
       </c>
       <c r="W44" t="n">
-        <v>2.82531595</v>
+        <v>2.88147082664</v>
       </c>
       <c r="X44" t="n">
         <v>0.2955055697331456</v>
@@ -8795,10 +8795,10 @@
         <v>0</v>
       </c>
       <c r="AT44" t="n">
-        <v>11.15626480664374</v>
+        <v>11.19899428086267</v>
       </c>
       <c r="AU44" t="n">
-        <v>11.51293546492023</v>
+        <v>11.69525535506279</v>
       </c>
       <c r="AV44" t="n">
         <v>0</v>
@@ -8810,7 +8810,7 @@
         <v>-0.7206492310516377</v>
       </c>
       <c r="AY44" t="n">
-        <v>-1.515273411407386</v>
+        <v>-1.107944402537769</v>
       </c>
     </row>
     <row r="45">
@@ -8999,7 +8999,7 @@
         <v>0.8967380565659853</v>
       </c>
       <c r="AY45" t="n">
-        <v>0.1778380389825244</v>
+        <v>0.1778737035474365</v>
       </c>
     </row>
     <row r="46">
@@ -9188,7 +9188,7 @@
         <v>0.7927053535635855</v>
       </c>
       <c r="AY46" t="n">
-        <v>-0.1214548424418857</v>
+        <v>-0.1214193859163101</v>
       </c>
     </row>
     <row r="47">
@@ -9377,7 +9377,7 @@
         <v>0.5952038591191773</v>
       </c>
       <c r="AY47" t="n">
-        <v>0.3265782304595273</v>
+        <v>0.3266134080813629</v>
       </c>
     </row>
     <row r="48">
@@ -9563,10 +9563,10 @@
         <v>5.993298108721107</v>
       </c>
       <c r="AX48" t="n">
-        <v>-2.275580464704608</v>
+        <v>-2.050788661439982</v>
       </c>
       <c r="AY48" t="n">
-        <v>0.2880378284973812</v>
+        <v>0.2880724718072866</v>
       </c>
     </row>
     <row r="49">
@@ -9755,7 +9755,7 @@
         <v>-1.327239939499604</v>
       </c>
       <c r="AY49" t="n">
-        <v>-0.6058758592627556</v>
+        <v>-0.6058396140347632</v>
       </c>
     </row>
     <row r="50">
@@ -9944,7 +9944,7 @@
         <v>-0.1192431242471088</v>
       </c>
       <c r="AY50" t="n">
-        <v>-0.0923939689661581</v>
+        <v>-0.09235775286669409</v>
       </c>
     </row>
     <row r="51">
@@ -10133,7 +10133,7 @@
         <v>0.758525625040416</v>
       </c>
       <c r="AY51" t="n">
-        <v>-0.03903510018498836</v>
+        <v>-0.03899880548713346</v>
       </c>
     </row>
     <row r="52">
@@ -10322,7 +10322,7 @@
         <v>-0.3153695661789992</v>
       </c>
       <c r="AY52" t="n">
-        <v>-0.03493939171306956</v>
+        <v>-0.03490323466936862</v>
       </c>
     </row>
     <row r="53">
@@ -10511,7 +10511,7 @@
         <v>-1.023473281813197</v>
       </c>
       <c r="AY53" t="n">
-        <v>-0.2390030675792042</v>
+        <v>-0.2389669740998438</v>
       </c>
     </row>
     <row r="54">
@@ -10528,7 +10528,7 @@
         <v>-3.600000000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>2.59999990463256</v>
+        <v>3</v>
       </c>
       <c r="F54" t="n">
         <v>1</v>
@@ -10700,7 +10700,7 @@
         <v>0.3136702918539308</v>
       </c>
       <c r="AY54" t="n">
-        <v>-0.5834422894842</v>
+        <v>-0.5834058805907001</v>
       </c>
     </row>
     <row r="55">
@@ -10717,7 +10717,7 @@
         <v>4.4828491210937</v>
       </c>
       <c r="E55" t="n">
-        <v>36.4079971313476</v>
+        <v>34.40555938720702</v>
       </c>
       <c r="F55" t="n">
         <v>1</v>
@@ -10889,7 +10889,7 @@
         <v>-1.45793342339137</v>
       </c>
       <c r="AY55" t="n">
-        <v>-0.238184442710013</v>
+        <v>-0.2381481285018536</v>
       </c>
     </row>
     <row r="56">
@@ -11078,7 +11078,7 @@
         <v>-0.6709588602632951</v>
       </c>
       <c r="AY56" t="n">
-        <v>-0.2379324656730738</v>
+        <v>-0.237896279742331</v>
       </c>
     </row>
     <row r="57">
@@ -11267,7 +11267,7 @@
         <v>0.4569064146071741</v>
       </c>
       <c r="AY57" t="n">
-        <v>-0.4654128154975601</v>
+        <v>-0.4653762854290024</v>
       </c>
     </row>
     <row r="58">
@@ -11456,7 +11456,7 @@
         <v>0.579984703455048</v>
       </c>
       <c r="AY58" t="n">
-        <v>-0.2685071534718332</v>
+        <v>-0.2684705666416287</v>
       </c>
     </row>
     <row r="59">
@@ -11645,7 +11645,7 @@
         <v>-0.3468208340173745</v>
       </c>
       <c r="AY59" t="n">
-        <v>-0.2353935761217303</v>
+        <v>-0.2353572493093941</v>
       </c>
     </row>
     <row r="60">
@@ -11682,7 +11682,7 @@
         <v>33</v>
       </c>
       <c r="K60" t="n">
-        <v>2.805555555555555</v>
+        <v>2.861111111111111</v>
       </c>
       <c r="L60" t="n">
         <v>1</v>
@@ -11834,7 +11834,7 @@
         <v>-0.01657256693945089</v>
       </c>
       <c r="AY60" t="n">
-        <v>-0.6327553437240215</v>
+        <v>-0.6327239284162277</v>
       </c>
     </row>
     <row r="61">
@@ -11871,7 +11871,7 @@
         <v>36</v>
       </c>
       <c r="K61" t="n">
-        <v>2.722222222222222</v>
+        <v>2.861111111111111</v>
       </c>
       <c r="L61" t="n">
         <v>5</v>
@@ -12023,7 +12023,7 @@
         <v>1.048002667387265</v>
       </c>
       <c r="AY61" t="n">
-        <v>0.02714748236161536</v>
+        <v>0.02718351665835784</v>
       </c>
     </row>
     <row r="62">
@@ -12212,7 +12212,7 @@
         <v>0.3559133799205541</v>
       </c>
       <c r="AY62" t="n">
-        <v>0.02585729931846353</v>
+        <v>0.02589315794481611</v>
       </c>
     </row>
     <row r="63">
@@ -12401,7 +12401,7 @@
         <v>0.6505532614839087</v>
       </c>
       <c r="AY63" t="n">
-        <v>-0.323845193406202</v>
+        <v>-0.3238085837176417</v>
       </c>
     </row>
     <row r="64">
@@ -12590,7 +12590,7 @@
         <v>-0.7891413458686911</v>
       </c>
       <c r="AY64" t="n">
-        <v>-0.2221393711675972</v>
+        <v>-0.2221028602805571</v>
       </c>
     </row>
     <row r="65">
@@ -12779,7 +12779,7 @@
         <v>-0.1734685748419136</v>
       </c>
       <c r="AY65" t="n">
-        <v>-0.417597858434497</v>
+        <v>-0.4175613878497602</v>
       </c>
     </row>
     <row r="66">
@@ -12968,7 +12968,7 @@
         <v>-0.9511920623806176</v>
       </c>
       <c r="AY66" t="n">
-        <v>-0.4945598328112092</v>
+        <v>-0.4945233612176688</v>
       </c>
     </row>
     <row r="67">
@@ -13157,7 +13157,7 @@
         <v>-0.2813520589692252</v>
       </c>
       <c r="AY67" t="n">
-        <v>0.171574365164315</v>
+        <v>0.1716102188518221</v>
       </c>
     </row>
     <row r="68">
@@ -13346,7 +13346,7 @@
         <v>0.4247728551196988</v>
       </c>
       <c r="AY68" t="n">
-        <v>0.1570297572592327</v>
+        <v>0.1570497114795096</v>
       </c>
     </row>
     <row r="69">
@@ -13535,7 +13535,7 @@
         <v>-1.439158977714206</v>
       </c>
       <c r="AY69" t="n">
-        <v>0.2346990440075143</v>
+        <v>0.2347190284022923</v>
       </c>
     </row>
     <row r="70">
@@ -13721,10 +13721,10 @@
         <v>7.206230715151992</v>
       </c>
       <c r="AX70" t="n">
-        <v>2.367954578332102</v>
+        <v>2.282454907009253</v>
       </c>
       <c r="AY70" t="n">
-        <v>1.061608986844143</v>
+        <v>1.061628676707759</v>
       </c>
     </row>
     <row r="71">
@@ -13913,7 +13913,7 @@
         <v>0.09699721485853274</v>
       </c>
       <c r="AY71" t="n">
-        <v>0.9723675308507436</v>
+        <v>0.9723873438714528</v>
       </c>
     </row>
     <row r="72">
@@ -14102,7 +14102,7 @@
         <v>0.4846420747891336</v>
       </c>
       <c r="AY72" t="n">
-        <v>0.5828097063398147</v>
+        <v>0.5828292837869133</v>
       </c>
     </row>
     <row r="73">
@@ -14291,7 +14291,7 @@
         <v>-1.115615492707938</v>
       </c>
       <c r="AY73" t="n">
-        <v>1.355225746605037</v>
+        <v>1.355245049450644</v>
       </c>
     </row>
     <row r="74">
@@ -14465,7 +14465,7 @@
         <v>0</v>
       </c>
       <c r="AT74" t="n">
-        <v>15.15051188785447</v>
+        <v>15.01988641060509</v>
       </c>
       <c r="AU74" t="n">
         <v>15.42494867039835</v>
@@ -14480,7 +14480,7 @@
         <v>1.357393605262615</v>
       </c>
       <c r="AY74" t="n">
-        <v>1.72181792333407</v>
+        <v>1.389764151643443</v>
       </c>
     </row>
     <row r="75">
@@ -14669,7 +14669,7 @@
         <v>-1.110879481167143</v>
       </c>
       <c r="AY75" t="n">
-        <v>0.3950095902700795</v>
+        <v>0.3949540587843833</v>
       </c>
     </row>
     <row r="76">
@@ -14858,7 +14858,7 @@
         <v>-0.4709229899448527</v>
       </c>
       <c r="AY76" t="n">
-        <v>-0.07888163929775609</v>
+        <v>-0.07890988431392017</v>
       </c>
     </row>
     <row r="77">
@@ -14936,7 +14936,7 @@
         <v>38.02724128</v>
       </c>
       <c r="X77" t="n">
-        <v>-2.614671769318895</v>
+        <v>-2.187603431349979</v>
       </c>
       <c r="Y77" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>1.125189330643657</v>
       </c>
       <c r="AY77" t="n">
-        <v>0.5201509999479423</v>
+        <v>0.5201226104603065</v>
       </c>
     </row>
     <row r="78">
@@ -15236,7 +15236,7 @@
         <v>-0.1540953640985513</v>
       </c>
       <c r="AY78" t="n">
-        <v>0.7272820938454474</v>
+        <v>0.7273062316662626</v>
       </c>
     </row>
     <row r="79">
@@ -15425,7 +15425,7 @@
         <v>-0.1951320230525912</v>
       </c>
       <c r="AY79" t="n">
-        <v>0.4138302382971462</v>
+        <v>0.4138643744916881</v>
       </c>
     </row>
     <row r="80">
@@ -15614,7 +15614,7 @@
         <v>0.7618036369203983</v>
       </c>
       <c r="AY80" t="n">
-        <v>0.1704825739478635</v>
+        <v>0.170516997490554</v>
       </c>
     </row>
     <row r="81">
@@ -15803,7 +15803,7 @@
         <v>-0.1855440235129238</v>
       </c>
       <c r="AY81" t="n">
-        <v>-0.2599706649323743</v>
+        <v>-0.2599362609966314</v>
       </c>
     </row>
     <row r="82">
@@ -15992,7 +15992,7 @@
         <v>-0.2609960507395339</v>
       </c>
       <c r="AY82" t="n">
-        <v>-0.4856993336819154</v>
+        <v>-0.4857056632943269</v>
       </c>
     </row>
     <row r="83">
@@ -16181,7 +16181,7 @@
         <v>-0.7508006210700322</v>
       </c>
       <c r="AY83" t="n">
-        <v>0.5029731067972392</v>
+        <v>0.5029452061466805</v>
       </c>
     </row>
     <row r="84">
@@ -16370,7 +16370,7 @@
         <v>1.006499015994127</v>
       </c>
       <c r="AY84" t="n">
-        <v>0.1899901735166332</v>
+        <v>0.189960878841479</v>
       </c>
     </row>
     <row r="85">
@@ -16559,7 +16559,7 @@
         <v>0.1169485984562236</v>
       </c>
       <c r="AY85" t="n">
-        <v>0.4636791853787435</v>
+        <v>0.4637153374431143</v>
       </c>
     </row>
     <row r="86">
@@ -16748,7 +16748,7 @@
         <v>2.213106813795822</v>
       </c>
       <c r="AY86" t="n">
-        <v>0.3932261217558894</v>
+        <v>0.3932101740631374</v>
       </c>
     </row>
     <row r="87">
@@ -16765,7 +16765,7 @@
         <v>-49</v>
       </c>
       <c r="E87" t="n">
-        <v>2.59999990463256</v>
+        <v>3</v>
       </c>
       <c r="F87" t="n">
         <v>1</v>
@@ -16937,7 +16937,7 @@
         <v>0.8939622046933666</v>
       </c>
       <c r="AY87" t="n">
-        <v>0.1412058621853864</v>
+        <v>0.141236497970649</v>
       </c>
     </row>
     <row r="88">
@@ -17126,7 +17126,7 @@
         <v>0.6852426389181739</v>
       </c>
       <c r="AY88" t="n">
-        <v>0.09857639281168923</v>
+        <v>0.09860734241768798</v>
       </c>
     </row>
     <row r="89">
@@ -17315,7 +17315,7 @@
         <v>0.4330743017634598</v>
       </c>
       <c r="AY89" t="n">
-        <v>-0.5831169497523521</v>
+        <v>-0.5830815875135221</v>
       </c>
     </row>
     <row r="90">
@@ -17338,7 +17338,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H90" t="n">
         <v>4</v>
@@ -17477,7 +17477,7 @@
         <v>0.6931471805599453</v>
       </c>
       <c r="AP90" t="n">
-        <v>10.35777457034158</v>
+        <v>9.721628742255696</v>
       </c>
       <c r="AQ90" t="n">
         <v>0</v>
@@ -17504,7 +17504,7 @@
         <v>0.1181806729207626</v>
       </c>
       <c r="AY90" t="n">
-        <v>-0.4397228960265472</v>
+        <v>-0.4396977104861126</v>
       </c>
     </row>
     <row r="91">
@@ -17527,7 +17527,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H91" t="n">
         <v>6</v>
@@ -17582,7 +17582,7 @@
         <v>14.39833696</v>
       </c>
       <c r="X91" t="n">
-        <v>1.684021583987097</v>
+        <v>1.529645296942978</v>
       </c>
       <c r="Y91" t="inlineStr">
         <is>
@@ -17693,7 +17693,7 @@
         <v>0.3246910092951177</v>
       </c>
       <c r="AY91" t="n">
-        <v>-0.5173626008190498</v>
+        <v>-0.5173369349834781</v>
       </c>
     </row>
     <row r="92">
@@ -17882,7 +17882,7 @@
         <v>0.6770094244581479</v>
       </c>
       <c r="AY92" t="n">
-        <v>0.39582699102297</v>
+        <v>0.3958518196208167</v>
       </c>
     </row>
     <row r="93">
@@ -18056,7 +18056,7 @@
         <v>0</v>
       </c>
       <c r="AT93" t="n">
-        <v>15.42494867039835</v>
+        <v>15.01988641060509</v>
       </c>
       <c r="AU93" t="n">
         <v>15.42494867039835</v>
@@ -18071,7 +18071,7 @@
         <v>1.605953145418848</v>
       </c>
       <c r="AY93" t="n">
-        <v>-0.2852245729601199</v>
+        <v>-0.2851895571976303</v>
       </c>
     </row>
     <row r="94">
@@ -18260,7 +18260,7 @@
         <v>1.048002667387265</v>
       </c>
       <c r="AY94" t="n">
-        <v>-0.3246928520096318</v>
+        <v>-0.324661072582785</v>
       </c>
     </row>
     <row r="95">
@@ -18449,7 +18449,7 @@
         <v>-0.1309032901635878</v>
       </c>
       <c r="AY95" t="n">
-        <v>-0.0007763240822404593</v>
+        <v>-0.0008495313144211425</v>
       </c>
     </row>
     <row r="96">
@@ -18638,7 +18638,7 @@
         <v>1.865480794298238</v>
       </c>
       <c r="AY96" t="n">
-        <v>0.1165192695998722</v>
+        <v>0.1164915367621954</v>
       </c>
     </row>
     <row r="97">
@@ -18827,7 +18827,7 @@
         <v>0.1845670668073932</v>
       </c>
       <c r="AY97" t="n">
-        <v>-0.6938197596164248</v>
+        <v>-0.6938476933542135</v>
       </c>
     </row>
     <row r="98">
@@ -19016,7 +19016,7 @@
         <v>-0.8501194141754396</v>
       </c>
       <c r="AY98" t="n">
-        <v>-0.4629115795486803</v>
+        <v>-0.4629396796574178</v>
       </c>
     </row>
     <row r="99">
@@ -19205,7 +19205,7 @@
         <v>0.1243001862994473</v>
       </c>
       <c r="AY99" t="n">
-        <v>-0.2850572883903322</v>
+        <v>-0.2850856254023431</v>
       </c>
     </row>
     <row r="100">
@@ -19394,7 +19394,7 @@
         <v>1.734912637851263</v>
       </c>
       <c r="AY100" t="n">
-        <v>-0.3149292695993231</v>
+        <v>-0.3157522084872391</v>
       </c>
     </row>
     <row r="101">
@@ -19583,7 +19583,7 @@
         <v>-0.1249044639796469</v>
       </c>
       <c r="AY101" t="n">
-        <v>0.3076807960848458</v>
+        <v>0.3076518628244511</v>
       </c>
     </row>
     <row r="102">
@@ -19772,7 +19772,7 @@
         <v>0.5403292644307794</v>
       </c>
       <c r="AY102" t="n">
-        <v>0.1716827601145748</v>
+        <v>0.1717180729300194</v>
       </c>
     </row>
     <row r="103">
@@ -19961,7 +19961,7 @@
         <v>-0.3809184045580346</v>
       </c>
       <c r="AY103" t="n">
-        <v>-0.4395627373655775</v>
+        <v>-0.4395259849148068</v>
       </c>
     </row>
     <row r="104">
@@ -20150,7 +20150,7 @@
         <v>-0.2385478947977616</v>
       </c>
       <c r="AY104" t="n">
-        <v>0.01756170580077893</v>
+        <v>0.01759832184279181</v>
       </c>
     </row>
     <row r="105">
@@ -20339,7 +20339,7 @@
         <v>-0.2045422930886988</v>
       </c>
       <c r="AY105" t="n">
-        <v>0.163208668115838</v>
+        <v>0.1632446122115476</v>
       </c>
     </row>
     <row r="106">
@@ -20528,7 +20528,7 @@
         <v>-0.09035158151440653</v>
       </c>
       <c r="AY106" t="n">
-        <v>-0.1546844981085176</v>
+        <v>-0.1546481008737879</v>
       </c>
     </row>
     <row r="107">
@@ -20717,7 +20717,7 @@
         <v>0.6505532614839087</v>
       </c>
       <c r="AY107" t="n">
-        <v>-0.01789829134023413</v>
+        <v>-0.01786171514130244</v>
       </c>
     </row>
     <row r="108">
@@ -20906,7 +20906,7 @@
         <v>-0.4690835979111015</v>
       </c>
       <c r="AY108" t="n">
-        <v>-0.5220338923256507</v>
+        <v>-0.5219972250331761</v>
       </c>
     </row>
     <row r="109">
@@ -21095,7 +21095,7 @@
         <v>-1.429941785052048</v>
       </c>
       <c r="AY109" t="n">
-        <v>0.4754109767019425</v>
+        <v>0.4754306951527879</v>
       </c>
     </row>
     <row r="110">
@@ -21284,7 +21284,7 @@
         <v>0.4846420747891336</v>
       </c>
       <c r="AY110" t="n">
-        <v>0.3302027783869391</v>
+        <v>0.3302226858534694</v>
       </c>
     </row>
     <row r="111">
@@ -21473,7 +21473,7 @@
         <v>0.5336684181137289</v>
       </c>
       <c r="AY111" t="n">
-        <v>0.9490241299822111</v>
+        <v>0.9490435746768406</v>
       </c>
     </row>
     <row r="112">
@@ -21662,7 +21662,7 @@
         <v>1.134807747020333</v>
       </c>
       <c r="AY112" t="n">
-        <v>0.8206672747565754</v>
+        <v>0.8206867442045768</v>
       </c>
     </row>
     <row r="113">
@@ -21851,7 +21851,7 @@
         <v>0.6222681626616865</v>
       </c>
       <c r="AY113" t="n">
-        <v>0.7753913649949584</v>
+        <v>0.7754108342482537</v>
       </c>
     </row>
     <row r="114">
@@ -22040,7 +22040,7 @@
         <v>0.6130721392150817</v>
       </c>
       <c r="AY114" t="n">
-        <v>0.1358473035442281</v>
+        <v>0.1358403110858569</v>
       </c>
     </row>
     <row r="115">
@@ -22229,7 +22229,7 @@
         <v>-1.786509350703792</v>
       </c>
       <c r="AY115" t="n">
-        <v>0.4092506270999514</v>
+        <v>0.4092811374316407</v>
       </c>
     </row>
     <row r="116">
@@ -22418,7 +22418,7 @@
         <v>-0.04651138016242175</v>
       </c>
       <c r="AY116" t="n">
-        <v>-0.4613650200436038</v>
+        <v>-0.4613799715111822</v>
       </c>
     </row>
     <row r="117">
@@ -22426,13 +22426,13 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>14.742338666373</v>
+        <v>14.81246139999996</v>
       </c>
       <c r="C117" t="n">
         <v>-16.8988644851008</v>
       </c>
       <c r="D117" t="n">
-        <v>73.84263610839838</v>
+        <v>73.63629333496088</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -22580,7 +22580,7 @@
         <v>0</v>
       </c>
       <c r="AP117" t="n">
-        <v>2.397895272798371</v>
+        <v>4.86666711878656</v>
       </c>
       <c r="AQ117" t="n">
         <v>0.6931471805599453</v>
@@ -22607,7 +22607,7 @@
         <v>1.814698366752597</v>
       </c>
       <c r="AY117" t="n">
-        <v>0.02700102366443456</v>
+        <v>0.02696761321963417</v>
       </c>
     </row>
     <row r="118">
@@ -22618,7 +22618,7 @@
         <v>14.9602843</v>
       </c>
       <c r="C118" t="n">
-        <v>-16.79215141</v>
+        <v>-16.7958891228</v>
       </c>
       <c r="D118" t="n">
         <v>56.07830810546869</v>
@@ -22796,7 +22796,7 @@
         <v>0.4757049639952838</v>
       </c>
       <c r="AY118" t="n">
-        <v>-0.08630573444515918</v>
+        <v>-0.08627490500005508</v>
       </c>
     </row>
     <row r="119">
@@ -22985,7 +22985,7 @@
         <v>0.3136702918539308</v>
       </c>
       <c r="AY119" t="n">
-        <v>-0.2490804714630697</v>
+        <v>-0.2490490143505996</v>
       </c>
     </row>
     <row r="120">
@@ -23174,7 +23174,7 @@
         <v>-0.7262356355771926</v>
       </c>
       <c r="AY120" t="n">
-        <v>0.3286159303359026</v>
+        <v>0.3286092760845123</v>
       </c>
     </row>
     <row r="121">
@@ -23252,7 +23252,7 @@
         <v>3.614742148</v>
       </c>
       <c r="X121" t="n">
-        <v>-2.693637187720834</v>
+        <v>-2.187603431349979</v>
       </c>
       <c r="Y121" t="inlineStr">
         <is>
@@ -23363,7 +23363,7 @@
         <v>-0.552367591677937</v>
       </c>
       <c r="AY121" t="n">
-        <v>0.2612924484060117</v>
+        <v>0.2612858048713877</v>
       </c>
     </row>
     <row r="122">
@@ -23552,7 +23552,7 @@
         <v>-0.5449510231204968</v>
       </c>
       <c r="AY122" t="n">
-        <v>0.2612924484060117</v>
+        <v>0.2612858048713877</v>
       </c>
     </row>
     <row r="123">
@@ -23741,7 +23741,7 @@
         <v>-0.5449510231204968</v>
       </c>
       <c r="AY123" t="n">
-        <v>-0.1345140111701738</v>
+        <v>-0.1345211203163019</v>
       </c>
     </row>
     <row r="124">
@@ -23749,7 +23749,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>14.81215436</v>
+        <v>14.81246139999996</v>
       </c>
       <c r="C124" t="n">
         <v>-16.90177033</v>
@@ -23930,7 +23930,7 @@
         <v>-1.399142186426374</v>
       </c>
       <c r="AY124" t="n">
-        <v>0.2477923037976606</v>
+        <v>0.247723658199375</v>
       </c>
     </row>
     <row r="125">
@@ -24119,7 +24119,7 @@
         <v>0.08189332329819408</v>
       </c>
       <c r="AY125" t="n">
-        <v>0.2272731120356404</v>
+        <v>0.2272160984435462</v>
       </c>
     </row>
     <row r="126">
@@ -24197,7 +24197,7 @@
         <v>40.10213614</v>
       </c>
       <c r="X126" t="n">
-        <v>-2.614671769318895</v>
+        <v>-2.187603431349979</v>
       </c>
       <c r="Y126" t="inlineStr">
         <is>
@@ -24308,7 +24308,7 @@
         <v>-1.607557107533094</v>
       </c>
       <c r="AY126" t="n">
-        <v>0.3473219371878099</v>
+        <v>0.3472940899674091</v>
       </c>
     </row>
     <row r="127">
@@ -24497,7 +24497,7 @@
         <v>0.07630703588446464</v>
       </c>
       <c r="AY127" t="n">
-        <v>0.1114477963515602</v>
+        <v>0.1093644129377872</v>
       </c>
     </row>
     <row r="128">
@@ -24575,7 +24575,7 @@
         <v>37.60098907</v>
       </c>
       <c r="X128" t="n">
-        <v>2.057662886060324</v>
+        <v>1.529645296942978</v>
       </c>
       <c r="Y128" t="inlineStr">
         <is>
@@ -24686,7 +24686,7 @@
         <v>0.9802475213506987</v>
       </c>
       <c r="AY128" t="n">
-        <v>0.4635690319109159</v>
+        <v>0.4636048413611925</v>
       </c>
     </row>
     <row r="129">
@@ -24875,7 +24875,7 @@
         <v>0.4077860162629207</v>
       </c>
       <c r="AY129" t="n">
-        <v>0.2027563600850203</v>
+        <v>0.202791262576252</v>
       </c>
     </row>
     <row r="130">
@@ -25064,7 +25064,7 @@
         <v>-0.01581276366548054</v>
       </c>
       <c r="AY130" t="n">
-        <v>-0.3705626390787971</v>
+        <v>-0.3705263983514829</v>
       </c>
     </row>
     <row r="131">
@@ -25253,7 +25253,7 @@
         <v>-0.4549785578663625</v>
       </c>
       <c r="AY131" t="n">
-        <v>0.7334431021024728</v>
+        <v>0.7334626568868065</v>
       </c>
     </row>
     <row r="132">
@@ -25442,7 +25442,7 @@
         <v>-0.2659048833087795</v>
       </c>
       <c r="AY132" t="n">
-        <v>0.4645573592654711</v>
+        <v>0.4645771105094</v>
       </c>
     </row>
     <row r="133">
@@ -25631,7 +25631,7 @@
         <v>-1.159611957709125</v>
       </c>
       <c r="AY133" t="n">
-        <v>1.402446882345212</v>
+        <v>1.389764151643443</v>
       </c>
     </row>
     <row r="134">
@@ -25820,7 +25820,7 @@
         <v>0.8592115585188383</v>
       </c>
       <c r="AY134" t="n">
-        <v>0.9989803753681613</v>
+        <v>0.9989998312036469</v>
       </c>
     </row>
     <row r="135">
@@ -26009,7 +26009,7 @@
         <v>0.3626099439483719</v>
       </c>
       <c r="AY135" t="n">
-        <v>0.557671937504467</v>
+        <v>0.5576972804586922</v>
       </c>
     </row>
     <row r="136">
@@ -26177,7 +26177,7 @@
         <v>2.079441541679836</v>
       </c>
       <c r="AR136" t="n">
-        <v>5.099019513592784</v>
+        <v>5.067333269243094</v>
       </c>
       <c r="AS136" t="n">
         <v>1.945910149055313</v>
@@ -26198,7 +26198,7 @@
         <v>0.867812589084338</v>
       </c>
       <c r="AY136" t="n">
-        <v>0.2354608382566423</v>
+        <v>0.2354861883653073</v>
       </c>
     </row>
     <row r="137">
@@ -26363,7 +26363,7 @@
         <v>7.313886831633462</v>
       </c>
       <c r="AQ137" t="n">
-        <v>2.484906649788</v>
+        <v>2.268869727983542</v>
       </c>
       <c r="AR137" t="n">
         <v>5</v>
@@ -26387,7 +26387,7 @@
         <v>0.1685456486637325</v>
       </c>
       <c r="AY137" t="n">
-        <v>0.2270504468114699</v>
+        <v>0.2270761036705459</v>
       </c>
     </row>
     <row r="138">
@@ -26546,13 +26546,13 @@
         <v>0.02126157407407408</v>
       </c>
       <c r="AO138" t="n">
-        <v>2.079441541679836</v>
+        <v>1.791759469228055</v>
       </c>
       <c r="AP138" t="n">
         <v>6.68586094706836</v>
       </c>
       <c r="AQ138" t="n">
-        <v>2.302585092994046</v>
+        <v>2.268869727983542</v>
       </c>
       <c r="AR138" t="n">
         <v>4.58257569495584</v>
@@ -26576,7 +26576,7 @@
         <v>-0.1974100770559327</v>
       </c>
       <c r="AY138" t="n">
-        <v>0.4570450348910458</v>
+        <v>0.457070356292039</v>
       </c>
     </row>
     <row r="139">
@@ -26765,7 +26765,7 @@
         <v>0.6852426389181739</v>
       </c>
       <c r="AY139" t="n">
-        <v>0.6138126067368458</v>
+        <v>0.6138377336966347</v>
       </c>
     </row>
     <row r="140">
@@ -26954,7 +26954,7 @@
         <v>1.279947429533716</v>
       </c>
       <c r="AY140" t="n">
-        <v>-0.429044086516394</v>
+        <v>-0.4290780626863646</v>
       </c>
     </row>
     <row r="141">
@@ -26965,7 +26965,7 @@
         <v>14.96082463</v>
       </c>
       <c r="C141" t="n">
-        <v>-16.79583135</v>
+        <v>-16.7958891228</v>
       </c>
       <c r="D141" t="n">
         <v>56.77935791015619</v>
@@ -27143,7 +27143,7 @@
         <v>-0.1223462132508161</v>
       </c>
       <c r="AY141" t="n">
-        <v>-0.102360021999456</v>
+        <v>-0.1023933218655373</v>
       </c>
     </row>
     <row r="142">
@@ -27154,7 +27154,7 @@
         <v>14.9599224</v>
       </c>
       <c r="C142" t="n">
-        <v>-16.79185589</v>
+        <v>-16.7958891228</v>
       </c>
       <c r="D142" t="n">
         <v>67.147216796875</v>
@@ -27317,7 +27317,7 @@
         <v>1.945910149055313</v>
       </c>
       <c r="AT142" t="n">
-        <v>10.81979828421029</v>
+        <v>11.19899428086267</v>
       </c>
       <c r="AU142" t="n">
         <v>13.59236825664928</v>
@@ -27332,7 +27332,7 @@
         <v>-1.628508613963255</v>
       </c>
       <c r="AY142" t="n">
-        <v>-0.5099676328540784</v>
+        <v>-0.5100004827476894</v>
       </c>
     </row>
     <row r="143">
@@ -27410,7 +27410,7 @@
         <v>23.0024698</v>
       </c>
       <c r="X143" t="n">
-        <v>1.948271848200161</v>
+        <v>1.529645296942978</v>
       </c>
       <c r="Y143" t="inlineStr">
         <is>
@@ -27521,7 +27521,7 @@
         <v>-0.690336540349068</v>
       </c>
       <c r="AY143" t="n">
-        <v>0.03794645676514719</v>
+        <v>0.0379813675817712</v>
       </c>
     </row>
     <row r="144">
@@ -27710,7 +27710,7 @@
         <v>-0.2917169036526855</v>
       </c>
       <c r="AY144" t="n">
-        <v>0.0158173504275787</v>
+        <v>0.01585139410780166</v>
       </c>
     </row>
     <row r="145">
@@ -27899,7 +27899,7 @@
         <v>-1.133429964074374</v>
       </c>
       <c r="AY145" t="n">
-        <v>0.6270134820965483</v>
+        <v>0.6270476016498845</v>
       </c>
     </row>
     <row r="146">
@@ -28088,7 +28088,7 @@
         <v>-1.129303969730222</v>
       </c>
       <c r="AY146" t="n">
-        <v>0.3368477935851337</v>
+        <v>0.3368827240051515</v>
       </c>
     </row>
     <row r="147">
@@ -28277,7 +28277,7 @@
         <v>0.5814722329740312</v>
       </c>
       <c r="AY147" t="n">
-        <v>0.3791049820578464</v>
+        <v>0.3791352859301894</v>
       </c>
     </row>
     <row r="148">
@@ -28288,7 +28288,7 @@
         <v>14.8635083333333</v>
       </c>
       <c r="C148" t="n">
-        <v>-17.1372516666666</v>
+        <v>-17.1371198</v>
       </c>
       <c r="D148" t="n">
         <v>-5.5</v>
@@ -28466,7 +28466,7 @@
         <v>0.4852932584470189</v>
       </c>
       <c r="AY148" t="n">
-        <v>-0.1109422770439305</v>
+        <v>-0.110910596225972</v>
       </c>
     </row>
     <row r="149">
@@ -28655,7 +28655,7 @@
         <v>-0.4690835979111015</v>
       </c>
       <c r="AY149" t="n">
-        <v>0.1458225994975564</v>
+        <v>0.145853447233843</v>
       </c>
     </row>
     <row r="150">
@@ -28844,7 +28844,7 @@
         <v>-1.184117944170013</v>
       </c>
       <c r="AY150" t="n">
-        <v>-0.1208148663567763</v>
+        <v>-0.1207828062523605</v>
       </c>
     </row>
     <row r="151">
@@ -29033,7 +29033,7 @@
         <v>-0.2774857346029552</v>
       </c>
       <c r="AY151" t="n">
-        <v>0.04192980549765477</v>
+        <v>0.04192325592760469</v>
       </c>
     </row>
     <row r="152">
@@ -29222,7 +29222,7 @@
         <v>-0.9138537043015084</v>
       </c>
       <c r="AY152" t="n">
-        <v>0.5268993830474012</v>
+        <v>0.5268924608784897</v>
       </c>
     </row>
     <row r="153">
@@ -29411,7 +29411,7 @@
         <v>-0.6652891984844387</v>
       </c>
       <c r="AY153" t="n">
-        <v>-0.01623594638838631</v>
+        <v>-0.01624774011536789</v>
       </c>
     </row>
     <row r="154">
@@ -29600,7 +29600,7 @@
         <v>0.7307055043445824</v>
       </c>
       <c r="AY154" t="n">
-        <v>0.0479622197126672</v>
+        <v>0.04795544708817084</v>
       </c>
     </row>
     <row r="155">
@@ -29789,7 +29789,7 @@
         <v>0.5634780384942748</v>
       </c>
       <c r="AY155" t="n">
-        <v>-0.1389201303157316</v>
+        <v>-0.1389268236060132</v>
       </c>
     </row>
     <row r="156">
@@ -29978,7 +29978,7 @@
         <v>-1.673189058170829</v>
       </c>
       <c r="AY156" t="n">
-        <v>-0.296302572447557</v>
+        <v>-0.2963093583114044</v>
       </c>
     </row>
     <row r="157">
@@ -30167,7 +30167,7 @@
         <v>-1.654969051774645</v>
       </c>
       <c r="AY157" t="n">
-        <v>-0.119267761170477</v>
+        <v>-0.1193725144050271</v>
       </c>
     </row>
     <row r="158">
@@ -30356,7 +30356,7 @@
         <v>0.2635170810472414</v>
       </c>
       <c r="AY158" t="n">
-        <v>-0.2549402208610908</v>
+        <v>-0.2550301006247054</v>
       </c>
     </row>
     <row r="159">
@@ -30524,7 +30524,7 @@
         <v>0</v>
       </c>
       <c r="AR159" t="n">
-        <v>5.099019513592784</v>
+        <v>5.067333269243094</v>
       </c>
       <c r="AS159" t="n">
         <v>1.945910149055313</v>
@@ -30545,7 +30545,7 @@
         <v>0.5761213066365066</v>
       </c>
       <c r="AY159" t="n">
-        <v>0.02964263681200133</v>
+        <v>0.02957041701166277</v>
       </c>
     </row>
     <row r="160">
@@ -30734,7 +30734,7 @@
         <v>1.110953621681228</v>
       </c>
       <c r="AY160" t="n">
-        <v>-0.3077465786968805</v>
+        <v>-0.3078065062868685</v>
       </c>
     </row>
     <row r="161">
@@ -30923,7 +30923,7 @@
         <v>0.8001093815225229</v>
       </c>
       <c r="AY161" t="n">
-        <v>0.2123764214028424</v>
+        <v>0.2123177133553498</v>
       </c>
     </row>
     <row r="162">
@@ -31109,10 +31109,10 @@
         <v>8.515798724136216</v>
       </c>
       <c r="AX162" t="n">
-        <v>2.343674992083008</v>
+        <v>2.282454907009253</v>
       </c>
       <c r="AY162" t="n">
-        <v>0.03560009757772361</v>
+        <v>0.0354955681495215</v>
       </c>
     </row>
     <row r="163">
@@ -31301,7 +31301,7 @@
         <v>-1.305556240537507</v>
       </c>
       <c r="AY163" t="n">
-        <v>0.5482946671780098</v>
+        <v>0.5482667325817445</v>
       </c>
     </row>
     <row r="164">
@@ -31490,7 +31490,7 @@
         <v>0.2278688807914144</v>
       </c>
       <c r="AY164" t="n">
-        <v>-0.5556143876525094</v>
+        <v>-0.5556421669558069</v>
       </c>
     </row>
     <row r="165">
@@ -31679,7 +31679,7 @@
         <v>-1.354637020266353</v>
       </c>
       <c r="AY165" t="n">
-        <v>0.009148185503617345</v>
+        <v>0.009119156874649259</v>
       </c>
     </row>
     <row r="166">
@@ -31687,7 +31687,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>15.1632333333333</v>
+        <v>15.16320078826664</v>
       </c>
       <c r="C166" t="n">
         <v>-16.8733416666666</v>
@@ -31868,7 +31868,7 @@
         <v>0.3734629209635966</v>
       </c>
       <c r="AY166" t="n">
-        <v>-0.217164712036104</v>
+        <v>-0.2171932585796759</v>
       </c>
     </row>
     <row r="167">
@@ -32057,7 +32057,7 @@
         <v>0.6222681626616865</v>
       </c>
       <c r="AY167" t="n">
-        <v>0.5609879469973394</v>
+        <v>0.5609589791903897</v>
       </c>
     </row>
     <row r="168">
@@ -32065,7 +32065,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>15.16333031</v>
+        <v>15.16320078826664</v>
       </c>
       <c r="C168" t="n">
         <v>-16.87180426</v>
@@ -32132,7 +32132,7 @@
         <v>2</v>
       </c>
       <c r="W168" t="n">
-        <v>41.88939762</v>
+        <v>41.8726260044</v>
       </c>
       <c r="X168" t="n">
         <v>-0.183622625794756</v>
@@ -32246,7 +32246,7 @@
         <v>0.5297220761943244</v>
       </c>
       <c r="AY168" t="n">
-        <v>0.09961763862840349</v>
+        <v>0.09958899607147603</v>
       </c>
     </row>
     <row r="169">
@@ -32324,7 +32324,7 @@
         <v>37.73231109</v>
       </c>
       <c r="X169" t="n">
-        <v>1.560654671110176</v>
+        <v>1.529645296942978</v>
       </c>
       <c r="Y169" t="inlineStr">
         <is>
@@ -32435,7 +32435,7 @@
         <v>1.110953621681228</v>
       </c>
       <c r="AY169" t="n">
-        <v>0.9146354874668435</v>
+        <v>0.9146552818534968</v>
       </c>
     </row>
     <row r="170">
@@ -32624,7 +32624,7 @@
         <v>0.5150421479838292</v>
       </c>
       <c r="AY170" t="n">
-        <v>0.244111880421021</v>
+        <v>0.2441316621194967</v>
       </c>
     </row>
     <row r="171">
@@ -32813,7 +32813,7 @@
         <v>0.1243001862994473</v>
       </c>
       <c r="AY171" t="n">
-        <v>1.285151998337407</v>
+        <v>1.285171579444145</v>
       </c>
     </row>
     <row r="172">
@@ -33002,7 +33002,7 @@
         <v>-0.107629679403629</v>
       </c>
       <c r="AY172" t="n">
-        <v>0.4611556121524156</v>
+        <v>0.4611701914532127</v>
       </c>
     </row>
     <row r="173">
@@ -33191,7 +33191,7 @@
         <v>0.4569064146071741</v>
       </c>
       <c r="AY173" t="n">
-        <v>0.952171520257577</v>
+        <v>0.9521911651001556</v>
       </c>
     </row>
     <row r="174">
@@ -33380,7 +33380,7 @@
         <v>-0.107629679403629</v>
       </c>
       <c r="AY174" t="n">
-        <v>1.117438800218667</v>
+        <v>1.117458160646503</v>
       </c>
     </row>
     <row r="175">
@@ -33569,7 +33569,7 @@
         <v>1.804986924988265</v>
       </c>
       <c r="AY175" t="n">
-        <v>-0.8201340499549209</v>
+        <v>-0.8201368032254758</v>
       </c>
     </row>
     <row r="176">
@@ -33577,13 +33577,13 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>14.79183196</v>
+        <v>14.81246139999996</v>
       </c>
       <c r="C176" t="n">
         <v>-16.94494069</v>
       </c>
       <c r="D176" t="n">
-        <v>73.84263610839838</v>
+        <v>73.63629333496088</v>
       </c>
       <c r="E176" t="n">
         <v>33.3740005493164</v>
@@ -33644,7 +33644,7 @@
         <v>2</v>
       </c>
       <c r="W176" t="n">
-        <v>2.059472462</v>
+        <v>2.88147082664</v>
       </c>
       <c r="X176" t="n">
         <v>0.09325519447642032</v>
@@ -33758,7 +33758,7 @@
         <v>0.9524372712076123</v>
       </c>
       <c r="AY176" t="n">
-        <v>-0.2836130409100004</v>
+        <v>-0.2835827201418829</v>
       </c>
     </row>
     <row r="177">
@@ -33920,7 +33920,7 @@
         <v>0</v>
       </c>
       <c r="AP177" t="n">
-        <v>10.12667110305036</v>
+        <v>9.721628742255696</v>
       </c>
       <c r="AQ177" t="n">
         <v>2.079441541679836</v>
@@ -33944,10 +33944,10 @@
         <v>6.529233684744328</v>
       </c>
       <c r="AX177" t="n">
-        <v>2.794187209042739</v>
+        <v>2.282454907009253</v>
       </c>
       <c r="AY177" t="n">
-        <v>-0.63604971478098</v>
+        <v>-0.6360134651594836</v>
       </c>
     </row>
     <row r="178">
@@ -34136,7 +34136,7 @@
         <v>-0.1957586058511317</v>
       </c>
       <c r="AY178" t="n">
-        <v>-0.3253876822197947</v>
+        <v>-0.325351842940687</v>
       </c>
     </row>
     <row r="179">
@@ -34325,7 +34325,7 @@
         <v>-1.655063135561216</v>
       </c>
       <c r="AY179" t="n">
-        <v>-0.6659562941399473</v>
+        <v>-0.6659193516440767</v>
       </c>
     </row>
     <row r="180">
@@ -34514,7 +34514,7 @@
         <v>-1.514787683597045</v>
       </c>
       <c r="AY180" t="n">
-        <v>0.6702039752384235</v>
+        <v>0.6702286212522502</v>
       </c>
     </row>
     <row r="181">
@@ -34703,7 +34703,7 @@
         <v>0.2091792864781041</v>
       </c>
       <c r="AY181" t="n">
-        <v>0.5043472227832244</v>
+        <v>0.504372621040771</v>
       </c>
     </row>
     <row r="182">
@@ -34868,7 +34868,7 @@
         <v>9.61587214452889</v>
       </c>
       <c r="AQ182" t="n">
-        <v>2.397895272798371</v>
+        <v>2.268869727983542</v>
       </c>
       <c r="AR182" t="n">
         <v>3.872983346207417</v>
@@ -34892,7 +34892,7 @@
         <v>1.677044085964166</v>
       </c>
       <c r="AY182" t="n">
-        <v>-0.7299450826369596</v>
+        <v>-0.7299188307193754</v>
       </c>
     </row>
     <row r="183">
@@ -35081,7 +35081,7 @@
         <v>2.059480795898121</v>
       </c>
       <c r="AY183" t="n">
-        <v>-0.07040477428595937</v>
+        <v>-0.07036976609040693</v>
       </c>
     </row>
     <row r="184">
@@ -35270,7 +35270,7 @@
         <v>1.675829010745853</v>
       </c>
       <c r="AY184" t="n">
-        <v>-0.2534726620472437</v>
+        <v>-0.2534468284324597</v>
       </c>
     </row>
     <row r="185">
@@ -35459,7 +35459,7 @@
         <v>-0.02561158170443076</v>
       </c>
       <c r="AY185" t="n">
-        <v>0.4655745908496634</v>
+        <v>0.4656004911610285</v>
       </c>
     </row>
     <row r="186">
@@ -35648,7 +35648,7 @@
         <v>0.1685456486637325</v>
       </c>
       <c r="AY186" t="n">
-        <v>-0.1847592109712655</v>
+        <v>-0.184733738090213</v>
       </c>
     </row>
     <row r="187">
@@ -35837,7 +35837,7 @@
         <v>1.279947429533716</v>
       </c>
       <c r="AY187" t="n">
-        <v>0.2716819468074008</v>
+        <v>0.2716530283460686</v>
       </c>
     </row>
     <row r="188">
@@ -36002,7 +36002,7 @@
         <v>8.517393171418904</v>
       </c>
       <c r="AQ188" t="n">
-        <v>2.397895272798371</v>
+        <v>2.268869727983542</v>
       </c>
       <c r="AR188" t="n">
         <v>4.795831523312719</v>
@@ -36026,7 +36026,7 @@
         <v>0.8701225974028387</v>
       </c>
       <c r="AY188" t="n">
-        <v>0.01489692514441705</v>
+        <v>0.0148683328278943</v>
       </c>
     </row>
     <row r="189">
@@ -36215,7 +36215,7 @@
         <v>0.2298269271324216</v>
       </c>
       <c r="AY189" t="n">
-        <v>0.09058397918246461</v>
+        <v>0.09055511604656974</v>
       </c>
     </row>
     <row r="190">
@@ -36223,7 +36223,7 @@
         <v>190</v>
       </c>
       <c r="B190" t="n">
-        <v>15.1634803</v>
+        <v>15.16320078826664</v>
       </c>
       <c r="C190" t="n">
         <v>-16.87310879</v>
@@ -36290,7 +36290,7 @@
         <v>6</v>
       </c>
       <c r="W190" t="n">
-        <v>41.88672978</v>
+        <v>41.8726260044</v>
       </c>
       <c r="X190" t="n">
         <v>0.3855274567419722</v>
@@ -36404,7 +36404,7 @@
         <v>0.1011608226611364</v>
       </c>
       <c r="AY190" t="n">
-        <v>-0.5921550780001557</v>
+        <v>-0.5921883987891028</v>
       </c>
     </row>
     <row r="191">
@@ -36593,7 +36593,7 @@
         <v>1.865480794298238</v>
       </c>
       <c r="AY191" t="n">
-        <v>0.139175647688585</v>
+        <v>0.1392101944267451</v>
       </c>
     </row>
     <row r="192">
@@ -36782,7 +36782,7 @@
         <v>-1.260275138151146</v>
       </c>
       <c r="AY192" t="n">
-        <v>-0.3998446621319541</v>
+        <v>-0.3998102186505861</v>
       </c>
     </row>
     <row r="193">
@@ -36971,7 +36971,7 @@
         <v>-0.3476083868137041</v>
       </c>
       <c r="AY193" t="n">
-        <v>-0.2431549047247598</v>
+        <v>-0.243120486976471</v>
       </c>
     </row>
     <row r="194">
@@ -37160,7 +37160,7 @@
         <v>0.7674966260965067</v>
       </c>
       <c r="AY194" t="n">
-        <v>-0.4608522916013585</v>
+        <v>-0.4608169637752211</v>
       </c>
     </row>
     <row r="195">
@@ -37349,7 +37349,7 @@
         <v>0.2712625980761877</v>
       </c>
       <c r="AY195" t="n">
-        <v>-0.1633779341166058</v>
+        <v>-0.1633427407146531</v>
       </c>
     </row>
     <row r="196">
@@ -37538,7 +37538,7 @@
         <v>0.7618036369203983</v>
       </c>
       <c r="AY196" t="n">
-        <v>-0.5520721228022217</v>
+        <v>-0.5520363729460998</v>
       </c>
     </row>
     <row r="197">
@@ -37727,7 +37727,7 @@
         <v>1.630455850386316</v>
       </c>
       <c r="AY197" t="n">
-        <v>-0.1927617301448749</v>
+        <v>-0.1927269078249728</v>
       </c>
     </row>
     <row r="198">
@@ -37910,13 +37910,13 @@
         <v>0</v>
       </c>
       <c r="AW198" t="n">
-        <v>5.808776151651912</v>
+        <v>5.812260964841825</v>
       </c>
       <c r="AX198" t="n">
         <v>0.174480529766701</v>
       </c>
       <c r="AY198" t="n">
-        <v>0.3865416679890559</v>
+        <v>0.3865763200132827</v>
       </c>
     </row>
     <row r="199">
@@ -38105,7 +38105,7 @@
         <v>1.048002667387265</v>
       </c>
       <c r="AY199" t="n">
-        <v>0.05086704516199769</v>
+        <v>0.05090272271528562</v>
       </c>
     </row>
     <row r="200">
@@ -38294,7 +38294,7 @@
         <v>-0.5310385575405953</v>
       </c>
       <c r="AY200" t="n">
-        <v>-0.207325298232993</v>
+        <v>-0.2072949097308557</v>
       </c>
     </row>
     <row r="201">
@@ -38311,7 +38311,7 @@
         <v>38.0694580078125</v>
       </c>
       <c r="E201" t="n">
-        <v>36.4079971313476</v>
+        <v>34.40555938720702</v>
       </c>
       <c r="F201" t="n">
         <v>0</v>
@@ -38477,13 +38477,13 @@
         <v>0</v>
       </c>
       <c r="AW201" t="n">
-        <v>5.794644192700705</v>
+        <v>5.812260964841825</v>
       </c>
       <c r="AX201" t="n">
         <v>-0.7272958705134257</v>
       </c>
       <c r="AY201" t="n">
-        <v>-0.6598878821488318</v>
+        <v>-0.6598568705317135</v>
       </c>
     </row>
     <row r="202">
@@ -38494,7 +38494,7 @@
         <v>14.8628333333333</v>
       </c>
       <c r="C202" t="n">
-        <v>-17.1377033333333</v>
+        <v>-17.1371198</v>
       </c>
       <c r="D202" t="n">
         <v>-4.899999999999999</v>
@@ -38666,13 +38666,13 @@
         <v>0</v>
       </c>
       <c r="AW202" t="n">
-        <v>5.810983066573159</v>
+        <v>5.812260964841825</v>
       </c>
       <c r="AX202" t="n">
         <v>1.526196668610199</v>
       </c>
       <c r="AY202" t="n">
-        <v>-0.4674527993373196</v>
+        <v>-0.4674221437018141</v>
       </c>
     </row>
     <row r="203">
@@ -38861,7 +38861,7 @@
         <v>-0.09408257618036822</v>
       </c>
       <c r="AY203" t="n">
-        <v>-0.8971489098983766</v>
+        <v>-0.8971173242230724</v>
       </c>
     </row>
     <row r="204">
@@ -39035,7 +39035,7 @@
         <v>0</v>
       </c>
       <c r="AT204" t="n">
-        <v>11.00211650773202</v>
+        <v>11.19899428086267</v>
       </c>
       <c r="AU204" t="n">
         <v>12.42922019683638</v>
@@ -39050,7 +39050,7 @@
         <v>-0.9258916357132296</v>
       </c>
       <c r="AY204" t="n">
-        <v>-0.5779449943872558</v>
+        <v>-0.5779132672708027</v>
       </c>
     </row>
     <row r="205">
@@ -39227,7 +39227,7 @@
         <v>11.51293546492023</v>
       </c>
       <c r="AU205" t="n">
-        <v>11.51293546492023</v>
+        <v>11.69525535506279</v>
       </c>
       <c r="AV205" t="n">
         <v>0</v>
@@ -39239,7 +39239,7 @@
         <v>-1.846880245646216</v>
       </c>
       <c r="AY205" t="n">
-        <v>-1.284466567809414</v>
+        <v>-1.107944402537769</v>
       </c>
     </row>
     <row r="206">
@@ -39428,7 +39428,7 @@
         <v>-0.7790542131505568</v>
       </c>
       <c r="AY206" t="n">
-        <v>-0.5714271888246736</v>
+        <v>-0.5714002585196374</v>
       </c>
     </row>
     <row r="207">
@@ -39590,7 +39590,7 @@
         <v>0</v>
       </c>
       <c r="AP207" t="n">
-        <v>4.61512051684126</v>
+        <v>4.86666711878656</v>
       </c>
       <c r="AQ207" t="n">
         <v>0</v>
@@ -39602,7 +39602,7 @@
         <v>0</v>
       </c>
       <c r="AT207" t="n">
-        <v>9.903537551286171</v>
+        <v>11.19899428086267</v>
       </c>
       <c r="AU207" t="n">
         <v>11.69525535506279</v>
@@ -39617,7 +39617,7 @@
         <v>-1.305031724831234</v>
       </c>
       <c r="AY207" t="n">
-        <v>-0.8951921957119977</v>
+        <v>-0.8951600162937189</v>
       </c>
     </row>
     <row r="208">
@@ -39806,7 +39806,7 @@
         <v>-0.4902656727678902</v>
       </c>
       <c r="AY208" t="n">
-        <v>-0.8987956248968387</v>
+        <v>-0.8987633294408232</v>
       </c>
     </row>
     <row r="209">
@@ -39995,7 +39995,7 @@
         <v>-0.3657210405570097</v>
       </c>
       <c r="AY209" t="n">
-        <v>-0.5435933136935981</v>
+        <v>-0.5435611123246062</v>
       </c>
     </row>
     <row r="210">
@@ -40172,7 +40172,7 @@
         <v>11.33858398251649</v>
       </c>
       <c r="AU210" t="n">
-        <v>11.40757606036179</v>
+        <v>11.69525535506279</v>
       </c>
       <c r="AV210" t="n">
         <v>0</v>
@@ -40181,10 +40181,10 @@
         <v>5.903308060740181</v>
       </c>
       <c r="AX210" t="n">
-        <v>-2.062924107339326</v>
+        <v>-2.050788661439982</v>
       </c>
       <c r="AY210" t="n">
-        <v>-0.6652453999636023</v>
+        <v>-0.6652132845762513</v>
       </c>
     </row>
     <row r="211">
@@ -40373,7 +40373,7 @@
         <v>0.06107554105744938</v>
       </c>
       <c r="AY211" t="n">
-        <v>-0.5533239918516231</v>
+        <v>-0.5532926991353135</v>
       </c>
     </row>
     <row r="212">
@@ -40562,7 +40562,7 @@
         <v>-0.4690835979111015</v>
       </c>
       <c r="AY212" t="n">
-        <v>-0.3196976106041965</v>
+        <v>-0.3196663657173845</v>
       </c>
     </row>
     <row r="213">
@@ -40751,7 +40751,7 @@
         <v>-0.5753464621138019</v>
       </c>
       <c r="AY213" t="n">
-        <v>-0.53449178553136</v>
+        <v>-0.5344649155993904</v>
       </c>
     </row>
     <row r="214">
@@ -40940,7 +40940,7 @@
         <v>-0.3212929087427263</v>
       </c>
       <c r="AY214" t="n">
-        <v>-0.4394420591618589</v>
+        <v>-0.4394100399661799</v>
       </c>
     </row>
     <row r="215">
@@ -41102,7 +41102,7 @@
         <v>0</v>
       </c>
       <c r="AP215" t="n">
-        <v>4.394449154672439</v>
+        <v>4.86666711878656</v>
       </c>
       <c r="AQ215" t="n">
         <v>0</v>
@@ -41126,10 +41126,10 @@
         <v>5.905037083710821</v>
       </c>
       <c r="AX215" t="n">
-        <v>-2.054499211578879</v>
+        <v>-2.050788661439982</v>
       </c>
       <c r="AY215" t="n">
-        <v>-0.6009594551334295</v>
+        <v>-0.60092740165465</v>
       </c>
     </row>
     <row r="216">
@@ -41318,7 +41318,7 @@
         <v>-1.198793355740135</v>
       </c>
       <c r="AY216" t="n">
-        <v>-0.1404302680271032</v>
+        <v>-0.1403982733351085</v>
       </c>
     </row>
     <row r="217">
@@ -41335,7 +41335,7 @@
         <v>27.7694702148437</v>
       </c>
       <c r="E217" t="n">
-        <v>39.4419975280761</v>
+        <v>34.40555938720702</v>
       </c>
       <c r="F217" t="n">
         <v>1</v>
@@ -41507,7 +41507,7 @@
         <v>-1.902474212125183</v>
       </c>
       <c r="AY217" t="n">
-        <v>-0.2754630198538487</v>
+        <v>-0.2754307956447828</v>
       </c>
     </row>
     <row r="218">
@@ -41696,7 +41696,7 @@
         <v>-0.3606848799432127</v>
       </c>
       <c r="AY218" t="n">
-        <v>-0.3879387049279125</v>
+        <v>-0.3879066648072109</v>
       </c>
     </row>
     <row r="219">
@@ -41885,7 +41885,7 @@
         <v>-0.3563602450103016</v>
       </c>
       <c r="AY219" t="n">
-        <v>-0.5995486974899761</v>
+        <v>-0.5995181663382925</v>
       </c>
     </row>
     <row r="220">
@@ -42074,7 +42074,7 @@
         <v>-1.440453199276394</v>
       </c>
       <c r="AY220" t="n">
-        <v>-0.2734413426057193</v>
+        <v>-0.2734475032216331</v>
       </c>
     </row>
     <row r="221">
@@ -42085,7 +42085,7 @@
         <v>14.862635</v>
       </c>
       <c r="C221" t="n">
-        <v>-17.137155</v>
+        <v>-17.1371198</v>
       </c>
       <c r="D221" t="n">
         <v>-14.8</v>
@@ -42263,7 +42263,7 @@
         <v>-0.2151226933488935</v>
       </c>
       <c r="AY221" t="n">
-        <v>-0.08661168565886757</v>
+        <v>-0.0866183794387041</v>
       </c>
     </row>
     <row r="222">
@@ -42452,7 +42452,7 @@
         <v>-1.368078384898003</v>
       </c>
       <c r="AY222" t="n">
-        <v>0.1358473035442281</v>
+        <v>0.1358403110858569</v>
       </c>
     </row>
     <row r="223">
@@ -42641,7 +42641,7 @@
         <v>-1.26800308148512</v>
       </c>
       <c r="AY223" t="n">
-        <v>-0.413002365018482</v>
+        <v>-0.4130139502382631</v>
       </c>
     </row>
     <row r="224">
@@ -42830,7 +42830,7 @@
         <v>-1.786509350703792</v>
       </c>
       <c r="AY224" t="n">
-        <v>-0.01271823774592076</v>
+        <v>-0.01272505001260779</v>
       </c>
     </row>
     <row r="225">
@@ -42864,7 +42864,7 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K225" t="n">
         <v>3.583333333333333</v>
@@ -43019,7 +43019,7 @@
         <v>0.3285395129669498</v>
       </c>
       <c r="AY225" t="n">
-        <v>-0.1098252766568213</v>
+        <v>-0.1098314433780428</v>
       </c>
     </row>
     <row r="226">
@@ -43208,7 +43208,7 @@
         <v>0.4846420747891336</v>
       </c>
       <c r="AY226" t="n">
-        <v>0.2813552971693514</v>
+        <v>0.2813436020667155</v>
       </c>
     </row>
     <row r="227">
@@ -43242,7 +43242,7 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K227" t="n">
         <v>3.222222222222222</v>
@@ -43397,7 +43397,7 @@
         <v>0.03737836718160046</v>
       </c>
       <c r="AY227" t="n">
-        <v>-0.5167243645364256</v>
+        <v>-0.5167304248909982</v>
       </c>
     </row>
     <row r="228">
@@ -43586,7 +43586,7 @@
         <v>0.08561925215042772</v>
       </c>
       <c r="AY228" t="n">
-        <v>-0.5494350046175339</v>
+        <v>-0.5494462090326049</v>
       </c>
     </row>
     <row r="229">
@@ -43775,7 +43775,7 @@
         <v>0.1829446193437326</v>
       </c>
       <c r="AY229" t="n">
-        <v>-0.2093320714013169</v>
+        <v>-0.2093388408617333</v>
       </c>
     </row>
     <row r="230">
@@ -43964,7 +43964,7 @@
         <v>-0.9517501987183011</v>
       </c>
       <c r="AY230" t="n">
-        <v>-0.3223812027295718</v>
+        <v>-0.3223881626987991</v>
       </c>
     </row>
     <row r="231">
@@ -43972,7 +43972,7 @@
         <v>231</v>
       </c>
       <c r="B231" t="n">
-        <v>14.8124283333333</v>
+        <v>14.81246139999996</v>
       </c>
       <c r="C231" t="n">
         <v>-16.90164</v>
@@ -43998,7 +43998,7 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K231" t="n">
         <v>3.666666666666667</v>
@@ -44153,7 +44153,7 @@
         <v>0.3285395129669498</v>
       </c>
       <c r="AY231" t="n">
-        <v>-0.152905983418331</v>
+        <v>-0.1529127445859385</v>
       </c>
     </row>
     <row r="232">
@@ -44342,7 +44342,7 @@
         <v>0.4569064146071741</v>
       </c>
       <c r="AY232" t="n">
-        <v>-0.3195727161776318</v>
+        <v>-0.3195798452324994</v>
       </c>
     </row>
     <row r="233">
@@ -44356,7 +44356,7 @@
         <v>-16.90158985</v>
       </c>
       <c r="D233" t="n">
-        <v>73.84263610839838</v>
+        <v>73.63629333496088</v>
       </c>
       <c r="E233" t="n">
         <v>21.2379989624023</v>
@@ -44531,7 +44531,7 @@
         <v>-0.6625948609664473</v>
       </c>
       <c r="AY233" t="n">
-        <v>-0.4916001459691624</v>
+        <v>-0.4917013176803755</v>
       </c>
     </row>
     <row r="234">
@@ -44720,7 +44720,7 @@
         <v>-0.8276563075945079</v>
       </c>
       <c r="AY234" t="n">
-        <v>0.5108750248758781</v>
+        <v>0.5107813937744895</v>
       </c>
     </row>
     <row r="235">
@@ -44909,7 +44909,7 @@
         <v>-1.685666472473978</v>
       </c>
       <c r="AY235" t="n">
-        <v>-0.3591348185072975</v>
+        <v>-0.3592324515126005</v>
       </c>
     </row>
     <row r="236">
@@ -45098,7 +45098,7 @@
         <v>0.2576860145940749</v>
       </c>
       <c r="AY236" t="n">
-        <v>-0.3512936771831389</v>
+        <v>-0.3513678944095948</v>
       </c>
     </row>
     <row r="237">
@@ -45287,7 +45287,7 @@
         <v>-0.1709627135405784</v>
       </c>
       <c r="AY237" t="n">
-        <v>-0.5440719020279474</v>
+        <v>-0.5441747811526669</v>
       </c>
     </row>
     <row r="238">
@@ -45476,7 +45476,7 @@
         <v>0.2450353288804886</v>
       </c>
       <c r="AY238" t="n">
-        <v>-0.5351508557604953</v>
+        <v>-0.5352257267358131</v>
       </c>
     </row>
     <row r="239">
@@ -45644,7 +45644,7 @@
         <v>0</v>
       </c>
       <c r="AR239" t="n">
-        <v>5.567764362830022</v>
+        <v>5.067333269243094</v>
       </c>
       <c r="AS239" t="n">
         <v>0</v>
@@ -45665,7 +45665,7 @@
         <v>-0.2151226933488935</v>
       </c>
       <c r="AY239" t="n">
-        <v>-0.5686393036545083</v>
+        <v>-0.5687154181340257</v>
       </c>
     </row>
     <row r="240">
@@ -45854,7 +45854,7 @@
         <v>-0.2222813020475697</v>
       </c>
       <c r="AY240" t="n">
-        <v>-0.4269335723760174</v>
+        <v>-0.4270092881546063</v>
       </c>
     </row>
     <row r="241">
@@ -46043,7 +46043,7 @@
         <v>0.521285558479934</v>
       </c>
       <c r="AY241" t="n">
-        <v>0.05833120809127786</v>
+        <v>0.05830295073250176</v>
       </c>
     </row>
     <row r="242">
@@ -46205,7 +46205,7 @@
         <v>0</v>
       </c>
       <c r="AP242" t="n">
-        <v>9.741027444837728</v>
+        <v>9.721628742255696</v>
       </c>
       <c r="AQ242" t="n">
         <v>1.945910149055313</v>
@@ -46232,7 +46232,7 @@
         <v>0.1576548255421045</v>
       </c>
       <c r="AY242" t="n">
-        <v>-0.05879065681228514</v>
+        <v>-0.05881833282863606</v>
       </c>
     </row>
     <row r="243">
@@ -46421,7 +46421,7 @@
         <v>-0.126227183716819</v>
       </c>
       <c r="AY243" t="n">
-        <v>-0.01797226862968201</v>
+        <v>-0.01799994723703713</v>
       </c>
     </row>
     <row r="244">
@@ -46610,7 +46610,7 @@
         <v>0.2781871663736063</v>
       </c>
       <c r="AY244" t="n">
-        <v>-0.3361779221594415</v>
+        <v>-0.3362073711109992</v>
       </c>
     </row>
     <row r="245">
@@ -46799,7 +46799,7 @@
         <v>-0.1217886757789745</v>
       </c>
       <c r="AY245" t="n">
-        <v>-0.4201055785146919</v>
+        <v>-0.4201330145317643</v>
       </c>
     </row>
     <row r="246">
@@ -46822,7 +46822,7 @@
         <v>1</v>
       </c>
       <c r="G246" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H246" t="n">
         <v>99</v>
@@ -46982,13 +46982,13 @@
         <v>0</v>
       </c>
       <c r="AW246" t="n">
-        <v>8.694290082577185</v>
+        <v>8.692443715089865</v>
       </c>
       <c r="AX246" t="n">
         <v>0.8452821916301284</v>
       </c>
       <c r="AY246" t="n">
-        <v>-1.175025877700169</v>
+        <v>-1.107944402537769</v>
       </c>
     </row>
     <row r="247">
@@ -47177,7 +47177,7 @@
         <v>0.4569064146071741</v>
       </c>
       <c r="AY247" t="n">
-        <v>-0.4055294666811758</v>
+        <v>-0.4055579729595469</v>
       </c>
     </row>
     <row r="248">
@@ -47191,7 +47191,7 @@
         <v>-16.8846266666666</v>
       </c>
       <c r="D248" t="n">
-        <v>73.84263610839838</v>
+        <v>73.63629333496088</v>
       </c>
       <c r="E248" t="n">
         <v>13.1999998092651</v>
@@ -47366,7 +47366,7 @@
         <v>0.1243001862994473</v>
       </c>
       <c r="AY248" t="n">
-        <v>0.2582264935713461</v>
+        <v>0.2581975802579112</v>
       </c>
     </row>
     <row r="249">
@@ -47555,7 +47555,7 @@
         <v>0.5131587006848075</v>
       </c>
       <c r="AY249" t="n">
-        <v>-0.6069555752171294</v>
+        <v>-0.6069840964264581</v>
       </c>
     </row>
     <row r="250">
@@ -47738,13 +47738,13 @@
         <v>0</v>
       </c>
       <c r="AW250" t="n">
-        <v>8.692993022544076</v>
+        <v>8.692443715089865</v>
       </c>
       <c r="AX250" t="n">
         <v>1.508970607773424</v>
       </c>
       <c r="AY250" t="n">
-        <v>-0.1984402883756667</v>
+        <v>-0.1984690065540311</v>
       </c>
     </row>
     <row r="251">
@@ -47819,7 +47819,7 @@
         <v>2</v>
       </c>
       <c r="W251" t="n">
-        <v>41.87294907</v>
+        <v>41.8726260044</v>
       </c>
       <c r="X251" t="n">
         <v>-0.4289375681384815</v>
@@ -47927,13 +47927,13 @@
         <v>0</v>
       </c>
       <c r="AW251" t="n">
-        <v>8.69526351642088</v>
+        <v>8.692443715089865</v>
       </c>
       <c r="AX251" t="n">
         <v>0.1243001862994473</v>
       </c>
       <c r="AY251" t="n">
-        <v>-0.5292193653315356</v>
+        <v>-0.5292468507275901</v>
       </c>
     </row>
     <row r="252">
@@ -48122,7 +48122,7 @@
         <v>0.6222681626616865</v>
       </c>
       <c r="AY252" t="n">
-        <v>0.501090028395801</v>
+        <v>0.5010603137473211</v>
       </c>
     </row>
     <row r="253">
@@ -48311,7 +48311,7 @@
         <v>0.1243001862994473</v>
       </c>
       <c r="AY253" t="n">
-        <v>0.409613042502785</v>
+        <v>0.4095840417752942</v>
       </c>
     </row>
     <row r="254">
@@ -48500,7 +48500,7 @@
         <v>-0.02476586554107721</v>
       </c>
       <c r="AY254" t="n">
-        <v>-0.5079228877285279</v>
+        <v>-0.507951056126009</v>
       </c>
     </row>
     <row r="255">
@@ -48508,7 +48508,7 @@
         <v>255</v>
       </c>
       <c r="B255" t="n">
-        <v>15.16351519</v>
+        <v>15.16320078826664</v>
       </c>
       <c r="C255" t="n">
         <v>-16.8706284</v>
@@ -48575,7 +48575,7 @@
         <v>2</v>
       </c>
       <c r="W255" t="n">
-        <v>41.92744139</v>
+        <v>41.8726260044</v>
       </c>
       <c r="X255" t="n">
         <v>0.3307264075671812</v>
@@ -48683,13 +48683,13 @@
         <v>0</v>
       </c>
       <c r="AW255" t="n">
-        <v>8.697078798079271</v>
+        <v>8.692443715089865</v>
       </c>
       <c r="AX255" t="n">
         <v>-0.282132065593342</v>
       </c>
       <c r="AY255" t="n">
-        <v>0.201100678754568</v>
+        <v>0.2010724220399154</v>
       </c>
     </row>
     <row r="256">
@@ -48878,7 +48878,7 @@
         <v>0.2289399190012408</v>
       </c>
       <c r="AY256" t="n">
-        <v>-0.1811905978298066</v>
+        <v>-0.1812185871450158</v>
       </c>
     </row>
     <row r="257">
@@ -49067,7 +49067,7 @@
         <v>0.6524446519792152</v>
       </c>
       <c r="AY257" t="n">
-        <v>-0.03217798225733191</v>
+        <v>-0.03220598707192669</v>
       </c>
     </row>
     <row r="258">
@@ -49256,7 +49256,7 @@
         <v>0.5403557456152196</v>
       </c>
       <c r="AY258" t="n">
-        <v>0.4421092715794565</v>
+        <v>0.4420812326600203</v>
       </c>
     </row>
     <row r="259">
@@ -49445,7 +49445,7 @@
         <v>1.865480794298238</v>
       </c>
       <c r="AY259" t="n">
-        <v>-0.5054117852998502</v>
+        <v>-0.5054395872141672</v>
       </c>
     </row>
     <row r="260">
@@ -49634,7 +49634,7 @@
         <v>0.8634683585626816</v>
       </c>
       <c r="AY260" t="n">
-        <v>-0.6434923179457098</v>
+        <v>-0.6435206509096323</v>
       </c>
     </row>
     <row r="261">
@@ -49823,7 +49823,7 @@
         <v>-0.1210444117480329</v>
       </c>
       <c r="AY261" t="n">
-        <v>-0.2476024621048166</v>
+        <v>-0.2476308394162443</v>
       </c>
     </row>
     <row r="262">
@@ -50012,7 +50012,7 @@
         <v>-0.2023519118466726</v>
       </c>
       <c r="AY262" t="n">
-        <v>-0.7781679704078686</v>
+        <v>-0.7781316105085336</v>
       </c>
     </row>
     <row r="263">
@@ -50201,7 +50201,7 @@
         <v>-1.480611892609824</v>
       </c>
       <c r="AY263" t="n">
-        <v>-0.1594940162363649</v>
+        <v>-0.1594580759877843</v>
       </c>
     </row>
     <row r="264">
@@ -50390,7 +50390,7 @@
         <v>-1.362131916230668</v>
       </c>
       <c r="AY264" t="n">
-        <v>0.6110977912160794</v>
+        <v>0.6111334131225173</v>
       </c>
     </row>
     <row r="265">
@@ -50579,7 +50579,7 @@
         <v>-1.874752777625257</v>
       </c>
       <c r="AY265" t="n">
-        <v>0.1052165394533016</v>
+        <v>0.1052518405793548</v>
       </c>
     </row>
     <row r="266">
@@ -50741,7 +50741,7 @@
         <v>0</v>
       </c>
       <c r="AP266" t="n">
-        <v>4.795790545596741</v>
+        <v>4.86666711878656</v>
       </c>
       <c r="AQ266" t="n">
         <v>0</v>
@@ -50768,7 +50768,7 @@
         <v>-1.841084415971824</v>
       </c>
       <c r="AY266" t="n">
-        <v>-0.7128825780134864</v>
+        <v>-0.7128468148837869</v>
       </c>
     </row>
     <row r="267">
@@ -50957,7 +50957,7 @@
         <v>0.4557912184505722</v>
       </c>
       <c r="AY267" t="n">
-        <v>-0.2799547705369518</v>
+        <v>-0.2799193510140399</v>
       </c>
     </row>
     <row r="268">
@@ -51146,7 +51146,7 @@
         <v>-0.02060980017297021</v>
       </c>
       <c r="AY268" t="n">
-        <v>-0.219154578669677</v>
+        <v>-0.2191192814647603</v>
       </c>
     </row>
     <row r="269">
@@ -51335,7 +51335,7 @@
         <v>0.2854311669817337</v>
       </c>
       <c r="AY269" t="n">
-        <v>-1.220856543316501</v>
+        <v>-1.107944402537769</v>
       </c>
     </row>
     <row r="270">
@@ -51524,7 +51524,7 @@
         <v>-0.1670486640591172</v>
       </c>
       <c r="AY270" t="n">
-        <v>-0.4665028645203676</v>
+        <v>-0.4664676450664941</v>
       </c>
     </row>
     <row r="271">
@@ -51713,7 +51713,7 @@
         <v>0.1243001862994473</v>
       </c>
       <c r="AY271" t="n">
-        <v>-0.2290706119048184</v>
+        <v>-0.229035578237732</v>
       </c>
     </row>
     <row r="272">
@@ -51902,7 +51902,7 @@
         <v>-0.9879575828589522</v>
       </c>
       <c r="AY272" t="n">
-        <v>-0.7658748213294136</v>
+        <v>-0.7658397136944319</v>
       </c>
     </row>
     <row r="273">
@@ -52091,7 +52091,7 @@
         <v>0.1361646287429549</v>
       </c>
       <c r="AY273" t="n">
-        <v>-0.6818315161547805</v>
+        <v>-0.6817963967060002</v>
       </c>
     </row>
     <row r="274">
@@ -52280,7 +52280,7 @@
         <v>-0.1124479673161441</v>
       </c>
       <c r="AY274" t="n">
-        <v>-0.1365937919329676</v>
+        <v>-0.1365593516552327</v>
       </c>
     </row>
     <row r="275">
@@ -52469,7 +52469,7 @@
         <v>-1.421955836979065</v>
       </c>
       <c r="AY275" t="n">
-        <v>-0.8120942083272608</v>
+        <v>-0.8120592010442327</v>
       </c>
     </row>
     <row r="276">
@@ -52658,7 +52658,7 @@
         <v>0.4681782747439766</v>
       </c>
       <c r="AY276" t="n">
-        <v>-0.4428030757662728</v>
+        <v>-0.4427673843732481</v>
       </c>
     </row>
     <row r="277">
@@ -52847,7 +52847,7 @@
         <v>-0.02060980017297021</v>
       </c>
       <c r="AY277" t="n">
-        <v>-0.5534770731023713</v>
+        <v>-0.5534415088675492</v>
       </c>
     </row>
     <row r="278">
@@ -53036,7 +53036,7 @@
         <v>-0.1793140928698478</v>
       </c>
       <c r="AY278" t="n">
-        <v>-0.2957472034604008</v>
+        <v>-0.295711876639985</v>
       </c>
     </row>
     <row r="279">
@@ -53225,7 +53225,7 @@
         <v>0.3136702918539308</v>
       </c>
       <c r="AY279" t="n">
-        <v>-0.1849235467357113</v>
+        <v>-0.1848882643641053</v>
       </c>
     </row>
     <row r="280">
@@ -53414,7 +53414,7 @@
         <v>0.04460402116779992</v>
       </c>
       <c r="AY280" t="n">
-        <v>-0.4588363063331447</v>
+        <v>-0.4588010395031096</v>
       </c>
     </row>
     <row r="281">
@@ -53603,7 +53603,7 @@
         <v>-0.5014765523126697</v>
       </c>
       <c r="AY281" t="n">
-        <v>0.4884435363015316</v>
+        <v>0.4884782145927899</v>
       </c>
     </row>
     <row r="282">
@@ -53789,10 +53789,10 @@
         <v>5.988718777000637</v>
       </c>
       <c r="AX282" t="n">
-        <v>-2.247523482304892</v>
+        <v>-2.050788661439982</v>
       </c>
       <c r="AY282" t="n">
-        <v>-0.3320239414218049</v>
+        <v>-0.3319890411839294</v>
       </c>
     </row>
     <row r="283">
@@ -53981,7 +53981,7 @@
         <v>-1.427563901052492</v>
       </c>
       <c r="AY283" t="n">
-        <v>0.144348490336763</v>
+        <v>0.1443827745519186</v>
       </c>
     </row>
     <row r="284">
@@ -54170,7 +54170,7 @@
         <v>-0.1891536857597317</v>
       </c>
       <c r="AY284" t="n">
-        <v>0.2603840990926668</v>
+        <v>0.2604184549233751</v>
       </c>
     </row>
     <row r="285">
@@ -54359,7 +54359,7 @@
         <v>-1.369938096581907</v>
       </c>
       <c r="AY285" t="n">
-        <v>-0.4915259978369165</v>
+        <v>-0.4914893597367859</v>
       </c>
     </row>
     <row r="286">
@@ -54548,7 +54548,7 @@
         <v>-0.16206108486739</v>
       </c>
       <c r="AY286" t="n">
-        <v>0.4545223575860748</v>
+        <v>0.4545579725278573</v>
       </c>
     </row>
     <row r="287">
@@ -54737,7 +54737,7 @@
         <v>-0.2525225425244039</v>
       </c>
       <c r="AY287" t="n">
-        <v>-0.1981601985872334</v>
+        <v>-0.1981241357937695</v>
       </c>
     </row>
     <row r="288">
@@ -54926,7 +54926,7 @@
         <v>1.264280732634204</v>
       </c>
       <c r="AY288" t="n">
-        <v>-0.9371721037962413</v>
+        <v>-0.937135581824891</v>
       </c>
     </row>
     <row r="289">
@@ -55115,7 +55115,7 @@
         <v>-0.8292379558949445</v>
       </c>
       <c r="AY289" t="n">
-        <v>-0.448719262536861</v>
+        <v>-0.4486830385021359</v>
       </c>
     </row>
     <row r="290">
@@ -55304,7 +55304,7 @@
         <v>-0.2268465493611656</v>
       </c>
       <c r="AY290" t="n">
-        <v>-0.1488318320358642</v>
+        <v>-0.1487953299336995</v>
       </c>
     </row>
     <row r="291">
@@ -55493,7 +55493,7 @@
         <v>-0.2642805345012761</v>
       </c>
       <c r="AY291" t="n">
-        <v>0.3582855537885768</v>
+        <v>0.3583215587800718</v>
       </c>
     </row>
     <row r="292">
@@ -55682,7 +55682,7 @@
         <v>-0.7088926754902749</v>
       </c>
       <c r="AY292" t="n">
-        <v>-0.3172134961164936</v>
+        <v>-0.3171769701117365</v>
       </c>
     </row>
     <row r="293">
@@ -55871,7 +55871,7 @@
         <v>0.1018125644092843</v>
       </c>
       <c r="AY293" t="n">
-        <v>-0.6736236516794407</v>
+        <v>-0.6735871580004535</v>
       </c>
     </row>
     <row r="294">
@@ -56060,7 +56060,7 @@
         <v>0.6222681626616865</v>
       </c>
       <c r="AY294" t="n">
-        <v>-0.658055121816127</v>
+        <v>-0.658023562263118</v>
       </c>
     </row>
     <row r="295">
@@ -56249,7 +56249,7 @@
         <v>0.1243001862994473</v>
       </c>
       <c r="AY295" t="n">
-        <v>-0.4790961009701166</v>
+        <v>-0.4790595774409206</v>
       </c>
     </row>
     <row r="296">
@@ -56438,7 +56438,7 @@
         <v>0.4569064146071741</v>
       </c>
       <c r="AY296" t="n">
-        <v>-0.2857768698576217</v>
+        <v>-0.285740426391358</v>
       </c>
     </row>
     <row r="297">
@@ -56627,7 +56627,7 @@
         <v>-1.620958644885168</v>
       </c>
       <c r="AY297" t="n">
-        <v>0.2620591490098023</v>
+        <v>0.2620956077500948</v>
       </c>
     </row>
     <row r="298">
@@ -56816,7 +56816,7 @@
         <v>-0.7791761678065131</v>
       </c>
       <c r="AY298" t="n">
-        <v>-0.321939544392931</v>
+        <v>-0.3219028975221357</v>
       </c>
     </row>
     <row r="299">
@@ -57005,7 +57005,7 @@
         <v>-0.2917169036526855</v>
       </c>
       <c r="AY299" t="n">
-        <v>-0.3650026568087</v>
+        <v>-0.3649660832577074</v>
       </c>
     </row>
     <row r="300">
@@ -57194,7 +57194,7 @@
         <v>-0.2126275564667504</v>
       </c>
       <c r="AY300" t="n">
-        <v>0.0637038649607832</v>
+        <v>0.0637400229463701</v>
       </c>
     </row>
     <row r="301">
@@ -57383,7 +57383,7 @@
         <v>-1.64485543166401</v>
       </c>
       <c r="AY301" t="n">
-        <v>0.2220845096560184</v>
+        <v>0.2221043023793637</v>
       </c>
     </row>
     <row r="302">
@@ -57572,7 +57572,7 @@
         <v>0.4879921212994534</v>
       </c>
       <c r="AY302" t="n">
-        <v>1.360106592462001</v>
+        <v>1.360125912274162</v>
       </c>
     </row>
     <row r="303">
@@ -57761,7 +57761,7 @@
         <v>0.6222681626616865</v>
       </c>
       <c r="AY303" t="n">
-        <v>0.2317621902522307</v>
+        <v>0.2317820339347691</v>
       </c>
     </row>
     <row r="304">
@@ -57950,7 +57950,7 @@
         <v>0.747150209878931</v>
       </c>
       <c r="AY304" t="n">
-        <v>0.4939210864349257</v>
+        <v>0.4939410494747949</v>
       </c>
     </row>
     <row r="305">
@@ -58139,7 +58139,7 @@
         <v>-0.727964431986075</v>
       </c>
       <c r="AY305" t="n">
-        <v>0.3403789905348753</v>
+        <v>0.3403989776323806</v>
       </c>
     </row>
     <row r="306">
@@ -58328,7 +58328,7 @@
         <v>-0.6585299409803269</v>
       </c>
       <c r="AY306" t="n">
-        <v>0.1897567540291127</v>
+        <v>0.1897767920582112</v>
       </c>
     </row>
     <row r="307">
@@ -58517,7 +58517,7 @@
         <v>-1.277397739552712</v>
       </c>
       <c r="AY307" t="n">
-        <v>0.7953209284001376</v>
+        <v>0.7953406740587596</v>
       </c>
     </row>
     <row r="308">
@@ -58706,7 +58706,7 @@
         <v>0.4569064146071741</v>
       </c>
       <c r="AY308" t="n">
-        <v>1.195091101521602</v>
+        <v>1.195110572089772</v>
       </c>
     </row>
     <row r="309">
@@ -58895,7 +58895,7 @@
         <v>2.282454907009253</v>
       </c>
       <c r="AY309" t="n">
-        <v>0.918550127274789</v>
+        <v>0.9185698613294354</v>
       </c>
     </row>
     <row r="310">
@@ -59084,7 +59084,7 @@
         <v>-0.3746918234854023</v>
       </c>
       <c r="AY310" t="n">
-        <v>0.2197923760344951</v>
+        <v>0.2198122322807905</v>
       </c>
     </row>
     <row r="311">
@@ -59273,7 +59273,7 @@
         <v>0.03166460476737118</v>
       </c>
       <c r="AY311" t="n">
-        <v>0.1888155857156586</v>
+        <v>0.1888354884131533</v>
       </c>
     </row>
     <row r="312">
@@ -59462,7 +59462,7 @@
         <v>0.4569064146071741</v>
       </c>
       <c r="AY312" t="n">
-        <v>0.1815491791648486</v>
+        <v>0.1815690912306138</v>
       </c>
     </row>
     <row r="313">
@@ -59651,7 +59651,7 @@
         <v>0.1243001862994473</v>
       </c>
       <c r="AY313" t="n">
-        <v>0.3111661579293162</v>
+        <v>0.3111861153889144</v>
       </c>
     </row>
     <row r="314">
@@ -59840,7 +59840,7 @@
         <v>0.4630915548592586</v>
       </c>
       <c r="AY314" t="n">
-        <v>0.356754739541195</v>
+        <v>0.3567746709600387</v>
       </c>
     </row>
     <row r="315">
@@ -60029,7 +60029,7 @@
         <v>0.5634780384942748</v>
       </c>
       <c r="AY315" t="n">
-        <v>0.05702514938527509</v>
+        <v>0.05704511889700193</v>
       </c>
     </row>
     <row r="316">
@@ -60218,7 +60218,7 @@
         <v>0.3904214894029787</v>
       </c>
       <c r="AY316" t="n">
-        <v>0.2603293001674861</v>
+        <v>0.2603491342276791</v>
       </c>
     </row>
     <row r="317">
@@ -60407,7 +60407,7 @@
         <v>0.4569064146071741</v>
       </c>
       <c r="AY317" t="n">
-        <v>0.8667834404732552</v>
+        <v>0.8668029232596005</v>
       </c>
     </row>
     <row r="318">
@@ -60424,7 +60424,7 @@
         <v>19.5034790039062</v>
       </c>
       <c r="E318" t="n">
-        <v>34.890998840332</v>
+        <v>34.40555938720702</v>
       </c>
       <c r="F318" t="n">
         <v>1</v>
@@ -60596,7 +60596,7 @@
         <v>-1.553109967136812</v>
       </c>
       <c r="AY318" t="n">
-        <v>0.5946679333723207</v>
+        <v>0.5946875794216288</v>
       </c>
     </row>
     <row r="319">
@@ -60785,7 +60785,7 @@
         <v>1.865480794298238</v>
       </c>
       <c r="AY319" t="n">
-        <v>1.217647454601568</v>
+        <v>1.217666866081122</v>
       </c>
     </row>
     <row r="320">
@@ -60974,7 +60974,7 @@
         <v>-0.1933678680394934</v>
       </c>
       <c r="AY320" t="n">
-        <v>1.174561764465234</v>
+        <v>1.174581079150271</v>
       </c>
     </row>
     <row r="321">
@@ -61163,7 +61163,7 @@
         <v>-1.308565707706286</v>
       </c>
       <c r="AY321" t="n">
-        <v>0.2193416030293705</v>
+        <v>0.2193611936488796</v>
       </c>
     </row>
     <row r="322">
@@ -61352,7 +61352,7 @@
         <v>0.01489061356692889</v>
       </c>
       <c r="AY322" t="n">
-        <v>-0.1242376449096192</v>
+        <v>-0.124217903855458</v>
       </c>
     </row>
     <row r="323">
@@ -61541,7 +61541,7 @@
         <v>0.4569064146071741</v>
       </c>
       <c r="AY323" t="n">
-        <v>0.185581210174869</v>
+        <v>0.1856008939834587</v>
       </c>
     </row>
     <row r="324">
@@ -61730,7 +61730,7 @@
         <v>0.1243001862994473</v>
       </c>
       <c r="AY324" t="n">
-        <v>0.8775545825043484</v>
+        <v>0.8775739770015711</v>
       </c>
     </row>
     <row r="325">
@@ -61919,7 +61919,7 @@
         <v>-0.1841429622228759</v>
       </c>
       <c r="AY325" t="n">
-        <v>0.9319607444503684</v>
+        <v>0.9319801705723065</v>
       </c>
     </row>
     <row r="326">
@@ -62108,7 +62108,7 @@
         <v>2.282454907009253</v>
       </c>
       <c r="AY326" t="n">
-        <v>0.5885089107007081</v>
+        <v>0.5885285354710238</v>
       </c>
     </row>
     <row r="327">
@@ -62297,7 +62297,7 @@
         <v>0.4679843983351823</v>
       </c>
       <c r="AY327" t="n">
-        <v>0.6038280338924039</v>
+        <v>0.6038450409992741</v>
       </c>
     </row>
     <row r="328">
@@ -62486,7 +62486,7 @@
         <v>0.6222681626616865</v>
       </c>
       <c r="AY328" t="n">
-        <v>0.9506195818909258</v>
+        <v>0.9506391154493732</v>
       </c>
     </row>
     <row r="329">
@@ -62675,7 +62675,7 @@
         <v>1.865480794298238</v>
       </c>
       <c r="AY329" t="n">
-        <v>1.257522422454107</v>
+        <v>1.257541673749764</v>
       </c>
     </row>
     <row r="330">
@@ -62864,7 +62864,7 @@
         <v>0.6222681626616865</v>
       </c>
       <c r="AY330" t="n">
-        <v>0.6893718161396775</v>
+        <v>0.6893915525380314</v>
       </c>
     </row>
     <row r="331">
@@ -63038,7 +63038,7 @@
         <v>0</v>
       </c>
       <c r="AT331" t="n">
-        <v>15.03928628370399</v>
+        <v>15.01988641060509</v>
       </c>
       <c r="AU331" t="n">
         <v>15.12384364788469</v>
@@ -63053,7 +63053,7 @@
         <v>1.322251832789895</v>
       </c>
       <c r="AY331" t="n">
-        <v>1.431728744310279</v>
+        <v>1.389764151643443</v>
       </c>
     </row>
     <row r="332">
@@ -63242,7 +63242,7 @@
         <v>0.4846420747891336</v>
       </c>
       <c r="AY332" t="n">
-        <v>-0.2353887057380379</v>
+        <v>-0.2354044929760501</v>
       </c>
     </row>
     <row r="333">
@@ -63504,7 +63504,7 @@
         <v>2</v>
       </c>
       <c r="W334" t="n">
-        <v>2.815037847</v>
+        <v>2.88147082664</v>
       </c>
       <c r="X334" t="n">
         <v>0.05402452377593658</v>

--- a/senegal_dataframe_FA.xlsx
+++ b/senegal_dataframe_FA.xlsx
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15.15878016</v>
+        <v>15.15005013999998</v>
       </c>
       <c r="C2" t="n">
         <v>-16.87950743</v>
@@ -758,7 +758,7 @@
         <v>2</v>
       </c>
       <c r="W2" t="n">
-        <v>41.28044793</v>
+        <v>40.233468902</v>
       </c>
       <c r="X2" t="n">
         <v>-0.6681440971572371</v>
@@ -860,13 +860,13 @@
         <v>13.99783294809122</v>
       </c>
       <c r="AU2" t="n">
-        <v>15.42494867039835</v>
+        <v>15.20180516908413</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>8.634971367642166</v>
+        <v>8.598524847652415</v>
       </c>
       <c r="AX2" t="n">
         <v>0.5337064155414436</v>
@@ -1229,7 +1229,7 @@
         <v>0.6931471805599453</v>
       </c>
       <c r="AR4" t="n">
-        <v>2.23606797749979</v>
+        <v>2.645751311064591</v>
       </c>
       <c r="AS4" t="n">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0.3303821271678443</v>
       </c>
       <c r="AY4" t="n">
-        <v>-0.752311778871072</v>
+        <v>-0.7213828228015811</v>
       </c>
     </row>
     <row r="5">
@@ -1264,7 +1264,7 @@
         <v>-16.8848499999999</v>
       </c>
       <c r="D5" t="n">
-        <v>62.2</v>
+        <v>62.00671142578121</v>
       </c>
       <c r="E5" t="n">
         <v>9.5</v>
@@ -1418,7 +1418,7 @@
         <v>1.09861228866811</v>
       </c>
       <c r="AR5" t="n">
-        <v>2.449489742783178</v>
+        <v>2.645751311064591</v>
       </c>
       <c r="AS5" t="n">
         <v>0</v>
@@ -1453,7 +1453,7 @@
         <v>-17.1294216666666</v>
       </c>
       <c r="D6" t="n">
-        <v>-55.90558166503902</v>
+        <v>-39.48</v>
       </c>
       <c r="E6" t="n">
         <v>8.39999961853027</v>
@@ -1473,7 +1473,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>28</v>
+        <v>28.6</v>
       </c>
       <c r="K6" t="n">
         <v>3.361111111111111</v>
@@ -1796,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>2.449489742783178</v>
+        <v>2.645751311064591</v>
       </c>
       <c r="AS7" t="n">
         <v>2.564949357461537</v>
@@ -1834,13 +1834,13 @@
         <v>-12.1</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H8" t="n">
         <v>6</v>
@@ -1895,7 +1895,7 @@
         <v>14.6815065</v>
       </c>
       <c r="X8" t="n">
-        <v>-2.187603431349979</v>
+        <v>-1.561422336398522</v>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
@@ -1976,22 +1976,22 @@
         <v>0.02359953703703704</v>
       </c>
       <c r="AO8" t="n">
-        <v>1.791759469228055</v>
+        <v>1.09861228866811</v>
       </c>
       <c r="AP8" t="n">
         <v>8.006700845440367</v>
       </c>
       <c r="AQ8" t="n">
-        <v>2.079441541679836</v>
+        <v>1.791759469228055</v>
       </c>
       <c r="AR8" t="n">
-        <v>5.067333269243094</v>
+        <v>4.58257569495584</v>
       </c>
       <c r="AS8" t="n">
         <v>1.945910149055313</v>
       </c>
       <c r="AT8" t="n">
-        <v>15.01988641060509</v>
+        <v>14.73180168983835</v>
       </c>
       <c r="AU8" t="n">
         <v>15.20180516908413</v>
@@ -2003,7 +2003,7 @@
         <v>6.447104905304395</v>
       </c>
       <c r="AX8" t="n">
-        <v>1.961563790729401</v>
+        <v>1.700191506719004</v>
       </c>
       <c r="AY8" t="n">
         <v>0.4365176811109724</v>
@@ -2017,7 +2017,7 @@
         <v>14.95972715</v>
       </c>
       <c r="C9" t="n">
-        <v>-16.7958891228</v>
+        <v>-16.86551899999998</v>
       </c>
       <c r="D9" t="n">
         <v>57.519775390625</v>
@@ -2357,10 +2357,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>9.721628742255696</v>
+        <v>9.546884034617925</v>
       </c>
       <c r="AQ10" t="n">
-        <v>2.19722457733622</v>
+        <v>1.791759469228055</v>
       </c>
       <c r="AR10" t="n">
         <v>3.464101615137754</v>
@@ -2613,10 +2613,10 @@
         <v>3.138888888888889</v>
       </c>
       <c r="L12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N12" t="n">
         <v>1</v>
@@ -2762,7 +2762,7 @@
         <v>0.7009699404232125</v>
       </c>
       <c r="AY12" t="n">
-        <v>1.10067350803173</v>
+        <v>0.9622892544858042</v>
       </c>
     </row>
     <row r="13">
@@ -2773,7 +2773,7 @@
         <v>14.8632766666666</v>
       </c>
       <c r="C13" t="n">
-        <v>-17.137045</v>
+        <v>-17.134429198</v>
       </c>
       <c r="D13" t="n">
         <v>32.7</v>
@@ -2945,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="AW13" t="n">
-        <v>5.818211817216695</v>
+        <v>5.873368410481751</v>
       </c>
       <c r="AX13" t="n">
         <v>-0.2385478947977616</v>
@@ -3308,7 +3308,7 @@
         <v>1.09861228866811</v>
       </c>
       <c r="AR15" t="n">
-        <v>2.23606797749979</v>
+        <v>2.645751311064591</v>
       </c>
       <c r="AS15" t="n">
         <v>1.945910149055313</v>
@@ -3497,7 +3497,7 @@
         <v>1.09861228866811</v>
       </c>
       <c r="AR16" t="n">
-        <v>2.23606797749979</v>
+        <v>2.645751311064591</v>
       </c>
       <c r="AS16" t="n">
         <v>1.945910149055313</v>
@@ -4858,7 +4858,7 @@
         <v>10.1261596679687</v>
       </c>
       <c r="E24" t="n">
-        <v>28.8229999542236</v>
+        <v>24.2719993591308</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -5015,7 +5015,7 @@
         <v>1.945910149055313</v>
       </c>
       <c r="AT24" t="n">
-        <v>11.51293546492023</v>
+        <v>11.69525535506279</v>
       </c>
       <c r="AU24" t="n">
         <v>13.30468660086356</v>
@@ -5041,7 +5041,7 @@
         <v>14.88814725</v>
       </c>
       <c r="C25" t="n">
-        <v>-17.1348578</v>
+        <v>-17.134429198</v>
       </c>
       <c r="D25" t="n">
         <v>16.8946533203125</v>
@@ -5242,7 +5242,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H26" t="n">
         <v>99</v>
@@ -5297,7 +5297,7 @@
         <v>26.45532511</v>
       </c>
       <c r="X26" t="n">
-        <v>-1.927899922699688</v>
+        <v>-1.561422336398522</v>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>-0.1452977793297941</v>
       </c>
       <c r="AY27" t="n">
-        <v>1.228749099514654</v>
+        <v>0.9622892544858042</v>
       </c>
     </row>
     <row r="28">
@@ -6015,10 +6015,10 @@
         <v>3.861111111111111</v>
       </c>
       <c r="L30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N30" t="n">
         <v>1</v>
@@ -6164,7 +6164,7 @@
         <v>-0.1211443358998655</v>
       </c>
       <c r="AY30" t="n">
-        <v>1.389764151643443</v>
+        <v>0.9622892544858042</v>
       </c>
     </row>
     <row r="31">
@@ -6201,7 +6201,7 @@
         <v>32</v>
       </c>
       <c r="K31" t="n">
-        <v>2.861111111111111</v>
+        <v>3</v>
       </c>
       <c r="L31" t="n">
         <v>5</v>
@@ -6239,7 +6239,7 @@
         <v>2</v>
       </c>
       <c r="W31" t="n">
-        <v>2.88147082664</v>
+        <v>3.5952978724</v>
       </c>
       <c r="X31" t="n">
         <v>0.5916117283852138</v>
@@ -6338,7 +6338,7 @@
         <v>1.945910149055313</v>
       </c>
       <c r="AT31" t="n">
-        <v>11.40757606036179</v>
+        <v>11.69525535506279</v>
       </c>
       <c r="AU31" t="n">
         <v>13.12236537740233</v>
@@ -6350,7 +6350,7 @@
         <v>7.434032646551938</v>
       </c>
       <c r="AX31" t="n">
-        <v>-2.001649769497078</v>
+        <v>-1.635047341043556</v>
       </c>
       <c r="AY31" t="n">
         <v>-0.2873725727633201</v>
@@ -6512,7 +6512,7 @@
         <v>0.02491898148148148</v>
       </c>
       <c r="AO32" t="n">
-        <v>1.791759469228055</v>
+        <v>1.09861228866811</v>
       </c>
       <c r="AP32" t="n">
         <v>6.621405651764134</v>
@@ -6553,10 +6553,10 @@
         <v>14.86244</v>
       </c>
       <c r="C33" t="n">
-        <v>-17.1365966666666</v>
+        <v>-17.134429198</v>
       </c>
       <c r="D33" t="n">
-        <v>-55.2</v>
+        <v>-39.48</v>
       </c>
       <c r="E33" t="n">
         <v>6.59999990463256</v>
@@ -6710,7 +6710,7 @@
         <v>0</v>
       </c>
       <c r="AR33" t="n">
-        <v>2.23606797749979</v>
+        <v>2.645751311064591</v>
       </c>
       <c r="AS33" t="n">
         <v>0</v>
@@ -6725,13 +6725,13 @@
         <v>0</v>
       </c>
       <c r="AW33" t="n">
-        <v>5.819069349990598</v>
+        <v>5.873368410481751</v>
       </c>
       <c r="AX33" t="n">
         <v>-0.02060980017297021</v>
       </c>
       <c r="AY33" t="n">
-        <v>-0.9513575637186524</v>
+        <v>-0.7213828228015811</v>
       </c>
     </row>
     <row r="34">
@@ -6745,7 +6745,7 @@
         <v>-17.1299</v>
       </c>
       <c r="D34" t="n">
-        <v>-48.2</v>
+        <v>-39.48</v>
       </c>
       <c r="E34" t="n">
         <v>17.1000003814697</v>
@@ -7109,7 +7109,7 @@
         <v>0.3195113590740312</v>
       </c>
       <c r="AY35" t="n">
-        <v>-0.753183933228859</v>
+        <v>-0.7213828228015811</v>
       </c>
     </row>
     <row r="36">
@@ -7120,7 +7120,7 @@
         <v>14.8631066666666</v>
       </c>
       <c r="C36" t="n">
-        <v>-17.1371198</v>
+        <v>-17.134429198</v>
       </c>
       <c r="D36" t="n">
         <v>-19.5</v>
@@ -7292,7 +7292,7 @@
         <v>0</v>
       </c>
       <c r="AW36" t="n">
-        <v>5.812260964841825</v>
+        <v>5.873368410481751</v>
       </c>
       <c r="AX36" t="n">
         <v>0.1117904379740237</v>
@@ -7373,7 +7373,7 @@
         <v>3</v>
       </c>
       <c r="W37" t="n">
-        <v>3.584865888</v>
+        <v>3.5952978724</v>
       </c>
       <c r="X37" t="n">
         <v>-0.06671599920266792</v>
@@ -7460,7 +7460,7 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>5.017279836814924</v>
+        <v>5.525452939131783</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.6094379124341</v>
@@ -7484,7 +7484,7 @@
         <v>7.534469132593219</v>
       </c>
       <c r="AX37" t="n">
-        <v>-2.042903742394826</v>
+        <v>-1.635047341043556</v>
       </c>
       <c r="AY37" t="n">
         <v>-0.4447788446736011</v>
@@ -7501,7 +7501,7 @@
         <v>-16.90497856</v>
       </c>
       <c r="D38" t="n">
-        <v>64.9849853515625</v>
+        <v>62.00671142578121</v>
       </c>
       <c r="E38" t="n">
         <v>7.58500003814697</v>
@@ -7562,7 +7562,7 @@
         <v>3</v>
       </c>
       <c r="W38" t="n">
-        <v>3.566795585</v>
+        <v>3.5952978724</v>
       </c>
       <c r="X38" t="n">
         <v>0.2759253583923902</v>
@@ -7646,7 +7646,7 @@
         <v>0.02417824074074074</v>
       </c>
       <c r="AO38" t="n">
-        <v>1.386294361119891</v>
+        <v>1.09861228866811</v>
       </c>
       <c r="AP38" t="n">
         <v>5.993961427306569</v>
@@ -7865,7 +7865,7 @@
         <v>0.4378086564858223</v>
       </c>
       <c r="AY39" t="n">
-        <v>-0.7330450281222862</v>
+        <v>-0.7213828228015811</v>
       </c>
     </row>
     <row r="40">
@@ -7888,7 +7888,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H40" t="n">
         <v>99</v>
@@ -8280,7 +8280,7 @@
         <v>39</v>
       </c>
       <c r="K42" t="n">
-        <v>2.861111111111111</v>
+        <v>3</v>
       </c>
       <c r="L42" t="n">
         <v>8</v>
@@ -8635,7 +8635,7 @@
         <v>-16.91998</v>
       </c>
       <c r="D44" t="n">
-        <v>71.8</v>
+        <v>62.00671142578121</v>
       </c>
       <c r="E44" t="n">
         <v>6.59999990463256</v>
@@ -8696,7 +8696,7 @@
         <v>2</v>
       </c>
       <c r="W44" t="n">
-        <v>2.88147082664</v>
+        <v>3.5952978724</v>
       </c>
       <c r="X44" t="n">
         <v>0.2955055697331456</v>
@@ -8795,10 +8795,10 @@
         <v>0</v>
       </c>
       <c r="AT44" t="n">
-        <v>11.19899428086267</v>
+        <v>11.69525535506279</v>
       </c>
       <c r="AU44" t="n">
-        <v>11.69525535506279</v>
+        <v>12.61154108696612</v>
       </c>
       <c r="AV44" t="n">
         <v>0</v>
@@ -8810,7 +8810,7 @@
         <v>-0.7206492310516377</v>
       </c>
       <c r="AY44" t="n">
-        <v>-1.107944402537769</v>
+        <v>-0.7213828228015811</v>
       </c>
     </row>
     <row r="45">
@@ -9563,7 +9563,7 @@
         <v>5.993298108721107</v>
       </c>
       <c r="AX48" t="n">
-        <v>-2.050788661439982</v>
+        <v>-1.635047341043556</v>
       </c>
       <c r="AY48" t="n">
         <v>0.2880724718072866</v>
@@ -10173,10 +10173,10 @@
         <v>3.527777777777778</v>
       </c>
       <c r="L52" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M52" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N52" t="n">
         <v>1</v>
@@ -10336,7 +10336,7 @@
         <v>-17.1322116666666</v>
       </c>
       <c r="D53" t="n">
-        <v>-43.4</v>
+        <v>-39.48</v>
       </c>
       <c r="E53" t="n">
         <v>5.5</v>
@@ -10528,13 +10528,13 @@
         <v>-3.600000000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F54" t="n">
         <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H54" t="n">
         <v>4</v>
@@ -10717,7 +10717,7 @@
         <v>4.4828491210937</v>
       </c>
       <c r="E55" t="n">
-        <v>34.40555938720702</v>
+        <v>24.2719993591308</v>
       </c>
       <c r="F55" t="n">
         <v>1</v>
@@ -10862,7 +10862,7 @@
         <v>0</v>
       </c>
       <c r="AP55" t="n">
-        <v>5.017279836814924</v>
+        <v>5.525452939131783</v>
       </c>
       <c r="AQ55" t="n">
         <v>0</v>
@@ -11493,7 +11493,7 @@
         <v>36</v>
       </c>
       <c r="K59" t="n">
-        <v>2.861111111111111</v>
+        <v>3</v>
       </c>
       <c r="L59" t="n">
         <v>7</v>
@@ -11656,7 +11656,7 @@
         <v>14.8904166666666</v>
       </c>
       <c r="C60" t="n">
-        <v>-17.1345366666666</v>
+        <v>-17.134429198</v>
       </c>
       <c r="D60" t="n">
         <v>-19.1</v>
@@ -11682,7 +11682,7 @@
         <v>33</v>
       </c>
       <c r="K60" t="n">
-        <v>2.861111111111111</v>
+        <v>3</v>
       </c>
       <c r="L60" t="n">
         <v>1</v>
@@ -11851,7 +11851,7 @@
         <v>3.699999999999999</v>
       </c>
       <c r="E61" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F61" t="n">
         <v>1</v>
@@ -11871,7 +11871,7 @@
         <v>36</v>
       </c>
       <c r="K61" t="n">
-        <v>2.861111111111111</v>
+        <v>3</v>
       </c>
       <c r="L61" t="n">
         <v>5</v>
@@ -12034,7 +12034,7 @@
         <v>14.8911033333333</v>
       </c>
       <c r="C62" t="n">
-        <v>-17.13481</v>
+        <v>-17.134429198</v>
       </c>
       <c r="D62" t="n">
         <v>19.3</v>
@@ -12060,7 +12060,7 @@
         <v>37</v>
       </c>
       <c r="K62" t="n">
-        <v>2.972222222222222</v>
+        <v>3</v>
       </c>
       <c r="L62" t="n">
         <v>4</v>
@@ -12229,7 +12229,7 @@
         <v>7.5</v>
       </c>
       <c r="E63" t="n">
-        <v>3.20000004768371</v>
+        <v>3.5</v>
       </c>
       <c r="F63" t="n">
         <v>1</v>
@@ -12607,7 +12607,7 @@
         <v>-10.1035766601563</v>
       </c>
       <c r="E65" t="n">
-        <v>30.3400001525878</v>
+        <v>24.2719993591308</v>
       </c>
       <c r="F65" t="n">
         <v>1</v>
@@ -12790,7 +12790,7 @@
         <v>14.89008135</v>
       </c>
       <c r="C66" t="n">
-        <v>-17.13491112</v>
+        <v>-17.134429198</v>
       </c>
       <c r="D66" t="n">
         <v>15.9730224609375</v>
@@ -12979,7 +12979,7 @@
         <v>14.8909151</v>
       </c>
       <c r="C67" t="n">
-        <v>-17.1346723</v>
+        <v>-17.134429198</v>
       </c>
       <c r="D67" t="n">
         <v>4.4641723632812</v>
@@ -13523,7 +13523,7 @@
         <v>11.84940484442307</v>
       </c>
       <c r="AU69" t="n">
-        <v>12.42922019683638</v>
+        <v>12.61154108696612</v>
       </c>
       <c r="AV69" t="n">
         <v>0</v>
@@ -13558,7 +13558,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H70" t="n">
         <v>99</v>
@@ -13613,7 +13613,7 @@
         <v>26.52356883</v>
       </c>
       <c r="X70" t="n">
-        <v>1.321800015051284</v>
+        <v>1.140689230583377</v>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>0</v>
       </c>
       <c r="AP70" t="n">
-        <v>9.61587214452889</v>
+        <v>9.546884034617925</v>
       </c>
       <c r="AQ70" t="n">
         <v>0</v>
@@ -13709,10 +13709,10 @@
         <v>0</v>
       </c>
       <c r="AT70" t="n">
-        <v>14.91412317996566</v>
+        <v>14.73180168983835</v>
       </c>
       <c r="AU70" t="n">
-        <v>15.23136396404413</v>
+        <v>15.20180516908413</v>
       </c>
       <c r="AV70" t="n">
         <v>0</v>
@@ -13721,10 +13721,10 @@
         <v>7.206230715151992</v>
       </c>
       <c r="AX70" t="n">
-        <v>2.282454907009253</v>
+        <v>1.700191506719004</v>
       </c>
       <c r="AY70" t="n">
-        <v>1.061628676707759</v>
+        <v>0.9622892544858042</v>
       </c>
     </row>
     <row r="71">
@@ -13738,7 +13738,7 @@
         <v>-17.02711</v>
       </c>
       <c r="D71" t="n">
-        <v>-44.7</v>
+        <v>-39.48</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -13913,7 +13913,7 @@
         <v>0.09699721485853274</v>
       </c>
       <c r="AY71" t="n">
-        <v>0.9723873438714528</v>
+        <v>0.9622892544858042</v>
       </c>
     </row>
     <row r="72">
@@ -14291,7 +14291,7 @@
         <v>-1.115615492707938</v>
       </c>
       <c r="AY73" t="n">
-        <v>1.355245049450644</v>
+        <v>0.9622892544858042</v>
       </c>
     </row>
     <row r="74">
@@ -14453,22 +14453,22 @@
         <v>0</v>
       </c>
       <c r="AP74" t="n">
-        <v>9.680406499268875</v>
+        <v>9.546884034617925</v>
       </c>
       <c r="AQ74" t="n">
         <v>0</v>
       </c>
       <c r="AR74" t="n">
-        <v>4.795831523312719</v>
+        <v>4.58257569495584</v>
       </c>
       <c r="AS74" t="n">
         <v>0</v>
       </c>
       <c r="AT74" t="n">
-        <v>15.01988641060509</v>
+        <v>14.73180168983835</v>
       </c>
       <c r="AU74" t="n">
-        <v>15.42494867039835</v>
+        <v>15.20180516908413</v>
       </c>
       <c r="AV74" t="n">
         <v>2</v>
@@ -14480,7 +14480,7 @@
         <v>1.357393605262615</v>
       </c>
       <c r="AY74" t="n">
-        <v>1.389764151643443</v>
+        <v>0.9622892544858042</v>
       </c>
     </row>
     <row r="75">
@@ -14648,7 +14648,7 @@
         <v>1.6094379124341</v>
       </c>
       <c r="AR75" t="n">
-        <v>2.23606797749979</v>
+        <v>2.645751311064591</v>
       </c>
       <c r="AS75" t="n">
         <v>2.564949357461537</v>
@@ -14747,7 +14747,7 @@
         <v>39.93808279</v>
       </c>
       <c r="X76" t="n">
-        <v>-1.912505480705313</v>
+        <v>-1.561422336398522</v>
       </c>
       <c r="Y76" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>15.12706974</v>
       </c>
       <c r="C77" t="n">
-        <v>-16.86457513</v>
+        <v>-16.86551899999998</v>
       </c>
       <c r="D77" t="n">
         <v>22.3165893554687</v>
@@ -14936,7 +14936,7 @@
         <v>38.02724128</v>
       </c>
       <c r="X77" t="n">
-        <v>-2.187603431349979</v>
+        <v>-1.561422336398522</v>
       </c>
       <c r="Y77" t="inlineStr">
         <is>
@@ -15125,7 +15125,7 @@
         <v>14.3046969</v>
       </c>
       <c r="X78" t="n">
-        <v>-1.830995628427192</v>
+        <v>-1.561422336398522</v>
       </c>
       <c r="Y78" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>9.392745258631441</v>
       </c>
       <c r="AQ78" t="n">
-        <v>2.19722457733622</v>
+        <v>1.791759469228055</v>
       </c>
       <c r="AR78" t="n">
         <v>4</v>
@@ -15459,7 +15459,7 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>25</v>
+        <v>28.6</v>
       </c>
       <c r="K80" t="n">
         <v>3.472222222222222</v>
@@ -15503,7 +15503,7 @@
         <v>21.19660676</v>
       </c>
       <c r="X80" t="n">
-        <v>-1.637187039882199</v>
+        <v>-1.561422336398522</v>
       </c>
       <c r="Y80" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>0</v>
       </c>
       <c r="AP80" t="n">
-        <v>9.61587214452889</v>
+        <v>9.546884034617925</v>
       </c>
       <c r="AQ80" t="n">
         <v>0</v>
@@ -16204,7 +16204,7 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H84" t="n">
         <v>99</v>
@@ -16259,7 +16259,7 @@
         <v>38.04577028</v>
       </c>
       <c r="X84" t="n">
-        <v>-2.121708511244681</v>
+        <v>-1.561422336398522</v>
       </c>
       <c r="Y84" t="inlineStr">
         <is>
@@ -16349,7 +16349,7 @@
         <v>1.6094379124341</v>
       </c>
       <c r="AR84" t="n">
-        <v>2.23606797749979</v>
+        <v>2.645751311064591</v>
       </c>
       <c r="AS84" t="n">
         <v>1.945910149055313</v>
@@ -16381,13 +16381,13 @@
         <v>14.8896743</v>
       </c>
       <c r="C85" t="n">
-        <v>-17.13452434</v>
+        <v>-17.134429198</v>
       </c>
       <c r="D85" t="n">
         <v>17.8234252929687</v>
       </c>
       <c r="E85" t="n">
-        <v>30.3400001525878</v>
+        <v>24.2719993591308</v>
       </c>
       <c r="F85" t="n">
         <v>1</v>
@@ -16573,7 +16573,7 @@
         <v>-16.91798</v>
       </c>
       <c r="D86" t="n">
-        <v>69.09999999999999</v>
+        <v>62.00671142578121</v>
       </c>
       <c r="E86" t="n">
         <v>11.8000001907348</v>
@@ -16634,10 +16634,10 @@
         <v>2</v>
       </c>
       <c r="W86" t="n">
-        <v>2.943784022</v>
+        <v>3.5952978724</v>
       </c>
       <c r="X86" t="n">
-        <v>1.46375037683768</v>
+        <v>1.140689230583377</v>
       </c>
       <c r="Y86" t="inlineStr">
         <is>
@@ -16733,7 +16733,7 @@
         <v>1.945910149055313</v>
       </c>
       <c r="AT86" t="n">
-        <v>14.80876270134486</v>
+        <v>14.73180168983835</v>
       </c>
       <c r="AU86" t="n">
         <v>14.91412317996566</v>
@@ -16745,7 +16745,7 @@
         <v>7.445145457276171</v>
       </c>
       <c r="AX86" t="n">
-        <v>2.213106813795822</v>
+        <v>1.700191506719004</v>
       </c>
       <c r="AY86" t="n">
         <v>0.3932101740631374</v>
@@ -16762,16 +16762,16 @@
         <v>-17.0542166666666</v>
       </c>
       <c r="D87" t="n">
-        <v>-49</v>
+        <v>-39.48</v>
       </c>
       <c r="E87" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F87" t="n">
         <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H87" t="n">
         <v>6</v>
@@ -16826,7 +16826,7 @@
         <v>14.62909664</v>
       </c>
       <c r="X87" t="n">
-        <v>1.321800015051284</v>
+        <v>1.140689230583377</v>
       </c>
       <c r="Y87" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
         <v>8.699681400989514</v>
       </c>
       <c r="AQ87" t="n">
-        <v>2.079441541679836</v>
+        <v>1.791759469228055</v>
       </c>
       <c r="AR87" t="n">
         <v>3.872983346207417</v>
@@ -16960,7 +16960,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H88" t="n">
         <v>6</v>
@@ -17015,7 +17015,7 @@
         <v>14.78627774</v>
       </c>
       <c r="X88" t="n">
-        <v>1.382170276540586</v>
+        <v>1.140689230583377</v>
       </c>
       <c r="Y88" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>8.294299608857235</v>
       </c>
       <c r="AQ88" t="n">
-        <v>2.079441541679836</v>
+        <v>1.791759469228055</v>
       </c>
       <c r="AR88" t="n">
         <v>4.358898943540674</v>
@@ -17338,7 +17338,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H90" t="n">
         <v>4</v>
@@ -17477,7 +17477,7 @@
         <v>0.6931471805599453</v>
       </c>
       <c r="AP90" t="n">
-        <v>9.721628742255696</v>
+        <v>9.546884034617925</v>
       </c>
       <c r="AQ90" t="n">
         <v>0</v>
@@ -17527,7 +17527,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H91" t="n">
         <v>6</v>
@@ -17582,7 +17582,7 @@
         <v>14.39833696</v>
       </c>
       <c r="X91" t="n">
-        <v>1.529645296942978</v>
+        <v>1.140689230583377</v>
       </c>
       <c r="Y91" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>16.1</v>
       </c>
       <c r="E92" t="n">
-        <v>3.20000004768371</v>
+        <v>3.5</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -17905,7 +17905,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H93" t="n">
         <v>6</v>
@@ -17960,7 +17960,7 @@
         <v>14.55296317</v>
       </c>
       <c r="X93" t="n">
-        <v>1.261429753561982</v>
+        <v>1.140689230583377</v>
       </c>
       <c r="Y93" t="inlineStr">
         <is>
@@ -18047,7 +18047,7 @@
         <v>7.824445930877619</v>
       </c>
       <c r="AQ93" t="n">
-        <v>2.19722457733622</v>
+        <v>1.791759469228055</v>
       </c>
       <c r="AR93" t="n">
         <v>3.605551275463989</v>
@@ -18056,10 +18056,10 @@
         <v>0</v>
       </c>
       <c r="AT93" t="n">
-        <v>15.01988641060509</v>
+        <v>14.73180168983835</v>
       </c>
       <c r="AU93" t="n">
-        <v>15.42494867039835</v>
+        <v>15.20180516908413</v>
       </c>
       <c r="AV93" t="n">
         <v>2</v>
@@ -18635,7 +18635,7 @@
         <v>8.520113451709431</v>
       </c>
       <c r="AX96" t="n">
-        <v>1.865480794298238</v>
+        <v>1.700191506719004</v>
       </c>
       <c r="AY96" t="n">
         <v>0.1164915367621954</v>
@@ -18850,7 +18850,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H98" t="n">
         <v>99</v>
@@ -18905,7 +18905,7 @@
         <v>40.20986631</v>
       </c>
       <c r="X98" t="n">
-        <v>1.261429753561982</v>
+        <v>1.140689230583377</v>
       </c>
       <c r="Y98" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>12.20607764551767</v>
       </c>
       <c r="AU98" t="n">
-        <v>12.42922019683638</v>
+        <v>12.61154108696612</v>
       </c>
       <c r="AV98" t="n">
         <v>0</v>
@@ -19027,10 +19027,10 @@
         <v>15.1252183333333</v>
       </c>
       <c r="C99" t="n">
-        <v>-16.86486</v>
+        <v>-16.86551899999998</v>
       </c>
       <c r="D99" t="n">
-        <v>-55.90558166503902</v>
+        <v>-39.48</v>
       </c>
       <c r="E99" t="n">
         <v>12.1000003814697</v>
@@ -19216,7 +19216,7 @@
         <v>15.12919</v>
       </c>
       <c r="C100" t="n">
-        <v>-16.86537</v>
+        <v>-16.86551899999998</v>
       </c>
       <c r="D100" t="n">
         <v>4.399999999999999</v>
@@ -19373,7 +19373,7 @@
         <v>0</v>
       </c>
       <c r="AR100" t="n">
-        <v>2.23606797749979</v>
+        <v>2.645751311064591</v>
       </c>
       <c r="AS100" t="n">
         <v>0</v>
@@ -19391,7 +19391,7 @@
         <v>8.59316130303627</v>
       </c>
       <c r="AX100" t="n">
-        <v>1.734912637851263</v>
+        <v>1.700191506719004</v>
       </c>
       <c r="AY100" t="n">
         <v>-0.3157522084872391</v>
@@ -19594,7 +19594,7 @@
         <v>15.12748922</v>
       </c>
       <c r="C102" t="n">
-        <v>-16.86509063</v>
+        <v>-16.86551899999998</v>
       </c>
       <c r="D102" t="n">
         <v>39.7633666992187</v>
@@ -20379,10 +20379,10 @@
         <v>3.305555555555555</v>
       </c>
       <c r="L106" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M106" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N106" t="n">
         <v>1</v>
@@ -20943,7 +20943,7 @@
         <v>35</v>
       </c>
       <c r="K109" t="n">
-        <v>2.888888888888889</v>
+        <v>3</v>
       </c>
       <c r="L109" t="n">
         <v>5</v>
@@ -21083,7 +21083,7 @@
         <v>11.84940484442307</v>
       </c>
       <c r="AU109" t="n">
-        <v>12.46844075614411</v>
+        <v>12.61154108696612</v>
       </c>
       <c r="AV109" t="n">
         <v>0</v>
@@ -21307,7 +21307,7 @@
         <v>1</v>
       </c>
       <c r="G111" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H111" t="n">
         <v>99</v>
@@ -21496,7 +21496,7 @@
         <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H112" t="n">
         <v>99</v>
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>27</v>
+        <v>28.6</v>
       </c>
       <c r="K113" t="n">
         <v>3.416666666666667</v>
@@ -21865,7 +21865,7 @@
         <v>-17.0233233333333</v>
       </c>
       <c r="D114" t="n">
-        <v>-50</v>
+        <v>-39.48</v>
       </c>
       <c r="E114" t="n">
         <v>9.89999961853027</v>
@@ -21885,7 +21885,7 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>28</v>
+        <v>28.6</v>
       </c>
       <c r="K114" t="n">
         <v>3.222222222222222</v>
@@ -22019,7 +22019,7 @@
         <v>0</v>
       </c>
       <c r="AR114" t="n">
-        <v>4.795831523312719</v>
+        <v>4.58257569495584</v>
       </c>
       <c r="AS114" t="n">
         <v>0</v>
@@ -22054,7 +22054,7 @@
         <v>-16.90544155</v>
       </c>
       <c r="D115" t="n">
-        <v>71.23028564453119</v>
+        <v>62.00671142578121</v>
       </c>
       <c r="E115" t="n">
         <v>9.101999282836911</v>
@@ -22115,7 +22115,7 @@
         <v>3</v>
       </c>
       <c r="W115" t="n">
-        <v>3.536819409</v>
+        <v>3.5952978724</v>
       </c>
       <c r="X115" t="n">
         <v>0.7180974001582613</v>
@@ -22226,7 +22226,7 @@
         <v>7.533961071707233</v>
       </c>
       <c r="AX115" t="n">
-        <v>-1.786509350703792</v>
+        <v>-1.635047341043556</v>
       </c>
       <c r="AY115" t="n">
         <v>0.4092811374316407</v>
@@ -22412,7 +22412,7 @@
         <v>0</v>
       </c>
       <c r="AW116" t="n">
-        <v>5.832312296165218</v>
+        <v>5.873368410481751</v>
       </c>
       <c r="AX116" t="n">
         <v>-0.04651138016242175</v>
@@ -22426,13 +22426,13 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>14.81246139999996</v>
+        <v>14.8142903333333</v>
       </c>
       <c r="C117" t="n">
         <v>-16.8988644851008</v>
       </c>
       <c r="D117" t="n">
-        <v>73.63629333496088</v>
+        <v>62.00671142578121</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -22580,7 +22580,7 @@
         <v>0</v>
       </c>
       <c r="AP117" t="n">
-        <v>4.86666711878656</v>
+        <v>5.525452939131783</v>
       </c>
       <c r="AQ117" t="n">
         <v>0.6931471805599453</v>
@@ -22592,7 +22592,7 @@
         <v>2.564949357461537</v>
       </c>
       <c r="AT117" t="n">
-        <v>14.91412317996566</v>
+        <v>14.73180168983835</v>
       </c>
       <c r="AU117" t="n">
         <v>14.91412317996566</v>
@@ -22604,7 +22604,7 @@
         <v>7.550058240172721</v>
       </c>
       <c r="AX117" t="n">
-        <v>1.814698366752597</v>
+        <v>1.700191506719004</v>
       </c>
       <c r="AY117" t="n">
         <v>0.02696761321963417</v>
@@ -22618,7 +22618,7 @@
         <v>14.9602843</v>
       </c>
       <c r="C118" t="n">
-        <v>-16.7958891228</v>
+        <v>-16.86551899999998</v>
       </c>
       <c r="D118" t="n">
         <v>56.07830810546869</v>
@@ -22810,7 +22810,7 @@
         <v>-17.1341049999999</v>
       </c>
       <c r="D119" t="n">
-        <v>-45.8</v>
+        <v>-39.48</v>
       </c>
       <c r="E119" t="n">
         <v>5.59999990463256</v>
@@ -22874,7 +22874,7 @@
         <v>23.70670189</v>
       </c>
       <c r="X119" t="n">
-        <v>-2.088047052858708</v>
+        <v>-1.561422336398522</v>
       </c>
       <c r="Y119" t="inlineStr">
         <is>
@@ -22979,7 +22979,7 @@
         <v>0</v>
       </c>
       <c r="AW119" t="n">
-        <v>5.833379502483959</v>
+        <v>5.873368410481751</v>
       </c>
       <c r="AX119" t="n">
         <v>0.3136702918539308</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="AP120" t="n">
-        <v>5.303304908059076</v>
+        <v>5.525452939131783</v>
       </c>
       <c r="AQ120" t="n">
         <v>0</v>
@@ -23252,7 +23252,7 @@
         <v>3.614742148</v>
       </c>
       <c r="X121" t="n">
-        <v>-2.187603431349979</v>
+        <v>-1.561422336398522</v>
       </c>
       <c r="Y121" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>-16.90506877</v>
       </c>
       <c r="D122" t="n">
-        <v>62.479248046875</v>
+        <v>62.00671142578121</v>
       </c>
       <c r="E122" t="n">
         <v>7.58500003814697</v>
@@ -23566,7 +23566,7 @@
         <v>-16.90506877</v>
       </c>
       <c r="D123" t="n">
-        <v>62.479248046875</v>
+        <v>62.00671142578121</v>
       </c>
       <c r="E123" t="n">
         <v>7.58500003814697</v>
@@ -23749,13 +23749,13 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>14.81246139999996</v>
+        <v>14.8142903333333</v>
       </c>
       <c r="C124" t="n">
         <v>-16.90177033</v>
       </c>
       <c r="D124" t="n">
-        <v>73.19781494140619</v>
+        <v>62.00671142578121</v>
       </c>
       <c r="E124" t="n">
         <v>13.6529998779296</v>
@@ -23816,7 +23816,7 @@
         <v>2</v>
       </c>
       <c r="W124" t="n">
-        <v>3.555092281</v>
+        <v>3.5952978724</v>
       </c>
       <c r="X124" t="n">
         <v>0.01845181298203747</v>
@@ -24107,7 +24107,7 @@
         <v>13.99783294809122</v>
       </c>
       <c r="AU125" t="n">
-        <v>15.31958817696275</v>
+        <v>15.20180516908413</v>
       </c>
       <c r="AV125" t="n">
         <v>1</v>
@@ -24197,7 +24197,7 @@
         <v>40.10213614</v>
       </c>
       <c r="X126" t="n">
-        <v>-2.187603431349979</v>
+        <v>-1.561422336398522</v>
       </c>
       <c r="Y126" t="inlineStr">
         <is>
@@ -24325,7 +24325,7 @@
         <v>26.1434326171875</v>
       </c>
       <c r="E127" t="n">
-        <v>33.3740005493164</v>
+        <v>24.2719993591308</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -24386,7 +24386,7 @@
         <v>40.18037774</v>
       </c>
       <c r="X127" t="n">
-        <v>-2.088047052858708</v>
+        <v>-1.561422336398522</v>
       </c>
       <c r="Y127" t="inlineStr">
         <is>
@@ -24575,7 +24575,7 @@
         <v>37.60098907</v>
       </c>
       <c r="X128" t="n">
-        <v>1.529645296942978</v>
+        <v>1.140689230583377</v>
       </c>
       <c r="Y128" t="inlineStr">
         <is>
@@ -24764,7 +24764,7 @@
         <v>24.4707159</v>
       </c>
       <c r="X129" t="n">
-        <v>-2.088047052858708</v>
+        <v>-1.561422336398522</v>
       </c>
       <c r="Y129" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         <v>14.89056399</v>
       </c>
       <c r="C131" t="n">
-        <v>-17.13481597</v>
+        <v>-17.134429198</v>
       </c>
       <c r="D131" t="n">
         <v>12.4427490234375</v>
@@ -25616,7 +25616,7 @@
         <v>2.564949357461537</v>
       </c>
       <c r="AT133" t="n">
-        <v>11.51293546492023</v>
+        <v>11.69525535506279</v>
       </c>
       <c r="AU133" t="n">
         <v>14.22097633273888</v>
@@ -25631,7 +25631,7 @@
         <v>-1.159611957709125</v>
       </c>
       <c r="AY133" t="n">
-        <v>1.389764151643443</v>
+        <v>0.9622892544858042</v>
       </c>
     </row>
     <row r="134">
@@ -25709,7 +25709,7 @@
         <v>26.44863764</v>
       </c>
       <c r="X134" t="n">
-        <v>-1.736963908551917</v>
+        <v>-1.561422336398522</v>
       </c>
       <c r="Y134" t="inlineStr">
         <is>
@@ -25799,7 +25799,7 @@
         <v>0</v>
       </c>
       <c r="AR134" t="n">
-        <v>5</v>
+        <v>4.58257569495584</v>
       </c>
       <c r="AS134" t="n">
         <v>2.564949357461537</v>
@@ -25808,7 +25808,7 @@
         <v>14.22097633273888</v>
       </c>
       <c r="AU134" t="n">
-        <v>15.42494867039835</v>
+        <v>15.20180516908413</v>
       </c>
       <c r="AV134" t="n">
         <v>0</v>
@@ -25820,7 +25820,7 @@
         <v>0.8592115585188383</v>
       </c>
       <c r="AY134" t="n">
-        <v>0.9989998312036469</v>
+        <v>0.9622892544858042</v>
       </c>
     </row>
     <row r="135">
@@ -26023,7 +26023,7 @@
         <v>-17.0559016666666</v>
       </c>
       <c r="D136" t="n">
-        <v>-53.9</v>
+        <v>-39.48</v>
       </c>
       <c r="E136" t="n">
         <v>8.89999961853027</v>
@@ -26168,16 +26168,16 @@
         <v>0.02336805555555556</v>
       </c>
       <c r="AO136" t="n">
-        <v>1.386294361119891</v>
+        <v>1.09861228866811</v>
       </c>
       <c r="AP136" t="n">
         <v>8.699681400989514</v>
       </c>
       <c r="AQ136" t="n">
-        <v>2.079441541679836</v>
+        <v>1.791759469228055</v>
       </c>
       <c r="AR136" t="n">
-        <v>5.067333269243094</v>
+        <v>4.58257569495584</v>
       </c>
       <c r="AS136" t="n">
         <v>1.945910149055313</v>
@@ -26215,7 +26215,7 @@
         <v>-20</v>
       </c>
       <c r="E137" t="n">
-        <v>3.29999995231628</v>
+        <v>3.5</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
@@ -26357,16 +26357,16 @@
         <v>0.02315972222222222</v>
       </c>
       <c r="AO137" t="n">
-        <v>1.791759469228055</v>
+        <v>1.09861228866811</v>
       </c>
       <c r="AP137" t="n">
         <v>7.313886831633462</v>
       </c>
       <c r="AQ137" t="n">
-        <v>2.268869727983542</v>
+        <v>1.791759469228055</v>
       </c>
       <c r="AR137" t="n">
-        <v>5</v>
+        <v>4.58257569495584</v>
       </c>
       <c r="AS137" t="n">
         <v>1.945910149055313</v>
@@ -26404,7 +26404,7 @@
         <v>-16.3</v>
       </c>
       <c r="E138" t="n">
-        <v>3.20000004768371</v>
+        <v>3.5</v>
       </c>
       <c r="F138" t="n">
         <v>1</v>
@@ -26546,13 +26546,13 @@
         <v>0.02126157407407408</v>
       </c>
       <c r="AO138" t="n">
-        <v>1.791759469228055</v>
+        <v>1.09861228866811</v>
       </c>
       <c r="AP138" t="n">
         <v>6.68586094706836</v>
       </c>
       <c r="AQ138" t="n">
-        <v>2.268869727983542</v>
+        <v>1.791759469228055</v>
       </c>
       <c r="AR138" t="n">
         <v>4.58257569495584</v>
@@ -26564,7 +26564,7 @@
         <v>12.32386012562113</v>
       </c>
       <c r="AU138" t="n">
-        <v>12.32386012562113</v>
+        <v>12.61154108696612</v>
       </c>
       <c r="AV138" t="n">
         <v>1</v>
@@ -26782,7 +26782,7 @@
         <v>-20.6</v>
       </c>
       <c r="E140" t="n">
-        <v>3.40000009536743</v>
+        <v>3.5</v>
       </c>
       <c r="F140" t="n">
         <v>1</v>
@@ -26924,13 +26924,13 @@
         <v>0.02333333333333333</v>
       </c>
       <c r="AO140" t="n">
-        <v>1.791759469228055</v>
+        <v>1.09861228866811</v>
       </c>
       <c r="AP140" t="n">
         <v>9.210440366976517</v>
       </c>
       <c r="AQ140" t="n">
-        <v>2.19722457733622</v>
+        <v>1.791759469228055</v>
       </c>
       <c r="AR140" t="n">
         <v>3.872983346207417</v>
@@ -26939,7 +26939,7 @@
         <v>1.945910149055313</v>
       </c>
       <c r="AT140" t="n">
-        <v>14.91412317996566</v>
+        <v>14.73180168983835</v>
       </c>
       <c r="AU140" t="n">
         <v>14.91412317996566</v>
@@ -26965,7 +26965,7 @@
         <v>14.96082463</v>
       </c>
       <c r="C141" t="n">
-        <v>-16.7958891228</v>
+        <v>-16.86551899999998</v>
       </c>
       <c r="D141" t="n">
         <v>56.77935791015619</v>
@@ -27154,10 +27154,10 @@
         <v>14.9599224</v>
       </c>
       <c r="C142" t="n">
-        <v>-16.7958891228</v>
+        <v>-16.86551899999998</v>
       </c>
       <c r="D142" t="n">
-        <v>67.147216796875</v>
+        <v>62.00671142578121</v>
       </c>
       <c r="E142" t="n">
         <v>6.06799983978271</v>
@@ -27317,7 +27317,7 @@
         <v>1.945910149055313</v>
       </c>
       <c r="AT142" t="n">
-        <v>11.19899428086267</v>
+        <v>11.69525535506279</v>
       </c>
       <c r="AU142" t="n">
         <v>13.59236825664928</v>
@@ -27343,7 +27343,7 @@
         <v>14.95549282</v>
       </c>
       <c r="C143" t="n">
-        <v>-16.79709396</v>
+        <v>-16.86551899999998</v>
       </c>
       <c r="D143" t="n">
         <v>52.4517822265625</v>
@@ -27369,7 +27369,7 @@
         <v>30</v>
       </c>
       <c r="K143" t="n">
-        <v>2.888888888888889</v>
+        <v>3</v>
       </c>
       <c r="L143" t="n">
         <v>1</v>
@@ -27410,7 +27410,7 @@
         <v>23.0024698</v>
       </c>
       <c r="X143" t="n">
-        <v>1.529645296942978</v>
+        <v>1.140689230583377</v>
       </c>
       <c r="Y143" t="inlineStr">
         <is>
@@ -27491,7 +27491,7 @@
         <v>0.02263888888888889</v>
       </c>
       <c r="AO143" t="n">
-        <v>1.791759469228055</v>
+        <v>1.09861228866811</v>
       </c>
       <c r="AP143" t="n">
         <v>6.621405651764134</v>
@@ -27599,7 +27599,7 @@
         <v>21.13728546</v>
       </c>
       <c r="X144" t="n">
-        <v>1.366846082565184</v>
+        <v>1.140689230583377</v>
       </c>
       <c r="Y144" t="inlineStr">
         <is>
@@ -27747,7 +27747,7 @@
         <v>31</v>
       </c>
       <c r="K145" t="n">
-        <v>2.944444444444445</v>
+        <v>3</v>
       </c>
       <c r="L145" t="n">
         <v>5</v>
@@ -27916,7 +27916,7 @@
         <v>23.2392578125</v>
       </c>
       <c r="E146" t="n">
-        <v>25.7889995574951</v>
+        <v>24.2719993591308</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -28288,7 +28288,7 @@
         <v>14.8635083333333</v>
       </c>
       <c r="C148" t="n">
-        <v>-17.1371198</v>
+        <v>-17.134429198</v>
       </c>
       <c r="D148" t="n">
         <v>-5.5</v>
@@ -28460,7 +28460,7 @@
         <v>0</v>
       </c>
       <c r="AW148" t="n">
-        <v>5.817272727833894</v>
+        <v>5.873368410481751</v>
       </c>
       <c r="AX148" t="n">
         <v>0.4852932584470189</v>
@@ -28838,7 +28838,7 @@
         <v>0</v>
       </c>
       <c r="AW150" t="n">
-        <v>5.868953875266017</v>
+        <v>5.873368410481751</v>
       </c>
       <c r="AX150" t="n">
         <v>-1.184117944170013</v>
@@ -29195,7 +29195,7 @@
         <v>0</v>
       </c>
       <c r="AP152" t="n">
-        <v>5.303304908059076</v>
+        <v>5.525452939131783</v>
       </c>
       <c r="AQ152" t="n">
         <v>1.386294361119891</v>
@@ -29297,7 +29297,7 @@
         <v>3</v>
       </c>
       <c r="W153" t="n">
-        <v>3.562395276</v>
+        <v>3.5952978724</v>
       </c>
       <c r="X153" t="n">
         <v>-0.9588569799747259</v>
@@ -29390,7 +29390,7 @@
         <v>1.386294361119891</v>
       </c>
       <c r="AR153" t="n">
-        <v>4.898979485566356</v>
+        <v>4.58257569495584</v>
       </c>
       <c r="AS153" t="n">
         <v>1.945910149055313</v>
@@ -29419,7 +29419,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="n">
-        <v>14.8131033333333</v>
+        <v>14.8142903333333</v>
       </c>
       <c r="C154" t="n">
         <v>-16.9030016666666</v>
@@ -29486,7 +29486,7 @@
         <v>2</v>
       </c>
       <c r="W154" t="n">
-        <v>3.534958641</v>
+        <v>3.5952978724</v>
       </c>
       <c r="X154" t="n">
         <v>0.2039945512952289</v>
@@ -29608,7 +29608,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>14.8135216666666</v>
+        <v>14.8142903333333</v>
       </c>
       <c r="C155" t="n">
         <v>-16.9019933333333</v>
@@ -29634,7 +29634,7 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>27</v>
+        <v>28.6</v>
       </c>
       <c r="K155" t="n">
         <v>3.444444444444445</v>
@@ -29797,7 +29797,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>14.81303897</v>
+        <v>14.8142903333333</v>
       </c>
       <c r="C156" t="n">
         <v>-16.90192866</v>
@@ -29975,7 +29975,7 @@
         <v>7.556789504147909</v>
       </c>
       <c r="AX156" t="n">
-        <v>-1.673189058170829</v>
+        <v>-1.635047341043556</v>
       </c>
       <c r="AY156" t="n">
         <v>-0.2963093583114044</v>
@@ -29986,13 +29986,13 @@
         <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>14.81266568</v>
+        <v>14.8142903333333</v>
       </c>
       <c r="C157" t="n">
         <v>-16.90157815</v>
       </c>
       <c r="D157" t="n">
-        <v>63.3353271484375</v>
+        <v>62.00671142578121</v>
       </c>
       <c r="E157" t="n">
         <v>9.101999282836911</v>
@@ -30140,7 +30140,7 @@
         <v>0</v>
       </c>
       <c r="AP157" t="n">
-        <v>5.017279836814924</v>
+        <v>5.525452939131783</v>
       </c>
       <c r="AQ157" t="n">
         <v>1.09861228866811</v>
@@ -30152,7 +30152,7 @@
         <v>1.945910149055313</v>
       </c>
       <c r="AT157" t="n">
-        <v>11.51293546492023</v>
+        <v>11.69525535506279</v>
       </c>
       <c r="AU157" t="n">
         <v>13.12236537740233</v>
@@ -30164,7 +30164,7 @@
         <v>7.558925348222457</v>
       </c>
       <c r="AX157" t="n">
-        <v>-1.654969051774645</v>
+        <v>-1.635047341043556</v>
       </c>
       <c r="AY157" t="n">
         <v>-0.1193725144050271</v>
@@ -30335,7 +30335,7 @@
         <v>0</v>
       </c>
       <c r="AR158" t="n">
-        <v>5</v>
+        <v>4.58257569495584</v>
       </c>
       <c r="AS158" t="n">
         <v>1.945910149055313</v>
@@ -30434,7 +30434,7 @@
         <v>39.66974326</v>
       </c>
       <c r="X159" t="n">
-        <v>1.173037494020191</v>
+        <v>1.140689230583377</v>
       </c>
       <c r="Y159" t="inlineStr">
         <is>
@@ -30524,7 +30524,7 @@
         <v>0</v>
       </c>
       <c r="AR159" t="n">
-        <v>5.067333269243094</v>
+        <v>4.58257569495584</v>
       </c>
       <c r="AS159" t="n">
         <v>1.945910149055313</v>
@@ -30707,7 +30707,7 @@
         <v>0</v>
       </c>
       <c r="AP160" t="n">
-        <v>9.61587214452889</v>
+        <v>9.546884034617925</v>
       </c>
       <c r="AQ160" t="n">
         <v>0</v>
@@ -30719,7 +30719,7 @@
         <v>1.945910149055313</v>
       </c>
       <c r="AT160" t="n">
-        <v>14.91412317996566</v>
+        <v>14.73180168983835</v>
       </c>
       <c r="AU160" t="n">
         <v>14.91412317996566</v>
@@ -31097,7 +31097,7 @@
         <v>1.945910149055313</v>
       </c>
       <c r="AT162" t="n">
-        <v>14.91412317996566</v>
+        <v>14.73180168983835</v>
       </c>
       <c r="AU162" t="n">
         <v>14.97866168026991</v>
@@ -31109,7 +31109,7 @@
         <v>8.515798724136216</v>
       </c>
       <c r="AX162" t="n">
-        <v>2.282454907009253</v>
+        <v>1.700191506719004</v>
       </c>
       <c r="AY162" t="n">
         <v>0.0354955681495215</v>
@@ -31280,7 +31280,7 @@
         <v>0</v>
       </c>
       <c r="AR163" t="n">
-        <v>2.23606797749979</v>
+        <v>2.645751311064591</v>
       </c>
       <c r="AS163" t="n">
         <v>1.945910149055313</v>
@@ -31478,7 +31478,7 @@
         <v>14.22097633273888</v>
       </c>
       <c r="AU164" t="n">
-        <v>15.31958817696275</v>
+        <v>15.20180516908413</v>
       </c>
       <c r="AV164" t="n">
         <v>1</v>
@@ -31498,7 +31498,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>15.1583583333333</v>
+        <v>15.15005013999998</v>
       </c>
       <c r="C165" t="n">
         <v>-16.8792</v>
@@ -31565,7 +31565,7 @@
         <v>2</v>
       </c>
       <c r="W165" t="n">
-        <v>41.23788664</v>
+        <v>40.233468902</v>
       </c>
       <c r="X165" t="n">
         <v>-1.055761274247222</v>
@@ -31667,13 +31667,13 @@
         <v>11.84940484442307</v>
       </c>
       <c r="AU165" t="n">
-        <v>11.84940484442307</v>
+        <v>12.61154108696612</v>
       </c>
       <c r="AV165" t="n">
         <v>0</v>
       </c>
       <c r="AW165" t="n">
-        <v>8.634829525242523</v>
+        <v>8.598524847652415</v>
       </c>
       <c r="AX165" t="n">
         <v>-1.354637020266353</v>
@@ -31687,7 +31687,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>15.16320078826664</v>
+        <v>15.15005013999998</v>
       </c>
       <c r="C166" t="n">
         <v>-16.8733416666666</v>
@@ -31754,7 +31754,7 @@
         <v>2</v>
       </c>
       <c r="W166" t="n">
-        <v>41.85614278</v>
+        <v>40.233468902</v>
       </c>
       <c r="X166" t="n">
         <v>-1.152665568519718</v>
@@ -31862,7 +31862,7 @@
         <v>0</v>
       </c>
       <c r="AW166" t="n">
-        <v>8.682692402129653</v>
+        <v>8.598524847652415</v>
       </c>
       <c r="AX166" t="n">
         <v>0.3734629209635966</v>
@@ -31876,7 +31876,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>15.1629516666666</v>
+        <v>15.15005013999998</v>
       </c>
       <c r="C167" t="n">
         <v>-16.87239</v>
@@ -31943,7 +31943,7 @@
         <v>2</v>
       </c>
       <c r="W167" t="n">
-        <v>41.83901887</v>
+        <v>40.233468902</v>
       </c>
       <c r="X167" t="n">
         <v>-0.5712398028847409</v>
@@ -32051,7 +32051,7 @@
         <v>0</v>
       </c>
       <c r="AW167" t="n">
-        <v>8.686255439485993</v>
+        <v>8.598524847652415</v>
       </c>
       <c r="AX167" t="n">
         <v>0.6222681626616865</v>
@@ -32065,7 +32065,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>15.16320078826664</v>
+        <v>15.15005013999998</v>
       </c>
       <c r="C168" t="n">
         <v>-16.87180426</v>
@@ -32132,7 +32132,7 @@
         <v>2</v>
       </c>
       <c r="W168" t="n">
-        <v>41.8726260044</v>
+        <v>40.233468902</v>
       </c>
       <c r="X168" t="n">
         <v>-0.183622625794756</v>
@@ -32240,7 +32240,7 @@
         <v>0</v>
       </c>
       <c r="AW168" t="n">
-        <v>8.690600450486722</v>
+        <v>8.598524847652415</v>
       </c>
       <c r="AX168" t="n">
         <v>0.5297220761943244</v>
@@ -32324,7 +32324,7 @@
         <v>37.73231109</v>
       </c>
       <c r="X169" t="n">
-        <v>1.529645296942978</v>
+        <v>1.140689230583377</v>
       </c>
       <c r="Y169" t="inlineStr">
         <is>
@@ -32408,7 +32408,7 @@
         <v>0</v>
       </c>
       <c r="AP169" t="n">
-        <v>9.61587214452889</v>
+        <v>9.546884034617925</v>
       </c>
       <c r="AQ169" t="n">
         <v>0</v>
@@ -32420,10 +32420,10 @@
         <v>1.945910149055313</v>
       </c>
       <c r="AT169" t="n">
-        <v>14.91412317996566</v>
+        <v>14.73180168983835</v>
       </c>
       <c r="AU169" t="n">
-        <v>15.31958817696275</v>
+        <v>15.20180516908413</v>
       </c>
       <c r="AV169" t="n">
         <v>0</v>
@@ -32452,7 +32452,7 @@
         <v>8.492431640625</v>
       </c>
       <c r="E170" t="n">
-        <v>33.3740005493164</v>
+        <v>24.2719993591308</v>
       </c>
       <c r="F170" t="n">
         <v>0</v>
@@ -32638,7 +32638,7 @@
         <v>-17.024915</v>
       </c>
       <c r="D171" t="n">
-        <v>-55.90558166503902</v>
+        <v>-39.48</v>
       </c>
       <c r="E171" t="n">
         <v>6.69999980926513</v>
@@ -32702,7 +32702,7 @@
         <v>26.32520231</v>
       </c>
       <c r="X171" t="n">
-        <v>-1.734091334154696</v>
+        <v>-1.561422336398522</v>
       </c>
       <c r="Y171" t="inlineStr">
         <is>
@@ -32813,7 +32813,7 @@
         <v>0.1243001862994473</v>
       </c>
       <c r="AY171" t="n">
-        <v>1.285171579444145</v>
+        <v>0.9622892544858042</v>
       </c>
     </row>
     <row r="172">
@@ -33380,7 +33380,7 @@
         <v>-0.107629679403629</v>
       </c>
       <c r="AY174" t="n">
-        <v>1.117458160646503</v>
+        <v>0.9622892544858042</v>
       </c>
     </row>
     <row r="175">
@@ -33397,13 +33397,13 @@
         <v>-12.6</v>
       </c>
       <c r="E175" t="n">
-        <v>3.29999995231628</v>
+        <v>3.5</v>
       </c>
       <c r="F175" t="n">
         <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H175" t="n">
         <v>99</v>
@@ -33458,7 +33458,7 @@
         <v>26.41402587</v>
       </c>
       <c r="X175" t="n">
-        <v>-1.927899922699688</v>
+        <v>-1.561422336398522</v>
       </c>
       <c r="Y175" t="inlineStr">
         <is>
@@ -33566,10 +33566,10 @@
         <v>7.223984990294484</v>
       </c>
       <c r="AX175" t="n">
-        <v>1.804986924988265</v>
+        <v>1.700191506719004</v>
       </c>
       <c r="AY175" t="n">
-        <v>-0.8201368032254758</v>
+        <v>-0.7213828228015811</v>
       </c>
     </row>
     <row r="176">
@@ -33577,16 +33577,16 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>14.81246139999996</v>
+        <v>14.8142903333333</v>
       </c>
       <c r="C176" t="n">
         <v>-16.94494069</v>
       </c>
       <c r="D176" t="n">
-        <v>73.63629333496088</v>
+        <v>62.00671142578121</v>
       </c>
       <c r="E176" t="n">
-        <v>33.3740005493164</v>
+        <v>24.2719993591308</v>
       </c>
       <c r="F176" t="n">
         <v>1</v>
@@ -33644,7 +33644,7 @@
         <v>2</v>
       </c>
       <c r="W176" t="n">
-        <v>2.88147082664</v>
+        <v>3.5952978724</v>
       </c>
       <c r="X176" t="n">
         <v>0.09325519447642032</v>
@@ -33920,10 +33920,10 @@
         <v>0</v>
       </c>
       <c r="AP177" t="n">
-        <v>9.721628742255696</v>
+        <v>9.546884034617925</v>
       </c>
       <c r="AQ177" t="n">
-        <v>2.079441541679836</v>
+        <v>1.791759469228055</v>
       </c>
       <c r="AR177" t="n">
         <v>4.242640687119285</v>
@@ -33935,7 +33935,7 @@
         <v>14.73180168983835</v>
       </c>
       <c r="AU177" t="n">
-        <v>15.42494867039835</v>
+        <v>15.20180516908413</v>
       </c>
       <c r="AV177" t="n">
         <v>1</v>
@@ -33944,7 +33944,7 @@
         <v>6.529233684744328</v>
       </c>
       <c r="AX177" t="n">
-        <v>2.282454907009253</v>
+        <v>1.700191506719004</v>
       </c>
       <c r="AY177" t="n">
         <v>-0.6360134651594836</v>
@@ -34130,7 +34130,7 @@
         <v>0</v>
       </c>
       <c r="AW178" t="n">
-        <v>5.838900372501659</v>
+        <v>5.873368410481751</v>
       </c>
       <c r="AX178" t="n">
         <v>-0.1957586058511317</v>
@@ -34298,7 +34298,7 @@
         <v>0</v>
       </c>
       <c r="AP179" t="n">
-        <v>5.017279836814924</v>
+        <v>5.525452939131783</v>
       </c>
       <c r="AQ179" t="n">
         <v>0</v>
@@ -34319,10 +34319,10 @@
         <v>0</v>
       </c>
       <c r="AW179" t="n">
-        <v>5.857089849916936</v>
+        <v>5.873368410481751</v>
       </c>
       <c r="AX179" t="n">
-        <v>-1.655063135561216</v>
+        <v>-1.635047341043556</v>
       </c>
       <c r="AY179" t="n">
         <v>-0.6659193516440767</v>
@@ -34487,7 +34487,7 @@
         <v>0</v>
       </c>
       <c r="AP180" t="n">
-        <v>5.017279836814924</v>
+        <v>5.525452939131783</v>
       </c>
       <c r="AQ180" t="n">
         <v>0</v>
@@ -34502,7 +34502,7 @@
         <v>11.91839723972284</v>
       </c>
       <c r="AU180" t="n">
-        <v>12.20607764551767</v>
+        <v>12.61154108696612</v>
       </c>
       <c r="AV180" t="n">
         <v>0</v>
@@ -34865,10 +34865,10 @@
         <v>0</v>
       </c>
       <c r="AP182" t="n">
-        <v>9.61587214452889</v>
+        <v>9.546884034617925</v>
       </c>
       <c r="AQ182" t="n">
-        <v>2.268869727983542</v>
+        <v>1.791759469228055</v>
       </c>
       <c r="AR182" t="n">
         <v>3.872983346207417</v>
@@ -34880,7 +34880,7 @@
         <v>14.73180168983835</v>
       </c>
       <c r="AU182" t="n">
-        <v>15.42494867039835</v>
+        <v>15.20180516908413</v>
       </c>
       <c r="AV182" t="n">
         <v>2</v>
@@ -34892,7 +34892,7 @@
         <v>1.677044085964166</v>
       </c>
       <c r="AY182" t="n">
-        <v>-0.7299188307193754</v>
+        <v>-0.7213828228015811</v>
       </c>
     </row>
     <row r="183">
@@ -35054,10 +35054,10 @@
         <v>0.6931471805599453</v>
       </c>
       <c r="AP183" t="n">
-        <v>9.61587214452889</v>
+        <v>9.546884034617925</v>
       </c>
       <c r="AQ183" t="n">
-        <v>2.079441541679836</v>
+        <v>1.791759469228055</v>
       </c>
       <c r="AR183" t="n">
         <v>3.464101615137754</v>
@@ -35078,7 +35078,7 @@
         <v>6.444717546176869</v>
       </c>
       <c r="AX183" t="n">
-        <v>2.059480795898121</v>
+        <v>1.700191506719004</v>
       </c>
       <c r="AY183" t="n">
         <v>-0.07036976609040693</v>
@@ -35104,7 +35104,7 @@
         <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H184" t="n">
         <v>4</v>
@@ -35159,7 +35159,7 @@
         <v>20.86709932</v>
       </c>
       <c r="X184" t="n">
-        <v>1.201059492072679</v>
+        <v>1.140689230583377</v>
       </c>
       <c r="Y184" t="inlineStr">
         <is>
@@ -35287,7 +35287,7 @@
         <v>-8</v>
       </c>
       <c r="E185" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F185" t="n">
         <v>1</v>
@@ -35618,7 +35618,7 @@
         <v>0.02982638888888889</v>
       </c>
       <c r="AO186" t="n">
-        <v>1.791759469228055</v>
+        <v>1.09861228866811</v>
       </c>
       <c r="AP186" t="n">
         <v>7.313886831633462</v>
@@ -35807,7 +35807,7 @@
         <v>0.02261574074074074</v>
       </c>
       <c r="AO187" t="n">
-        <v>1.791759469228055</v>
+        <v>1.09861228866811</v>
       </c>
       <c r="AP187" t="n">
         <v>9.210440366976517</v>
@@ -35822,7 +35822,7 @@
         <v>0</v>
       </c>
       <c r="AT187" t="n">
-        <v>14.91412317996566</v>
+        <v>14.73180168983835</v>
       </c>
       <c r="AU187" t="n">
         <v>14.91412317996566</v>
@@ -35854,7 +35854,7 @@
         <v>-4.5</v>
       </c>
       <c r="E188" t="n">
-        <v>3.29999995231628</v>
+        <v>3.5</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
@@ -36002,10 +36002,10 @@
         <v>8.517393171418904</v>
       </c>
       <c r="AQ188" t="n">
-        <v>2.268869727983542</v>
+        <v>1.791759469228055</v>
       </c>
       <c r="AR188" t="n">
-        <v>4.795831523312719</v>
+        <v>4.58257569495584</v>
       </c>
       <c r="AS188" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>190</v>
       </c>
       <c r="B190" t="n">
-        <v>15.16320078826664</v>
+        <v>15.15005013999998</v>
       </c>
       <c r="C190" t="n">
         <v>-16.87310879</v>
@@ -36290,7 +36290,7 @@
         <v>6</v>
       </c>
       <c r="W190" t="n">
-        <v>41.8726260044</v>
+        <v>40.233468902</v>
       </c>
       <c r="X190" t="n">
         <v>0.3855274567419722</v>
@@ -36392,13 +36392,13 @@
         <v>14.03865490927816</v>
       </c>
       <c r="AU190" t="n">
-        <v>15.42494867039835</v>
+        <v>15.20180516908413</v>
       </c>
       <c r="AV190" t="n">
         <v>0</v>
       </c>
       <c r="AW190" t="n">
-        <v>8.684797241732245</v>
+        <v>8.598524847652415</v>
       </c>
       <c r="AX190" t="n">
         <v>0.1011608226611364</v>
@@ -36412,7 +36412,7 @@
         <v>191</v>
       </c>
       <c r="B191" t="n">
-        <v>15.16093718</v>
+        <v>15.15005013999998</v>
       </c>
       <c r="C191" t="n">
         <v>-16.87056532</v>
@@ -36479,7 +36479,7 @@
         <v>2</v>
       </c>
       <c r="W191" t="n">
-        <v>41.64465431</v>
+        <v>40.233468902</v>
       </c>
       <c r="X191" t="n">
         <v>-0.549678091117086</v>
@@ -36572,7 +36572,7 @@
         <v>0</v>
       </c>
       <c r="AR191" t="n">
-        <v>2.449489742783178</v>
+        <v>2.645751311064591</v>
       </c>
       <c r="AS191" t="n">
         <v>0</v>
@@ -36587,10 +36587,10 @@
         <v>0</v>
       </c>
       <c r="AW191" t="n">
-        <v>8.687377468488405</v>
+        <v>8.598524847652415</v>
       </c>
       <c r="AX191" t="n">
-        <v>1.865480794298238</v>
+        <v>1.700191506719004</v>
       </c>
       <c r="AY191" t="n">
         <v>0.1392101944267451</v>
@@ -36604,7 +36604,7 @@
         <v>14.96076783</v>
       </c>
       <c r="C192" t="n">
-        <v>-16.79601189</v>
+        <v>-16.86551899999998</v>
       </c>
       <c r="D192" t="n">
         <v>58.9097900390625</v>
@@ -36761,7 +36761,7 @@
         <v>0</v>
       </c>
       <c r="AR192" t="n">
-        <v>2.449489742783178</v>
+        <v>2.645751311064591</v>
       </c>
       <c r="AS192" t="n">
         <v>0</v>
@@ -36959,7 +36959,7 @@
         <v>14.34613939726156</v>
       </c>
       <c r="AU193" t="n">
-        <v>15.42494867039835</v>
+        <v>15.20180516908413</v>
       </c>
       <c r="AV193" t="n">
         <v>1</v>
@@ -37511,7 +37511,7 @@
         <v>0</v>
       </c>
       <c r="AP196" t="n">
-        <v>9.61587214452889</v>
+        <v>9.546884034617925</v>
       </c>
       <c r="AQ196" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="AP197" t="n">
-        <v>9.680406499268875</v>
+        <v>9.546884034617925</v>
       </c>
       <c r="AQ197" t="n">
         <v>0</v>
@@ -37895,7 +37895,7 @@
         <v>0</v>
       </c>
       <c r="AR198" t="n">
-        <v>2.23606797749979</v>
+        <v>2.645751311064591</v>
       </c>
       <c r="AS198" t="n">
         <v>0</v>
@@ -37910,7 +37910,7 @@
         <v>0</v>
       </c>
       <c r="AW198" t="n">
-        <v>5.812260964841825</v>
+        <v>5.873368410481751</v>
       </c>
       <c r="AX198" t="n">
         <v>0.174480529766701</v>
@@ -38311,7 +38311,7 @@
         <v>38.0694580078125</v>
       </c>
       <c r="E201" t="n">
-        <v>34.40555938720702</v>
+        <v>24.2719993591308</v>
       </c>
       <c r="F201" t="n">
         <v>0</v>
@@ -38477,7 +38477,7 @@
         <v>0</v>
       </c>
       <c r="AW201" t="n">
-        <v>5.812260964841825</v>
+        <v>5.873368410481751</v>
       </c>
       <c r="AX201" t="n">
         <v>-0.7272958705134257</v>
@@ -38494,7 +38494,7 @@
         <v>14.8628333333333</v>
       </c>
       <c r="C202" t="n">
-        <v>-17.1371198</v>
+        <v>-17.134429198</v>
       </c>
       <c r="D202" t="n">
         <v>-4.899999999999999</v>
@@ -38651,7 +38651,7 @@
         <v>0</v>
       </c>
       <c r="AR202" t="n">
-        <v>2.23606797749979</v>
+        <v>2.645751311064591</v>
       </c>
       <c r="AS202" t="n">
         <v>0</v>
@@ -38666,7 +38666,7 @@
         <v>0</v>
       </c>
       <c r="AW202" t="n">
-        <v>5.812260964841825</v>
+        <v>5.873368410481751</v>
       </c>
       <c r="AX202" t="n">
         <v>1.526196668610199</v>
@@ -38855,13 +38855,13 @@
         <v>0</v>
       </c>
       <c r="AW203" t="n">
-        <v>5.842254728270584</v>
+        <v>5.873368410481751</v>
       </c>
       <c r="AX203" t="n">
         <v>-0.09408257618036822</v>
       </c>
       <c r="AY203" t="n">
-        <v>-0.8971173242230724</v>
+        <v>-0.7213828228015811</v>
       </c>
     </row>
     <row r="204">
@@ -38901,10 +38901,10 @@
         <v>3.305555555555555</v>
       </c>
       <c r="L204" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M204" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N204" t="n">
         <v>1</v>
@@ -39023,7 +39023,7 @@
         <v>0</v>
       </c>
       <c r="AP204" t="n">
-        <v>5.303304908059076</v>
+        <v>5.525452939131783</v>
       </c>
       <c r="AQ204" t="n">
         <v>0</v>
@@ -39035,16 +39035,16 @@
         <v>0</v>
       </c>
       <c r="AT204" t="n">
-        <v>11.19899428086267</v>
+        <v>11.69525535506279</v>
       </c>
       <c r="AU204" t="n">
-        <v>12.42922019683638</v>
+        <v>12.61154108696612</v>
       </c>
       <c r="AV204" t="n">
         <v>0</v>
       </c>
       <c r="AW204" t="n">
-        <v>5.857434359854151</v>
+        <v>5.873368410481751</v>
       </c>
       <c r="AX204" t="n">
         <v>-0.9258916357132296</v>
@@ -39224,10 +39224,10 @@
         <v>0</v>
       </c>
       <c r="AT205" t="n">
-        <v>11.51293546492023</v>
+        <v>11.69525535506279</v>
       </c>
       <c r="AU205" t="n">
-        <v>11.69525535506279</v>
+        <v>12.61154108696612</v>
       </c>
       <c r="AV205" t="n">
         <v>0</v>
@@ -39236,10 +39236,10 @@
         <v>5.873951937154406</v>
       </c>
       <c r="AX205" t="n">
-        <v>-1.846880245646216</v>
+        <v>-1.635047341043556</v>
       </c>
       <c r="AY205" t="n">
-        <v>-1.107944402537769</v>
+        <v>-0.7213828228015811</v>
       </c>
     </row>
     <row r="206">
@@ -39413,10 +39413,10 @@
         <v>0</v>
       </c>
       <c r="AT206" t="n">
-        <v>11.28979441357789</v>
+        <v>11.69525535506279</v>
       </c>
       <c r="AU206" t="n">
-        <v>11.69525535506279</v>
+        <v>12.61154108696612</v>
       </c>
       <c r="AV206" t="n">
         <v>0</v>
@@ -39442,7 +39442,7 @@
         <v>-17.13034</v>
       </c>
       <c r="D207" t="n">
-        <v>-49.8</v>
+        <v>-39.48</v>
       </c>
       <c r="E207" t="n">
         <v>13.6000003814697</v>
@@ -39590,7 +39590,7 @@
         <v>0</v>
       </c>
       <c r="AP207" t="n">
-        <v>4.86666711878656</v>
+        <v>5.525452939131783</v>
       </c>
       <c r="AQ207" t="n">
         <v>0</v>
@@ -39602,10 +39602,10 @@
         <v>0</v>
       </c>
       <c r="AT207" t="n">
-        <v>11.19899428086267</v>
+        <v>11.69525535506279</v>
       </c>
       <c r="AU207" t="n">
-        <v>11.69525535506279</v>
+        <v>12.61154108696612</v>
       </c>
       <c r="AV207" t="n">
         <v>0</v>
@@ -39617,7 +39617,7 @@
         <v>-1.305031724831234</v>
       </c>
       <c r="AY207" t="n">
-        <v>-0.8951600162937189</v>
+        <v>-0.7213828228015811</v>
       </c>
     </row>
     <row r="208">
@@ -39631,7 +39631,7 @@
         <v>-17.1293699999999</v>
       </c>
       <c r="D208" t="n">
-        <v>-45.2</v>
+        <v>-39.48</v>
       </c>
       <c r="E208" t="n">
         <v>7.09999990463256</v>
@@ -39806,7 +39806,7 @@
         <v>-0.4902656727678902</v>
       </c>
       <c r="AY208" t="n">
-        <v>-0.8987633294408232</v>
+        <v>-0.7213828228015811</v>
       </c>
     </row>
     <row r="209">
@@ -40009,7 +40009,7 @@
         <v>-17.12957</v>
       </c>
       <c r="D210" t="n">
-        <v>-55.90558166503902</v>
+        <v>-39.48</v>
       </c>
       <c r="E210" t="n">
         <v>7.69999980926513</v>
@@ -40169,10 +40169,10 @@
         <v>0</v>
       </c>
       <c r="AT210" t="n">
-        <v>11.33858398251649</v>
+        <v>11.69525535506279</v>
       </c>
       <c r="AU210" t="n">
-        <v>11.69525535506279</v>
+        <v>12.61154108696612</v>
       </c>
       <c r="AV210" t="n">
         <v>0</v>
@@ -40181,7 +40181,7 @@
         <v>5.903308060740181</v>
       </c>
       <c r="AX210" t="n">
-        <v>-2.050788661439982</v>
+        <v>-1.635047341043556</v>
       </c>
       <c r="AY210" t="n">
         <v>-0.6652132845762513</v>
@@ -40745,7 +40745,7 @@
         <v>0</v>
       </c>
       <c r="AW213" t="n">
-        <v>5.872493120472769</v>
+        <v>5.873368410481751</v>
       </c>
       <c r="AX213" t="n">
         <v>-0.5753464621138019</v>
@@ -40934,7 +40934,7 @@
         <v>0</v>
       </c>
       <c r="AW214" t="n">
-        <v>5.871639654304409</v>
+        <v>5.873368410481751</v>
       </c>
       <c r="AX214" t="n">
         <v>-0.3212929087427263</v>
@@ -41102,7 +41102,7 @@
         <v>0</v>
       </c>
       <c r="AP215" t="n">
-        <v>4.86666711878656</v>
+        <v>5.525452939131783</v>
       </c>
       <c r="AQ215" t="n">
         <v>0</v>
@@ -41114,7 +41114,7 @@
         <v>0</v>
       </c>
       <c r="AT215" t="n">
-        <v>11.40757606036179</v>
+        <v>11.69525535506279</v>
       </c>
       <c r="AU215" t="n">
         <v>12.61154108696612</v>
@@ -41126,7 +41126,7 @@
         <v>5.905037083710821</v>
       </c>
       <c r="AX215" t="n">
-        <v>-2.050788661439982</v>
+        <v>-1.635047341043556</v>
       </c>
       <c r="AY215" t="n">
         <v>-0.60092740165465</v>
@@ -41335,7 +41335,7 @@
         <v>27.7694702148437</v>
       </c>
       <c r="E217" t="n">
-        <v>34.40555938720702</v>
+        <v>24.2719993591308</v>
       </c>
       <c r="F217" t="n">
         <v>1</v>
@@ -41480,7 +41480,7 @@
         <v>0</v>
       </c>
       <c r="AP217" t="n">
-        <v>5.081404364984463</v>
+        <v>5.525452939131783</v>
       </c>
       <c r="AQ217" t="n">
         <v>0</v>
@@ -41492,7 +41492,7 @@
         <v>0</v>
       </c>
       <c r="AT217" t="n">
-        <v>11.51293546492023</v>
+        <v>11.69525535506279</v>
       </c>
       <c r="AU217" t="n">
         <v>12.61154108696612</v>
@@ -41504,7 +41504,7 @@
         <v>5.905844528939109</v>
       </c>
       <c r="AX217" t="n">
-        <v>-1.902474212125183</v>
+        <v>-1.635047341043556</v>
       </c>
       <c r="AY217" t="n">
         <v>-0.2754307956447828</v>
@@ -41902,7 +41902,7 @@
         <v>6.243408203125</v>
       </c>
       <c r="E220" t="n">
-        <v>28.8229999542236</v>
+        <v>24.2719993591308</v>
       </c>
       <c r="F220" t="n">
         <v>1</v>
@@ -42047,7 +42047,7 @@
         <v>0</v>
       </c>
       <c r="AP220" t="n">
-        <v>5.017279836814924</v>
+        <v>5.525452939131783</v>
       </c>
       <c r="AQ220" t="n">
         <v>0</v>
@@ -42085,7 +42085,7 @@
         <v>14.862635</v>
       </c>
       <c r="C221" t="n">
-        <v>-17.1371198</v>
+        <v>-17.134429198</v>
       </c>
       <c r="D221" t="n">
         <v>-14.8</v>
@@ -42257,7 +42257,7 @@
         <v>0</v>
       </c>
       <c r="AW221" t="n">
-        <v>5.814976498662742</v>
+        <v>5.873368410481751</v>
       </c>
       <c r="AX221" t="n">
         <v>-0.2151226933488935</v>
@@ -42466,7 +42466,7 @@
         <v>-16.90497856</v>
       </c>
       <c r="D223" t="n">
-        <v>64.9849853515625</v>
+        <v>62.00671142578121</v>
       </c>
       <c r="E223" t="n">
         <v>7.58500003814697</v>
@@ -42527,7 +42527,7 @@
         <v>3</v>
       </c>
       <c r="W223" t="n">
-        <v>3.566795585</v>
+        <v>3.5952978724</v>
       </c>
       <c r="X223" t="n">
         <v>0.2759253583923902</v>
@@ -42611,7 +42611,7 @@
         <v>0.02417824074074074</v>
       </c>
       <c r="AO223" t="n">
-        <v>1.386294361119891</v>
+        <v>1.09861228866811</v>
       </c>
       <c r="AP223" t="n">
         <v>5.993961427306569</v>
@@ -42655,7 +42655,7 @@
         <v>-16.90544155</v>
       </c>
       <c r="D224" t="n">
-        <v>71.23028564453119</v>
+        <v>62.00671142578121</v>
       </c>
       <c r="E224" t="n">
         <v>9.101999282836911</v>
@@ -42716,7 +42716,7 @@
         <v>3</v>
       </c>
       <c r="W224" t="n">
-        <v>3.536819409</v>
+        <v>3.5952978724</v>
       </c>
       <c r="X224" t="n">
         <v>0.7180974001582613</v>
@@ -42827,7 +42827,7 @@
         <v>7.533961071707233</v>
       </c>
       <c r="AX224" t="n">
-        <v>-1.786509350703792</v>
+        <v>-1.635047341043556</v>
       </c>
       <c r="AY224" t="n">
         <v>-0.01272505001260779</v>
@@ -42838,7 +42838,7 @@
         <v>225</v>
       </c>
       <c r="B225" t="n">
-        <v>14.813325</v>
+        <v>14.8142903333333</v>
       </c>
       <c r="C225" t="n">
         <v>-16.9027333333333</v>
@@ -42864,7 +42864,7 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>25</v>
+        <v>28.6</v>
       </c>
       <c r="K225" t="n">
         <v>3.583333333333333</v>
@@ -42905,7 +42905,7 @@
         <v>2</v>
       </c>
       <c r="W225" t="n">
-        <v>3.572730748</v>
+        <v>3.5952978724</v>
       </c>
       <c r="X225" t="n">
         <v>-0.06671599920266792</v>
@@ -43027,7 +43027,7 @@
         <v>226</v>
       </c>
       <c r="B226" t="n">
-        <v>14.8135433333333</v>
+        <v>14.8142903333333</v>
       </c>
       <c r="C226" t="n">
         <v>-16.90186</v>
@@ -43216,7 +43216,7 @@
         <v>227</v>
       </c>
       <c r="B227" t="n">
-        <v>14.8132149999999</v>
+        <v>14.8142903333333</v>
       </c>
       <c r="C227" t="n">
         <v>-16.90198</v>
@@ -43242,7 +43242,7 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>25</v>
+        <v>28.6</v>
       </c>
       <c r="K227" t="n">
         <v>3.222222222222222</v>
@@ -43405,7 +43405,7 @@
         <v>228</v>
       </c>
       <c r="B228" t="n">
-        <v>14.81346</v>
+        <v>14.8142903333333</v>
       </c>
       <c r="C228" t="n">
         <v>-16.90221</v>
@@ -43437,10 +43437,10 @@
         <v>3.5</v>
       </c>
       <c r="L228" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M228" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N228" t="n">
         <v>0</v>
@@ -43594,7 +43594,7 @@
         <v>229</v>
       </c>
       <c r="B229" t="n">
-        <v>14.8130233333333</v>
+        <v>14.8142903333333</v>
       </c>
       <c r="C229" t="n">
         <v>-16.9018166666666</v>
@@ -43609,7 +43609,7 @@
         <v>1</v>
       </c>
       <c r="G229" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H229" t="n">
         <v>3</v>
@@ -43783,7 +43783,7 @@
         <v>230</v>
       </c>
       <c r="B230" t="n">
-        <v>14.812665</v>
+        <v>14.8142903333333</v>
       </c>
       <c r="C230" t="n">
         <v>-16.9016783333333</v>
@@ -43952,7 +43952,7 @@
         <v>12.25486757159303</v>
       </c>
       <c r="AU230" t="n">
-        <v>12.42922019683638</v>
+        <v>12.61154108696612</v>
       </c>
       <c r="AV230" t="n">
         <v>0</v>
@@ -43972,7 +43972,7 @@
         <v>231</v>
       </c>
       <c r="B231" t="n">
-        <v>14.81246139999996</v>
+        <v>14.8142903333333</v>
       </c>
       <c r="C231" t="n">
         <v>-16.90164</v>
@@ -43998,7 +43998,7 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>25</v>
+        <v>28.6</v>
       </c>
       <c r="K231" t="n">
         <v>3.666666666666667</v>
@@ -44039,7 +44039,7 @@
         <v>2</v>
       </c>
       <c r="W231" t="n">
-        <v>3.586193236</v>
+        <v>3.5952978724</v>
       </c>
       <c r="X231" t="n">
         <v>0.5369866156903546</v>
@@ -44161,7 +44161,7 @@
         <v>232</v>
       </c>
       <c r="B232" t="n">
-        <v>14.8125316666666</v>
+        <v>14.8142903333333</v>
       </c>
       <c r="C232" t="n">
         <v>-16.901745</v>
@@ -44187,7 +44187,7 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>27</v>
+        <v>28.6</v>
       </c>
       <c r="K232" t="n">
         <v>3.527777777777778</v>
@@ -44228,7 +44228,7 @@
         <v>2</v>
       </c>
       <c r="W232" t="n">
-        <v>3.58593775</v>
+        <v>3.5952978724</v>
       </c>
       <c r="X232" t="n">
         <v>-1.153380706010108</v>
@@ -44350,13 +44350,13 @@
         <v>233</v>
       </c>
       <c r="B233" t="n">
-        <v>14.81313606</v>
+        <v>14.8142903333333</v>
       </c>
       <c r="C233" t="n">
         <v>-16.90158985</v>
       </c>
       <c r="D233" t="n">
-        <v>73.63629333496088</v>
+        <v>62.00671142578121</v>
       </c>
       <c r="E233" t="n">
         <v>21.2379989624023</v>
@@ -44539,7 +44539,7 @@
         <v>234</v>
       </c>
       <c r="B234" t="n">
-        <v>14.81253725</v>
+        <v>14.8142903333333</v>
       </c>
       <c r="C234" t="n">
         <v>-16.90177644</v>
@@ -44606,7 +44606,7 @@
         <v>3</v>
       </c>
       <c r="W234" t="n">
-        <v>3.583924767</v>
+        <v>3.5952978724</v>
       </c>
       <c r="X234" t="n">
         <v>-0.06671599920266792</v>
@@ -44754,7 +44754,7 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>28</v>
+        <v>28.6</v>
       </c>
       <c r="K235" t="n">
         <v>3.138888888888889</v>
@@ -44906,7 +44906,7 @@
         <v>8.515781365793746</v>
       </c>
       <c r="AX235" t="n">
-        <v>-1.685666472473978</v>
+        <v>-1.635047341043556</v>
       </c>
       <c r="AY235" t="n">
         <v>-0.3592324515126005</v>
@@ -44946,7 +44946,7 @@
         <v>42</v>
       </c>
       <c r="K236" t="n">
-        <v>2.972222222222222</v>
+        <v>3</v>
       </c>
       <c r="L236" t="n">
         <v>8</v>
@@ -45115,7 +45115,7 @@
         <v>-20.06704711914063</v>
       </c>
       <c r="E237" t="n">
-        <v>30.3400001525878</v>
+        <v>24.2719993591308</v>
       </c>
       <c r="F237" t="n">
         <v>1</v>
@@ -45452,7 +45452,7 @@
         <v>9.04793908261736</v>
       </c>
       <c r="AQ238" t="n">
-        <v>1.945910149055313</v>
+        <v>1.791759469228055</v>
       </c>
       <c r="AR238" t="n">
         <v>3</v>
@@ -45490,7 +45490,7 @@
         <v>-16.8918583333333</v>
       </c>
       <c r="D239" t="n">
-        <v>-55.90558166503902</v>
+        <v>-39.48</v>
       </c>
       <c r="E239" t="n">
         <v>3.59999990463256</v>
@@ -45644,7 +45644,7 @@
         <v>0</v>
       </c>
       <c r="AR239" t="n">
-        <v>5.067333269243094</v>
+        <v>4.58257569495584</v>
       </c>
       <c r="AS239" t="n">
         <v>0</v>
@@ -45653,7 +45653,7 @@
         <v>12.20607764551767</v>
       </c>
       <c r="AU239" t="n">
-        <v>12.20607764551767</v>
+        <v>12.61154108696612</v>
       </c>
       <c r="AV239" t="n">
         <v>1</v>
@@ -46205,10 +46205,10 @@
         <v>0</v>
       </c>
       <c r="AP242" t="n">
-        <v>9.721628742255696</v>
+        <v>9.546884034617925</v>
       </c>
       <c r="AQ242" t="n">
-        <v>1.945910149055313</v>
+        <v>1.791759469228055</v>
       </c>
       <c r="AR242" t="n">
         <v>2.82842712474619</v>
@@ -46269,7 +46269,7 @@
         <v>37</v>
       </c>
       <c r="K243" t="n">
-        <v>2.916666666666667</v>
+        <v>3</v>
       </c>
       <c r="L243" t="n">
         <v>5</v>
@@ -46618,7 +46618,7 @@
         <v>245</v>
       </c>
       <c r="B245" t="n">
-        <v>15.15017285</v>
+        <v>15.15005013999998</v>
       </c>
       <c r="C245" t="n">
         <v>-16.88441244</v>
@@ -46685,7 +46685,7 @@
         <v>2</v>
       </c>
       <c r="W245" t="n">
-        <v>40.26887279</v>
+        <v>40.233468902</v>
       </c>
       <c r="X245" t="n">
         <v>0.5973568771796568</v>
@@ -46807,7 +46807,7 @@
         <v>246</v>
       </c>
       <c r="B246" t="n">
-        <v>15.16211179</v>
+        <v>15.15005013999998</v>
       </c>
       <c r="C246" t="n">
         <v>-16.87008532</v>
@@ -46822,7 +46822,7 @@
         <v>1</v>
       </c>
       <c r="G246" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H246" t="n">
         <v>99</v>
@@ -46874,10 +46874,10 @@
         <v>2</v>
       </c>
       <c r="W246" t="n">
-        <v>41.78129341</v>
+        <v>40.233468902</v>
       </c>
       <c r="X246" t="n">
-        <v>-1.696713059413829</v>
+        <v>-1.561422336398522</v>
       </c>
       <c r="Y246" t="inlineStr">
         <is>
@@ -46982,13 +46982,13 @@
         <v>0</v>
       </c>
       <c r="AW246" t="n">
-        <v>8.692443715089865</v>
+        <v>8.598524847652415</v>
       </c>
       <c r="AX246" t="n">
         <v>0.8452821916301284</v>
       </c>
       <c r="AY246" t="n">
-        <v>-1.107944402537769</v>
+        <v>-0.7213828228015811</v>
       </c>
     </row>
     <row r="247">
@@ -46996,7 +46996,7 @@
         <v>247</v>
       </c>
       <c r="B247" t="n">
-        <v>15.1518332</v>
+        <v>15.15005013999998</v>
       </c>
       <c r="C247" t="n">
         <v>-16.88521658</v>
@@ -47022,7 +47022,7 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>28</v>
+        <v>28.6</v>
       </c>
       <c r="K247" t="n">
         <v>3.75</v>
@@ -47063,7 +47063,7 @@
         <v>2</v>
       </c>
       <c r="W247" t="n">
-        <v>40.44295178</v>
+        <v>40.233468902</v>
       </c>
       <c r="X247" t="n">
         <v>-1.274121228988713</v>
@@ -47191,7 +47191,7 @@
         <v>-16.8846266666666</v>
       </c>
       <c r="D248" t="n">
-        <v>73.63629333496088</v>
+        <v>62.00671142578121</v>
       </c>
       <c r="E248" t="n">
         <v>13.1999998092651</v>
@@ -47374,7 +47374,7 @@
         <v>249</v>
       </c>
       <c r="B249" t="n">
-        <v>15.1629133333333</v>
+        <v>15.15005013999998</v>
       </c>
       <c r="C249" t="n">
         <v>-16.8718366666666</v>
@@ -47441,7 +47441,7 @@
         <v>2</v>
       </c>
       <c r="W249" t="n">
-        <v>41.84299786</v>
+        <v>40.233468902</v>
       </c>
       <c r="X249" t="n">
         <v>0.07498817808482333</v>
@@ -47549,7 +47549,7 @@
         <v>0</v>
       </c>
       <c r="AW249" t="n">
-        <v>8.688817566274482</v>
+        <v>8.598524847652415</v>
       </c>
       <c r="AX249" t="n">
         <v>0.5131587006848075</v>
@@ -47563,7 +47563,7 @@
         <v>250</v>
       </c>
       <c r="B250" t="n">
-        <v>15.1627183333333</v>
+        <v>15.15005013999998</v>
       </c>
       <c r="C250" t="n">
         <v>-16.87083</v>
@@ -47630,7 +47630,7 @@
         <v>2</v>
       </c>
       <c r="W250" t="n">
-        <v>41.83666487</v>
+        <v>40.233468902</v>
       </c>
       <c r="X250" t="n">
         <v>0.8388379231368659</v>
@@ -47738,7 +47738,7 @@
         <v>0</v>
       </c>
       <c r="AW250" t="n">
-        <v>8.692443715089865</v>
+        <v>8.598524847652415</v>
       </c>
       <c r="AX250" t="n">
         <v>1.508970607773424</v>
@@ -47752,7 +47752,7 @@
         <v>251</v>
       </c>
       <c r="B251" t="n">
-        <v>15.1630166666666</v>
+        <v>15.15005013999998</v>
       </c>
       <c r="C251" t="n">
         <v>-16.8706033333333</v>
@@ -47819,7 +47819,7 @@
         <v>2</v>
       </c>
       <c r="W251" t="n">
-        <v>41.8726260044</v>
+        <v>40.233468902</v>
       </c>
       <c r="X251" t="n">
         <v>-0.4289375681384815</v>
@@ -47927,7 +47927,7 @@
         <v>0</v>
       </c>
       <c r="AW251" t="n">
-        <v>8.692443715089865</v>
+        <v>8.598524847652415</v>
       </c>
       <c r="AX251" t="n">
         <v>0.1243001862994473</v>
@@ -47941,7 +47941,7 @@
         <v>252</v>
       </c>
       <c r="B252" t="n">
-        <v>15.16188</v>
+        <v>15.15005013999998</v>
       </c>
       <c r="C252" t="n">
         <v>-16.8706166666666</v>
@@ -48008,7 +48008,7 @@
         <v>2</v>
       </c>
       <c r="W252" t="n">
-        <v>41.74763604</v>
+        <v>40.233468902</v>
       </c>
       <c r="X252" t="n">
         <v>-0.9118996600528995</v>
@@ -48116,7 +48116,7 @@
         <v>0</v>
       </c>
       <c r="AW252" t="n">
-        <v>8.6907831223659</v>
+        <v>8.598524847652415</v>
       </c>
       <c r="AX252" t="n">
         <v>0.6222681626616865</v>
@@ -48130,7 +48130,7 @@
         <v>253</v>
       </c>
       <c r="B253" t="n">
-        <v>15.1554383333333</v>
+        <v>15.15005013999998</v>
       </c>
       <c r="C253" t="n">
         <v>-16.8831066666666</v>
@@ -48197,7 +48197,7 @@
         <v>2</v>
       </c>
       <c r="W253" t="n">
-        <v>40.8663476</v>
+        <v>40.233468902</v>
       </c>
       <c r="X253" t="n">
         <v>-0.549678091117086</v>
@@ -48305,7 +48305,7 @@
         <v>0</v>
       </c>
       <c r="AW253" t="n">
-        <v>8.604067384092247</v>
+        <v>8.598524847652415</v>
       </c>
       <c r="AX253" t="n">
         <v>0.1243001862994473</v>
@@ -48319,7 +48319,7 @@
         <v>254</v>
       </c>
       <c r="B254" t="n">
-        <v>15.16313163</v>
+        <v>15.15005013999998</v>
       </c>
       <c r="C254" t="n">
         <v>-16.87150831</v>
@@ -48386,7 +48386,7 @@
         <v>2</v>
       </c>
       <c r="W254" t="n">
-        <v>41.87193949</v>
+        <v>40.233468902</v>
       </c>
       <c r="X254" t="n">
         <v>0.1143947852652388</v>
@@ -48494,7 +48494,7 @@
         <v>0</v>
       </c>
       <c r="AW254" t="n">
-        <v>8.691276436749668</v>
+        <v>8.598524847652415</v>
       </c>
       <c r="AX254" t="n">
         <v>-0.02476586554107721</v>
@@ -48508,7 +48508,7 @@
         <v>255</v>
       </c>
       <c r="B255" t="n">
-        <v>15.16320078826664</v>
+        <v>15.15005013999998</v>
       </c>
       <c r="C255" t="n">
         <v>-16.8706284</v>
@@ -48517,7 +48517,7 @@
         <v>14.3340454101562</v>
       </c>
       <c r="E255" t="n">
-        <v>27.3059997558593</v>
+        <v>24.2719993591308</v>
       </c>
       <c r="F255" t="n">
         <v>1</v>
@@ -48575,7 +48575,7 @@
         <v>2</v>
       </c>
       <c r="W255" t="n">
-        <v>41.8726260044</v>
+        <v>40.233468902</v>
       </c>
       <c r="X255" t="n">
         <v>0.3307264075671812</v>
@@ -48683,7 +48683,7 @@
         <v>0</v>
       </c>
       <c r="AW255" t="n">
-        <v>8.692443715089865</v>
+        <v>8.598524847652415</v>
       </c>
       <c r="AX255" t="n">
         <v>-0.282132065593342</v>
@@ -48700,7 +48700,7 @@
         <v>15.1268</v>
       </c>
       <c r="C256" t="n">
-        <v>-16.86529</v>
+        <v>-16.86551899999998</v>
       </c>
       <c r="D256" t="n">
         <v>61.7</v>
@@ -48889,7 +48889,7 @@
         <v>15.1275516666666</v>
       </c>
       <c r="C257" t="n">
-        <v>-16.8646516666666</v>
+        <v>-16.86551899999998</v>
       </c>
       <c r="D257" t="n">
         <v>17.6</v>
@@ -48901,7 +48901,7 @@
         <v>1</v>
       </c>
       <c r="G257" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H257" t="n">
         <v>99</v>
@@ -48956,7 +48956,7 @@
         <v>38.07859931</v>
       </c>
       <c r="X257" t="n">
-        <v>1.382170276540586</v>
+        <v>1.140689230583377</v>
       </c>
       <c r="Y257" t="inlineStr">
         <is>
@@ -49078,7 +49078,7 @@
         <v>15.1279433333333</v>
       </c>
       <c r="C258" t="n">
-        <v>-16.8644383333333</v>
+        <v>-16.86551899999998</v>
       </c>
       <c r="D258" t="n">
         <v>-8.1</v>
@@ -49267,7 +49267,7 @@
         <v>15.1286449999999</v>
       </c>
       <c r="C259" t="n">
-        <v>-16.8642883333333</v>
+        <v>-16.86551899999998</v>
       </c>
       <c r="D259" t="n">
         <v>-7.6</v>
@@ -49442,7 +49442,7 @@
         <v>8.596695248175312</v>
       </c>
       <c r="AX259" t="n">
-        <v>1.865480794298238</v>
+        <v>1.700191506719004</v>
       </c>
       <c r="AY259" t="n">
         <v>-0.5054395872141672</v>
@@ -49456,7 +49456,7 @@
         <v>15.12882317</v>
       </c>
       <c r="C260" t="n">
-        <v>-16.86380546</v>
+        <v>-16.86551899999998</v>
       </c>
       <c r="D260" t="n">
         <v>21.4237670898437</v>
@@ -49628,7 +49628,7 @@
         <v>1</v>
       </c>
       <c r="AW260" t="n">
-        <v>8.599828411660317</v>
+        <v>8.598524847652415</v>
       </c>
       <c r="AX260" t="n">
         <v>0.8634683585626816</v>
@@ -49645,13 +49645,13 @@
         <v>15.12909453</v>
       </c>
       <c r="C261" t="n">
-        <v>-16.86431494</v>
+        <v>-16.86551899999998</v>
       </c>
       <c r="D261" t="n">
         <v>32.9801635742187</v>
       </c>
       <c r="E261" t="n">
-        <v>30.3400001525878</v>
+        <v>24.2719993591308</v>
       </c>
       <c r="F261" t="n">
         <v>0</v>
@@ -49846,7 +49846,7 @@
         <v>1</v>
       </c>
       <c r="G262" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H262" t="n">
         <v>99</v>
@@ -50012,7 +50012,7 @@
         <v>-0.2023519118466726</v>
       </c>
       <c r="AY262" t="n">
-        <v>-0.7781316105085336</v>
+        <v>-0.7213828228015811</v>
       </c>
     </row>
     <row r="263">
@@ -50023,7 +50023,7 @@
         <v>15.13053538</v>
       </c>
       <c r="C263" t="n">
-        <v>-16.86520443</v>
+        <v>-16.86551899999998</v>
       </c>
       <c r="D263" t="n">
         <v>23.2001953125</v>
@@ -50195,7 +50195,7 @@
         <v>0</v>
       </c>
       <c r="AW263" t="n">
-        <v>8.598986860671436</v>
+        <v>8.598524847652415</v>
       </c>
       <c r="AX263" t="n">
         <v>-1.480611892609824</v>
@@ -50552,7 +50552,7 @@
         <v>0</v>
       </c>
       <c r="AP265" t="n">
-        <v>5.017279836814924</v>
+        <v>5.525452939131783</v>
       </c>
       <c r="AQ265" t="n">
         <v>0</v>
@@ -50564,10 +50564,10 @@
         <v>0</v>
       </c>
       <c r="AT265" t="n">
-        <v>11.51293546492023</v>
+        <v>11.69525535506279</v>
       </c>
       <c r="AU265" t="n">
-        <v>12.20607764551767</v>
+        <v>12.61154108696612</v>
       </c>
       <c r="AV265" t="n">
         <v>0</v>
@@ -50576,7 +50576,7 @@
         <v>5.965113527000136</v>
       </c>
       <c r="AX265" t="n">
-        <v>-1.874752777625257</v>
+        <v>-1.635047341043556</v>
       </c>
       <c r="AY265" t="n">
         <v>0.1052518405793548</v>
@@ -50613,7 +50613,7 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>27</v>
+        <v>28.6</v>
       </c>
       <c r="K266" t="n">
         <v>3.444444444444445</v>
@@ -50741,7 +50741,7 @@
         <v>0</v>
       </c>
       <c r="AP266" t="n">
-        <v>4.86666711878656</v>
+        <v>5.525452939131783</v>
       </c>
       <c r="AQ266" t="n">
         <v>0</v>
@@ -50765,7 +50765,7 @@
         <v>5.962932550348025</v>
       </c>
       <c r="AX266" t="n">
-        <v>-1.841084415971824</v>
+        <v>-1.635047341043556</v>
       </c>
       <c r="AY266" t="n">
         <v>-0.7128468148837869</v>
@@ -51180,7 +51180,7 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>28</v>
+        <v>28.6</v>
       </c>
       <c r="K269" t="n">
         <v>3.722222222222222</v>
@@ -51335,7 +51335,7 @@
         <v>0.2854311669817337</v>
       </c>
       <c r="AY269" t="n">
-        <v>-1.107944402537769</v>
+        <v>-0.7213828228015811</v>
       </c>
     </row>
     <row r="270">
@@ -51902,7 +51902,7 @@
         <v>-0.9879575828589522</v>
       </c>
       <c r="AY272" t="n">
-        <v>-0.7658397136944319</v>
+        <v>-0.7213828228015811</v>
       </c>
     </row>
     <row r="273">
@@ -52070,7 +52070,7 @@
         <v>0</v>
       </c>
       <c r="AR273" t="n">
-        <v>2.23606797749979</v>
+        <v>2.645751311064591</v>
       </c>
       <c r="AS273" t="n">
         <v>0</v>
@@ -52457,7 +52457,7 @@
         <v>11.84940484442307</v>
       </c>
       <c r="AU275" t="n">
-        <v>12.38839836898211</v>
+        <v>12.61154108696612</v>
       </c>
       <c r="AV275" t="n">
         <v>0</v>
@@ -52469,7 +52469,7 @@
         <v>-1.421955836979065</v>
       </c>
       <c r="AY275" t="n">
-        <v>-0.8120592010442327</v>
+        <v>-0.7213828228015811</v>
       </c>
     </row>
     <row r="276">
@@ -53454,10 +53454,10 @@
         <v>3.555555555555555</v>
       </c>
       <c r="L281" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M281" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N281" t="n">
         <v>1</v>
@@ -53789,7 +53789,7 @@
         <v>5.988718777000637</v>
       </c>
       <c r="AX282" t="n">
-        <v>-2.050788661439982</v>
+        <v>-1.635047341043556</v>
       </c>
       <c r="AY282" t="n">
         <v>-0.3319890411839294</v>
@@ -54899,7 +54899,7 @@
         <v>0</v>
       </c>
       <c r="AP288" t="n">
-        <v>9.680406499268875</v>
+        <v>9.546884034617925</v>
       </c>
       <c r="AQ288" t="n">
         <v>0</v>
@@ -54911,7 +54911,7 @@
         <v>0</v>
       </c>
       <c r="AT288" t="n">
-        <v>14.97866168026991</v>
+        <v>14.73180168983835</v>
       </c>
       <c r="AU288" t="n">
         <v>14.97866168026991</v>
@@ -54926,7 +54926,7 @@
         <v>1.264280732634204</v>
       </c>
       <c r="AY288" t="n">
-        <v>-0.937135581824891</v>
+        <v>-0.7213828228015811</v>
       </c>
     </row>
     <row r="289">
@@ -56071,7 +56071,7 @@
         <v>14.8902466666666</v>
       </c>
       <c r="C295" t="n">
-        <v>-17.1346133333333</v>
+        <v>-17.134429198</v>
       </c>
       <c r="D295" t="n">
         <v>12.5</v>
@@ -56097,7 +56097,7 @@
         <v>33</v>
       </c>
       <c r="K295" t="n">
-        <v>2.916666666666667</v>
+        <v>3</v>
       </c>
       <c r="L295" t="n">
         <v>1</v>
@@ -56260,7 +56260,7 @@
         <v>14.8900583333333</v>
       </c>
       <c r="C296" t="n">
-        <v>-17.13513</v>
+        <v>-17.134429198</v>
       </c>
       <c r="D296" t="n">
         <v>-11.5</v>
@@ -56272,7 +56272,7 @@
         <v>1</v>
       </c>
       <c r="G296" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H296" t="n">
         <v>4</v>
@@ -56449,7 +56449,7 @@
         <v>14.8899116666666</v>
       </c>
       <c r="C297" t="n">
-        <v>-17.1348</v>
+        <v>-17.134429198</v>
       </c>
       <c r="D297" t="n">
         <v>-14.3</v>
@@ -56475,7 +56475,7 @@
         <v>31</v>
       </c>
       <c r="K297" t="n">
-        <v>2.888888888888889</v>
+        <v>3</v>
       </c>
       <c r="L297" t="n">
         <v>5</v>
@@ -57380,7 +57380,7 @@
         <v>5.943092267498461</v>
       </c>
       <c r="AX301" t="n">
-        <v>-1.64485543166401</v>
+        <v>-1.635047341043556</v>
       </c>
       <c r="AY301" t="n">
         <v>0.2221043023793637</v>
@@ -57394,7 +57394,7 @@
         <v>14.89019788</v>
       </c>
       <c r="C302" t="n">
-        <v>-17.13549179</v>
+        <v>-17.134429198</v>
       </c>
       <c r="D302" t="n">
         <v>16.1868286132812</v>
@@ -57572,7 +57572,7 @@
         <v>0.4879921212994534</v>
       </c>
       <c r="AY302" t="n">
-        <v>1.360125912274162</v>
+        <v>0.9622892544858042</v>
       </c>
     </row>
     <row r="303">
@@ -57967,7 +57967,7 @@
         <v>22.5034790039062</v>
       </c>
       <c r="E305" t="n">
-        <v>25.7889995574951</v>
+        <v>24.2719993591308</v>
       </c>
       <c r="F305" t="n">
         <v>0</v>
@@ -58540,7 +58540,7 @@
         <v>1</v>
       </c>
       <c r="G308" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H308" t="n">
         <v>99</v>
@@ -58551,7 +58551,7 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>25</v>
+        <v>28.6</v>
       </c>
       <c r="K308" t="n">
         <v>3.527777777777778</v>
@@ -58706,7 +58706,7 @@
         <v>0.4569064146071741</v>
       </c>
       <c r="AY308" t="n">
-        <v>1.195110572089772</v>
+        <v>0.9622892544858042</v>
       </c>
     </row>
     <row r="309">
@@ -58743,7 +58743,7 @@
         <v>32</v>
       </c>
       <c r="K309" t="n">
-        <v>2.972222222222222</v>
+        <v>3</v>
       </c>
       <c r="L309" t="n">
         <v>5</v>
@@ -58880,7 +58880,7 @@
         <v>0</v>
       </c>
       <c r="AT309" t="n">
-        <v>14.84513033228823</v>
+        <v>14.73180168983835</v>
       </c>
       <c r="AU309" t="n">
         <v>14.69097971198475</v>
@@ -58892,7 +58892,7 @@
         <v>7.204618941345892</v>
       </c>
       <c r="AX309" t="n">
-        <v>2.282454907009253</v>
+        <v>1.700191506719004</v>
       </c>
       <c r="AY309" t="n">
         <v>0.9185698613294354</v>
@@ -58935,10 +58935,10 @@
         <v>3.972222222222222</v>
       </c>
       <c r="L310" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M310" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N310" t="n">
         <v>1</v>
@@ -59246,7 +59246,7 @@
         <v>0</v>
       </c>
       <c r="AP311" t="n">
-        <v>9.680406499268875</v>
+        <v>9.546884034617925</v>
       </c>
       <c r="AQ311" t="n">
         <v>0</v>
@@ -59310,7 +59310,7 @@
         <v>38</v>
       </c>
       <c r="K312" t="n">
-        <v>2.861111111111111</v>
+        <v>3</v>
       </c>
       <c r="L312" t="n">
         <v>2</v>
@@ -60424,7 +60424,7 @@
         <v>19.5034790039062</v>
       </c>
       <c r="E318" t="n">
-        <v>34.40555938720702</v>
+        <v>24.2719993591308</v>
       </c>
       <c r="F318" t="n">
         <v>1</v>
@@ -60782,10 +60782,10 @@
         <v>7.222069398032672</v>
       </c>
       <c r="AX319" t="n">
-        <v>1.865480794298238</v>
+        <v>1.700191506719004</v>
       </c>
       <c r="AY319" t="n">
-        <v>1.217666866081122</v>
+        <v>0.9622892544858042</v>
       </c>
     </row>
     <row r="320">
@@ -60974,7 +60974,7 @@
         <v>-0.1933678680394934</v>
       </c>
       <c r="AY320" t="n">
-        <v>1.174581079150271</v>
+        <v>0.9622892544858042</v>
       </c>
     </row>
     <row r="321">
@@ -61331,7 +61331,7 @@
         <v>0</v>
       </c>
       <c r="AR322" t="n">
-        <v>4.795831523312719</v>
+        <v>4.58257569495584</v>
       </c>
       <c r="AS322" t="n">
         <v>0</v>
@@ -61340,7 +61340,7 @@
         <v>13.81551155796377</v>
       </c>
       <c r="AU322" t="n">
-        <v>15.42494867039835</v>
+        <v>15.20180516908413</v>
       </c>
       <c r="AV322" t="n">
         <v>0</v>
@@ -61744,7 +61744,7 @@
         <v>-17.0226766666666</v>
       </c>
       <c r="D325" t="n">
-        <v>62.09999999999999</v>
+        <v>62.00671142578121</v>
       </c>
       <c r="E325" t="n">
         <v>4</v>
@@ -61936,7 +61936,7 @@
         <v>23.5</v>
       </c>
       <c r="E326" t="n">
-        <v>3.20000004768371</v>
+        <v>3.5</v>
       </c>
       <c r="F326" t="n">
         <v>1</v>
@@ -61953,7 +61953,7 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>27</v>
+        <v>28.6</v>
       </c>
       <c r="K326" t="n">
         <v>3.166666666666667</v>
@@ -62093,7 +62093,7 @@
         <v>0</v>
       </c>
       <c r="AT326" t="n">
-        <v>14.84513033228823</v>
+        <v>14.73180168983835</v>
       </c>
       <c r="AU326" t="n">
         <v>15.09644468120408</v>
@@ -62105,7 +62105,7 @@
         <v>7.233255451040009</v>
       </c>
       <c r="AX326" t="n">
-        <v>2.282454907009253</v>
+        <v>1.700191506719004</v>
       </c>
       <c r="AY326" t="n">
         <v>0.5885285354710238</v>
@@ -62131,7 +62131,7 @@
         <v>0</v>
       </c>
       <c r="G327" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H327" t="n">
         <v>99</v>
@@ -62186,7 +62186,7 @@
         <v>26.41031069</v>
       </c>
       <c r="X327" t="n">
-        <v>1.261429753561982</v>
+        <v>1.140689230583377</v>
       </c>
       <c r="Y327" t="inlineStr">
         <is>
@@ -62672,10 +62672,10 @@
         <v>7.255575838622321</v>
       </c>
       <c r="AX329" t="n">
-        <v>1.865480794298238</v>
+        <v>1.700191506719004</v>
       </c>
       <c r="AY329" t="n">
-        <v>1.257541673749764</v>
+        <v>0.9622892544858042</v>
       </c>
     </row>
     <row r="330">
@@ -62709,7 +62709,7 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>27</v>
+        <v>28.6</v>
       </c>
       <c r="K330" t="n">
         <v>3.361111111111111</v>
@@ -63038,7 +63038,7 @@
         <v>0</v>
       </c>
       <c r="AT331" t="n">
-        <v>15.01988641060509</v>
+        <v>14.73180168983835</v>
       </c>
       <c r="AU331" t="n">
         <v>15.12384364788469</v>
@@ -63053,7 +63053,7 @@
         <v>1.322251832789895</v>
       </c>
       <c r="AY331" t="n">
-        <v>1.389764151643443</v>
+        <v>0.9622892544858042</v>
       </c>
     </row>
     <row r="332">
@@ -63067,7 +63067,7 @@
         <v>-17.02459</v>
       </c>
       <c r="D332" t="n">
-        <v>-41.1</v>
+        <v>-39.48</v>
       </c>
       <c r="E332" t="n">
         <v>7.5</v>
@@ -63087,7 +63087,7 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>27</v>
+        <v>28.6</v>
       </c>
       <c r="K332" t="n">
         <v>3.194444444444445</v>
@@ -63256,7 +63256,7 @@
         <v>-17.0230933333333</v>
       </c>
       <c r="D333" t="n">
-        <v>-44.8</v>
+        <v>-39.48</v>
       </c>
       <c r="E333" t="n">
         <v>3.5</v>
@@ -63428,7 +63428,7 @@
         <v>7.234040219683604</v>
       </c>
       <c r="AX333" t="n">
-        <v>1.865480794298238</v>
+        <v>1.700191506719004</v>
       </c>
       <c r="AY333" t="inlineStr"/>
     </row>
@@ -63504,7 +63504,7 @@
         <v>2</v>
       </c>
       <c r="W334" t="n">
-        <v>2.88147082664</v>
+        <v>3.5952978724</v>
       </c>
       <c r="X334" t="n">
         <v>0.05402452377593658</v>

--- a/senegal_dataframe_FA.xlsx
+++ b/senegal_dataframe_FA.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>Q61__Land_rented_cultivated_ha_log__continuous</t>
+          <t>Q61__Land_rented_cultivated_ha__ordinal</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>Q84__Years_using_drip_irrigation_log__continuous</t>
+          <t>Q84__Years_using_drip_irrigation__ordinal</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
@@ -688,7 +688,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>15.15005013999998</v>
+        <v>15.15878016</v>
       </c>
       <c r="B2" t="n">
         <v>-16.87950743</v>
@@ -755,7 +755,7 @@
         <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>40.233468902</v>
+        <v>41.28044793</v>
       </c>
       <c r="W2" t="n">
         <v>-0.6681440971572371</v>
@@ -857,19 +857,19 @@
         <v>13.99783294809122</v>
       </c>
       <c r="AT2" t="n">
-        <v>15.20180516908413</v>
+        <v>15.42494867039835</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
       </c>
       <c r="AV2" t="n">
-        <v>8.598524847652415</v>
+        <v>8.634971367642166</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.5337064155414436</v>
+        <v>0.5340292265413071</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.8592341543069542</v>
+        <v>0.864669645193382</v>
       </c>
     </row>
     <row r="3">
@@ -1052,10 +1052,10 @@
         <v>7.230666311620251</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0.09738977323592984</v>
+        <v>-0.09720648173106773</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.5999702696757436</v>
+        <v>0.5980098533428798</v>
       </c>
     </row>
     <row r="4">
@@ -1089,7 +1089,7 @@
         <v>54</v>
       </c>
       <c r="J4" t="n">
-        <v>4.5</v>
+        <v>4.527777777777779</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -1211,16 +1211,16 @@
         <v>0.02626157407407407</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AO4" t="n">
         <v>7.601402334583733</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2.645751311064591</v>
+        <v>2.23606797749979</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1238,10 +1238,10 @@
         <v>6.460175478266825</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.3303821271678443</v>
+        <v>0.3297465625440768</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.7213828228015811</v>
+        <v>-0.7582120375878134</v>
       </c>
     </row>
     <row r="5">
@@ -1252,7 +1252,7 @@
         <v>-16.8848499999999</v>
       </c>
       <c r="C5" t="n">
-        <v>62.00671142578121</v>
+        <v>62.2</v>
       </c>
       <c r="D5" t="n">
         <v>9.5</v>
@@ -1275,7 +1275,7 @@
         <v>54</v>
       </c>
       <c r="J5" t="n">
-        <v>4.5</v>
+        <v>4.527777777777779</v>
       </c>
       <c r="K5" t="n">
         <v>4</v>
@@ -1403,10 +1403,10 @@
         <v>8.987321812850125</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.09861228866811</v>
+        <v>1</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2.645751311064591</v>
+        <v>2.449489742783178</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1424,10 +1424,10 @@
         <v>8.570105864573669</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.4846420747891336</v>
+        <v>0.4926593604697498</v>
       </c>
       <c r="AX5" t="n">
-        <v>-0.3219166422164831</v>
+        <v>-0.3231861501015452</v>
       </c>
     </row>
     <row r="6">
@@ -1438,7 +1438,7 @@
         <v>-17.1294216666666</v>
       </c>
       <c r="C6" t="n">
-        <v>-39.48</v>
+        <v>-55.90558166503902</v>
       </c>
       <c r="D6" t="n">
         <v>8.39999961853027</v>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>28.6</v>
+        <v>28</v>
       </c>
       <c r="J6" t="n">
         <v>3.361111111111111</v>
@@ -1610,10 +1610,10 @@
         <v>5.980512830017171</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.3136702918539308</v>
+        <v>0.3134642568865421</v>
       </c>
       <c r="AX6" t="n">
-        <v>-0.5662779618931408</v>
+        <v>-0.5674289800417565</v>
       </c>
     </row>
     <row r="7">
@@ -1769,7 +1769,7 @@
         <v>0.0228587962962963</v>
       </c>
       <c r="AN7" t="n">
-        <v>1.09861228866811</v>
+        <v>1</v>
       </c>
       <c r="AO7" t="n">
         <v>8.294299608857235</v>
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2.645751311064591</v>
+        <v>2.449489742783178</v>
       </c>
       <c r="AR7" t="n">
         <v>2.564949357461537</v>
@@ -1796,10 +1796,10 @@
         <v>8.558833893703044</v>
       </c>
       <c r="AW7" t="n">
-        <v>-0.1490101464237544</v>
+        <v>-0.1482362817624612</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.2083760209224221</v>
+        <v>0.2108920512487167</v>
       </c>
     </row>
     <row r="8">
@@ -1813,13 +1813,13 @@
         <v>-12.1</v>
       </c>
       <c r="D8" t="n">
-        <v>3.5</v>
+        <v>2.90000009536743</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G8" t="n">
         <v>6</v>
@@ -1833,7 +1833,7 @@
         <v>53</v>
       </c>
       <c r="J8" t="n">
-        <v>4.5</v>
+        <v>4.527777777777779</v>
       </c>
       <c r="K8" t="n">
         <v>5</v>
@@ -1874,7 +1874,7 @@
         <v>14.6815065</v>
       </c>
       <c r="W8" t="n">
-        <v>-1.561422336398522</v>
+        <v>-2.218612805517177</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
@@ -1955,22 +1955,22 @@
         <v>0.02359953703703704</v>
       </c>
       <c r="AN8" t="n">
-        <v>1.09861228866811</v>
+        <v>2</v>
       </c>
       <c r="AO8" t="n">
         <v>8.006700845440367</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.791759469228055</v>
+        <v>2</v>
       </c>
       <c r="AQ8" t="n">
-        <v>4.58257569495584</v>
+        <v>5.182458365518542</v>
       </c>
       <c r="AR8" t="n">
         <v>1.945910149055313</v>
       </c>
       <c r="AS8" t="n">
-        <v>14.73180168983835</v>
+        <v>15.20180516908413</v>
       </c>
       <c r="AT8" t="n">
         <v>15.20180516908413</v>
@@ -1982,10 +1982,10 @@
         <v>6.447104905304395</v>
       </c>
       <c r="AW8" t="n">
-        <v>1.700191506719004</v>
+        <v>1.967654444685495</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.4365176811109724</v>
+        <v>0.3935353440847725</v>
       </c>
     </row>
     <row r="9">
@@ -1993,7 +1993,7 @@
         <v>14.95972715</v>
       </c>
       <c r="B9" t="n">
-        <v>-16.86551899999998</v>
+        <v>-16.79356695</v>
       </c>
       <c r="C9" t="n">
         <v>57.519775390625</v>
@@ -2168,10 +2168,10 @@
         <v>8.496723418471381</v>
       </c>
       <c r="AW9" t="n">
-        <v>-0.3596450420791764</v>
+        <v>-0.3611481383218003</v>
       </c>
       <c r="AX9" t="n">
-        <v>-0.4617504623704748</v>
+        <v>-0.4588070704910941</v>
       </c>
     </row>
     <row r="10">
@@ -2330,10 +2330,10 @@
         <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>9.546884034617925</v>
+        <v>9.903537551286171</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.791759469228055</v>
+        <v>2</v>
       </c>
       <c r="AQ10" t="n">
         <v>3.464101615137754</v>
@@ -2354,10 +2354,10 @@
         <v>5.937687531354273</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.9026746210513266</v>
+        <v>0.9071725030532065</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.03995159361835848</v>
+        <v>0.04104912999558241</v>
       </c>
     </row>
     <row r="11">
@@ -2540,10 +2540,10 @@
         <v>5.931291734521242</v>
       </c>
       <c r="AW11" t="n">
-        <v>1.39562853400343</v>
+        <v>1.395014864529899</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.1264271307628216</v>
+        <v>0.1252483017077552</v>
       </c>
     </row>
     <row r="12">
@@ -2580,10 +2580,10 @@
         <v>3.138888888888889</v>
       </c>
       <c r="K12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
@@ -2726,10 +2726,10 @@
         <v>5.941042825127589</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.7009699404232125</v>
+        <v>0.7029337009059211</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.9622892544858042</v>
+        <v>1.104325097207401</v>
       </c>
     </row>
     <row r="13">
@@ -2737,7 +2737,7 @@
         <v>14.8632766666666</v>
       </c>
       <c r="B13" t="n">
-        <v>-17.134429198</v>
+        <v>-17.137045</v>
       </c>
       <c r="C13" t="n">
         <v>32.7</v>
@@ -2909,13 +2909,13 @@
         <v>0</v>
       </c>
       <c r="AV13" t="n">
-        <v>5.873368410481751</v>
+        <v>5.818211817216695</v>
       </c>
       <c r="AW13" t="n">
-        <v>-0.2385478947977616</v>
+        <v>-0.2461965570316902</v>
       </c>
       <c r="AX13" t="n">
-        <v>-0.4120285932186979</v>
+        <v>-0.4121468466902374</v>
       </c>
     </row>
     <row r="14">
@@ -3098,10 +3098,10 @@
         <v>8.512046142379633</v>
       </c>
       <c r="AW14" t="n">
-        <v>1.151883525305556</v>
+        <v>1.155006777094449</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.5010192821002516</v>
+        <v>0.5025788814688307</v>
       </c>
     </row>
     <row r="15">
@@ -3263,10 +3263,10 @@
         <v>6.621405651764134</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.09861228866811</v>
+        <v>1</v>
       </c>
       <c r="AQ15" t="n">
-        <v>2.645751311064591</v>
+        <v>2.23606797749979</v>
       </c>
       <c r="AR15" t="n">
         <v>1.945910149055313</v>
@@ -3284,10 +3284,10 @@
         <v>8.513339112240274</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.02739590302743675</v>
+        <v>0.02669961539121542</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.3822668701070381</v>
+        <v>0.3879569039727252</v>
       </c>
     </row>
     <row r="16">
@@ -3449,10 +3449,10 @@
         <v>6.398594934535208</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.09861228866811</v>
+        <v>1</v>
       </c>
       <c r="AQ16" t="n">
-        <v>2.645751311064591</v>
+        <v>2.23606797749979</v>
       </c>
       <c r="AR16" t="n">
         <v>1.945910149055313</v>
@@ -3470,10 +3470,10 @@
         <v>8.515614166341733</v>
       </c>
       <c r="AW16" t="n">
-        <v>-0.2096701433787939</v>
+        <v>-0.2098123021866568</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.3896179253828804</v>
+        <v>0.3957839938290907</v>
       </c>
     </row>
     <row r="17">
@@ -3629,7 +3629,7 @@
         <v>0.02268518518518519</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AO17" t="n">
         <v>7.496097345175956</v>
@@ -3656,10 +3656,10 @@
         <v>8.570802057567308</v>
       </c>
       <c r="AW17" t="n">
-        <v>0.239177722065059</v>
+        <v>0.2417267858271578</v>
       </c>
       <c r="AX17" t="n">
-        <v>-0.1012295620337224</v>
+        <v>-0.0971337261265886</v>
       </c>
     </row>
     <row r="18">
@@ -3842,10 +3842,10 @@
         <v>5.97425075720797</v>
       </c>
       <c r="AW18" t="n">
-        <v>-0.2846973848768057</v>
+        <v>-0.2855153456540418</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.2588269673320361</v>
+        <v>0.2617807301829871</v>
       </c>
     </row>
     <row r="19">
@@ -4028,10 +4028,10 @@
         <v>5.972674330649546</v>
       </c>
       <c r="AW19" t="n">
-        <v>0.3210393475645538</v>
+        <v>0.3205051570112421</v>
       </c>
       <c r="AX19" t="n">
-        <v>0.9487616319263326</v>
+        <v>0.9521003903855978</v>
       </c>
     </row>
     <row r="20">
@@ -4214,10 +4214,10 @@
         <v>5.98201513622291</v>
       </c>
       <c r="AW20" t="n">
-        <v>-0.6652891984844387</v>
+        <v>-0.668584748994185</v>
       </c>
       <c r="AX20" t="n">
-        <v>0.6146636517413056</v>
+        <v>0.6172393019743116</v>
       </c>
     </row>
     <row r="21">
@@ -4400,10 +4400,10 @@
         <v>5.957228290069132</v>
       </c>
       <c r="AW21" t="n">
-        <v>-0.351358379502681</v>
+        <v>-0.3529200972784319</v>
       </c>
       <c r="AX21" t="n">
-        <v>-0.3522074504347599</v>
+        <v>-0.3506492144132347</v>
       </c>
     </row>
     <row r="22">
@@ -4586,10 +4586,10 @@
         <v>5.964079515734175</v>
       </c>
       <c r="AW22" t="n">
-        <v>-1.271151938224815</v>
+        <v>-1.274691814843484</v>
       </c>
       <c r="AX22" t="n">
-        <v>0.3707809004366863</v>
+        <v>0.3735713499078904</v>
       </c>
     </row>
     <row r="23">
@@ -4772,10 +4772,10 @@
         <v>5.948392028943621</v>
       </c>
       <c r="AW23" t="n">
-        <v>-0.2493934398298804</v>
+        <v>-0.2538185959145605</v>
       </c>
       <c r="AX23" t="n">
-        <v>0.0206669423737267</v>
+        <v>0.02152424121296796</v>
       </c>
     </row>
     <row r="24">
@@ -4789,7 +4789,7 @@
         <v>10.1261596679687</v>
       </c>
       <c r="D24" t="n">
-        <v>24.2719993591308</v>
+        <v>28.8229999542236</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -4946,7 +4946,7 @@
         <v>1.945910149055313</v>
       </c>
       <c r="AS24" t="n">
-        <v>11.69525535506279</v>
+        <v>11.51293546492023</v>
       </c>
       <c r="AT24" t="n">
         <v>13.30468660086356</v>
@@ -4958,10 +4958,10 @@
         <v>5.945628255281354</v>
       </c>
       <c r="AW24" t="n">
-        <v>-0.6789758939552527</v>
+        <v>-0.6860679901237454</v>
       </c>
       <c r="AX24" t="n">
-        <v>-0.05431744140168827</v>
+        <v>-0.0527713939910836</v>
       </c>
     </row>
     <row r="25">
@@ -4969,7 +4969,7 @@
         <v>14.88814725</v>
       </c>
       <c r="B25" t="n">
-        <v>-17.134429198</v>
+        <v>-17.1348578</v>
       </c>
       <c r="C25" t="n">
         <v>16.8946533203125</v>
@@ -5144,10 +5144,10 @@
         <v>5.932355585262906</v>
       </c>
       <c r="AW25" t="n">
-        <v>-0.6778039864339885</v>
+        <v>-0.6814107751748495</v>
       </c>
       <c r="AX25" t="n">
-        <v>0.06416055751972771</v>
+        <v>0.06428883320228047</v>
       </c>
     </row>
     <row r="26">
@@ -5167,7 +5167,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G26" t="n">
         <v>99</v>
@@ -5222,7 +5222,7 @@
         <v>26.45532511</v>
       </c>
       <c r="W26" t="n">
-        <v>-1.561422336398522</v>
+        <v>-1.927899922699688</v>
       </c>
       <c r="X26" t="inlineStr">
         <is>
@@ -5330,10 +5330,10 @@
         <v>7.211233784173135</v>
       </c>
       <c r="AW26" t="n">
-        <v>-0.2659048833087795</v>
+        <v>-0.266711474449179</v>
       </c>
       <c r="AX26" t="n">
-        <v>0.531564305179454</v>
+        <v>0.5318067227805904</v>
       </c>
     </row>
     <row r="27">
@@ -5516,10 +5516,10 @@
         <v>7.210380369994359</v>
       </c>
       <c r="AW27" t="n">
-        <v>-0.1452977793297941</v>
+        <v>-0.1454969439796195</v>
       </c>
       <c r="AX27" t="n">
-        <v>0.9622892544858042</v>
+        <v>1.227969903830641</v>
       </c>
     </row>
     <row r="28">
@@ -5702,10 +5702,10 @@
         <v>7.213771494856211</v>
       </c>
       <c r="AW28" t="n">
-        <v>0.5403557456152196</v>
+        <v>0.5424564546857027</v>
       </c>
       <c r="AX28" t="n">
-        <v>0.6548235703660045</v>
+        <v>0.6530219022469173</v>
       </c>
     </row>
     <row r="29">
@@ -5888,10 +5888,10 @@
         <v>7.222070868525177</v>
       </c>
       <c r="AW29" t="n">
-        <v>-0.7591786790047723</v>
+        <v>-0.7632201232710123</v>
       </c>
       <c r="AX29" t="n">
-        <v>0.6950037271144325</v>
+        <v>0.6952397602523663</v>
       </c>
     </row>
     <row r="30">
@@ -5928,10 +5928,10 @@
         <v>3.861111111111111</v>
       </c>
       <c r="K30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
@@ -6074,10 +6074,10 @@
         <v>7.224817493888686</v>
       </c>
       <c r="AW30" t="n">
-        <v>-0.1211443358998655</v>
+        <v>-0.1209551894446519</v>
       </c>
       <c r="AX30" t="n">
-        <v>0.9622892544858042</v>
+        <v>1.660155346108661</v>
       </c>
     </row>
     <row r="31">
@@ -6111,7 +6111,7 @@
         <v>32</v>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>2.805555555555555</v>
       </c>
       <c r="K31" t="n">
         <v>5</v>
@@ -6149,7 +6149,7 @@
         <v>2</v>
       </c>
       <c r="V31" t="n">
-        <v>3.5952978724</v>
+        <v>2.85214697</v>
       </c>
       <c r="W31" t="n">
         <v>0.5916117283852138</v>
@@ -6248,7 +6248,7 @@
         <v>1.945910149055313</v>
       </c>
       <c r="AS31" t="n">
-        <v>11.69525535506279</v>
+        <v>11.40757606036179</v>
       </c>
       <c r="AT31" t="n">
         <v>13.12236537740233</v>
@@ -6260,10 +6260,10 @@
         <v>7.434032646551938</v>
       </c>
       <c r="AW31" t="n">
-        <v>-1.635047341043556</v>
+        <v>-2.008857043386725</v>
       </c>
       <c r="AX31" t="n">
-        <v>-0.2873725727633201</v>
+        <v>-0.2841839770296182</v>
       </c>
     </row>
     <row r="32">
@@ -6297,7 +6297,7 @@
         <v>53</v>
       </c>
       <c r="J32" t="n">
-        <v>4.5</v>
+        <v>4.527777777777779</v>
       </c>
       <c r="K32" t="n">
         <v>5</v>
@@ -6419,13 +6419,13 @@
         <v>0.02491898148148148</v>
       </c>
       <c r="AN32" t="n">
-        <v>1.09861228866811</v>
+        <v>2</v>
       </c>
       <c r="AO32" t="n">
         <v>6.621405651764134</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.791759469228055</v>
+        <v>2</v>
       </c>
       <c r="AQ32" t="n">
         <v>4.58257569495584</v>
@@ -6446,10 +6446,10 @@
         <v>6.42077151438984</v>
       </c>
       <c r="AW32" t="n">
-        <v>0.1824921384647814</v>
+        <v>0.1816510721350079</v>
       </c>
       <c r="AX32" t="n">
-        <v>-0.1000164485837803</v>
+        <v>-0.1038085384761423</v>
       </c>
     </row>
     <row r="33">
@@ -6457,10 +6457,10 @@
         <v>14.86244</v>
       </c>
       <c r="B33" t="n">
-        <v>-17.134429198</v>
+        <v>-17.1365966666666</v>
       </c>
       <c r="C33" t="n">
-        <v>-39.48</v>
+        <v>-55.2</v>
       </c>
       <c r="D33" t="n">
         <v>6.59999990463256</v>
@@ -6614,7 +6614,7 @@
         <v>0</v>
       </c>
       <c r="AQ33" t="n">
-        <v>2.645751311064591</v>
+        <v>2.23606797749979</v>
       </c>
       <c r="AR33" t="n">
         <v>0</v>
@@ -6629,13 +6629,13 @@
         <v>0</v>
       </c>
       <c r="AV33" t="n">
-        <v>5.873368410481751</v>
+        <v>5.819069349990598</v>
       </c>
       <c r="AW33" t="n">
-        <v>-0.02060980017297021</v>
+        <v>-0.02365189618341888</v>
       </c>
       <c r="AX33" t="n">
-        <v>-0.7213828228015811</v>
+        <v>-0.9527141525071425</v>
       </c>
     </row>
     <row r="34">
@@ -6646,7 +6646,7 @@
         <v>-17.1299</v>
       </c>
       <c r="C34" t="n">
-        <v>-39.48</v>
+        <v>-48.2</v>
       </c>
       <c r="D34" t="n">
         <v>17.1000003814697</v>
@@ -6818,10 +6818,10 @@
         <v>5.892640140039098</v>
       </c>
       <c r="AW34" t="n">
-        <v>1.048002667387265</v>
+        <v>1.046267210300312</v>
       </c>
       <c r="AX34" t="n">
-        <v>-0.003583271878689467</v>
+        <v>-0.005505152630511281</v>
       </c>
     </row>
     <row r="35">
@@ -7004,10 +7004,10 @@
         <v>5.905574430146486</v>
       </c>
       <c r="AW35" t="n">
-        <v>0.3195113590740312</v>
+        <v>0.3192261701879137</v>
       </c>
       <c r="AX35" t="n">
-        <v>-0.7213828228015811</v>
+        <v>-0.7562623840723106</v>
       </c>
     </row>
     <row r="36">
@@ -7015,7 +7015,7 @@
         <v>14.8631066666666</v>
       </c>
       <c r="B36" t="n">
-        <v>-17.134429198</v>
+        <v>-17.1381183333333</v>
       </c>
       <c r="C36" t="n">
         <v>-19.5</v>
@@ -7187,13 +7187,13 @@
         <v>0</v>
       </c>
       <c r="AV36" t="n">
-        <v>5.873368410481751</v>
+        <v>5.808404496933732</v>
       </c>
       <c r="AW36" t="n">
-        <v>0.1117904379740237</v>
+        <v>0.1100655204990151</v>
       </c>
       <c r="AX36" t="n">
-        <v>-0.6033794889176274</v>
+        <v>-0.6050541730517089</v>
       </c>
     </row>
     <row r="37">
@@ -7265,7 +7265,7 @@
         <v>3</v>
       </c>
       <c r="V37" t="n">
-        <v>3.5952978724</v>
+        <v>3.584865888</v>
       </c>
       <c r="W37" t="n">
         <v>-0.06671599920266792</v>
@@ -7352,10 +7352,10 @@
         <v>0</v>
       </c>
       <c r="AO37" t="n">
-        <v>5.525452939131783</v>
+        <v>5.017279836814924</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.6094379124341</v>
+        <v>1</v>
       </c>
       <c r="AQ37" t="n">
         <v>3.3166247903554</v>
@@ -7376,10 +7376,10 @@
         <v>7.534469132593219</v>
       </c>
       <c r="AW37" t="n">
-        <v>-1.635047341043556</v>
+        <v>-2.048078644175503</v>
       </c>
       <c r="AX37" t="n">
-        <v>-0.4447788446736011</v>
+        <v>-0.4352028270271696</v>
       </c>
     </row>
     <row r="38">
@@ -7390,7 +7390,7 @@
         <v>-16.90497856</v>
       </c>
       <c r="C38" t="n">
-        <v>62.00671142578121</v>
+        <v>64.9849853515625</v>
       </c>
       <c r="D38" t="n">
         <v>7.58500003814697</v>
@@ -7451,7 +7451,7 @@
         <v>3</v>
       </c>
       <c r="V38" t="n">
-        <v>3.5952978724</v>
+        <v>3.566795585</v>
       </c>
       <c r="W38" t="n">
         <v>0.2759253583923902</v>
@@ -7535,13 +7535,13 @@
         <v>0.02417824074074074</v>
       </c>
       <c r="AN38" t="n">
-        <v>1.09861228866811</v>
+        <v>1</v>
       </c>
       <c r="AO38" t="n">
         <v>5.993961427306569</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.791759469228055</v>
+        <v>2</v>
       </c>
       <c r="AQ38" t="n">
         <v>3.464101615137754</v>
@@ -7562,10 +7562,10 @@
         <v>7.537223831756624</v>
       </c>
       <c r="AW38" t="n">
-        <v>-1.26800308148512</v>
+        <v>-1.271507349597702</v>
       </c>
       <c r="AX38" t="n">
-        <v>-0.0866183794387041</v>
+        <v>-0.08505027768129847</v>
       </c>
     </row>
     <row r="39">
@@ -7599,7 +7599,7 @@
         <v>53</v>
       </c>
       <c r="J39" t="n">
-        <v>4.5</v>
+        <v>4.527777777777778</v>
       </c>
       <c r="K39" t="n">
         <v>1</v>
@@ -7727,7 +7727,7 @@
         <v>7.824445930877619</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.09861228866811</v>
+        <v>1</v>
       </c>
       <c r="AQ39" t="n">
         <v>3.780459228437589</v>
@@ -7748,10 +7748,10 @@
         <v>8.524907115623019</v>
       </c>
       <c r="AW39" t="n">
-        <v>0.4378086564858223</v>
+        <v>0.4382391579701271</v>
       </c>
       <c r="AX39" t="n">
-        <v>-0.7213828228015811</v>
+        <v>-0.7341113792968815</v>
       </c>
     </row>
     <row r="40">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G40" t="n">
         <v>99</v>
@@ -7913,7 +7913,7 @@
         <v>6.68586094706836</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.09861228866811</v>
+        <v>1</v>
       </c>
       <c r="AQ40" t="n">
         <v>2.82842712474619</v>
@@ -7934,10 +7934,10 @@
         <v>8.521448751826183</v>
       </c>
       <c r="AW40" t="n">
-        <v>-1.206872738938113</v>
+        <v>-1.211246478209205</v>
       </c>
       <c r="AX40" t="n">
-        <v>-0.5678942229171415</v>
+        <v>-0.5663117903910753</v>
       </c>
     </row>
     <row r="41">
@@ -8099,7 +8099,7 @@
         <v>7.313886831633462</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.791759469228055</v>
+        <v>2</v>
       </c>
       <c r="AQ41" t="n">
         <v>2.645751311064591</v>
@@ -8120,10 +8120,10 @@
         <v>8.561411450222446</v>
       </c>
       <c r="AW41" t="n">
-        <v>0.2547830197200748</v>
+        <v>0.2578883705151229</v>
       </c>
       <c r="AX41" t="n">
-        <v>-0.2103856259465509</v>
+        <v>-0.2088893024045569</v>
       </c>
     </row>
     <row r="42">
@@ -8157,7 +8157,7 @@
         <v>39</v>
       </c>
       <c r="J42" t="n">
-        <v>3</v>
+        <v>2.861111111111111</v>
       </c>
       <c r="K42" t="n">
         <v>8</v>
@@ -8306,10 +8306,10 @@
         <v>8.559453592373757</v>
       </c>
       <c r="AW42" t="n">
-        <v>-0.6535418193184106</v>
+        <v>-0.6570628029641767</v>
       </c>
       <c r="AX42" t="n">
-        <v>0.2106897987164977</v>
+        <v>0.2118583933377915</v>
       </c>
     </row>
     <row r="43">
@@ -8492,10 +8492,10 @@
         <v>8.579156072714845</v>
       </c>
       <c r="AW43" t="n">
-        <v>0.5575324051659212</v>
+        <v>0.5568523189434094</v>
       </c>
       <c r="AX43" t="n">
-        <v>-0.1824526793822408</v>
+        <v>-0.1804239052312445</v>
       </c>
     </row>
     <row r="44">
@@ -8506,7 +8506,7 @@
         <v>-16.91998</v>
       </c>
       <c r="C44" t="n">
-        <v>62.00671142578121</v>
+        <v>71.8</v>
       </c>
       <c r="D44" t="n">
         <v>6.59999990463256</v>
@@ -8567,7 +8567,7 @@
         <v>2</v>
       </c>
       <c r="V44" t="n">
-        <v>3.5952978724</v>
+        <v>2.82531595</v>
       </c>
       <c r="W44" t="n">
         <v>0.2955055697331456</v>
@@ -8666,10 +8666,10 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>11.69525535506279</v>
+        <v>11.15626480664374</v>
       </c>
       <c r="AT44" t="n">
-        <v>12.61154108696612</v>
+        <v>11.61062303851275</v>
       </c>
       <c r="AU44" t="n">
         <v>0</v>
@@ -8678,10 +8678,10 @@
         <v>7.430236367707288</v>
       </c>
       <c r="AW44" t="n">
-        <v>-0.7206492310516377</v>
+        <v>-0.7293827066099223</v>
       </c>
       <c r="AX44" t="n">
-        <v>-0.7213828228015811</v>
+        <v>-1.502512344934608</v>
       </c>
     </row>
     <row r="45">
@@ -8864,10 +8864,10 @@
         <v>5.964224206885586</v>
       </c>
       <c r="AW45" t="n">
-        <v>0.8967380565659853</v>
+        <v>0.8976787174607432</v>
       </c>
       <c r="AX45" t="n">
-        <v>0.1778737035474365</v>
+        <v>0.1787111101930799</v>
       </c>
     </row>
     <row r="46">
@@ -9050,10 +9050,10 @@
         <v>5.96793803252011</v>
       </c>
       <c r="AW46" t="n">
-        <v>0.7927053535635855</v>
+        <v>0.7956225809984502</v>
       </c>
       <c r="AX46" t="n">
-        <v>-0.1214193859163101</v>
+        <v>-0.1203466904288545</v>
       </c>
     </row>
     <row r="47">
@@ -9236,10 +9236,10 @@
         <v>5.975829227814328</v>
       </c>
       <c r="AW47" t="n">
-        <v>0.5952038591191773</v>
+        <v>0.5954866807116606</v>
       </c>
       <c r="AX47" t="n">
-        <v>0.3266134080813629</v>
+        <v>0.3289621986301174</v>
       </c>
     </row>
     <row r="48">
@@ -9422,10 +9422,10 @@
         <v>5.993298108721107</v>
       </c>
       <c r="AW48" t="n">
-        <v>-1.635047341043556</v>
+        <v>-2.280465738106078</v>
       </c>
       <c r="AX48" t="n">
-        <v>0.2880724718072866</v>
+        <v>0.2896747364976957</v>
       </c>
     </row>
     <row r="49">
@@ -9608,10 +9608,10 @@
         <v>5.962003128982741</v>
       </c>
       <c r="AW49" t="n">
-        <v>-1.327239939499604</v>
+        <v>-1.333658459771512</v>
       </c>
       <c r="AX49" t="n">
-        <v>-0.6058396140347632</v>
+        <v>-0.6067466331595009</v>
       </c>
     </row>
     <row r="50">
@@ -9794,10 +9794,10 @@
         <v>5.958527800556108</v>
       </c>
       <c r="AW50" t="n">
-        <v>-0.1192431242471088</v>
+        <v>-0.1220208561858174</v>
       </c>
       <c r="AX50" t="n">
-        <v>-0.09235775286669409</v>
+        <v>-0.091589899196552</v>
       </c>
     </row>
     <row r="51">
@@ -9980,10 +9980,10 @@
         <v>5.954805220156239</v>
       </c>
       <c r="AW51" t="n">
-        <v>0.758525625040416</v>
+        <v>0.7619060314375743</v>
       </c>
       <c r="AX51" t="n">
-        <v>-0.03899880548713346</v>
+        <v>-0.03996524923373421</v>
       </c>
     </row>
     <row r="52">
@@ -10020,10 +10020,10 @@
         <v>3.527777777777778</v>
       </c>
       <c r="K52" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L52" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
@@ -10166,10 +10166,10 @@
         <v>5.958006712819313</v>
       </c>
       <c r="AW52" t="n">
-        <v>-0.3153695661789992</v>
+        <v>-0.320504467139174</v>
       </c>
       <c r="AX52" t="n">
-        <v>-0.03490323466936862</v>
+        <v>-0.03768115533384306</v>
       </c>
     </row>
     <row r="53">
@@ -10180,7 +10180,7 @@
         <v>-17.1322116666666</v>
       </c>
       <c r="C53" t="n">
-        <v>-39.48</v>
+        <v>-43.4</v>
       </c>
       <c r="D53" t="n">
         <v>5.5</v>
@@ -10352,10 +10352,10 @@
         <v>5.960979320547925</v>
       </c>
       <c r="AW53" t="n">
-        <v>-1.023473281813197</v>
+        <v>-1.029066865790833</v>
       </c>
       <c r="AX53" t="n">
-        <v>-0.2389669740998438</v>
+        <v>-0.2392506896366522</v>
       </c>
     </row>
     <row r="54">
@@ -10369,13 +10369,13 @@
         <v>-3.600000000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>3.5</v>
+        <v>2.59999990463256</v>
       </c>
       <c r="E54" t="n">
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G54" t="n">
         <v>4</v>
@@ -10538,10 +10538,10 @@
         <v>5.948761794693077</v>
       </c>
       <c r="AW54" t="n">
-        <v>0.3136702918539308</v>
+        <v>0.3134642568865421</v>
       </c>
       <c r="AX54" t="n">
-        <v>-0.5834058805907001</v>
+        <v>-0.5853499967863109</v>
       </c>
     </row>
     <row r="55">
@@ -10555,7 +10555,7 @@
         <v>4.4828491210937</v>
       </c>
       <c r="D55" t="n">
-        <v>24.2719993591308</v>
+        <v>36.4079971313476</v>
       </c>
       <c r="E55" t="n">
         <v>1</v>
@@ -10700,7 +10700,7 @@
         <v>0</v>
       </c>
       <c r="AO55" t="n">
-        <v>5.525452939131783</v>
+        <v>5.017279836814924</v>
       </c>
       <c r="AP55" t="n">
         <v>0</v>
@@ -10724,10 +10724,10 @@
         <v>5.956736736670507</v>
       </c>
       <c r="AW55" t="n">
-        <v>-1.45793342339137</v>
+        <v>-1.465271869358607</v>
       </c>
       <c r="AX55" t="n">
-        <v>-0.2381481285018536</v>
+        <v>-0.2356310452567792</v>
       </c>
     </row>
     <row r="56">
@@ -10910,10 +10910,10 @@
         <v>5.959423587898414</v>
       </c>
       <c r="AW56" t="n">
-        <v>-0.6709588602632951</v>
+        <v>-0.6741775796168926</v>
       </c>
       <c r="AX56" t="n">
-        <v>-0.237896279742331</v>
+        <v>-0.2355255945643919</v>
       </c>
     </row>
     <row r="57">
@@ -11096,10 +11096,10 @@
         <v>5.950048692237736</v>
       </c>
       <c r="AW57" t="n">
-        <v>0.4569064146071741</v>
+        <v>0.4577780445832056</v>
       </c>
       <c r="AX57" t="n">
-        <v>-0.4653762854290024</v>
+        <v>-0.4676296211764647</v>
       </c>
     </row>
     <row r="58">
@@ -11282,10 +11282,10 @@
         <v>5.94641855909925</v>
       </c>
       <c r="AW58" t="n">
-        <v>0.579984703455048</v>
+        <v>0.5825335584113081</v>
       </c>
       <c r="AX58" t="n">
-        <v>-0.2684705666416287</v>
+        <v>-0.2703283100470938</v>
       </c>
     </row>
     <row r="59">
@@ -11319,7 +11319,7 @@
         <v>36</v>
       </c>
       <c r="J59" t="n">
-        <v>3</v>
+        <v>2.861111111111111</v>
       </c>
       <c r="K59" t="n">
         <v>7</v>
@@ -11468,10 +11468,10 @@
         <v>5.947761874856794</v>
       </c>
       <c r="AW59" t="n">
-        <v>-0.3468208340173745</v>
+        <v>-0.3518295692611848</v>
       </c>
       <c r="AX59" t="n">
-        <v>-0.2353572493093941</v>
+        <v>-0.2357588202998673</v>
       </c>
     </row>
     <row r="60">
@@ -11479,7 +11479,7 @@
         <v>14.8904166666666</v>
       </c>
       <c r="B60" t="n">
-        <v>-17.134429198</v>
+        <v>-17.1345366666666</v>
       </c>
       <c r="C60" t="n">
         <v>-19.1</v>
@@ -11505,7 +11505,7 @@
         <v>33</v>
       </c>
       <c r="J60" t="n">
-        <v>3</v>
+        <v>2.805555555555555</v>
       </c>
       <c r="K60" t="n">
         <v>1</v>
@@ -11654,10 +11654,10 @@
         <v>5.944346287019288</v>
       </c>
       <c r="AW60" t="n">
-        <v>-0.01657256693945089</v>
+        <v>-0.01966937261496816</v>
       </c>
       <c r="AX60" t="n">
-        <v>-0.6327239284162277</v>
+        <v>-0.6331651832232625</v>
       </c>
     </row>
     <row r="61">
@@ -11671,7 +11671,7 @@
         <v>3.699999999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E61" t="n">
         <v>1</v>
@@ -11691,7 +11691,7 @@
         <v>36</v>
       </c>
       <c r="J61" t="n">
-        <v>3</v>
+        <v>2.722222222222222</v>
       </c>
       <c r="K61" t="n">
         <v>5</v>
@@ -11840,10 +11840,10 @@
         <v>5.946770368023302</v>
       </c>
       <c r="AW61" t="n">
-        <v>1.048002667387265</v>
+        <v>1.046267210300312</v>
       </c>
       <c r="AX61" t="n">
-        <v>0.02718351665835784</v>
+        <v>0.02471871914225224</v>
       </c>
     </row>
     <row r="62">
@@ -11851,7 +11851,7 @@
         <v>14.8911033333333</v>
       </c>
       <c r="B62" t="n">
-        <v>-17.134429198</v>
+        <v>-17.13481</v>
       </c>
       <c r="C62" t="n">
         <v>19.3</v>
@@ -11877,7 +11877,7 @@
         <v>37</v>
       </c>
       <c r="J62" t="n">
-        <v>3</v>
+        <v>2.972222222222222</v>
       </c>
       <c r="K62" t="n">
         <v>4</v>
@@ -12026,10 +12026,10 @@
         <v>5.944994444068052</v>
       </c>
       <c r="AW62" t="n">
-        <v>0.3559133799205541</v>
+        <v>0.362846764026535</v>
       </c>
       <c r="AX62" t="n">
-        <v>0.02589315794481611</v>
+        <v>0.02378076127163427</v>
       </c>
     </row>
     <row r="63">
@@ -12043,7 +12043,7 @@
         <v>7.5</v>
       </c>
       <c r="D63" t="n">
-        <v>3.5</v>
+        <v>3.20000004768371</v>
       </c>
       <c r="E63" t="n">
         <v>1</v>
@@ -12212,10 +12212,10 @@
         <v>5.946372298300872</v>
       </c>
       <c r="AW63" t="n">
-        <v>0.6505532614839087</v>
+        <v>0.6530553460965345</v>
       </c>
       <c r="AX63" t="n">
-        <v>-0.3238085837176417</v>
+        <v>-0.325298234646024</v>
       </c>
     </row>
     <row r="64">
@@ -12398,10 +12398,10 @@
         <v>5.950651358464887</v>
       </c>
       <c r="AW64" t="n">
-        <v>-0.7891413458686911</v>
+        <v>-0.7898338691441751</v>
       </c>
       <c r="AX64" t="n">
-        <v>-0.2221028602805571</v>
+        <v>-0.2229090334650254</v>
       </c>
     </row>
     <row r="65">
@@ -12415,7 +12415,7 @@
         <v>-10.1035766601563</v>
       </c>
       <c r="D65" t="n">
-        <v>24.2719993591308</v>
+        <v>30.3400001525878</v>
       </c>
       <c r="E65" t="n">
         <v>1</v>
@@ -12584,10 +12584,10 @@
         <v>5.947587887538948</v>
       </c>
       <c r="AW65" t="n">
-        <v>-0.1734685748419136</v>
+        <v>-0.1739102666378572</v>
       </c>
       <c r="AX65" t="n">
-        <v>-0.4175613878497602</v>
+        <v>-0.4163302510477749</v>
       </c>
     </row>
     <row r="66">
@@ -12595,7 +12595,7 @@
         <v>14.89008135</v>
       </c>
       <c r="B66" t="n">
-        <v>-17.134429198</v>
+        <v>-17.13491112</v>
       </c>
       <c r="C66" t="n">
         <v>15.9730224609375</v>
@@ -12770,10 +12770,10 @@
         <v>5.939919225040017</v>
       </c>
       <c r="AW66" t="n">
-        <v>-0.9511920623806176</v>
+        <v>-0.9531334810089259</v>
       </c>
       <c r="AX66" t="n">
-        <v>-0.4945233612176688</v>
+        <v>-0.4931199999083242</v>
       </c>
     </row>
     <row r="67">
@@ -12781,7 +12781,7 @@
         <v>14.8909151</v>
       </c>
       <c r="B67" t="n">
-        <v>-17.134429198</v>
+        <v>-17.1346723</v>
       </c>
       <c r="C67" t="n">
         <v>4.4641723632812</v>
@@ -12956,10 +12956,10 @@
         <v>5.94532303327582</v>
       </c>
       <c r="AW67" t="n">
-        <v>-0.2813520589692252</v>
+        <v>-0.2821776166286203</v>
       </c>
       <c r="AX67" t="n">
-        <v>0.1716102188518221</v>
+        <v>0.1719204832575923</v>
       </c>
     </row>
     <row r="68">
@@ -13142,10 +13142,10 @@
         <v>7.217012135226045</v>
       </c>
       <c r="AW68" t="n">
-        <v>0.4247728551196988</v>
+        <v>0.4254027219852708</v>
       </c>
       <c r="AX68" t="n">
-        <v>0.1570497114795096</v>
+        <v>0.1549689089952352</v>
       </c>
     </row>
     <row r="69">
@@ -13319,7 +13319,7 @@
         <v>11.84940484442307</v>
       </c>
       <c r="AT69" t="n">
-        <v>12.61154108696612</v>
+        <v>12.42922019683638</v>
       </c>
       <c r="AU69" t="n">
         <v>0</v>
@@ -13328,10 +13328,10 @@
         <v>7.219319997063436</v>
       </c>
       <c r="AW69" t="n">
-        <v>-1.439158977714206</v>
+        <v>-1.445401727194022</v>
       </c>
       <c r="AX69" t="n">
-        <v>0.2347190284022923</v>
+        <v>0.2325721131486517</v>
       </c>
     </row>
     <row r="70">
@@ -13351,7 +13351,7 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G70" t="n">
         <v>99</v>
@@ -13406,7 +13406,7 @@
         <v>26.52356883</v>
       </c>
       <c r="W70" t="n">
-        <v>1.140689230583377</v>
+        <v>1.321800015051284</v>
       </c>
       <c r="X70" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>0</v>
       </c>
       <c r="AO70" t="n">
-        <v>9.546884034617925</v>
+        <v>9.61587214452889</v>
       </c>
       <c r="AP70" t="n">
         <v>0</v>
@@ -13502,10 +13502,10 @@
         <v>0</v>
       </c>
       <c r="AS70" t="n">
-        <v>14.73180168983835</v>
+        <v>14.91412317996566</v>
       </c>
       <c r="AT70" t="n">
-        <v>15.20180516908413</v>
+        <v>15.23136396404413</v>
       </c>
       <c r="AU70" t="n">
         <v>0</v>
@@ -13514,10 +13514,10 @@
         <v>7.206230715151992</v>
       </c>
       <c r="AW70" t="n">
-        <v>1.700191506719004</v>
+        <v>2.369683729752383</v>
       </c>
       <c r="AX70" t="n">
-        <v>0.9622892544858042</v>
+        <v>1.059329495630035</v>
       </c>
     </row>
     <row r="71">
@@ -13528,7 +13528,7 @@
         <v>-17.02711</v>
       </c>
       <c r="C71" t="n">
-        <v>-39.48</v>
+        <v>-44.7</v>
       </c>
       <c r="D71" t="n">
         <v>8</v>
@@ -13700,10 +13700,10 @@
         <v>7.206458115468375</v>
       </c>
       <c r="AW71" t="n">
-        <v>0.09699721485853274</v>
+        <v>0.09535774057978597</v>
       </c>
       <c r="AX71" t="n">
-        <v>0.9622892544858042</v>
+        <v>0.9712333179906315</v>
       </c>
     </row>
     <row r="72">
@@ -13886,10 +13886,10 @@
         <v>7.224423989495634</v>
       </c>
       <c r="AW72" t="n">
-        <v>0.4846420747891336</v>
+        <v>0.4926593604697498</v>
       </c>
       <c r="AX72" t="n">
-        <v>0.5828292837869133</v>
+        <v>0.5795993179927857</v>
       </c>
     </row>
     <row r="73">
@@ -14072,10 +14072,10 @@
         <v>7.22593001004023</v>
       </c>
       <c r="AW73" t="n">
-        <v>-1.115615492707938</v>
+        <v>-1.118170106042429</v>
       </c>
       <c r="AX73" t="n">
-        <v>0.9622892544858042</v>
+        <v>1.355292821084843</v>
       </c>
     </row>
     <row r="74">
@@ -14234,22 +14234,22 @@
         <v>0</v>
       </c>
       <c r="AO74" t="n">
-        <v>9.546884034617925</v>
+        <v>9.680406499268875</v>
       </c>
       <c r="AP74" t="n">
         <v>0</v>
       </c>
       <c r="AQ74" t="n">
-        <v>4.58257569495584</v>
+        <v>4.795831523312719</v>
       </c>
       <c r="AR74" t="n">
         <v>0</v>
       </c>
       <c r="AS74" t="n">
-        <v>14.73180168983835</v>
+        <v>15.15051188785447</v>
       </c>
       <c r="AT74" t="n">
-        <v>15.20180516908413</v>
+        <v>15.42494867039835</v>
       </c>
       <c r="AU74" t="n">
         <v>2</v>
@@ -14258,10 +14258,10 @@
         <v>7.22786159593555</v>
       </c>
       <c r="AW74" t="n">
-        <v>1.357393605262615</v>
+        <v>1.363248006198821</v>
       </c>
       <c r="AX74" t="n">
-        <v>0.9622892544858042</v>
+        <v>1.719652565703554</v>
       </c>
     </row>
     <row r="75">
@@ -14423,10 +14423,10 @@
         <v>6.68586094706836</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.6094379124341</v>
+        <v>1</v>
       </c>
       <c r="AQ75" t="n">
-        <v>2.645751311064591</v>
+        <v>2.23606797749979</v>
       </c>
       <c r="AR75" t="n">
         <v>2.564949357461537</v>
@@ -14444,10 +14444,10 @@
         <v>8.516103432908739</v>
       </c>
       <c r="AW75" t="n">
-        <v>-1.110879481167143</v>
+        <v>-1.113498273504969</v>
       </c>
       <c r="AX75" t="n">
-        <v>0.3949540587843833</v>
+        <v>0.4057556671283323</v>
       </c>
     </row>
     <row r="76">
@@ -14522,7 +14522,7 @@
         <v>39.93808279</v>
       </c>
       <c r="W76" t="n">
-        <v>-1.561422336398522</v>
+        <v>-1.912505480705313</v>
       </c>
       <c r="X76" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>7.090909822079984</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.386294361119891</v>
+        <v>1</v>
       </c>
       <c r="AQ76" t="n">
         <v>2.82842712474619</v>
@@ -14630,10 +14630,10 @@
         <v>8.561810504209959</v>
       </c>
       <c r="AW76" t="n">
-        <v>-0.4709229899448527</v>
+        <v>-0.4732766479267199</v>
       </c>
       <c r="AX76" t="n">
-        <v>-0.07890988431392017</v>
+        <v>-0.07113966798360426</v>
       </c>
     </row>
     <row r="77">
@@ -14641,7 +14641,7 @@
         <v>15.12706974</v>
       </c>
       <c r="B77" t="n">
-        <v>-16.86551899999998</v>
+        <v>-16.86457513</v>
       </c>
       <c r="C77" t="n">
         <v>22.3165893554687</v>
@@ -14708,7 +14708,7 @@
         <v>38.02724128</v>
       </c>
       <c r="W77" t="n">
-        <v>-1.561422336398522</v>
+        <v>-2.614671769318895</v>
       </c>
       <c r="X77" t="inlineStr">
         <is>
@@ -14816,10 +14816,10 @@
         <v>8.589419234732928</v>
       </c>
       <c r="AW77" t="n">
-        <v>1.125189330643657</v>
+        <v>1.125951332736504</v>
       </c>
       <c r="AX77" t="n">
-        <v>0.5201226104603065</v>
+        <v>0.5256038155517612</v>
       </c>
     </row>
     <row r="78">
@@ -14894,7 +14894,7 @@
         <v>14.3046969</v>
       </c>
       <c r="W78" t="n">
-        <v>-1.561422336398522</v>
+        <v>-1.830995628427192</v>
       </c>
       <c r="X78" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>9.392745258631441</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.791759469228055</v>
+        <v>2</v>
       </c>
       <c r="AQ78" t="n">
         <v>4</v>
@@ -15002,10 +15002,10 @@
         <v>6.453406182784406</v>
       </c>
       <c r="AW78" t="n">
-        <v>-0.1540953640985513</v>
+        <v>-0.153416205415004</v>
       </c>
       <c r="AX78" t="n">
-        <v>0.7273062316662626</v>
+        <v>0.7266740365653057</v>
       </c>
     </row>
     <row r="79">
@@ -15188,10 +15188,10 @@
         <v>5.929521075938595</v>
       </c>
       <c r="AW79" t="n">
-        <v>-0.1951320230525912</v>
+        <v>-0.1954195912853413</v>
       </c>
       <c r="AX79" t="n">
-        <v>0.4138643744916881</v>
+        <v>0.4168842356768457</v>
       </c>
     </row>
     <row r="80">
@@ -15222,7 +15222,7 @@
         </is>
       </c>
       <c r="I80" t="n">
-        <v>28.6</v>
+        <v>25</v>
       </c>
       <c r="J80" t="n">
         <v>3.472222222222222</v>
@@ -15266,7 +15266,7 @@
         <v>21.19660676</v>
       </c>
       <c r="W80" t="n">
-        <v>-1.561422336398522</v>
+        <v>-1.637187039882199</v>
       </c>
       <c r="X80" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>0</v>
       </c>
       <c r="AO80" t="n">
-        <v>9.546884034617925</v>
+        <v>9.61587214452889</v>
       </c>
       <c r="AP80" t="n">
         <v>0</v>
@@ -15374,10 +15374,10 @@
         <v>5.93609192482731</v>
       </c>
       <c r="AW80" t="n">
-        <v>0.7618036369203983</v>
+        <v>0.7651698344296901</v>
       </c>
       <c r="AX80" t="n">
-        <v>0.170516997490554</v>
+        <v>0.1709532947720466</v>
       </c>
     </row>
     <row r="81">
@@ -15560,10 +15560,10 @@
         <v>5.960713910262763</v>
       </c>
       <c r="AW81" t="n">
-        <v>-0.1855440235129238</v>
+        <v>-0.1901209261653116</v>
       </c>
       <c r="AX81" t="n">
-        <v>-0.2599362609966314</v>
+        <v>-0.256928245844695</v>
       </c>
     </row>
     <row r="82">
@@ -15725,7 +15725,7 @@
         <v>6.68586094706836</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.791759469228055</v>
+        <v>2</v>
       </c>
       <c r="AQ82" t="n">
         <v>3.16227766016838</v>
@@ -15746,10 +15746,10 @@
         <v>7.538366965729382</v>
       </c>
       <c r="AW82" t="n">
-        <v>-0.2609960507395339</v>
+        <v>-0.2619089148105856</v>
       </c>
       <c r="AX82" t="n">
-        <v>-0.4857056632943269</v>
+        <v>-0.4852191410756921</v>
       </c>
     </row>
     <row r="83">
@@ -15932,10 +15932,10 @@
         <v>8.557879742085653</v>
       </c>
       <c r="AW83" t="n">
-        <v>-0.7508006210700322</v>
+        <v>-0.7549555987184233</v>
       </c>
       <c r="AX83" t="n">
-        <v>0.5029452061466805</v>
+        <v>0.5056373901849813</v>
       </c>
     </row>
     <row r="84">
@@ -15955,7 +15955,7 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G84" t="n">
         <v>99</v>
@@ -16010,7 +16010,7 @@
         <v>38.04577028</v>
       </c>
       <c r="W84" t="n">
-        <v>-1.561422336398522</v>
+        <v>-2.121708511244681</v>
       </c>
       <c r="X84" t="inlineStr">
         <is>
@@ -16097,10 +16097,10 @@
         <v>8.517393171418904</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.6094379124341</v>
+        <v>1</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2.645751311064591</v>
+        <v>2.23606797749979</v>
       </c>
       <c r="AR84" t="n">
         <v>1.945910149055313</v>
@@ -16118,10 +16118,10 @@
         <v>8.585268800101717</v>
       </c>
       <c r="AW84" t="n">
-        <v>1.006499015994127</v>
+        <v>1.005325986375567</v>
       </c>
       <c r="AX84" t="n">
-        <v>0.189960878841479</v>
+        <v>0.198165368895476</v>
       </c>
     </row>
     <row r="85">
@@ -16129,13 +16129,13 @@
         <v>14.8896743</v>
       </c>
       <c r="B85" t="n">
-        <v>-17.134429198</v>
+        <v>-17.13452434</v>
       </c>
       <c r="C85" t="n">
         <v>17.8234252929687</v>
       </c>
       <c r="D85" t="n">
-        <v>24.2719993591308</v>
+        <v>30.3400001525878</v>
       </c>
       <c r="E85" t="n">
         <v>1</v>
@@ -16304,10 +16304,10 @@
         <v>5.941366853679378</v>
       </c>
       <c r="AW85" t="n">
-        <v>0.1169485984562236</v>
+        <v>0.1143587376726411</v>
       </c>
       <c r="AX85" t="n">
-        <v>0.4637153374431143</v>
+        <v>0.464530481600555</v>
       </c>
     </row>
     <row r="86">
@@ -16318,7 +16318,7 @@
         <v>-16.91798</v>
       </c>
       <c r="C86" t="n">
-        <v>62.00671142578121</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="D86" t="n">
         <v>11.8000001907348</v>
@@ -16379,10 +16379,10 @@
         <v>2</v>
       </c>
       <c r="V86" t="n">
-        <v>3.5952978724</v>
+        <v>2.943784022</v>
       </c>
       <c r="W86" t="n">
-        <v>1.140689230583377</v>
+        <v>1.46375037683768</v>
       </c>
       <c r="X86" t="inlineStr">
         <is>
@@ -16478,7 +16478,7 @@
         <v>1.945910149055313</v>
       </c>
       <c r="AS86" t="n">
-        <v>14.73180168983835</v>
+        <v>14.80876270134486</v>
       </c>
       <c r="AT86" t="n">
         <v>14.91412317996566</v>
@@ -16490,10 +16490,10 @@
         <v>7.445145457276171</v>
       </c>
       <c r="AW86" t="n">
-        <v>1.700191506719004</v>
+        <v>2.214886657212636</v>
       </c>
       <c r="AX86" t="n">
-        <v>0.3932101740631374</v>
+        <v>0.3935278293472995</v>
       </c>
     </row>
     <row r="87">
@@ -16504,16 +16504,16 @@
         <v>-17.0542166666666</v>
       </c>
       <c r="C87" t="n">
-        <v>-39.48</v>
+        <v>-49</v>
       </c>
       <c r="D87" t="n">
-        <v>3.5</v>
+        <v>2.59999990463256</v>
       </c>
       <c r="E87" t="n">
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G87" t="n">
         <v>6</v>
@@ -16527,7 +16527,7 @@
         <v>54</v>
       </c>
       <c r="J87" t="n">
-        <v>4.5</v>
+        <v>4.527777777777779</v>
       </c>
       <c r="K87" t="n">
         <v>2</v>
@@ -16568,7 +16568,7 @@
         <v>14.62909664</v>
       </c>
       <c r="W87" t="n">
-        <v>1.140689230583377</v>
+        <v>1.321800015051284</v>
       </c>
       <c r="X87" t="inlineStr">
         <is>
@@ -16649,13 +16649,13 @@
         <v>0.02861111111111111</v>
       </c>
       <c r="AN87" t="n">
-        <v>1.09861228866811</v>
+        <v>1</v>
       </c>
       <c r="AO87" t="n">
         <v>8.699681400989514</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.791759469228055</v>
+        <v>2</v>
       </c>
       <c r="AQ87" t="n">
         <v>3.872983346207417</v>
@@ -16676,10 +16676,10 @@
         <v>6.432424172114273</v>
       </c>
       <c r="AW87" t="n">
-        <v>0.8939622046933666</v>
+        <v>0.8978951848883532</v>
       </c>
       <c r="AX87" t="n">
-        <v>0.141236497970649</v>
+        <v>0.1389664339767426</v>
       </c>
     </row>
     <row r="88">
@@ -16699,7 +16699,7 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G88" t="n">
         <v>6</v>
@@ -16713,7 +16713,7 @@
         <v>54</v>
       </c>
       <c r="J88" t="n">
-        <v>4.5</v>
+        <v>4.527777777777779</v>
       </c>
       <c r="K88" t="n">
         <v>2</v>
@@ -16754,7 +16754,7 @@
         <v>14.78627774</v>
       </c>
       <c r="W88" t="n">
-        <v>1.140689230583377</v>
+        <v>1.382170276540586</v>
       </c>
       <c r="X88" t="inlineStr">
         <is>
@@ -16835,13 +16835,13 @@
         <v>0.02299768518518518</v>
       </c>
       <c r="AN88" t="n">
-        <v>1.09861228866811</v>
+        <v>1</v>
       </c>
       <c r="AO88" t="n">
         <v>8.294299608857235</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.791759469228055</v>
+        <v>2</v>
       </c>
       <c r="AQ88" t="n">
         <v>4.358898943540674</v>
@@ -16862,10 +16862,10 @@
         <v>6.414337355487315</v>
       </c>
       <c r="AW88" t="n">
-        <v>0.6852426389181739</v>
+        <v>0.6875516427148625</v>
       </c>
       <c r="AX88" t="n">
-        <v>0.09860734241768798</v>
+        <v>0.09628033600863023</v>
       </c>
     </row>
     <row r="89">
@@ -16899,7 +16899,7 @@
         <v>53</v>
       </c>
       <c r="J89" t="n">
-        <v>4.5</v>
+        <v>4.527777777777779</v>
       </c>
       <c r="K89" t="n">
         <v>1</v>
@@ -17021,7 +17021,7 @@
         <v>0.02053240740740741</v>
       </c>
       <c r="AN89" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AO89" t="n">
         <v>6.90875477931522</v>
@@ -17048,10 +17048,10 @@
         <v>5.941729077465582</v>
       </c>
       <c r="AW89" t="n">
-        <v>0.4330743017634598</v>
+        <v>0.4328774200942432</v>
       </c>
       <c r="AX89" t="n">
-        <v>-0.5830815875135221</v>
+        <v>-0.5850265234202803</v>
       </c>
     </row>
     <row r="90">
@@ -17071,7 +17071,7 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G90" t="n">
         <v>4</v>
@@ -17085,7 +17085,7 @@
         <v>54</v>
       </c>
       <c r="J90" t="n">
-        <v>4.5</v>
+        <v>4.527777777777779</v>
       </c>
       <c r="K90" t="n">
         <v>1</v>
@@ -17207,10 +17207,10 @@
         <v>0.02802083333333333</v>
       </c>
       <c r="AN90" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AO90" t="n">
-        <v>9.546884034617925</v>
+        <v>10.35777457034158</v>
       </c>
       <c r="AP90" t="n">
         <v>0</v>
@@ -17234,10 +17234,10 @@
         <v>5.946739795047367</v>
       </c>
       <c r="AW90" t="n">
-        <v>0.1181806729207626</v>
+        <v>0.1170049452782972</v>
       </c>
       <c r="AX90" t="n">
-        <v>-0.4396977104861126</v>
+        <v>-0.4452212484096895</v>
       </c>
     </row>
     <row r="91">
@@ -17257,7 +17257,7 @@
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G91" t="n">
         <v>6</v>
@@ -17312,7 +17312,7 @@
         <v>14.39833696</v>
       </c>
       <c r="W91" t="n">
-        <v>1.140689230583377</v>
+        <v>1.684021583987097</v>
       </c>
       <c r="X91" t="inlineStr">
         <is>
@@ -17393,13 +17393,13 @@
         <v>0.02556712962962963</v>
       </c>
       <c r="AN91" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AO91" t="n">
         <v>8.006700845440367</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.791759469228055</v>
+        <v>2</v>
       </c>
       <c r="AQ91" t="n">
         <v>3</v>
@@ -17420,10 +17420,10 @@
         <v>6.450828108080389</v>
       </c>
       <c r="AW91" t="n">
-        <v>0.3246910092951177</v>
+        <v>0.324132566584966</v>
       </c>
       <c r="AX91" t="n">
-        <v>-0.5173369349834781</v>
+        <v>-0.5153034621632389</v>
       </c>
     </row>
     <row r="92">
@@ -17437,7 +17437,7 @@
         <v>16.1</v>
       </c>
       <c r="D92" t="n">
-        <v>3.5</v>
+        <v>3.20000004768371</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
@@ -17457,7 +17457,7 @@
         <v>54</v>
       </c>
       <c r="J92" t="n">
-        <v>4.5</v>
+        <v>4.527777777777779</v>
       </c>
       <c r="K92" t="n">
         <v>2</v>
@@ -17579,13 +17579,13 @@
         <v>0.01971064814814815</v>
       </c>
       <c r="AN92" t="n">
-        <v>1.09861228866811</v>
+        <v>1</v>
       </c>
       <c r="AO92" t="n">
         <v>8.699681400989514</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.6094379124341</v>
+        <v>1</v>
       </c>
       <c r="AQ92" t="n">
         <v>2.82842712474619</v>
@@ -17606,10 +17606,10 @@
         <v>6.440018580718537</v>
       </c>
       <c r="AW92" t="n">
-        <v>0.6770094244581479</v>
+        <v>0.6794299988229687</v>
       </c>
       <c r="AX92" t="n">
-        <v>0.3958518196208167</v>
+        <v>0.3979594094552499</v>
       </c>
     </row>
     <row r="93">
@@ -17629,7 +17629,7 @@
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G93" t="n">
         <v>6</v>
@@ -17643,7 +17643,7 @@
         <v>54</v>
       </c>
       <c r="J93" t="n">
-        <v>4.5</v>
+        <v>4.527777777777779</v>
       </c>
       <c r="K93" t="n">
         <v>1</v>
@@ -17684,7 +17684,7 @@
         <v>14.55296317</v>
       </c>
       <c r="W93" t="n">
-        <v>1.140689230583377</v>
+        <v>1.261429753561982</v>
       </c>
       <c r="X93" t="inlineStr">
         <is>
@@ -17765,13 +17765,13 @@
         <v>0.02337962962962963</v>
       </c>
       <c r="AN93" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AO93" t="n">
         <v>7.824445930877619</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.791759469228055</v>
+        <v>2</v>
       </c>
       <c r="AQ93" t="n">
         <v>3.605551275463989</v>
@@ -17780,10 +17780,10 @@
         <v>0</v>
       </c>
       <c r="AS93" t="n">
-        <v>14.73180168983835</v>
+        <v>15.42494867039835</v>
       </c>
       <c r="AT93" t="n">
-        <v>15.20180516908413</v>
+        <v>15.42494867039835</v>
       </c>
       <c r="AU93" t="n">
         <v>2</v>
@@ -17792,10 +17792,10 @@
         <v>6.429558850341134</v>
       </c>
       <c r="AW93" t="n">
-        <v>1.605953145418848</v>
+        <v>1.613206728283786</v>
       </c>
       <c r="AX93" t="n">
-        <v>-0.2851895571976303</v>
+        <v>-0.2870577562156157</v>
       </c>
     </row>
     <row r="94">
@@ -17978,10 +17978,10 @@
         <v>5.937471509826384</v>
       </c>
       <c r="AW94" t="n">
-        <v>1.048002667387265</v>
+        <v>1.046267210300312</v>
       </c>
       <c r="AX94" t="n">
-        <v>-0.324661072582785</v>
+        <v>-0.3263558676091607</v>
       </c>
     </row>
     <row r="95">
@@ -18164,10 +18164,10 @@
         <v>5.911000509220076</v>
       </c>
       <c r="AW95" t="n">
-        <v>-0.1309032901635878</v>
+        <v>-0.1305384136935856</v>
       </c>
       <c r="AX95" t="n">
-        <v>-0.0008495313144211425</v>
+        <v>-0.002798372814087124</v>
       </c>
     </row>
     <row r="96">
@@ -18350,10 +18350,10 @@
         <v>8.520113451709431</v>
       </c>
       <c r="AW96" t="n">
-        <v>1.700191506719004</v>
+        <v>1.866138849654006</v>
       </c>
       <c r="AX96" t="n">
-        <v>0.1164915367621954</v>
+        <v>0.1189250151477713</v>
       </c>
     </row>
     <row r="97">
@@ -18536,10 +18536,10 @@
         <v>8.553870245099583</v>
       </c>
       <c r="AW97" t="n">
-        <v>0.1845670668073932</v>
+        <v>0.1873010170593113</v>
       </c>
       <c r="AX97" t="n">
-        <v>-0.6938476933542135</v>
+        <v>-0.6961763894023959</v>
       </c>
     </row>
     <row r="98">
@@ -18559,7 +18559,7 @@
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G98" t="n">
         <v>99</v>
@@ -18573,7 +18573,7 @@
         <v>54</v>
       </c>
       <c r="J98" t="n">
-        <v>4.5</v>
+        <v>4.527777777777779</v>
       </c>
       <c r="K98" t="n">
         <v>5</v>
@@ -18614,7 +18614,7 @@
         <v>40.20986631</v>
       </c>
       <c r="W98" t="n">
-        <v>1.140689230583377</v>
+        <v>1.261429753561982</v>
       </c>
       <c r="X98" t="inlineStr">
         <is>
@@ -18701,7 +18701,7 @@
         <v>9.210440366976517</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.386294361119891</v>
+        <v>1</v>
       </c>
       <c r="AQ98" t="n">
         <v>3.464101615137754</v>
@@ -18713,7 +18713,7 @@
         <v>12.20607764551767</v>
       </c>
       <c r="AT98" t="n">
-        <v>12.61154108696612</v>
+        <v>12.42922019683638</v>
       </c>
       <c r="AU98" t="n">
         <v>0</v>
@@ -18722,10 +18722,10 @@
         <v>8.573967899403403</v>
       </c>
       <c r="AW98" t="n">
-        <v>-0.8501194141754396</v>
+        <v>-0.8574124252451432</v>
       </c>
       <c r="AX98" t="n">
-        <v>-0.4629396796574178</v>
+        <v>-0.4615526804340597</v>
       </c>
     </row>
     <row r="99">
@@ -18733,10 +18733,10 @@
         <v>15.1252183333333</v>
       </c>
       <c r="B99" t="n">
-        <v>-16.86551899999998</v>
+        <v>-16.86486</v>
       </c>
       <c r="C99" t="n">
-        <v>-39.48</v>
+        <v>-55.90558166503902</v>
       </c>
       <c r="D99" t="n">
         <v>12.1000003814697</v>
@@ -18908,10 +18908,10 @@
         <v>8.581144929436864</v>
       </c>
       <c r="AW99" t="n">
-        <v>0.1243001862994473</v>
+        <v>0.1223350340965092</v>
       </c>
       <c r="AX99" t="n">
-        <v>-0.2850856254023431</v>
+        <v>-0.2853811164779623</v>
       </c>
     </row>
     <row r="100">
@@ -18919,7 +18919,7 @@
         <v>15.12919</v>
       </c>
       <c r="B100" t="n">
-        <v>-16.86551899999998</v>
+        <v>-16.86537</v>
       </c>
       <c r="C100" t="n">
         <v>4.399999999999999</v>
@@ -19076,7 +19076,7 @@
         <v>0</v>
       </c>
       <c r="AQ100" t="n">
-        <v>2.645751311064591</v>
+        <v>2.23606797749979</v>
       </c>
       <c r="AR100" t="n">
         <v>0</v>
@@ -19094,10 +19094,10 @@
         <v>8.59316130303627</v>
       </c>
       <c r="AW100" t="n">
-        <v>1.700191506719004</v>
+        <v>1.735292365873572</v>
       </c>
       <c r="AX100" t="n">
-        <v>-0.3157522084872391</v>
+        <v>-0.3145205969726348</v>
       </c>
     </row>
     <row r="101">
@@ -19280,10 +19280,10 @@
         <v>8.567949480476644</v>
       </c>
       <c r="AW101" t="n">
-        <v>-0.1249044639796469</v>
+        <v>-0.1246208792637608</v>
       </c>
       <c r="AX101" t="n">
-        <v>0.3076518628244511</v>
+        <v>0.3122503277855091</v>
       </c>
     </row>
     <row r="102">
@@ -19291,7 +19291,7 @@
         <v>15.12748922</v>
       </c>
       <c r="B102" t="n">
-        <v>-16.86551899999998</v>
+        <v>-16.86509063</v>
       </c>
       <c r="C102" t="n">
         <v>39.7633666992187</v>
@@ -19445,7 +19445,7 @@
         <v>6.398594934535208</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.09861228866811</v>
+        <v>1</v>
       </c>
       <c r="AQ102" t="n">
         <v>4.47213595499958</v>
@@ -19466,10 +19466,10 @@
         <v>8.58831579123637</v>
       </c>
       <c r="AW102" t="n">
-        <v>0.5403292644307794</v>
+        <v>0.5398823027302631</v>
       </c>
       <c r="AX102" t="n">
-        <v>0.1717180729300194</v>
+        <v>0.1743257606438857</v>
       </c>
     </row>
     <row r="103">
@@ -19652,10 +19652,10 @@
         <v>5.970390827240709</v>
       </c>
       <c r="AW103" t="n">
-        <v>-0.3809184045580346</v>
+        <v>-0.3824129308938435</v>
       </c>
       <c r="AX103" t="n">
-        <v>-0.4395259849148068</v>
+        <v>-0.4407401442048117</v>
       </c>
     </row>
     <row r="104">
@@ -19838,10 +19838,10 @@
         <v>5.948369712786858</v>
       </c>
       <c r="AW104" t="n">
-        <v>-0.2385478947977616</v>
+        <v>-0.2461965570316902</v>
       </c>
       <c r="AX104" t="n">
-        <v>0.01759832184279181</v>
+        <v>0.01753553031517047</v>
       </c>
     </row>
     <row r="105">
@@ -20024,10 +20024,10 @@
         <v>5.94551830541291</v>
       </c>
       <c r="AW105" t="n">
-        <v>-0.2045422930886988</v>
+        <v>-0.2045031498486611</v>
       </c>
       <c r="AX105" t="n">
-        <v>0.1632446122115476</v>
+        <v>0.1638531840001288</v>
       </c>
     </row>
     <row r="106">
@@ -20064,10 +20064,10 @@
         <v>3.305555555555555</v>
       </c>
       <c r="K106" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L106" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M106" t="n">
         <v>1</v>
@@ -20210,10 +20210,10 @@
         <v>5.962912230613495</v>
       </c>
       <c r="AW106" t="n">
-        <v>-0.09035158151440653</v>
+        <v>-0.08991274737265978</v>
       </c>
       <c r="AX106" t="n">
-        <v>-0.1546481008737879</v>
+        <v>-0.156076604620461</v>
       </c>
     </row>
     <row r="107">
@@ -20396,10 +20396,10 @@
         <v>5.951146807128858</v>
       </c>
       <c r="AW107" t="n">
-        <v>0.6505532614839087</v>
+        <v>0.6530553460965345</v>
       </c>
       <c r="AX107" t="n">
-        <v>-0.01786171514130244</v>
+        <v>-0.01750418637012709</v>
       </c>
     </row>
     <row r="108">
@@ -20582,10 +20582,10 @@
         <v>5.946103624223177</v>
       </c>
       <c r="AW108" t="n">
-        <v>-0.4690835979111015</v>
+        <v>-0.4750199748754048</v>
       </c>
       <c r="AX108" t="n">
-        <v>-0.5219972250331761</v>
+        <v>-0.5224770459757901</v>
       </c>
     </row>
     <row r="109">
@@ -20619,7 +20619,7 @@
         <v>35</v>
       </c>
       <c r="J109" t="n">
-        <v>3</v>
+        <v>2.888888888888889</v>
       </c>
       <c r="K109" t="n">
         <v>5</v>
@@ -20759,7 +20759,7 @@
         <v>11.84940484442307</v>
       </c>
       <c r="AT109" t="n">
-        <v>12.61154108696612</v>
+        <v>12.46844075614411</v>
       </c>
       <c r="AU109" t="n">
         <v>0</v>
@@ -20768,10 +20768,10 @@
         <v>5.944643842990091</v>
       </c>
       <c r="AW109" t="n">
-        <v>-1.429941785052048</v>
+        <v>-1.436309439260982</v>
       </c>
       <c r="AX109" t="n">
-        <v>0.4754306951527879</v>
+        <v>0.4716318423305804</v>
       </c>
     </row>
     <row r="110">
@@ -20954,10 +20954,10 @@
         <v>7.216250421791084</v>
       </c>
       <c r="AW110" t="n">
-        <v>0.4846420747891336</v>
+        <v>0.4926593604697498</v>
       </c>
       <c r="AX110" t="n">
-        <v>0.3302226858534694</v>
+        <v>0.3270063964543131</v>
       </c>
     </row>
     <row r="111">
@@ -20977,7 +20977,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G111" t="n">
         <v>99</v>
@@ -21140,10 +21140,10 @@
         <v>7.218502524762321</v>
       </c>
       <c r="AW111" t="n">
-        <v>0.5336684181137289</v>
+        <v>0.5358597490102618</v>
       </c>
       <c r="AX111" t="n">
-        <v>0.9490435746768406</v>
+        <v>0.9462586220313027</v>
       </c>
     </row>
     <row r="112">
@@ -21163,7 +21163,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G112" t="n">
         <v>99</v>
@@ -21326,10 +21326,10 @@
         <v>7.228022311808396</v>
       </c>
       <c r="AW112" t="n">
-        <v>1.134807747020333</v>
+        <v>1.138156969832111</v>
       </c>
       <c r="AX112" t="n">
-        <v>0.8206867442045768</v>
+        <v>0.8201216930177366</v>
       </c>
     </row>
     <row r="113">
@@ -21360,7 +21360,7 @@
         </is>
       </c>
       <c r="I113" t="n">
-        <v>28.6</v>
+        <v>27</v>
       </c>
       <c r="J113" t="n">
         <v>3.416666666666667</v>
@@ -21512,10 +21512,10 @@
         <v>7.221957258943035</v>
       </c>
       <c r="AW113" t="n">
-        <v>0.6222681626616865</v>
+        <v>0.625143411539295</v>
       </c>
       <c r="AX113" t="n">
-        <v>0.7754108342482537</v>
+        <v>0.7738168270530925</v>
       </c>
     </row>
     <row r="114">
@@ -21526,7 +21526,7 @@
         <v>-17.0233233333333</v>
       </c>
       <c r="C114" t="n">
-        <v>-39.48</v>
+        <v>-50</v>
       </c>
       <c r="D114" t="n">
         <v>9.89999961853027</v>
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="I114" t="n">
-        <v>28.6</v>
+        <v>28</v>
       </c>
       <c r="J114" t="n">
         <v>3.222222222222222</v>
@@ -21680,7 +21680,7 @@
         <v>0</v>
       </c>
       <c r="AQ114" t="n">
-        <v>4.58257569495584</v>
+        <v>4.795831523312719</v>
       </c>
       <c r="AR114" t="n">
         <v>0</v>
@@ -21698,10 +21698,10 @@
         <v>7.228976729800698</v>
       </c>
       <c r="AW114" t="n">
-        <v>0.6130721392150817</v>
+        <v>0.6151691150716843</v>
       </c>
       <c r="AX114" t="n">
-        <v>0.1358403110858569</v>
+        <v>0.1363905904360923</v>
       </c>
     </row>
     <row r="115">
@@ -21712,7 +21712,7 @@
         <v>-16.90544155</v>
       </c>
       <c r="C115" t="n">
-        <v>62.00671142578121</v>
+        <v>71.23028564453119</v>
       </c>
       <c r="D115" t="n">
         <v>9.101999282836911</v>
@@ -21773,7 +21773,7 @@
         <v>3</v>
       </c>
       <c r="V115" t="n">
-        <v>3.5952978724</v>
+        <v>3.536819409</v>
       </c>
       <c r="W115" t="n">
         <v>0.7180974001582613</v>
@@ -21863,7 +21863,7 @@
         <v>5.707110264748875</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.791759469228055</v>
+        <v>2</v>
       </c>
       <c r="AQ115" t="n">
         <v>4.123105625617661</v>
@@ -21884,10 +21884,10 @@
         <v>7.533961071707233</v>
       </c>
       <c r="AW115" t="n">
-        <v>-1.635047341043556</v>
+        <v>-1.790141933901762</v>
       </c>
       <c r="AX115" t="n">
-        <v>0.4092811374316407</v>
+        <v>0.4092180807495833</v>
       </c>
     </row>
     <row r="116">
@@ -22067,24 +22067,24 @@
         <v>0</v>
       </c>
       <c r="AV116" t="n">
-        <v>5.873368410481751</v>
+        <v>5.832312296165218</v>
       </c>
       <c r="AW116" t="n">
-        <v>-0.04651138016242175</v>
+        <v>-0.04603100563603452</v>
       </c>
       <c r="AX116" t="n">
-        <v>-0.4613799715111822</v>
+        <v>-0.5304826306726429</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>14.8142903333333</v>
+        <v>14.742338666373</v>
       </c>
       <c r="B117" t="n">
         <v>-16.8988644851008</v>
       </c>
       <c r="C117" t="n">
-        <v>62.00671142578121</v>
+        <v>73.84263610839838</v>
       </c>
       <c r="D117" t="n">
         <v>8</v>
@@ -22107,7 +22107,7 @@
         <v>54</v>
       </c>
       <c r="J117" t="n">
-        <v>4.5</v>
+        <v>4.527777777777779</v>
       </c>
       <c r="K117" t="n">
         <v>1</v>
@@ -22232,10 +22232,10 @@
         <v>0</v>
       </c>
       <c r="AO117" t="n">
-        <v>5.525452939131783</v>
+        <v>4.023748267797711</v>
       </c>
       <c r="AP117" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AQ117" t="n">
         <v>2.645751311064591</v>
@@ -22244,7 +22244,7 @@
         <v>2.564949357461537</v>
       </c>
       <c r="AS117" t="n">
-        <v>14.73180168983835</v>
+        <v>14.91412317996566</v>
       </c>
       <c r="AT117" t="n">
         <v>14.91412317996566</v>
@@ -22256,10 +22256,10 @@
         <v>7.550058240172721</v>
       </c>
       <c r="AW117" t="n">
-        <v>1.700191506719004</v>
+        <v>1.797056763998057</v>
       </c>
       <c r="AX117" t="n">
-        <v>0.02696761321963417</v>
+        <v>0.03109141132430321</v>
       </c>
     </row>
     <row r="118">
@@ -22267,7 +22267,7 @@
         <v>14.9602843</v>
       </c>
       <c r="B118" t="n">
-        <v>-16.86551899999998</v>
+        <v>-16.79215141</v>
       </c>
       <c r="C118" t="n">
         <v>56.07830810546869</v>
@@ -22442,10 +22442,10 @@
         <v>8.506364486077469</v>
       </c>
       <c r="AW118" t="n">
-        <v>0.4757049639952838</v>
+        <v>0.476291661263995</v>
       </c>
       <c r="AX118" t="n">
-        <v>-0.08627490500005508</v>
+        <v>-0.08747483389164903</v>
       </c>
     </row>
     <row r="119">
@@ -22456,7 +22456,7 @@
         <v>-17.1341049999999</v>
       </c>
       <c r="C119" t="n">
-        <v>-39.48</v>
+        <v>-45.8</v>
       </c>
       <c r="D119" t="n">
         <v>5.59999990463256</v>
@@ -22520,7 +22520,7 @@
         <v>23.70670189</v>
       </c>
       <c r="W119" t="n">
-        <v>-1.561422336398522</v>
+        <v>-2.088047052858708</v>
       </c>
       <c r="X119" t="inlineStr">
         <is>
@@ -22625,13 +22625,13 @@
         <v>0</v>
       </c>
       <c r="AV119" t="n">
-        <v>5.873368410481751</v>
+        <v>5.833379502483959</v>
       </c>
       <c r="AW119" t="n">
-        <v>0.3136702918539308</v>
+        <v>0.3134642568865421</v>
       </c>
       <c r="AX119" t="n">
-        <v>-0.2490490143505996</v>
+        <v>-0.2458676153195839</v>
       </c>
     </row>
     <row r="120">
@@ -22790,7 +22790,7 @@
         <v>0</v>
       </c>
       <c r="AO120" t="n">
-        <v>5.525452939131783</v>
+        <v>5.303304908059076</v>
       </c>
       <c r="AP120" t="n">
         <v>0</v>
@@ -22814,10 +22814,10 @@
         <v>5.886625576678035</v>
       </c>
       <c r="AW120" t="n">
-        <v>-0.7262356355771926</v>
+        <v>-0.7320613841730246</v>
       </c>
       <c r="AX120" t="n">
-        <v>0.3286092760845123</v>
+        <v>0.3394246965869863</v>
       </c>
     </row>
     <row r="121">
@@ -22892,7 +22892,7 @@
         <v>3.614742148</v>
       </c>
       <c r="W121" t="n">
-        <v>-1.561422336398522</v>
+        <v>-2.693637187720834</v>
       </c>
       <c r="X121" t="inlineStr">
         <is>
@@ -22979,7 +22979,7 @@
         <v>5.707110264748875</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.6094379124341</v>
+        <v>1</v>
       </c>
       <c r="AQ121" t="n">
         <v>4</v>
@@ -23000,10 +23000,10 @@
         <v>7.538488538825273</v>
       </c>
       <c r="AW121" t="n">
-        <v>-0.552367591677937</v>
+        <v>-0.554343957067573</v>
       </c>
       <c r="AX121" t="n">
-        <v>0.2612858048713877</v>
+        <v>0.2723861399763415</v>
       </c>
     </row>
     <row r="122">
@@ -23014,7 +23014,7 @@
         <v>-16.90506877</v>
       </c>
       <c r="C122" t="n">
-        <v>62.00671142578121</v>
+        <v>62.479248046875</v>
       </c>
       <c r="D122" t="n">
         <v>7.58500003814697</v>
@@ -23165,7 +23165,7 @@
         <v>5.993961427306569</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.6094379124341</v>
+        <v>1</v>
       </c>
       <c r="AQ122" t="n">
         <v>3.605551275463989</v>
@@ -23186,10 +23186,10 @@
         <v>7.537393724623916</v>
       </c>
       <c r="AW122" t="n">
-        <v>-0.5449510231204968</v>
+        <v>-0.5470278924835885</v>
       </c>
       <c r="AX122" t="n">
-        <v>0.2612858048713877</v>
+        <v>0.2723861399763415</v>
       </c>
     </row>
     <row r="123">
@@ -23200,7 +23200,7 @@
         <v>-16.90506877</v>
       </c>
       <c r="C123" t="n">
-        <v>62.00671142578121</v>
+        <v>62.479248046875</v>
       </c>
       <c r="D123" t="n">
         <v>7.58500003814697</v>
@@ -23351,7 +23351,7 @@
         <v>5.993961427306569</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.6094379124341</v>
+        <v>1</v>
       </c>
       <c r="AQ123" t="n">
         <v>3.605551275463989</v>
@@ -23372,21 +23372,21 @@
         <v>7.537393724623916</v>
       </c>
       <c r="AW123" t="n">
-        <v>-0.5449510231204968</v>
+        <v>-0.5470278924835885</v>
       </c>
       <c r="AX123" t="n">
-        <v>-0.1345211203163019</v>
+        <v>-0.1293615191213936</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>14.8142903333333</v>
+        <v>14.81215436</v>
       </c>
       <c r="B124" t="n">
         <v>-16.90177033</v>
       </c>
       <c r="C124" t="n">
-        <v>62.00671142578121</v>
+        <v>73.19781494140619</v>
       </c>
       <c r="D124" t="n">
         <v>13.6529998779296</v>
@@ -23447,7 +23447,7 @@
         <v>2</v>
       </c>
       <c r="V124" t="n">
-        <v>3.5952978724</v>
+        <v>3.555092281</v>
       </c>
       <c r="W124" t="n">
         <v>0.01845181298203747</v>
@@ -23537,7 +23537,7 @@
         <v>5.707110264748875</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.09861228866811</v>
+        <v>1</v>
       </c>
       <c r="AQ124" t="n">
         <v>3.3166247903554</v>
@@ -23558,10 +23558,10 @@
         <v>7.557109231710231</v>
       </c>
       <c r="AW124" t="n">
-        <v>-1.399142186426374</v>
+        <v>-1.403112976793565</v>
       </c>
       <c r="AX124" t="n">
-        <v>0.247723658199375</v>
+        <v>0.2577555143822997</v>
       </c>
     </row>
     <row r="125">
@@ -23723,7 +23723,7 @@
         <v>7.131698510466912</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.6094379124341</v>
+        <v>1</v>
       </c>
       <c r="AQ125" t="n">
         <v>3.464101615137754</v>
@@ -23735,7 +23735,7 @@
         <v>13.99783294809122</v>
       </c>
       <c r="AT125" t="n">
-        <v>15.20180516908413</v>
+        <v>15.31958817696275</v>
       </c>
       <c r="AU125" t="n">
         <v>1</v>
@@ -23744,10 +23744,10 @@
         <v>8.522767694241114</v>
       </c>
       <c r="AW125" t="n">
-        <v>0.08189332329819408</v>
+        <v>0.0836601103327881</v>
       </c>
       <c r="AX125" t="n">
-        <v>0.2272160984435462</v>
+        <v>0.2349266341382657</v>
       </c>
     </row>
     <row r="126">
@@ -23822,7 +23822,7 @@
         <v>40.10213614</v>
       </c>
       <c r="W126" t="n">
-        <v>-1.561422336398522</v>
+        <v>-2.614671769318895</v>
       </c>
       <c r="X126" t="inlineStr">
         <is>
@@ -23909,7 +23909,7 @@
         <v>6.621405651764134</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.386294361119891</v>
+        <v>1</v>
       </c>
       <c r="AQ126" t="n">
         <v>2.645751311064591</v>
@@ -23930,10 +23930,10 @@
         <v>8.518630738563564</v>
       </c>
       <c r="AW126" t="n">
-        <v>-1.607557107533094</v>
+        <v>-1.613040410558742</v>
       </c>
       <c r="AX126" t="n">
-        <v>0.3472940899674091</v>
+        <v>0.3514055230394512</v>
       </c>
     </row>
     <row r="127">
@@ -23947,7 +23947,7 @@
         <v>26.1434326171875</v>
       </c>
       <c r="D127" t="n">
-        <v>24.2719993591308</v>
+        <v>33.3740005493164</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
@@ -24008,7 +24008,7 @@
         <v>40.18037774</v>
       </c>
       <c r="W127" t="n">
-        <v>-1.561422336398522</v>
+        <v>-2.088047052858708</v>
       </c>
       <c r="X127" t="inlineStr">
         <is>
@@ -24116,10 +24116,10 @@
         <v>8.572121419462045</v>
       </c>
       <c r="AW127" t="n">
-        <v>0.07630703588446464</v>
+        <v>0.07813635025347475</v>
       </c>
       <c r="AX127" t="n">
-        <v>0.1093644129377872</v>
+        <v>0.1107406075535824</v>
       </c>
     </row>
     <row r="128">
@@ -24194,7 +24194,7 @@
         <v>37.60098907</v>
       </c>
       <c r="W128" t="n">
-        <v>1.140689230583377</v>
+        <v>2.057662886060324</v>
       </c>
       <c r="X128" t="inlineStr">
         <is>
@@ -24302,10 +24302,10 @@
         <v>8.557789475092267</v>
       </c>
       <c r="AW128" t="n">
-        <v>0.9802475213506987</v>
+        <v>0.985171410639008</v>
       </c>
       <c r="AX128" t="n">
-        <v>0.4636048413611925</v>
+        <v>0.4658142617538661</v>
       </c>
     </row>
     <row r="129">
@@ -24380,7 +24380,7 @@
         <v>24.4707159</v>
       </c>
       <c r="W129" t="n">
-        <v>-1.561422336398522</v>
+        <v>-2.088047052858708</v>
       </c>
       <c r="X129" t="inlineStr">
         <is>
@@ -24488,10 +24488,10 @@
         <v>5.960460691087561</v>
       </c>
       <c r="AW129" t="n">
-        <v>0.4077860162629207</v>
+        <v>0.4077682273238832</v>
       </c>
       <c r="AX129" t="n">
-        <v>0.202791262576252</v>
+        <v>0.2060277400525681</v>
       </c>
     </row>
     <row r="130">
@@ -24674,10 +24674,10 @@
         <v>5.989705078716314</v>
       </c>
       <c r="AW130" t="n">
-        <v>-0.01581276366548054</v>
+        <v>-0.0171778306012875</v>
       </c>
       <c r="AX130" t="n">
-        <v>-0.3705263983514829</v>
+        <v>-0.3700681569841801</v>
       </c>
     </row>
     <row r="131">
@@ -24685,7 +24685,7 @@
         <v>14.89056399</v>
       </c>
       <c r="B131" t="n">
-        <v>-17.134429198</v>
+        <v>-17.13481597</v>
       </c>
       <c r="C131" t="n">
         <v>12.4427490234375</v>
@@ -24860,10 +24860,10 @@
         <v>5.942697541521023</v>
       </c>
       <c r="AW131" t="n">
-        <v>-0.4549785578663625</v>
+        <v>-0.457315524368152</v>
       </c>
       <c r="AX131" t="n">
-        <v>0.7334626568868065</v>
+        <v>0.733136040869399</v>
       </c>
     </row>
     <row r="132">
@@ -25046,10 +25046,10 @@
         <v>7.215935211737976</v>
       </c>
       <c r="AW132" t="n">
-        <v>-0.2659048833087795</v>
+        <v>-0.266711474449179</v>
       </c>
       <c r="AX132" t="n">
-        <v>0.4645771105094</v>
+        <v>0.4618844482815944</v>
       </c>
     </row>
     <row r="133">
@@ -25220,7 +25220,7 @@
         <v>2.564949357461537</v>
       </c>
       <c r="AS133" t="n">
-        <v>11.69525535506279</v>
+        <v>11.51293546492023</v>
       </c>
       <c r="AT133" t="n">
         <v>14.22097633273888</v>
@@ -25232,10 +25232,10 @@
         <v>7.209387544028965</v>
       </c>
       <c r="AW133" t="n">
-        <v>-1.159611957709125</v>
+        <v>-1.165026040823549</v>
       </c>
       <c r="AX133" t="n">
-        <v>0.9622892544858042</v>
+        <v>1.402159472273968</v>
       </c>
     </row>
     <row r="134">
@@ -25310,7 +25310,7 @@
         <v>26.44863764</v>
       </c>
       <c r="W134" t="n">
-        <v>-1.561422336398522</v>
+        <v>-1.736963908551917</v>
       </c>
       <c r="X134" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>0</v>
       </c>
       <c r="AQ134" t="n">
-        <v>4.58257569495584</v>
+        <v>5</v>
       </c>
       <c r="AR134" t="n">
         <v>2.564949357461537</v>
@@ -25409,7 +25409,7 @@
         <v>14.22097633273888</v>
       </c>
       <c r="AT134" t="n">
-        <v>15.20180516908413</v>
+        <v>15.42494867039835</v>
       </c>
       <c r="AU134" t="n">
         <v>0</v>
@@ -25418,10 +25418,10 @@
         <v>7.213158155066337</v>
       </c>
       <c r="AW134" t="n">
-        <v>0.8592115585188383</v>
+        <v>0.8594601763654228</v>
       </c>
       <c r="AX134" t="n">
-        <v>0.9622892544858042</v>
+        <v>0.9990696176969099</v>
       </c>
     </row>
     <row r="135">
@@ -25604,10 +25604,10 @@
         <v>7.231649607109017</v>
       </c>
       <c r="AW135" t="n">
-        <v>0.3626099439483719</v>
+        <v>0.3617078935757895</v>
       </c>
       <c r="AX135" t="n">
-        <v>0.5576972804586922</v>
+        <v>0.5561897097222825</v>
       </c>
     </row>
     <row r="136">
@@ -25618,7 +25618,7 @@
         <v>-17.0559016666666</v>
       </c>
       <c r="C136" t="n">
-        <v>-39.48</v>
+        <v>-53.9</v>
       </c>
       <c r="D136" t="n">
         <v>8.89999961853027</v>
@@ -25763,16 +25763,16 @@
         <v>0.02336805555555556</v>
       </c>
       <c r="AN136" t="n">
-        <v>1.09861228866811</v>
+        <v>1</v>
       </c>
       <c r="AO136" t="n">
         <v>8.699681400989514</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.791759469228055</v>
+        <v>2</v>
       </c>
       <c r="AQ136" t="n">
-        <v>4.58257569495584</v>
+        <v>5.099019513592784</v>
       </c>
       <c r="AR136" t="n">
         <v>1.945910149055313</v>
@@ -25790,10 +25790,10 @@
         <v>6.416002119700398</v>
       </c>
       <c r="AW136" t="n">
-        <v>0.867812589084338</v>
+        <v>0.8721060295745584</v>
       </c>
       <c r="AX136" t="n">
-        <v>0.2354861883653073</v>
+        <v>0.23885886790249</v>
       </c>
     </row>
     <row r="137">
@@ -25807,7 +25807,7 @@
         <v>-20</v>
       </c>
       <c r="D137" t="n">
-        <v>3.5</v>
+        <v>3.29999995231628</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
@@ -25949,16 +25949,16 @@
         <v>0.02315972222222222</v>
       </c>
       <c r="AN137" t="n">
-        <v>1.09861228866811</v>
+        <v>2</v>
       </c>
       <c r="AO137" t="n">
         <v>7.313886831633462</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.791759469228055</v>
+        <v>2</v>
       </c>
       <c r="AQ137" t="n">
-        <v>4.58257569495584</v>
+        <v>5</v>
       </c>
       <c r="AR137" t="n">
         <v>1.945910149055313</v>
@@ -25976,10 +25976,10 @@
         <v>6.419782718285721</v>
       </c>
       <c r="AW137" t="n">
-        <v>0.1685456486637325</v>
+        <v>0.1667492023453429</v>
       </c>
       <c r="AX137" t="n">
-        <v>0.2270761036705459</v>
+        <v>0.2293380106539447</v>
       </c>
     </row>
     <row r="138">
@@ -25993,7 +25993,7 @@
         <v>-16.3</v>
       </c>
       <c r="D138" t="n">
-        <v>3.5</v>
+        <v>3.20000004768371</v>
       </c>
       <c r="E138" t="n">
         <v>1</v>
@@ -26135,13 +26135,13 @@
         <v>0.02126157407407408</v>
       </c>
       <c r="AN138" t="n">
-        <v>1.09861228866811</v>
+        <v>2</v>
       </c>
       <c r="AO138" t="n">
         <v>6.68586094706836</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.791759469228055</v>
+        <v>2</v>
       </c>
       <c r="AQ138" t="n">
         <v>4.58257569495584</v>
@@ -26153,7 +26153,7 @@
         <v>12.32386012562113</v>
       </c>
       <c r="AT138" t="n">
-        <v>12.61154108696612</v>
+        <v>12.32386012562113</v>
       </c>
       <c r="AU138" t="n">
         <v>1</v>
@@ -26162,10 +26162,10 @@
         <v>6.413404061027186</v>
       </c>
       <c r="AW138" t="n">
-        <v>-0.1974100770559327</v>
+        <v>-0.2015479103126939</v>
       </c>
       <c r="AX138" t="n">
-        <v>0.457070356292039</v>
+        <v>0.4549647322346865</v>
       </c>
     </row>
     <row r="139">
@@ -26199,7 +26199,7 @@
         <v>40</v>
       </c>
       <c r="J139" t="n">
-        <v>4.5</v>
+        <v>4.527777777777778</v>
       </c>
       <c r="K139" t="n">
         <v>2</v>
@@ -26321,13 +26321,13 @@
         <v>0.02508101851851852</v>
       </c>
       <c r="AN139" t="n">
-        <v>1.09861228866811</v>
+        <v>1</v>
       </c>
       <c r="AO139" t="n">
         <v>8.294299608857235</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.791759469228055</v>
+        <v>2</v>
       </c>
       <c r="AQ139" t="n">
         <v>4.123105625617661</v>
@@ -26348,10 +26348,10 @@
         <v>6.418045780453736</v>
       </c>
       <c r="AW139" t="n">
-        <v>0.6852426389181739</v>
+        <v>0.6875516427148625</v>
       </c>
       <c r="AX139" t="n">
-        <v>0.6138377336966347</v>
+        <v>0.614243823469213</v>
       </c>
     </row>
     <row r="140">
@@ -26365,7 +26365,7 @@
         <v>-20.6</v>
       </c>
       <c r="D140" t="n">
-        <v>3.5</v>
+        <v>3.40000009536743</v>
       </c>
       <c r="E140" t="n">
         <v>1</v>
@@ -26507,13 +26507,13 @@
         <v>0.02333333333333333</v>
       </c>
       <c r="AN140" t="n">
-        <v>1.09861228866811</v>
+        <v>2</v>
       </c>
       <c r="AO140" t="n">
         <v>9.210440366976517</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.791759469228055</v>
+        <v>2</v>
       </c>
       <c r="AQ140" t="n">
         <v>3.872983346207417</v>
@@ -26522,7 +26522,7 @@
         <v>1.945910149055313</v>
       </c>
       <c r="AS140" t="n">
-        <v>14.73180168983835</v>
+        <v>14.91412317996566</v>
       </c>
       <c r="AT140" t="n">
         <v>14.91412317996566</v>
@@ -26534,10 +26534,10 @@
         <v>6.413826245697649</v>
       </c>
       <c r="AW140" t="n">
-        <v>1.279947429533716</v>
+        <v>1.283695652547246</v>
       </c>
       <c r="AX140" t="n">
-        <v>-0.4290780626863646</v>
+        <v>-0.42245703763972</v>
       </c>
     </row>
     <row r="141">
@@ -26545,7 +26545,7 @@
         <v>14.96082463</v>
       </c>
       <c r="B141" t="n">
-        <v>-16.86551899999998</v>
+        <v>-16.79583135</v>
       </c>
       <c r="C141" t="n">
         <v>56.77935791015619</v>
@@ -26699,7 +26699,7 @@
         <v>7.131698510466912</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.386294361119891</v>
+        <v>1</v>
       </c>
       <c r="AQ141" t="n">
         <v>3.464101615137754</v>
@@ -26720,10 +26720,10 @@
         <v>8.485505660242058</v>
       </c>
       <c r="AW141" t="n">
-        <v>-0.1223462132508161</v>
+        <v>-0.1220972960986897</v>
       </c>
       <c r="AX141" t="n">
-        <v>-0.1023933218655373</v>
+        <v>-0.100189957997092</v>
       </c>
     </row>
     <row r="142">
@@ -26731,10 +26731,10 @@
         <v>14.9599224</v>
       </c>
       <c r="B142" t="n">
-        <v>-16.86551899999998</v>
+        <v>-16.79185589</v>
       </c>
       <c r="C142" t="n">
-        <v>62.00671142578121</v>
+        <v>67.147216796875</v>
       </c>
       <c r="D142" t="n">
         <v>6.06799983978271</v>
@@ -26894,7 +26894,7 @@
         <v>1.945910149055313</v>
       </c>
       <c r="AS142" t="n">
-        <v>11.69525535506279</v>
+        <v>10.81979828421029</v>
       </c>
       <c r="AT142" t="n">
         <v>13.59236825664928</v>
@@ -26906,10 +26906,10 @@
         <v>8.507366528485768</v>
       </c>
       <c r="AW142" t="n">
-        <v>-1.628508613963255</v>
+        <v>-1.638585155943887</v>
       </c>
       <c r="AX142" t="n">
-        <v>-0.5100004827476894</v>
+        <v>-0.506363543033861</v>
       </c>
     </row>
     <row r="143">
@@ -26917,7 +26917,7 @@
         <v>14.95549282</v>
       </c>
       <c r="B143" t="n">
-        <v>-16.86551899999998</v>
+        <v>-16.79709396</v>
       </c>
       <c r="C143" t="n">
         <v>52.4517822265625</v>
@@ -26943,7 +26943,7 @@
         <v>30</v>
       </c>
       <c r="J143" t="n">
-        <v>3</v>
+        <v>2.888888888888889</v>
       </c>
       <c r="K143" t="n">
         <v>1</v>
@@ -26984,7 +26984,7 @@
         <v>23.0024698</v>
       </c>
       <c r="W143" t="n">
-        <v>1.140689230583377</v>
+        <v>1.948271848200161</v>
       </c>
       <c r="X143" t="inlineStr">
         <is>
@@ -27065,7 +27065,7 @@
         <v>0.02263888888888889</v>
       </c>
       <c r="AN143" t="n">
-        <v>1.09861228866811</v>
+        <v>2</v>
       </c>
       <c r="AO143" t="n">
         <v>6.621405651764134</v>
@@ -27092,10 +27092,10 @@
         <v>8.466658676242949</v>
       </c>
       <c r="AW143" t="n">
-        <v>-0.690336540349068</v>
+        <v>-0.6933805397270036</v>
       </c>
       <c r="AX143" t="n">
-        <v>0.0379813675817712</v>
+        <v>0.04130911214549002</v>
       </c>
     </row>
     <row r="144">
@@ -27170,7 +27170,7 @@
         <v>21.13728546</v>
       </c>
       <c r="W144" t="n">
-        <v>1.140689230583377</v>
+        <v>1.366846082565184</v>
       </c>
       <c r="X144" t="inlineStr">
         <is>
@@ -27278,10 +27278,10 @@
         <v>5.934575971373187</v>
       </c>
       <c r="AW144" t="n">
-        <v>-0.2917169036526855</v>
+        <v>-0.2925316956745236</v>
       </c>
       <c r="AX144" t="n">
-        <v>0.01585139410780166</v>
+        <v>0.01901133113103513</v>
       </c>
     </row>
     <row r="145">
@@ -27315,7 +27315,7 @@
         <v>31</v>
       </c>
       <c r="J145" t="n">
-        <v>3</v>
+        <v>2.944444444444445</v>
       </c>
       <c r="K145" t="n">
         <v>5</v>
@@ -27464,10 +27464,10 @@
         <v>5.946150481614135</v>
       </c>
       <c r="AW145" t="n">
-        <v>-1.133429964074374</v>
+        <v>-1.135984678448077</v>
       </c>
       <c r="AX145" t="n">
-        <v>0.6270476016498845</v>
+        <v>0.6298723774668588</v>
       </c>
     </row>
     <row r="146">
@@ -27481,7 +27481,7 @@
         <v>23.2392578125</v>
       </c>
       <c r="D146" t="n">
-        <v>24.2719993591308</v>
+        <v>25.7889995574951</v>
       </c>
       <c r="E146" t="n">
         <v>0</v>
@@ -27650,10 +27650,10 @@
         <v>5.943713065079774</v>
       </c>
       <c r="AW146" t="n">
-        <v>-1.129303969730222</v>
+        <v>-1.131914596595372</v>
       </c>
       <c r="AX146" t="n">
-        <v>0.3368827240051515</v>
+        <v>0.3408540136106517</v>
       </c>
     </row>
     <row r="147">
@@ -27836,10 +27836,10 @@
         <v>5.928456452568409</v>
       </c>
       <c r="AW147" t="n">
-        <v>0.5814722329740312</v>
+        <v>0.5807281782064639</v>
       </c>
       <c r="AX147" t="n">
-        <v>0.3791352859301894</v>
+        <v>0.3800896201431013</v>
       </c>
     </row>
     <row r="148">
@@ -27847,7 +27847,7 @@
         <v>14.8635083333333</v>
       </c>
       <c r="B148" t="n">
-        <v>-17.134429198</v>
+        <v>-17.1372516666666</v>
       </c>
       <c r="C148" t="n">
         <v>-5.5</v>
@@ -28019,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="AV148" t="n">
-        <v>5.873368410481751</v>
+        <v>5.817272727833894</v>
       </c>
       <c r="AW148" t="n">
-        <v>0.4852932584470189</v>
+        <v>0.4857177334425078</v>
       </c>
       <c r="AX148" t="n">
-        <v>-0.110910596225972</v>
+        <v>-0.1118061808915037</v>
       </c>
     </row>
     <row r="149">
@@ -28208,10 +28208,10 @@
         <v>5.907173183511721</v>
       </c>
       <c r="AW149" t="n">
-        <v>-0.4690835979111015</v>
+        <v>-0.4750199748754048</v>
       </c>
       <c r="AX149" t="n">
-        <v>0.145853447233843</v>
+        <v>0.1488496998994072</v>
       </c>
     </row>
     <row r="150">
@@ -28391,13 +28391,13 @@
         <v>0</v>
       </c>
       <c r="AV150" t="n">
-        <v>5.873368410481751</v>
+        <v>5.868953875266017</v>
       </c>
       <c r="AW150" t="n">
-        <v>-1.184117944170013</v>
+        <v>-1.1874591602619</v>
       </c>
       <c r="AX150" t="n">
-        <v>-0.1207828062523605</v>
+        <v>-0.1203519866192507</v>
       </c>
     </row>
     <row r="151">
@@ -28580,10 +28580,10 @@
         <v>5.904465593091385</v>
       </c>
       <c r="AW151" t="n">
-        <v>-0.2774857346029552</v>
+        <v>-0.2781353904218445</v>
       </c>
       <c r="AX151" t="n">
-        <v>0.04192325592760469</v>
+        <v>0.04975337460076341</v>
       </c>
     </row>
     <row r="152">
@@ -28742,10 +28742,10 @@
         <v>0</v>
       </c>
       <c r="AO152" t="n">
-        <v>5.525452939131783</v>
+        <v>5.303304908059076</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.386294361119891</v>
+        <v>1</v>
       </c>
       <c r="AQ152" t="n">
         <v>3.872983346207417</v>
@@ -28766,10 +28766,10 @@
         <v>7.535826088757622</v>
       </c>
       <c r="AW152" t="n">
-        <v>-0.9138537043015084</v>
+        <v>-0.9184526908656883</v>
       </c>
       <c r="AX152" t="n">
-        <v>0.5268924608784897</v>
+        <v>0.5340733520350185</v>
       </c>
     </row>
     <row r="153">
@@ -28841,7 +28841,7 @@
         <v>3</v>
       </c>
       <c r="V153" t="n">
-        <v>3.5952978724</v>
+        <v>3.562395276</v>
       </c>
       <c r="W153" t="n">
         <v>-0.9588569799747259</v>
@@ -28931,10 +28931,10 @@
         <v>5.993961427306569</v>
       </c>
       <c r="AP153" t="n">
-        <v>1.386294361119891</v>
+        <v>1</v>
       </c>
       <c r="AQ153" t="n">
-        <v>4.58257569495584</v>
+        <v>4.898979485566356</v>
       </c>
       <c r="AR153" t="n">
         <v>1.945910149055313</v>
@@ -28952,15 +28952,15 @@
         <v>7.534467997808472</v>
       </c>
       <c r="AW153" t="n">
-        <v>-0.6652891984844387</v>
+        <v>-0.668584748994185</v>
       </c>
       <c r="AX153" t="n">
-        <v>-0.01624774011536789</v>
+        <v>-0.01369776187270455</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>14.8142903333333</v>
+        <v>14.8131033333333</v>
       </c>
       <c r="B154" t="n">
         <v>-16.9030016666666</v>
@@ -29027,7 +29027,7 @@
         <v>2</v>
       </c>
       <c r="V154" t="n">
-        <v>3.5952978724</v>
+        <v>3.534958641</v>
       </c>
       <c r="W154" t="n">
         <v>0.2039945512952289</v>
@@ -29117,7 +29117,7 @@
         <v>8.699681400989514</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.09861228866811</v>
+        <v>1</v>
       </c>
       <c r="AQ154" t="n">
         <v>3.605551275463989</v>
@@ -29138,15 +29138,15 @@
         <v>7.549270849558916</v>
       </c>
       <c r="AW154" t="n">
-        <v>0.7307055043445824</v>
+        <v>0.734417801321769</v>
       </c>
       <c r="AX154" t="n">
-        <v>0.04795544708817084</v>
+        <v>0.05588922820329928</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>14.8142903333333</v>
+        <v>14.8135216666666</v>
       </c>
       <c r="B155" t="n">
         <v>-16.9019933333333</v>
@@ -29172,7 +29172,7 @@
         </is>
       </c>
       <c r="I155" t="n">
-        <v>28.6</v>
+        <v>27</v>
       </c>
       <c r="J155" t="n">
         <v>3.444444444444445</v>
@@ -29303,7 +29303,7 @@
         <v>8.517393171418904</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.6094379124341</v>
+        <v>1</v>
       </c>
       <c r="AQ155" t="n">
         <v>3.741657386773941</v>
@@ -29324,15 +29324,15 @@
         <v>7.556773196278951</v>
       </c>
       <c r="AW155" t="n">
-        <v>0.5634780384942748</v>
+        <v>0.5652469711913986</v>
       </c>
       <c r="AX155" t="n">
-        <v>-0.1389268236060132</v>
+        <v>-0.1348267724716399</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>14.8142903333333</v>
+        <v>14.81303897</v>
       </c>
       <c r="B156" t="n">
         <v>-16.90192866</v>
@@ -29489,7 +29489,7 @@
         <v>5.525452939131783</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.09861228866811</v>
+        <v>1</v>
       </c>
       <c r="AQ156" t="n">
         <v>4.47213595499958</v>
@@ -29510,21 +29510,21 @@
         <v>7.556789504147909</v>
       </c>
       <c r="AW156" t="n">
-        <v>-1.635047341043556</v>
+        <v>-1.677782964466216</v>
       </c>
       <c r="AX156" t="n">
-        <v>-0.2963093583114044</v>
+        <v>-0.2910869178333146</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>14.8142903333333</v>
+        <v>14.81266568</v>
       </c>
       <c r="B157" t="n">
         <v>-16.90157815</v>
       </c>
       <c r="C157" t="n">
-        <v>62.00671142578121</v>
+        <v>63.3353271484375</v>
       </c>
       <c r="D157" t="n">
         <v>9.101999282836911</v>
@@ -29672,10 +29672,10 @@
         <v>0</v>
       </c>
       <c r="AO157" t="n">
-        <v>5.525452939131783</v>
+        <v>5.017279836814924</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.09861228866811</v>
+        <v>1</v>
       </c>
       <c r="AQ157" t="n">
         <v>4.123105625617661</v>
@@ -29684,7 +29684,7 @@
         <v>1.945910149055313</v>
       </c>
       <c r="AS157" t="n">
-        <v>11.69525535506279</v>
+        <v>11.51293546492023</v>
       </c>
       <c r="AT157" t="n">
         <v>13.12236537740233</v>
@@ -29696,10 +29696,10 @@
         <v>7.558925348222457</v>
       </c>
       <c r="AW157" t="n">
-        <v>-1.635047341043556</v>
+        <v>-1.663828452569138</v>
       </c>
       <c r="AX157" t="n">
-        <v>-0.1193725144050271</v>
+        <v>-0.1210114960135579</v>
       </c>
     </row>
     <row r="158">
@@ -29733,7 +29733,7 @@
         <v>54</v>
       </c>
       <c r="J158" t="n">
-        <v>4.5</v>
+        <v>4.527777777777779</v>
       </c>
       <c r="K158" t="n">
         <v>3</v>
@@ -29864,7 +29864,7 @@
         <v>0</v>
       </c>
       <c r="AQ158" t="n">
-        <v>4.58257569495584</v>
+        <v>5</v>
       </c>
       <c r="AR158" t="n">
         <v>1.945910149055313</v>
@@ -29882,10 +29882,10 @@
         <v>8.513651087518209</v>
       </c>
       <c r="AW158" t="n">
-        <v>0.2635170810472414</v>
+        <v>0.2630001332922345</v>
       </c>
       <c r="AX158" t="n">
-        <v>-0.2550301006247054</v>
+        <v>-0.2568319168588604</v>
       </c>
     </row>
     <row r="159">
@@ -29919,7 +29919,7 @@
         <v>54</v>
       </c>
       <c r="J159" t="n">
-        <v>4.5</v>
+        <v>4.527777777777779</v>
       </c>
       <c r="K159" t="n">
         <v>1</v>
@@ -29960,7 +29960,7 @@
         <v>39.66974326</v>
       </c>
       <c r="W159" t="n">
-        <v>1.140689230583377</v>
+        <v>1.173037494020191</v>
       </c>
       <c r="X159" t="inlineStr">
         <is>
@@ -30050,7 +30050,7 @@
         <v>0</v>
       </c>
       <c r="AQ159" t="n">
-        <v>4.58257569495584</v>
+        <v>5.099019513592784</v>
       </c>
       <c r="AR159" t="n">
         <v>1.945910149055313</v>
@@ -30068,10 +30068,10 @@
         <v>8.516099269031567</v>
       </c>
       <c r="AW159" t="n">
-        <v>0.5761213066365066</v>
+        <v>0.5777181595437348</v>
       </c>
       <c r="AX159" t="n">
-        <v>0.02957041701166277</v>
+        <v>0.02806377283831848</v>
       </c>
     </row>
     <row r="160">
@@ -30105,7 +30105,7 @@
         <v>50</v>
       </c>
       <c r="J160" t="n">
-        <v>4.5</v>
+        <v>4.527777777777778</v>
       </c>
       <c r="K160" t="n">
         <v>1</v>
@@ -30230,7 +30230,7 @@
         <v>0</v>
       </c>
       <c r="AO160" t="n">
-        <v>9.546884034617925</v>
+        <v>9.61587214452889</v>
       </c>
       <c r="AP160" t="n">
         <v>0</v>
@@ -30242,7 +30242,7 @@
         <v>1.945910149055313</v>
       </c>
       <c r="AS160" t="n">
-        <v>14.73180168983835</v>
+        <v>14.91412317996566</v>
       </c>
       <c r="AT160" t="n">
         <v>14.91412317996566</v>
@@ -30254,10 +30254,10 @@
         <v>8.513656809503189</v>
       </c>
       <c r="AW160" t="n">
-        <v>1.110953621681228</v>
+        <v>1.116914636312059</v>
       </c>
       <c r="AX160" t="n">
-        <v>-0.3078065062868685</v>
+        <v>-0.3076171250338684</v>
       </c>
     </row>
     <row r="161">
@@ -30291,7 +30291,7 @@
         <v>54</v>
       </c>
       <c r="J161" t="n">
-        <v>4.5</v>
+        <v>4.527777777777779</v>
       </c>
       <c r="K161" t="n">
         <v>2</v>
@@ -30413,13 +30413,13 @@
         <v>0.02604166666666667</v>
       </c>
       <c r="AN161" t="n">
-        <v>1.09861228866811</v>
+        <v>1</v>
       </c>
       <c r="AO161" t="n">
         <v>8.517393171418904</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.09861228866811</v>
+        <v>1</v>
       </c>
       <c r="AQ161" t="n">
         <v>3.16227766016838</v>
@@ -30440,10 +30440,10 @@
         <v>8.521837056057809</v>
       </c>
       <c r="AW161" t="n">
-        <v>0.8001093815225229</v>
+        <v>0.8033121228345552</v>
       </c>
       <c r="AX161" t="n">
-        <v>0.2123177133553498</v>
+        <v>0.2149507984399546</v>
       </c>
     </row>
     <row r="162">
@@ -30605,7 +30605,7 @@
         <v>9.210440366976517</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.386294361119891</v>
+        <v>1</v>
       </c>
       <c r="AQ162" t="n">
         <v>3.464101615137754</v>
@@ -30614,7 +30614,7 @@
         <v>1.945910149055313</v>
       </c>
       <c r="AS162" t="n">
-        <v>14.73180168983835</v>
+        <v>14.91412317996566</v>
       </c>
       <c r="AT162" t="n">
         <v>14.97866168026991</v>
@@ -30626,10 +30626,10 @@
         <v>8.515798724136216</v>
       </c>
       <c r="AW162" t="n">
-        <v>1.700191506719004</v>
+        <v>2.345733162897229</v>
       </c>
       <c r="AX162" t="n">
-        <v>0.0354955681495215</v>
+        <v>0.0384514955782639</v>
       </c>
     </row>
     <row r="163">
@@ -30794,7 +30794,7 @@
         <v>0</v>
       </c>
       <c r="AQ163" t="n">
-        <v>2.645751311064591</v>
+        <v>2.23606797749979</v>
       </c>
       <c r="AR163" t="n">
         <v>1.945910149055313</v>
@@ -30812,10 +30812,10 @@
         <v>8.515821511750936</v>
       </c>
       <c r="AW163" t="n">
-        <v>-1.305556240537507</v>
+        <v>-1.31018462798</v>
       </c>
       <c r="AX163" t="n">
-        <v>0.5482667325817445</v>
+        <v>0.553748171609906</v>
       </c>
     </row>
     <row r="164">
@@ -30971,7 +30971,7 @@
         <v>0.02101851851851852</v>
       </c>
       <c r="AN164" t="n">
-        <v>1.09861228866811</v>
+        <v>1</v>
       </c>
       <c r="AO164" t="n">
         <v>7.090909822079984</v>
@@ -30989,7 +30989,7 @@
         <v>14.22097633273888</v>
       </c>
       <c r="AT164" t="n">
-        <v>15.20180516908413</v>
+        <v>15.31958817696275</v>
       </c>
       <c r="AU164" t="n">
         <v>1</v>
@@ -30998,15 +30998,15 @@
         <v>8.558230447937238</v>
       </c>
       <c r="AW164" t="n">
-        <v>0.2278688807914144</v>
+        <v>0.2303907960177555</v>
       </c>
       <c r="AX164" t="n">
-        <v>-0.5556421669558069</v>
+        <v>-0.5567611246256172</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>15.15005013999998</v>
+        <v>15.1583583333333</v>
       </c>
       <c r="B165" t="n">
         <v>-16.8792</v>
@@ -31035,7 +31035,7 @@
         <v>52</v>
       </c>
       <c r="J165" t="n">
-        <v>4.5</v>
+        <v>4.527777777777778</v>
       </c>
       <c r="K165" t="n">
         <v>5</v>
@@ -31073,7 +31073,7 @@
         <v>2</v>
       </c>
       <c r="V165" t="n">
-        <v>40.233468902</v>
+        <v>41.23788664</v>
       </c>
       <c r="W165" t="n">
         <v>-1.055761274247222</v>
@@ -31175,24 +31175,24 @@
         <v>11.84940484442307</v>
       </c>
       <c r="AT165" t="n">
-        <v>12.61154108696612</v>
+        <v>11.84940484442307</v>
       </c>
       <c r="AU165" t="n">
         <v>0</v>
       </c>
       <c r="AV165" t="n">
-        <v>8.598524847652415</v>
+        <v>8.634829525242523</v>
       </c>
       <c r="AW165" t="n">
-        <v>-1.354637020266353</v>
+        <v>-1.361638906216271</v>
       </c>
       <c r="AX165" t="n">
-        <v>0.009119156874649259</v>
+        <v>0.008233909748203705</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>15.15005013999998</v>
+        <v>15.1632333333333</v>
       </c>
       <c r="B166" t="n">
         <v>-16.8733416666666</v>
@@ -31221,7 +31221,7 @@
         <v>54</v>
       </c>
       <c r="J166" t="n">
-        <v>4.5</v>
+        <v>4.527777777777779</v>
       </c>
       <c r="K166" t="n">
         <v>5</v>
@@ -31259,7 +31259,7 @@
         <v>2</v>
       </c>
       <c r="V166" t="n">
-        <v>40.233468902</v>
+        <v>41.85614278</v>
       </c>
       <c r="W166" t="n">
         <v>-1.152665568519718</v>
@@ -31349,7 +31349,7 @@
         <v>8.006700845440367</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.09861228866811</v>
+        <v>1</v>
       </c>
       <c r="AQ166" t="n">
         <v>4.123105625617661</v>
@@ -31367,18 +31367,18 @@
         <v>0</v>
       </c>
       <c r="AV166" t="n">
-        <v>8.598524847652415</v>
+        <v>8.682692402129653</v>
       </c>
       <c r="AW166" t="n">
-        <v>0.3734629209635966</v>
+        <v>0.3709403973715643</v>
       </c>
       <c r="AX166" t="n">
-        <v>-0.2171932585796759</v>
+        <v>-0.2188557662490543</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>15.15005013999998</v>
+        <v>15.1629516666666</v>
       </c>
       <c r="B167" t="n">
         <v>-16.87239</v>
@@ -31445,7 +31445,7 @@
         <v>2</v>
       </c>
       <c r="V167" t="n">
-        <v>40.233468902</v>
+        <v>41.83901887</v>
       </c>
       <c r="W167" t="n">
         <v>-0.5712398028847409</v>
@@ -31553,18 +31553,18 @@
         <v>0</v>
       </c>
       <c r="AV167" t="n">
-        <v>8.598524847652415</v>
+        <v>8.686255439485993</v>
       </c>
       <c r="AW167" t="n">
-        <v>0.6222681626616865</v>
+        <v>0.625143411539295</v>
       </c>
       <c r="AX167" t="n">
-        <v>0.5609589791903897</v>
+        <v>0.5617270879051399</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>15.15005013999998</v>
+        <v>15.16333031</v>
       </c>
       <c r="B168" t="n">
         <v>-16.87180426</v>
@@ -31631,7 +31631,7 @@
         <v>2</v>
       </c>
       <c r="V168" t="n">
-        <v>40.233468902</v>
+        <v>41.88939762</v>
       </c>
       <c r="W168" t="n">
         <v>-0.183622625794756</v>
@@ -31739,13 +31739,13 @@
         <v>0</v>
       </c>
       <c r="AV168" t="n">
-        <v>8.598524847652415</v>
+        <v>8.690600450486722</v>
       </c>
       <c r="AW168" t="n">
-        <v>0.5297220761943244</v>
+        <v>0.5295605284606263</v>
       </c>
       <c r="AX168" t="n">
-        <v>0.09958899607147603</v>
+        <v>0.1007755174824741</v>
       </c>
     </row>
     <row r="169">
@@ -31820,7 +31820,7 @@
         <v>37.73231109</v>
       </c>
       <c r="W169" t="n">
-        <v>1.140689230583377</v>
+        <v>1.560654671110176</v>
       </c>
       <c r="X169" t="inlineStr">
         <is>
@@ -31904,7 +31904,7 @@
         <v>0</v>
       </c>
       <c r="AO169" t="n">
-        <v>9.546884034617925</v>
+        <v>9.61587214452889</v>
       </c>
       <c r="AP169" t="n">
         <v>0</v>
@@ -31916,10 +31916,10 @@
         <v>1.945910149055313</v>
       </c>
       <c r="AS169" t="n">
-        <v>14.73180168983835</v>
+        <v>14.91412317996566</v>
       </c>
       <c r="AT169" t="n">
-        <v>15.20180516908413</v>
+        <v>15.31958817696275</v>
       </c>
       <c r="AU169" t="n">
         <v>0</v>
@@ -31928,10 +31928,10 @@
         <v>8.574792752597581</v>
       </c>
       <c r="AW169" t="n">
-        <v>1.110953621681228</v>
+        <v>1.116914636312059</v>
       </c>
       <c r="AX169" t="n">
-        <v>0.9146552818534968</v>
+        <v>0.9136563250320571</v>
       </c>
     </row>
     <row r="170">
@@ -31945,7 +31945,7 @@
         <v>8.492431640625</v>
       </c>
       <c r="D170" t="n">
-        <v>24.2719993591308</v>
+        <v>33.3740005493164</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
@@ -32114,10 +32114,10 @@
         <v>7.200027770085335</v>
       </c>
       <c r="AW170" t="n">
-        <v>0.5150421479838292</v>
+        <v>0.5238054552494101</v>
       </c>
       <c r="AX170" t="n">
-        <v>0.2441316621194967</v>
+        <v>0.2427113821441985</v>
       </c>
     </row>
     <row r="171">
@@ -32128,7 +32128,7 @@
         <v>-17.024915</v>
       </c>
       <c r="C171" t="n">
-        <v>-39.48</v>
+        <v>-55.90558166503902</v>
       </c>
       <c r="D171" t="n">
         <v>6.69999980926513</v>
@@ -32192,7 +32192,7 @@
         <v>26.32520231</v>
       </c>
       <c r="W171" t="n">
-        <v>-1.561422336398522</v>
+        <v>-1.734091334154696</v>
       </c>
       <c r="X171" t="inlineStr">
         <is>
@@ -32300,10 +32300,10 @@
         <v>7.212743821182062</v>
       </c>
       <c r="AW171" t="n">
-        <v>0.1243001862994473</v>
+        <v>0.1223350340965092</v>
       </c>
       <c r="AX171" t="n">
-        <v>0.9622892544858042</v>
+        <v>1.284758338154548</v>
       </c>
     </row>
     <row r="172">
@@ -32486,10 +32486,10 @@
         <v>7.198225741806102</v>
       </c>
       <c r="AW172" t="n">
-        <v>-0.107629679403629</v>
+        <v>-0.1076248813542559</v>
       </c>
       <c r="AX172" t="n">
-        <v>0.4611701914532127</v>
+        <v>0.4591270027331105</v>
       </c>
     </row>
     <row r="173">
@@ -32672,10 +32672,10 @@
         <v>7.229943289542457</v>
       </c>
       <c r="AW173" t="n">
-        <v>0.4569064146071741</v>
+        <v>0.4577780445832056</v>
       </c>
       <c r="AX173" t="n">
-        <v>0.9521911651001556</v>
+        <v>0.9505921027795098</v>
       </c>
     </row>
     <row r="174">
@@ -32858,10 +32858,10 @@
         <v>7.223792298370711</v>
       </c>
       <c r="AW174" t="n">
-        <v>-0.107629679403629</v>
+        <v>-0.1076248813542559</v>
       </c>
       <c r="AX174" t="n">
-        <v>0.9622892544858042</v>
+        <v>1.115867114994885</v>
       </c>
     </row>
     <row r="175">
@@ -32875,13 +32875,13 @@
         <v>-12.6</v>
       </c>
       <c r="D175" t="n">
-        <v>3.5</v>
+        <v>3.29999995231628</v>
       </c>
       <c r="E175" t="n">
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G175" t="n">
         <v>99</v>
@@ -32936,7 +32936,7 @@
         <v>26.41402587</v>
       </c>
       <c r="W175" t="n">
-        <v>-1.561422336398522</v>
+        <v>-1.927899922699688</v>
       </c>
       <c r="X175" t="inlineStr">
         <is>
@@ -33044,24 +33044,24 @@
         <v>7.223984990294484</v>
       </c>
       <c r="AW175" t="n">
-        <v>1.700191506719004</v>
+        <v>1.805467858994684</v>
       </c>
       <c r="AX175" t="n">
-        <v>-0.7213828228015811</v>
+        <v>-0.8260264562404753</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>14.8142903333333</v>
+        <v>14.79183196</v>
       </c>
       <c r="B176" t="n">
         <v>-16.94494069</v>
       </c>
       <c r="C176" t="n">
-        <v>62.00671142578121</v>
+        <v>73.84263610839838</v>
       </c>
       <c r="D176" t="n">
-        <v>24.2719993591308</v>
+        <v>33.3740005493164</v>
       </c>
       <c r="E176" t="n">
         <v>1</v>
@@ -33119,7 +33119,7 @@
         <v>2</v>
       </c>
       <c r="V176" t="n">
-        <v>3.5952978724</v>
+        <v>2.059472462</v>
       </c>
       <c r="W176" t="n">
         <v>0.09325519447642032</v>
@@ -33209,7 +33209,7 @@
         <v>9.392745258631441</v>
       </c>
       <c r="AP176" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AQ176" t="n">
         <v>2.82842712474619</v>
@@ -33230,10 +33230,10 @@
         <v>7.228766955712433</v>
       </c>
       <c r="AW176" t="n">
-        <v>0.9524372712076123</v>
+        <v>0.9560525253298322</v>
       </c>
       <c r="AX176" t="n">
-        <v>-0.2835827201418829</v>
+        <v>-0.288903879948341</v>
       </c>
     </row>
     <row r="177">
@@ -33267,7 +33267,7 @@
         <v>54</v>
       </c>
       <c r="J177" t="n">
-        <v>4.5</v>
+        <v>4.527777777777779</v>
       </c>
       <c r="K177" t="n">
         <v>2</v>
@@ -33392,10 +33392,10 @@
         <v>0</v>
       </c>
       <c r="AO177" t="n">
-        <v>9.546884034617925</v>
+        <v>10.12667110305036</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.791759469228055</v>
+        <v>2</v>
       </c>
       <c r="AQ177" t="n">
         <v>4.242640687119285</v>
@@ -33407,7 +33407,7 @@
         <v>14.73180168983835</v>
       </c>
       <c r="AT177" t="n">
-        <v>15.20180516908413</v>
+        <v>15.42494867039835</v>
       </c>
       <c r="AU177" t="n">
         <v>1</v>
@@ -33416,10 +33416,10 @@
         <v>6.529233684744328</v>
       </c>
       <c r="AW177" t="n">
-        <v>1.700191506719004</v>
+        <v>2.800705607021214</v>
       </c>
       <c r="AX177" t="n">
-        <v>-0.6360134651594836</v>
+        <v>-0.6374842118915942</v>
       </c>
     </row>
     <row r="178">
@@ -33599,13 +33599,13 @@
         <v>0</v>
       </c>
       <c r="AV178" t="n">
-        <v>5.873368410481751</v>
+        <v>5.838900372501659</v>
       </c>
       <c r="AW178" t="n">
-        <v>-0.1957586058511317</v>
+        <v>-0.1958982392669057</v>
       </c>
       <c r="AX178" t="n">
-        <v>-0.325351842940687</v>
+        <v>-0.3231915379000548</v>
       </c>
     </row>
     <row r="179">
@@ -33764,7 +33764,7 @@
         <v>0</v>
       </c>
       <c r="AO179" t="n">
-        <v>5.525452939131783</v>
+        <v>5.017279836814924</v>
       </c>
       <c r="AP179" t="n">
         <v>0</v>
@@ -33785,13 +33785,13 @@
         <v>0</v>
       </c>
       <c r="AV179" t="n">
-        <v>5.873368410481751</v>
+        <v>5.857089849916936</v>
       </c>
       <c r="AW179" t="n">
-        <v>-1.635047341043556</v>
+        <v>-1.661073338130717</v>
       </c>
       <c r="AX179" t="n">
-        <v>-0.6659193516440767</v>
+        <v>-0.6645786367898401</v>
       </c>
     </row>
     <row r="180">
@@ -33950,7 +33950,7 @@
         <v>0</v>
       </c>
       <c r="AO180" t="n">
-        <v>5.525452939131783</v>
+        <v>5.017279836814924</v>
       </c>
       <c r="AP180" t="n">
         <v>0</v>
@@ -33965,7 +33965,7 @@
         <v>11.91839723972284</v>
       </c>
       <c r="AT180" t="n">
-        <v>12.61154108696612</v>
+        <v>12.20607764551767</v>
       </c>
       <c r="AU180" t="n">
         <v>0</v>
@@ -33974,10 +33974,10 @@
         <v>5.892302647522444</v>
       </c>
       <c r="AW180" t="n">
-        <v>-1.514787683597045</v>
+        <v>-1.521671450942305</v>
       </c>
       <c r="AX180" t="n">
-        <v>0.6702286212522502</v>
+        <v>0.6692369832428349</v>
       </c>
     </row>
     <row r="181">
@@ -34160,10 +34160,10 @@
         <v>7.227980639846789</v>
       </c>
       <c r="AW181" t="n">
-        <v>0.2091792864781041</v>
+        <v>0.2112236541182977</v>
       </c>
       <c r="AX181" t="n">
-        <v>0.504372621040771</v>
+        <v>0.5041885085190592</v>
       </c>
     </row>
     <row r="182">
@@ -34197,7 +34197,7 @@
         <v>54</v>
       </c>
       <c r="J182" t="n">
-        <v>4.5</v>
+        <v>4.527777777777779</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -34322,10 +34322,10 @@
         <v>0</v>
       </c>
       <c r="AO182" t="n">
-        <v>9.546884034617925</v>
+        <v>9.61587214452889</v>
       </c>
       <c r="AP182" t="n">
-        <v>1.791759469228055</v>
+        <v>2</v>
       </c>
       <c r="AQ182" t="n">
         <v>3.872983346207417</v>
@@ -34337,7 +34337,7 @@
         <v>14.73180168983835</v>
       </c>
       <c r="AT182" t="n">
-        <v>15.20180516908413</v>
+        <v>15.42494867039835</v>
       </c>
       <c r="AU182" t="n">
         <v>2</v>
@@ -34346,10 +34346,10 @@
         <v>6.445163810951589</v>
       </c>
       <c r="AW182" t="n">
-        <v>1.677044085964166</v>
+        <v>1.681735423603955</v>
       </c>
       <c r="AX182" t="n">
-        <v>-0.7213828228015811</v>
+        <v>-0.7333292362617326</v>
       </c>
     </row>
     <row r="183">
@@ -34383,7 +34383,7 @@
         <v>42</v>
       </c>
       <c r="J183" t="n">
-        <v>4.5</v>
+        <v>4.527777777777779</v>
       </c>
       <c r="K183" t="n">
         <v>1</v>
@@ -34505,13 +34505,13 @@
         <v>0.02163194444444444</v>
       </c>
       <c r="AN183" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AO183" t="n">
-        <v>9.546884034617925</v>
+        <v>9.61587214452889</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.791759469228055</v>
+        <v>2</v>
       </c>
       <c r="AQ183" t="n">
         <v>3.464101615137754</v>
@@ -34532,10 +34532,10 @@
         <v>6.444717546176869</v>
       </c>
       <c r="AW183" t="n">
-        <v>1.700191506719004</v>
+        <v>2.063202309617688</v>
       </c>
       <c r="AX183" t="n">
-        <v>-0.07036976609040693</v>
+        <v>-0.07221711407270226</v>
       </c>
     </row>
     <row r="184">
@@ -34555,7 +34555,7 @@
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G184" t="n">
         <v>4</v>
@@ -34569,7 +34569,7 @@
         <v>54</v>
       </c>
       <c r="J184" t="n">
-        <v>4.5</v>
+        <v>4.527777777777779</v>
       </c>
       <c r="K184" t="n">
         <v>2</v>
@@ -34610,7 +34610,7 @@
         <v>20.86709932</v>
       </c>
       <c r="W184" t="n">
-        <v>1.140689230583377</v>
+        <v>1.201059492072679</v>
       </c>
       <c r="X184" t="inlineStr">
         <is>
@@ -34691,7 +34691,7 @@
         <v>0.0271875</v>
       </c>
       <c r="AN184" t="n">
-        <v>1.09861228866811</v>
+        <v>1</v>
       </c>
       <c r="AO184" t="n">
         <v>8.517393171418904</v>
@@ -34718,10 +34718,10 @@
         <v>5.956517085512305</v>
       </c>
       <c r="AW184" t="n">
-        <v>1.675829010745853</v>
+        <v>1.681228525479096</v>
       </c>
       <c r="AX184" t="n">
-        <v>-0.2534468284324597</v>
+        <v>-0.2505431231676873</v>
       </c>
     </row>
     <row r="185">
@@ -34735,7 +34735,7 @@
         <v>-8</v>
       </c>
       <c r="D185" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E185" t="n">
         <v>1</v>
@@ -34755,7 +34755,7 @@
         <v>48</v>
       </c>
       <c r="J185" t="n">
-        <v>4.5</v>
+        <v>4.527777777777779</v>
       </c>
       <c r="K185" t="n">
         <v>1</v>
@@ -34877,7 +34877,7 @@
         <v>0.01380787037037037</v>
       </c>
       <c r="AN185" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AO185" t="n">
         <v>6.621405651764134</v>
@@ -34904,10 +34904,10 @@
         <v>5.968068433756436</v>
       </c>
       <c r="AW185" t="n">
-        <v>-0.02561158170443076</v>
+        <v>-0.02870260760333705</v>
       </c>
       <c r="AX185" t="n">
-        <v>0.4656004911610285</v>
+        <v>0.4592445260669099</v>
       </c>
     </row>
     <row r="186">
@@ -34941,7 +34941,7 @@
         <v>54</v>
       </c>
       <c r="J186" t="n">
-        <v>4.5</v>
+        <v>4.527777777777779</v>
       </c>
       <c r="K186" t="n">
         <v>5</v>
@@ -35063,13 +35063,13 @@
         <v>0.02982638888888889</v>
       </c>
       <c r="AN186" t="n">
-        <v>1.09861228866811</v>
+        <v>2</v>
       </c>
       <c r="AO186" t="n">
         <v>7.313886831633462</v>
       </c>
       <c r="AP186" t="n">
-        <v>1.6094379124341</v>
+        <v>1</v>
       </c>
       <c r="AQ186" t="n">
         <v>4.018381135971201</v>
@@ -35090,10 +35090,10 @@
         <v>6.433856590723794</v>
       </c>
       <c r="AW186" t="n">
-        <v>0.1685456486637325</v>
+        <v>0.1667492023453429</v>
       </c>
       <c r="AX186" t="n">
-        <v>-0.184733738090213</v>
+        <v>-0.1848623277263849</v>
       </c>
     </row>
     <row r="187">
@@ -35127,7 +35127,7 @@
         <v>54</v>
       </c>
       <c r="J187" t="n">
-        <v>4.5</v>
+        <v>4.527777777777779</v>
       </c>
       <c r="K187" t="n">
         <v>5</v>
@@ -35249,13 +35249,13 @@
         <v>0.02261574074074074</v>
       </c>
       <c r="AN187" t="n">
-        <v>1.09861228866811</v>
+        <v>2</v>
       </c>
       <c r="AO187" t="n">
         <v>9.210440366976517</v>
       </c>
       <c r="AP187" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AQ187" t="n">
         <v>4.123105625617661</v>
@@ -35264,7 +35264,7 @@
         <v>0</v>
       </c>
       <c r="AS187" t="n">
-        <v>14.73180168983835</v>
+        <v>14.91412317996566</v>
       </c>
       <c r="AT187" t="n">
         <v>14.91412317996566</v>
@@ -35276,10 +35276,10 @@
         <v>6.445539471603599</v>
       </c>
       <c r="AW187" t="n">
-        <v>1.279947429533716</v>
+        <v>1.283695652547246</v>
       </c>
       <c r="AX187" t="n">
-        <v>0.2716530283460686</v>
+        <v>0.2730005600861266</v>
       </c>
     </row>
     <row r="188">
@@ -35293,7 +35293,7 @@
         <v>-4.5</v>
       </c>
       <c r="D188" t="n">
-        <v>3.5</v>
+        <v>3.29999995231628</v>
       </c>
       <c r="E188" t="n">
         <v>0</v>
@@ -35313,7 +35313,7 @@
         <v>54</v>
       </c>
       <c r="J188" t="n">
-        <v>4.5</v>
+        <v>4.527777777777779</v>
       </c>
       <c r="K188" t="n">
         <v>1</v>
@@ -35435,16 +35435,16 @@
         <v>0.02238425925925926</v>
       </c>
       <c r="AN188" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AO188" t="n">
         <v>8.517393171418904</v>
       </c>
       <c r="AP188" t="n">
-        <v>1.791759469228055</v>
+        <v>2</v>
       </c>
       <c r="AQ188" t="n">
-        <v>4.58257569495584</v>
+        <v>4.795831523312719</v>
       </c>
       <c r="AR188" t="n">
         <v>0</v>
@@ -35462,10 +35462,10 @@
         <v>6.42126708446238</v>
       </c>
       <c r="AW188" t="n">
-        <v>0.8701225974028387</v>
+        <v>0.8730523536885793</v>
       </c>
       <c r="AX188" t="n">
-        <v>0.0148683328278943</v>
+        <v>0.01782065006649802</v>
       </c>
     </row>
     <row r="189">
@@ -35648,15 +35648,15 @@
         <v>8.592184189715674</v>
       </c>
       <c r="AW189" t="n">
-        <v>0.2298269271324216</v>
+        <v>0.2322171861221063</v>
       </c>
       <c r="AX189" t="n">
-        <v>0.09055511604656974</v>
+        <v>0.0906031349932104</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>15.15005013999998</v>
+        <v>15.1634803</v>
       </c>
       <c r="B190" t="n">
         <v>-16.87310879</v>
@@ -35723,7 +35723,7 @@
         <v>6</v>
       </c>
       <c r="V190" t="n">
-        <v>40.233468902</v>
+        <v>41.88672978</v>
       </c>
       <c r="W190" t="n">
         <v>0.3855274567419722</v>
@@ -35825,24 +35825,24 @@
         <v>14.03865490927816</v>
       </c>
       <c r="AT190" t="n">
-        <v>15.20180516908413</v>
+        <v>15.42494867039835</v>
       </c>
       <c r="AU190" t="n">
         <v>0</v>
       </c>
       <c r="AV190" t="n">
-        <v>8.598524847652415</v>
+        <v>8.684797241732245</v>
       </c>
       <c r="AW190" t="n">
-        <v>0.1011608226611364</v>
+        <v>0.1030816889414014</v>
       </c>
       <c r="AX190" t="n">
-        <v>-0.5921883987891028</v>
+        <v>-0.5903017923624575</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>15.15005013999998</v>
+        <v>15.16093718</v>
       </c>
       <c r="B191" t="n">
         <v>-16.87056532</v>
@@ -35909,7 +35909,7 @@
         <v>2</v>
       </c>
       <c r="V191" t="n">
-        <v>40.233468902</v>
+        <v>41.64465431</v>
       </c>
       <c r="W191" t="n">
         <v>-0.549678091117086</v>
@@ -36002,7 +36002,7 @@
         <v>0</v>
       </c>
       <c r="AQ191" t="n">
-        <v>2.645751311064591</v>
+        <v>2.449489742783178</v>
       </c>
       <c r="AR191" t="n">
         <v>0</v>
@@ -36017,13 +36017,13 @@
         <v>0</v>
       </c>
       <c r="AV191" t="n">
-        <v>8.598524847652415</v>
+        <v>8.687377468488405</v>
       </c>
       <c r="AW191" t="n">
-        <v>1.700191506719004</v>
+        <v>1.866138849654006</v>
       </c>
       <c r="AX191" t="n">
-        <v>0.1392101944267451</v>
+        <v>0.1415452691584598</v>
       </c>
     </row>
     <row r="192">
@@ -36031,7 +36031,7 @@
         <v>14.96076783</v>
       </c>
       <c r="B192" t="n">
-        <v>-16.86551899999998</v>
+        <v>-16.79601189</v>
       </c>
       <c r="C192" t="n">
         <v>58.9097900390625</v>
@@ -36179,7 +36179,7 @@
         <v>0.02284722222222222</v>
       </c>
       <c r="AN192" t="n">
-        <v>1.09861228866811</v>
+        <v>1</v>
       </c>
       <c r="AO192" t="n">
         <v>6.68586094706836</v>
@@ -36188,7 +36188,7 @@
         <v>0</v>
       </c>
       <c r="AQ192" t="n">
-        <v>2.645751311064591</v>
+        <v>2.449489742783178</v>
       </c>
       <c r="AR192" t="n">
         <v>0</v>
@@ -36206,10 +36206,10 @@
         <v>8.484303868320607</v>
       </c>
       <c r="AW192" t="n">
-        <v>-1.260275138151146</v>
+        <v>-1.263867665756146</v>
       </c>
       <c r="AX192" t="n">
-        <v>-0.3998102186505861</v>
+        <v>-0.4014514176674399</v>
       </c>
     </row>
     <row r="193">
@@ -36383,7 +36383,7 @@
         <v>14.34613939726156</v>
       </c>
       <c r="AT193" t="n">
-        <v>15.20180516908413</v>
+        <v>15.42494867039835</v>
       </c>
       <c r="AU193" t="n">
         <v>1</v>
@@ -36392,10 +36392,10 @@
         <v>5.934961649412741</v>
       </c>
       <c r="AW193" t="n">
-        <v>-0.3476083868137041</v>
+        <v>-0.3447944031247395</v>
       </c>
       <c r="AX193" t="n">
-        <v>-0.243120486976471</v>
+        <v>-0.2436218696935553</v>
       </c>
     </row>
     <row r="194">
@@ -36578,10 +36578,10 @@
         <v>5.957419688925735</v>
       </c>
       <c r="AW194" t="n">
-        <v>0.7674966260965067</v>
+        <v>0.7707856763336325</v>
       </c>
       <c r="AX194" t="n">
-        <v>-0.4608169637752211</v>
+        <v>-0.4640395639196881</v>
       </c>
     </row>
     <row r="195">
@@ -36764,10 +36764,10 @@
         <v>5.941383915385371</v>
       </c>
       <c r="AW195" t="n">
-        <v>0.2712625980761877</v>
+        <v>0.2740439785367849</v>
       </c>
       <c r="AX195" t="n">
-        <v>-0.1633427407146531</v>
+        <v>-0.1659129114139602</v>
       </c>
     </row>
     <row r="196">
@@ -36926,7 +36926,7 @@
         <v>0</v>
       </c>
       <c r="AO196" t="n">
-        <v>9.546884034617925</v>
+        <v>9.61587214452889</v>
       </c>
       <c r="AP196" t="n">
         <v>0</v>
@@ -36950,10 +36950,10 @@
         <v>5.933155587880703</v>
       </c>
       <c r="AW196" t="n">
-        <v>0.7618036369203983</v>
+        <v>0.7651698344296901</v>
       </c>
       <c r="AX196" t="n">
-        <v>-0.5520363729460998</v>
+        <v>-0.5539244201532599</v>
       </c>
     </row>
     <row r="197">
@@ -37112,7 +37112,7 @@
         <v>0</v>
       </c>
       <c r="AO197" t="n">
-        <v>9.546884034617925</v>
+        <v>9.680406499268875</v>
       </c>
       <c r="AP197" t="n">
         <v>0</v>
@@ -37136,10 +37136,10 @@
         <v>5.922588538806322</v>
       </c>
       <c r="AW197" t="n">
-        <v>1.630455850386316</v>
+        <v>1.629961975862775</v>
       </c>
       <c r="AX197" t="n">
-        <v>-0.1927269078249728</v>
+        <v>-0.1948069456146189</v>
       </c>
     </row>
     <row r="198">
@@ -37304,7 +37304,7 @@
         <v>0</v>
       </c>
       <c r="AQ198" t="n">
-        <v>2.645751311064591</v>
+        <v>2.23606797749979</v>
       </c>
       <c r="AR198" t="n">
         <v>0</v>
@@ -37319,13 +37319,13 @@
         <v>0</v>
       </c>
       <c r="AV198" t="n">
-        <v>5.873368410481751</v>
+        <v>5.808776151651912</v>
       </c>
       <c r="AW198" t="n">
-        <v>0.174480529766701</v>
+        <v>0.1798862408688258</v>
       </c>
       <c r="AX198" t="n">
-        <v>0.3865763200132827</v>
+        <v>0.3885097518558284</v>
       </c>
     </row>
     <row r="199">
@@ -37508,10 +37508,10 @@
         <v>5.92617351754064</v>
       </c>
       <c r="AW199" t="n">
-        <v>1.048002667387265</v>
+        <v>1.046267210300312</v>
       </c>
       <c r="AX199" t="n">
-        <v>0.05090272271528562</v>
+        <v>0.05221964408328639</v>
       </c>
     </row>
     <row r="200">
@@ -37694,10 +37694,10 @@
         <v>5.917543469210852</v>
       </c>
       <c r="AW200" t="n">
-        <v>-0.5310385575405953</v>
+        <v>-0.5333019048082143</v>
       </c>
       <c r="AX200" t="n">
-        <v>-0.2072949097308557</v>
+        <v>-0.2090450149750273</v>
       </c>
     </row>
     <row r="201">
@@ -37711,7 +37711,7 @@
         <v>38.0694580078125</v>
       </c>
       <c r="D201" t="n">
-        <v>24.2719993591308</v>
+        <v>36.4079971313476</v>
       </c>
       <c r="E201" t="n">
         <v>0</v>
@@ -37877,13 +37877,13 @@
         <v>0</v>
       </c>
       <c r="AV201" t="n">
-        <v>5.873368410481751</v>
+        <v>5.794644192700705</v>
       </c>
       <c r="AW201" t="n">
-        <v>-0.7272958705134257</v>
+        <v>-0.7273036529036232</v>
       </c>
       <c r="AX201" t="n">
-        <v>-0.6598568705317135</v>
+        <v>-0.6603117702078438</v>
       </c>
     </row>
     <row r="202">
@@ -37891,7 +37891,7 @@
         <v>14.8628333333333</v>
       </c>
       <c r="B202" t="n">
-        <v>-17.134429198</v>
+        <v>-17.1377033333333</v>
       </c>
       <c r="C202" t="n">
         <v>-4.899999999999999</v>
@@ -38048,7 +38048,7 @@
         <v>0</v>
       </c>
       <c r="AQ202" t="n">
-        <v>2.645751311064591</v>
+        <v>2.23606797749979</v>
       </c>
       <c r="AR202" t="n">
         <v>0</v>
@@ -38063,13 +38063,13 @@
         <v>0</v>
       </c>
       <c r="AV202" t="n">
-        <v>5.873368410481751</v>
+        <v>5.810983066573159</v>
       </c>
       <c r="AW202" t="n">
-        <v>1.526196668610199</v>
+        <v>1.525861326406181</v>
       </c>
       <c r="AX202" t="n">
-        <v>-0.4674221437018141</v>
+        <v>-0.4673515887594135</v>
       </c>
     </row>
     <row r="203">
@@ -38249,13 +38249,13 @@
         <v>0</v>
       </c>
       <c r="AV203" t="n">
-        <v>5.873368410481751</v>
+        <v>5.842254728270584</v>
       </c>
       <c r="AW203" t="n">
-        <v>-0.09408257618036822</v>
+        <v>-0.09794947149156492</v>
       </c>
       <c r="AX203" t="n">
-        <v>-0.7213828228015811</v>
+        <v>-0.8823004866064171</v>
       </c>
     </row>
     <row r="204">
@@ -38292,10 +38292,10 @@
         <v>3.305555555555555</v>
       </c>
       <c r="K204" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L204" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M204" t="n">
         <v>1</v>
@@ -38414,7 +38414,7 @@
         <v>0</v>
       </c>
       <c r="AO204" t="n">
-        <v>5.525452939131783</v>
+        <v>5.303304908059076</v>
       </c>
       <c r="AP204" t="n">
         <v>0</v>
@@ -38426,22 +38426,22 @@
         <v>0</v>
       </c>
       <c r="AS204" t="n">
-        <v>11.69525535506279</v>
+        <v>11.00211650773202</v>
       </c>
       <c r="AT204" t="n">
-        <v>12.61154108696612</v>
+        <v>12.42922019683638</v>
       </c>
       <c r="AU204" t="n">
         <v>0</v>
       </c>
       <c r="AV204" t="n">
-        <v>5.873368410481751</v>
+        <v>5.857434359854151</v>
       </c>
       <c r="AW204" t="n">
-        <v>-0.9258916357132296</v>
+        <v>-0.9348395863463814</v>
       </c>
       <c r="AX204" t="n">
-        <v>-0.5779132672708027</v>
+        <v>-0.5785596389371933</v>
       </c>
     </row>
     <row r="205">
@@ -38612,10 +38612,10 @@
         <v>0</v>
       </c>
       <c r="AS205" t="n">
-        <v>11.69525535506279</v>
+        <v>11.51293546492023</v>
       </c>
       <c r="AT205" t="n">
-        <v>12.61154108696612</v>
+        <v>11.61062303851275</v>
       </c>
       <c r="AU205" t="n">
         <v>0</v>
@@ -38624,10 +38624,10 @@
         <v>5.873951937154406</v>
       </c>
       <c r="AW205" t="n">
-        <v>-1.635047341043556</v>
+        <v>-1.854137172145739</v>
       </c>
       <c r="AX205" t="n">
-        <v>-0.7213828228015811</v>
+        <v>-1.189432580295566</v>
       </c>
     </row>
     <row r="206">
@@ -38798,10 +38798,10 @@
         <v>0</v>
       </c>
       <c r="AS206" t="n">
+        <v>11.28979441357789</v>
+      </c>
+      <c r="AT206" t="n">
         <v>11.69525535506279</v>
-      </c>
-      <c r="AT206" t="n">
-        <v>12.61154108696612</v>
       </c>
       <c r="AU206" t="n">
         <v>0</v>
@@ -38810,10 +38810,10 @@
         <v>5.885385672154374</v>
       </c>
       <c r="AW206" t="n">
-        <v>-0.7790542131505568</v>
+        <v>-0.7869847462197948</v>
       </c>
       <c r="AX206" t="n">
-        <v>-0.5714002585196374</v>
+        <v>-0.571593955549214</v>
       </c>
     </row>
     <row r="207">
@@ -38824,7 +38824,7 @@
         <v>-17.13034</v>
       </c>
       <c r="C207" t="n">
-        <v>-39.48</v>
+        <v>-49.8</v>
       </c>
       <c r="D207" t="n">
         <v>13.6000003814697</v>
@@ -38972,7 +38972,7 @@
         <v>0</v>
       </c>
       <c r="AO207" t="n">
-        <v>5.525452939131783</v>
+        <v>4.61512051684126</v>
       </c>
       <c r="AP207" t="n">
         <v>0</v>
@@ -38984,10 +38984,10 @@
         <v>0</v>
       </c>
       <c r="AS207" t="n">
+        <v>10.53210329527846</v>
+      </c>
+      <c r="AT207" t="n">
         <v>11.69525535506279</v>
-      </c>
-      <c r="AT207" t="n">
-        <v>12.61154108696612</v>
       </c>
       <c r="AU207" t="n">
         <v>0</v>
@@ -38996,10 +38996,10 @@
         <v>5.890138401599745</v>
       </c>
       <c r="AW207" t="n">
-        <v>-1.305031724831234</v>
+        <v>-1.003674913820368</v>
       </c>
       <c r="AX207" t="n">
-        <v>-0.7213828228015811</v>
+        <v>-0.8975513958279805</v>
       </c>
     </row>
     <row r="208">
@@ -39010,7 +39010,7 @@
         <v>-17.1293699999999</v>
       </c>
       <c r="C208" t="n">
-        <v>-39.48</v>
+        <v>-45.2</v>
       </c>
       <c r="D208" t="n">
         <v>7.09999990463256</v>
@@ -39182,10 +39182,10 @@
         <v>5.902315990354973</v>
       </c>
       <c r="AW208" t="n">
-        <v>-0.4902656727678902</v>
+        <v>-0.4961458177248894</v>
       </c>
       <c r="AX208" t="n">
-        <v>-0.7213828228015811</v>
+        <v>-0.8667040811041873</v>
       </c>
     </row>
     <row r="209">
@@ -39368,10 +39368,10 @@
         <v>5.907674422308664</v>
       </c>
       <c r="AW209" t="n">
-        <v>-0.3657210405570097</v>
+        <v>-0.3714126521235327</v>
       </c>
       <c r="AX209" t="n">
-        <v>-0.5435611123246062</v>
+        <v>-0.5453368127336538</v>
       </c>
     </row>
     <row r="210">
@@ -39382,7 +39382,7 @@
         <v>-17.12957</v>
       </c>
       <c r="C210" t="n">
-        <v>-39.48</v>
+        <v>-55.90558166503902</v>
       </c>
       <c r="D210" t="n">
         <v>7.69999980926513</v>
@@ -39542,10 +39542,10 @@
         <v>0</v>
       </c>
       <c r="AS210" t="n">
-        <v>11.69525535506279</v>
+        <v>11.33858398251649</v>
       </c>
       <c r="AT210" t="n">
-        <v>12.61154108696612</v>
+        <v>11.61062303851275</v>
       </c>
       <c r="AU210" t="n">
         <v>0</v>
@@ -39554,10 +39554,10 @@
         <v>5.903308060740181</v>
       </c>
       <c r="AW210" t="n">
-        <v>-1.635047341043556</v>
+        <v>-2.070641904620505</v>
       </c>
       <c r="AX210" t="n">
-        <v>-0.6652132845762513</v>
+        <v>-0.6671334410798323</v>
       </c>
     </row>
     <row r="211">
@@ -39740,10 +39740,10 @@
         <v>5.90613869461258</v>
       </c>
       <c r="AW211" t="n">
-        <v>0.06107554105744938</v>
+        <v>0.05855580153939868</v>
       </c>
       <c r="AX211" t="n">
-        <v>-0.5532926991353135</v>
+        <v>-0.554701237812109</v>
       </c>
     </row>
     <row r="212">
@@ -39926,10 +39926,10 @@
         <v>5.902913351896672</v>
       </c>
       <c r="AW212" t="n">
-        <v>-0.4690835979111015</v>
+        <v>-0.4750199748754048</v>
       </c>
       <c r="AX212" t="n">
-        <v>-0.3196663657173845</v>
+        <v>-0.3202537034329848</v>
       </c>
     </row>
     <row r="213">
@@ -40109,13 +40109,13 @@
         <v>0</v>
       </c>
       <c r="AV213" t="n">
-        <v>5.873368410481751</v>
+        <v>5.872493120472769</v>
       </c>
       <c r="AW213" t="n">
-        <v>-0.5753464621138019</v>
+        <v>-0.5818004755700612</v>
       </c>
       <c r="AX213" t="n">
-        <v>-0.5344649155993904</v>
+        <v>-0.5314974439500908</v>
       </c>
     </row>
     <row r="214">
@@ -40295,13 +40295,13 @@
         <v>0</v>
       </c>
       <c r="AV214" t="n">
-        <v>5.873368410481751</v>
+        <v>5.871639654304409</v>
       </c>
       <c r="AW214" t="n">
-        <v>-0.3212929087427263</v>
+        <v>-0.3222442003060589</v>
       </c>
       <c r="AX214" t="n">
-        <v>-0.4394100399661799</v>
+        <v>-0.4371994469721164</v>
       </c>
     </row>
     <row r="215">
@@ -40460,7 +40460,7 @@
         <v>0</v>
       </c>
       <c r="AO215" t="n">
-        <v>5.525452939131783</v>
+        <v>4.394449154672439</v>
       </c>
       <c r="AP215" t="n">
         <v>0</v>
@@ -40472,7 +40472,7 @@
         <v>0</v>
       </c>
       <c r="AS215" t="n">
-        <v>11.69525535506279</v>
+        <v>11.40757606036179</v>
       </c>
       <c r="AT215" t="n">
         <v>12.61154108696612</v>
@@ -40484,10 +40484,10 @@
         <v>5.905037083710821</v>
       </c>
       <c r="AW215" t="n">
-        <v>-1.635047341043556</v>
+        <v>-2.06184186473313</v>
       </c>
       <c r="AX215" t="n">
-        <v>-0.60092740165465</v>
+        <v>-0.6000148162627693</v>
       </c>
     </row>
     <row r="216">
@@ -40670,10 +40670,10 @@
         <v>5.907117843754262</v>
       </c>
       <c r="AW216" t="n">
-        <v>-1.198793355740135</v>
+        <v>-1.202778639863912</v>
       </c>
       <c r="AX216" t="n">
-        <v>-0.1403982733351085</v>
+        <v>-0.1407167214184122</v>
       </c>
     </row>
     <row r="217">
@@ -40687,7 +40687,7 @@
         <v>27.7694702148437</v>
       </c>
       <c r="D217" t="n">
-        <v>24.2719993591308</v>
+        <v>39.4419975280761</v>
       </c>
       <c r="E217" t="n">
         <v>1</v>
@@ -40832,7 +40832,7 @@
         <v>0</v>
       </c>
       <c r="AO217" t="n">
-        <v>5.525452939131783</v>
+        <v>5.081404364984463</v>
       </c>
       <c r="AP217" t="n">
         <v>0</v>
@@ -40844,7 +40844,7 @@
         <v>0</v>
       </c>
       <c r="AS217" t="n">
-        <v>11.69525535506279</v>
+        <v>11.51293546492023</v>
       </c>
       <c r="AT217" t="n">
         <v>12.61154108696612</v>
@@ -40856,10 +40856,10 @@
         <v>5.905844528939109</v>
       </c>
       <c r="AW217" t="n">
-        <v>-1.635047341043556</v>
+        <v>-1.909895423515679</v>
       </c>
       <c r="AX217" t="n">
-        <v>-0.2754307956447828</v>
+        <v>-0.2762268021974796</v>
       </c>
     </row>
     <row r="218">
@@ -41042,10 +41042,10 @@
         <v>5.90206051138075</v>
       </c>
       <c r="AW218" t="n">
-        <v>-0.3606848799432127</v>
+        <v>-0.3621738850551101</v>
       </c>
       <c r="AX218" t="n">
-        <v>-0.3879066648072109</v>
+        <v>-0.3861654756021008</v>
       </c>
     </row>
     <row r="219">
@@ -41201,7 +41201,7 @@
         <v>0.0225</v>
       </c>
       <c r="AN219" t="n">
-        <v>1.09861228866811</v>
+        <v>1</v>
       </c>
       <c r="AO219" t="n">
         <v>7.937731775260109</v>
@@ -41228,10 +41228,10 @@
         <v>5.91227350686688</v>
       </c>
       <c r="AW219" t="n">
-        <v>-0.3563602450103016</v>
+        <v>-0.3551766759015268</v>
       </c>
       <c r="AX219" t="n">
-        <v>-0.5995181663382925</v>
+        <v>-0.5995438151248547</v>
       </c>
     </row>
     <row r="220">
@@ -41245,7 +41245,7 @@
         <v>6.243408203125</v>
       </c>
       <c r="D220" t="n">
-        <v>24.2719993591308</v>
+        <v>28.8229999542236</v>
       </c>
       <c r="E220" t="n">
         <v>1</v>
@@ -41390,7 +41390,7 @@
         <v>0</v>
       </c>
       <c r="AO220" t="n">
-        <v>5.525452939131783</v>
+        <v>5.017279836814924</v>
       </c>
       <c r="AP220" t="n">
         <v>0</v>
@@ -41414,10 +41414,10 @@
         <v>5.90301231999392</v>
       </c>
       <c r="AW220" t="n">
-        <v>-1.440453199276394</v>
+        <v>-1.443864172673412</v>
       </c>
       <c r="AX220" t="n">
-        <v>-0.2734475032216331</v>
+        <v>-0.2666537583603765</v>
       </c>
     </row>
     <row r="221">
@@ -41425,7 +41425,7 @@
         <v>14.862635</v>
       </c>
       <c r="B221" t="n">
-        <v>-17.134429198</v>
+        <v>-17.137155</v>
       </c>
       <c r="C221" t="n">
         <v>-14.8</v>
@@ -41597,13 +41597,13 @@
         <v>0</v>
       </c>
       <c r="AV221" t="n">
-        <v>5.873368410481751</v>
+        <v>5.814976498662742</v>
       </c>
       <c r="AW221" t="n">
-        <v>-0.2151226933488935</v>
+        <v>-0.2198144544666699</v>
       </c>
       <c r="AX221" t="n">
-        <v>-0.0866183794387041</v>
+        <v>-0.08505027768129847</v>
       </c>
     </row>
     <row r="222">
@@ -41765,7 +41765,7 @@
         <v>5.860786223465865</v>
       </c>
       <c r="AP222" t="n">
-        <v>1.386294361119891</v>
+        <v>1</v>
       </c>
       <c r="AQ222" t="n">
         <v>2.82842712474619</v>
@@ -41786,10 +41786,10 @@
         <v>7.540691911887131</v>
       </c>
       <c r="AW222" t="n">
-        <v>-1.368078384898003</v>
+        <v>-1.372323000504185</v>
       </c>
       <c r="AX222" t="n">
-        <v>0.1358403110858569</v>
+        <v>0.1363905904360923</v>
       </c>
     </row>
     <row r="223">
@@ -41800,7 +41800,7 @@
         <v>-16.90497856</v>
       </c>
       <c r="C223" t="n">
-        <v>62.00671142578121</v>
+        <v>64.9849853515625</v>
       </c>
       <c r="D223" t="n">
         <v>7.58500003814697</v>
@@ -41861,7 +41861,7 @@
         <v>3</v>
       </c>
       <c r="V223" t="n">
-        <v>3.5952978724</v>
+        <v>3.566795585</v>
       </c>
       <c r="W223" t="n">
         <v>0.2759253583923902</v>
@@ -41945,13 +41945,13 @@
         <v>0.02417824074074074</v>
       </c>
       <c r="AN223" t="n">
-        <v>1.09861228866811</v>
+        <v>1</v>
       </c>
       <c r="AO223" t="n">
         <v>5.993961427306569</v>
       </c>
       <c r="AP223" t="n">
-        <v>1.791759469228055</v>
+        <v>2</v>
       </c>
       <c r="AQ223" t="n">
         <v>3.464101615137754</v>
@@ -41972,10 +41972,10 @@
         <v>7.537223831756624</v>
       </c>
       <c r="AW223" t="n">
-        <v>-1.26800308148512</v>
+        <v>-1.271507349597702</v>
       </c>
       <c r="AX223" t="n">
-        <v>-0.4130139502382631</v>
+        <v>-0.4064810542586998</v>
       </c>
     </row>
     <row r="224">
@@ -41986,7 +41986,7 @@
         <v>-16.90544155</v>
       </c>
       <c r="C224" t="n">
-        <v>62.00671142578121</v>
+        <v>71.23028564453119</v>
       </c>
       <c r="D224" t="n">
         <v>9.101999282836911</v>
@@ -42047,7 +42047,7 @@
         <v>3</v>
       </c>
       <c r="V224" t="n">
-        <v>3.5952978724</v>
+        <v>3.536819409</v>
       </c>
       <c r="W224" t="n">
         <v>0.7180974001582613</v>
@@ -42137,7 +42137,7 @@
         <v>5.707110264748875</v>
       </c>
       <c r="AP224" t="n">
-        <v>1.791759469228055</v>
+        <v>2</v>
       </c>
       <c r="AQ224" t="n">
         <v>4.123105625617661</v>
@@ -42158,15 +42158,15 @@
         <v>7.533961071707233</v>
       </c>
       <c r="AW224" t="n">
-        <v>-1.635047341043556</v>
+        <v>-1.790141933901762</v>
       </c>
       <c r="AX224" t="n">
-        <v>-0.01272505001260779</v>
+        <v>-0.01418138794237592</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>14.8142903333333</v>
+        <v>14.813325</v>
       </c>
       <c r="B225" t="n">
         <v>-16.9027333333333</v>
@@ -42192,7 +42192,7 @@
         </is>
       </c>
       <c r="I225" t="n">
-        <v>28.6</v>
+        <v>23</v>
       </c>
       <c r="J225" t="n">
         <v>3.583333333333333</v>
@@ -42233,7 +42233,7 @@
         <v>2</v>
       </c>
       <c r="V225" t="n">
-        <v>3.5952978724</v>
+        <v>3.572730748</v>
       </c>
       <c r="W225" t="n">
         <v>-0.06671599920266792</v>
@@ -42323,7 +42323,7 @@
         <v>7.601402334583733</v>
       </c>
       <c r="AP225" t="n">
-        <v>1.386294361119891</v>
+        <v>1</v>
       </c>
       <c r="AQ225" t="n">
         <v>3.3166247903554</v>
@@ -42344,15 +42344,15 @@
         <v>7.551368771289083</v>
       </c>
       <c r="AW225" t="n">
-        <v>0.3285395129669498</v>
+        <v>0.3280922290866793</v>
       </c>
       <c r="AX225" t="n">
-        <v>-0.1098314433780428</v>
+        <v>-0.1083975583847837</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>14.8142903333333</v>
+        <v>14.8135433333333</v>
       </c>
       <c r="B226" t="n">
         <v>-16.90186</v>
@@ -42509,7 +42509,7 @@
         <v>8.987321812850125</v>
       </c>
       <c r="AP226" t="n">
-        <v>1.791759469228055</v>
+        <v>2</v>
       </c>
       <c r="AQ226" t="n">
         <v>3</v>
@@ -42530,15 +42530,15 @@
         <v>7.557733968591379</v>
       </c>
       <c r="AW226" t="n">
-        <v>0.4846420747891336</v>
+        <v>0.4926593604697498</v>
       </c>
       <c r="AX226" t="n">
-        <v>0.2813436020667155</v>
+        <v>0.2836172283580055</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>14.8142903333333</v>
+        <v>14.8132149999999</v>
       </c>
       <c r="B227" t="n">
         <v>-16.90198</v>
@@ -42564,7 +42564,7 @@
         </is>
       </c>
       <c r="I227" t="n">
-        <v>28.6</v>
+        <v>24</v>
       </c>
       <c r="J227" t="n">
         <v>3.222222222222222</v>
@@ -42716,15 +42716,15 @@
         <v>7.556587266087781</v>
       </c>
       <c r="AW227" t="n">
-        <v>0.03737836718160046</v>
+        <v>0.0347216921524979</v>
       </c>
       <c r="AX227" t="n">
-        <v>-0.5167304248909982</v>
+        <v>-0.5167998643357544</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>14.8142903333333</v>
+        <v>14.81346</v>
       </c>
       <c r="B228" t="n">
         <v>-16.90221</v>
@@ -42756,10 +42756,10 @@
         <v>3.5</v>
       </c>
       <c r="K228" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L228" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M228" t="n">
         <v>0</v>
@@ -42881,7 +42881,7 @@
         <v>7.496097345175956</v>
       </c>
       <c r="AP228" t="n">
-        <v>1.09861228866811</v>
+        <v>1</v>
       </c>
       <c r="AQ228" t="n">
         <v>3.741657386773941</v>
@@ -42902,15 +42902,15 @@
         <v>7.555187466899812</v>
       </c>
       <c r="AW228" t="n">
-        <v>0.08561925215042772</v>
+        <v>0.0832709846282144</v>
       </c>
       <c r="AX228" t="n">
-        <v>-0.5494462090326049</v>
+        <v>-0.5482098252903307</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>14.8142903333333</v>
+        <v>14.8130233333333</v>
       </c>
       <c r="B229" t="n">
         <v>-16.9018166666666</v>
@@ -42925,7 +42925,7 @@
         <v>1</v>
       </c>
       <c r="F229" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G229" t="n">
         <v>3</v>
@@ -43088,15 +43088,15 @@
         <v>7.557565753600825</v>
       </c>
       <c r="AW229" t="n">
-        <v>0.1829446193437326</v>
+        <v>0.1814296700863672</v>
       </c>
       <c r="AX229" t="n">
-        <v>-0.2093388408617333</v>
+        <v>-0.3211454118625446</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>14.8142903333333</v>
+        <v>14.812665</v>
       </c>
       <c r="B230" t="n">
         <v>-16.9016783333333</v>
@@ -43265,7 +43265,7 @@
         <v>12.25486757159303</v>
       </c>
       <c r="AT230" t="n">
-        <v>12.61154108696612</v>
+        <v>12.42922019683638</v>
       </c>
       <c r="AU230" t="n">
         <v>0</v>
@@ -43274,15 +43274,15 @@
         <v>7.558217701945347</v>
       </c>
       <c r="AW230" t="n">
-        <v>-0.9517501987183011</v>
+        <v>-0.9567177451149087</v>
       </c>
       <c r="AX230" t="n">
-        <v>-0.3223881626987991</v>
+        <v>-0.3178640081834958</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>14.8142903333333</v>
+        <v>14.8124283333333</v>
       </c>
       <c r="B231" t="n">
         <v>-16.90164</v>
@@ -43308,7 +43308,7 @@
         </is>
       </c>
       <c r="I231" t="n">
-        <v>28.6</v>
+        <v>22</v>
       </c>
       <c r="J231" t="n">
         <v>3.666666666666667</v>
@@ -43349,7 +43349,7 @@
         <v>2</v>
       </c>
       <c r="V231" t="n">
-        <v>3.5952978724</v>
+        <v>3.586193236</v>
       </c>
       <c r="W231" t="n">
         <v>0.5369866156903546</v>
@@ -43439,7 +43439,7 @@
         <v>7.601402334583733</v>
       </c>
       <c r="AP231" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AQ231" t="n">
         <v>3.464101615137754</v>
@@ -43460,15 +43460,15 @@
         <v>7.558275061811392</v>
       </c>
       <c r="AW231" t="n">
-        <v>0.3285395129669498</v>
+        <v>0.3280922290866793</v>
       </c>
       <c r="AX231" t="n">
-        <v>-0.1529127445859385</v>
+        <v>-0.1476550988556415</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>14.8142903333333</v>
+        <v>14.8125316666666</v>
       </c>
       <c r="B232" t="n">
         <v>-16.901745</v>
@@ -43494,7 +43494,7 @@
         </is>
       </c>
       <c r="I232" t="n">
-        <v>28.6</v>
+        <v>27</v>
       </c>
       <c r="J232" t="n">
         <v>3.527777777777778</v>
@@ -43535,7 +43535,7 @@
         <v>2</v>
       </c>
       <c r="V232" t="n">
-        <v>3.5952978724</v>
+        <v>3.58593775</v>
       </c>
       <c r="W232" t="n">
         <v>-1.153380706010108</v>
@@ -43625,7 +43625,7 @@
         <v>8.294299608857235</v>
       </c>
       <c r="AP232" t="n">
-        <v>1.386294361119891</v>
+        <v>1</v>
       </c>
       <c r="AQ232" t="n">
         <v>3.741657386773941</v>
@@ -43646,21 +43646,21 @@
         <v>7.557626939721224</v>
       </c>
       <c r="AW232" t="n">
-        <v>0.4569064146071741</v>
+        <v>0.4577780445832056</v>
       </c>
       <c r="AX232" t="n">
-        <v>-0.3195798452324994</v>
+        <v>-0.3178244863014926</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>14.8142903333333</v>
+        <v>14.81313606</v>
       </c>
       <c r="B233" t="n">
         <v>-16.90158985</v>
       </c>
       <c r="C233" t="n">
-        <v>62.00671142578121</v>
+        <v>73.84263610839838</v>
       </c>
       <c r="D233" t="n">
         <v>21.2379989624023</v>
@@ -43811,7 +43811,7 @@
         <v>6.216606101084865</v>
       </c>
       <c r="AP233" t="n">
-        <v>1.386294361119891</v>
+        <v>1</v>
       </c>
       <c r="AQ233" t="n">
         <v>3.872983346207417</v>
@@ -43832,15 +43832,15 @@
         <v>7.559268752994565</v>
       </c>
       <c r="AW233" t="n">
-        <v>-0.6625948609664473</v>
+        <v>-0.6659269231897025</v>
       </c>
       <c r="AX233" t="n">
-        <v>-0.4917013176803755</v>
+        <v>-0.4893668377602337</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>14.8142903333333</v>
+        <v>14.81253725</v>
       </c>
       <c r="B234" t="n">
         <v>-16.90177644</v>
@@ -43907,7 +43907,7 @@
         <v>3</v>
       </c>
       <c r="V234" t="n">
-        <v>3.5952978724</v>
+        <v>3.583924767</v>
       </c>
       <c r="W234" t="n">
         <v>-0.06671599920266792</v>
@@ -43997,7 +43997,7 @@
         <v>5.993961427306569</v>
       </c>
       <c r="AP234" t="n">
-        <v>1.791759469228055</v>
+        <v>2</v>
       </c>
       <c r="AQ234" t="n">
         <v>2.82842712474619</v>
@@ -44018,10 +44018,10 @@
         <v>7.557410048422674</v>
       </c>
       <c r="AW234" t="n">
-        <v>-0.8276563075945079</v>
+        <v>-0.8302369162881398</v>
       </c>
       <c r="AX234" t="n">
-        <v>0.5107813937744895</v>
+        <v>0.5146027864031895</v>
       </c>
     </row>
     <row r="235">
@@ -44052,7 +44052,7 @@
         </is>
       </c>
       <c r="I235" t="n">
-        <v>28.6</v>
+        <v>28</v>
       </c>
       <c r="J235" t="n">
         <v>3.138888888888889</v>
@@ -44204,10 +44204,10 @@
         <v>8.515781365793746</v>
       </c>
       <c r="AW235" t="n">
-        <v>-1.635047341043556</v>
+        <v>-1.692499413702239</v>
       </c>
       <c r="AX235" t="n">
-        <v>-0.3592324515126005</v>
+        <v>-0.3601612737177467</v>
       </c>
     </row>
     <row r="236">
@@ -44241,7 +44241,7 @@
         <v>42</v>
       </c>
       <c r="J236" t="n">
-        <v>3</v>
+        <v>2.972222222222222</v>
       </c>
       <c r="K236" t="n">
         <v>8</v>
@@ -44369,7 +44369,7 @@
         <v>7.313886831633462</v>
       </c>
       <c r="AP236" t="n">
-        <v>1.09861228866811</v>
+        <v>1</v>
       </c>
       <c r="AQ236" t="n">
         <v>3.464101615137754</v>
@@ -44390,10 +44390,10 @@
         <v>8.51195046625625</v>
       </c>
       <c r="AW236" t="n">
-        <v>0.2576860145940749</v>
+        <v>0.2604131613872676</v>
       </c>
       <c r="AX236" t="n">
-        <v>-0.3513678944095948</v>
+        <v>-0.3525060191336171</v>
       </c>
     </row>
     <row r="237">
@@ -44407,7 +44407,7 @@
         <v>-20.06704711914063</v>
       </c>
       <c r="D237" t="n">
-        <v>24.2719993591308</v>
+        <v>30.3400001525878</v>
       </c>
       <c r="E237" t="n">
         <v>1</v>
@@ -44555,7 +44555,7 @@
         <v>7.824445930877619</v>
       </c>
       <c r="AP237" t="n">
-        <v>1.791759469228055</v>
+        <v>2</v>
       </c>
       <c r="AQ237" t="n">
         <v>2.82842712474619</v>
@@ -44576,10 +44576,10 @@
         <v>8.51854714079813</v>
       </c>
       <c r="AW237" t="n">
-        <v>-0.1709627135405784</v>
+        <v>-0.1707297513814001</v>
       </c>
       <c r="AX237" t="n">
-        <v>-0.5441747811526669</v>
+        <v>-0.6018152071201882</v>
       </c>
     </row>
     <row r="238">
@@ -44741,7 +44741,7 @@
         <v>9.04793908261736</v>
       </c>
       <c r="AP238" t="n">
-        <v>1.791759469228055</v>
+        <v>2</v>
       </c>
       <c r="AQ238" t="n">
         <v>3</v>
@@ -44762,10 +44762,10 @@
         <v>8.515055464881012</v>
       </c>
       <c r="AW238" t="n">
-        <v>0.2450353288804886</v>
+        <v>0.2485791581639097</v>
       </c>
       <c r="AX238" t="n">
-        <v>-0.5352257267358131</v>
+        <v>-0.5368974633426508</v>
       </c>
     </row>
     <row r="239">
@@ -44776,7 +44776,7 @@
         <v>-16.8918583333333</v>
       </c>
       <c r="C239" t="n">
-        <v>-39.48</v>
+        <v>-55.90558166503902</v>
       </c>
       <c r="D239" t="n">
         <v>3.59999990463256</v>
@@ -44799,7 +44799,7 @@
         <v>41</v>
       </c>
       <c r="J239" t="n">
-        <v>4.5</v>
+        <v>4.527777777777779</v>
       </c>
       <c r="K239" t="n">
         <v>1</v>
@@ -44930,7 +44930,7 @@
         <v>0</v>
       </c>
       <c r="AQ239" t="n">
-        <v>4.58257569495584</v>
+        <v>5.182458365518542</v>
       </c>
       <c r="AR239" t="n">
         <v>0</v>
@@ -44939,7 +44939,7 @@
         <v>12.20607764551767</v>
       </c>
       <c r="AT239" t="n">
-        <v>12.61154108696612</v>
+        <v>12.20607764551767</v>
       </c>
       <c r="AU239" t="n">
         <v>1</v>
@@ -44948,10 +44948,10 @@
         <v>8.516988786537176</v>
       </c>
       <c r="AW239" t="n">
-        <v>-0.2151226933488935</v>
+        <v>-0.2198144544666699</v>
       </c>
       <c r="AX239" t="n">
-        <v>-0.5687154181340257</v>
+        <v>-0.571444131875813</v>
       </c>
     </row>
     <row r="240">
@@ -45134,10 +45134,10 @@
         <v>8.517707701019095</v>
       </c>
       <c r="AW240" t="n">
-        <v>-0.2222813020475697</v>
+        <v>-0.22198717868563</v>
       </c>
       <c r="AX240" t="n">
-        <v>-0.4270092881546063</v>
+        <v>-0.4290413971955533</v>
       </c>
     </row>
     <row r="241">
@@ -45320,10 +45320,10 @@
         <v>8.519982681907281</v>
       </c>
       <c r="AW241" t="n">
-        <v>0.521285558479934</v>
+        <v>0.5208985248856927</v>
       </c>
       <c r="AX241" t="n">
-        <v>0.05830295073250176</v>
+        <v>0.05952972650364172</v>
       </c>
     </row>
     <row r="242">
@@ -45482,10 +45482,10 @@
         <v>0</v>
       </c>
       <c r="AO242" t="n">
-        <v>9.546884034617925</v>
+        <v>9.741027444837728</v>
       </c>
       <c r="AP242" t="n">
-        <v>1.791759469228055</v>
+        <v>2</v>
       </c>
       <c r="AQ242" t="n">
         <v>2.82842712474619</v>
@@ -45506,10 +45506,10 @@
         <v>8.514592151712259</v>
       </c>
       <c r="AW242" t="n">
-        <v>0.1576548255421045</v>
+        <v>0.1607534710248171</v>
       </c>
       <c r="AX242" t="n">
-        <v>-0.05881833282863606</v>
+        <v>-0.05580456382312247</v>
       </c>
     </row>
     <row r="243">
@@ -45543,7 +45543,7 @@
         <v>37</v>
       </c>
       <c r="J243" t="n">
-        <v>3</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="K243" t="n">
         <v>5</v>
@@ -45671,7 +45671,7 @@
         <v>6.68586094706836</v>
       </c>
       <c r="AP243" t="n">
-        <v>1.791759469228055</v>
+        <v>2</v>
       </c>
       <c r="AQ243" t="n">
         <v>3.464101615137754</v>
@@ -45692,10 +45692,10 @@
         <v>8.56037564713138</v>
       </c>
       <c r="AW243" t="n">
-        <v>-0.126227183716819</v>
+        <v>-0.1274368767615396</v>
       </c>
       <c r="AX243" t="n">
-        <v>-0.01799994723703713</v>
+        <v>-0.01539187738176052</v>
       </c>
     </row>
     <row r="244">
@@ -45878,15 +45878,15 @@
         <v>8.56463045729353</v>
       </c>
       <c r="AW244" t="n">
-        <v>0.2781871663736063</v>
+        <v>0.2815353653313599</v>
       </c>
       <c r="AX244" t="n">
-        <v>-0.3362073711109992</v>
+        <v>-0.3387487705378909</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>15.15005013999998</v>
+        <v>15.15017285</v>
       </c>
       <c r="B245" t="n">
         <v>-16.88441244</v>
@@ -45953,7 +45953,7 @@
         <v>2</v>
       </c>
       <c r="V245" t="n">
-        <v>40.233468902</v>
+        <v>40.26887279</v>
       </c>
       <c r="W245" t="n">
         <v>0.5973568771796568</v>
@@ -46037,7 +46037,7 @@
         <v>0.01903935185185185</v>
       </c>
       <c r="AN245" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AO245" t="n">
         <v>7.824445930877619</v>
@@ -46064,15 +46064,15 @@
         <v>8.576887867402721</v>
       </c>
       <c r="AW245" t="n">
-        <v>-0.1217886757789745</v>
+        <v>-0.1214310180186115</v>
       </c>
       <c r="AX245" t="n">
-        <v>-0.4201330145317643</v>
+        <v>-0.4193394656328523</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>15.15005013999998</v>
+        <v>15.16211179</v>
       </c>
       <c r="B246" t="n">
         <v>-16.87008532</v>
@@ -46087,7 +46087,7 @@
         <v>1</v>
       </c>
       <c r="F246" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G246" t="n">
         <v>99</v>
@@ -46139,10 +46139,10 @@
         <v>2</v>
       </c>
       <c r="V246" t="n">
-        <v>40.233468902</v>
+        <v>41.78129341</v>
       </c>
       <c r="W246" t="n">
-        <v>-1.561422336398522</v>
+        <v>-1.696713059413829</v>
       </c>
       <c r="X246" t="inlineStr">
         <is>
@@ -46229,7 +46229,7 @@
         <v>8.160803920954665</v>
       </c>
       <c r="AP246" t="n">
-        <v>1.791759469228055</v>
+        <v>2</v>
       </c>
       <c r="AQ246" t="n">
         <v>4.242640687119285</v>
@@ -46247,18 +46247,18 @@
         <v>0</v>
       </c>
       <c r="AV246" t="n">
-        <v>8.598524847652415</v>
+        <v>8.694290082577185</v>
       </c>
       <c r="AW246" t="n">
-        <v>0.8452821916301284</v>
+        <v>0.8488400644944608</v>
       </c>
       <c r="AX246" t="n">
-        <v>-0.7213828228015811</v>
+        <v>-1.177456851255136</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>15.15005013999998</v>
+        <v>15.1518332</v>
       </c>
       <c r="B247" t="n">
         <v>-16.88521658</v>
@@ -46284,7 +46284,7 @@
         </is>
       </c>
       <c r="I247" t="n">
-        <v>28.6</v>
+        <v>28</v>
       </c>
       <c r="J247" t="n">
         <v>3.75</v>
@@ -46325,7 +46325,7 @@
         <v>2</v>
       </c>
       <c r="V247" t="n">
-        <v>40.233468902</v>
+        <v>40.44295178</v>
       </c>
       <c r="W247" t="n">
         <v>-1.274121228988713</v>
@@ -46436,10 +46436,10 @@
         <v>8.579413933946769</v>
       </c>
       <c r="AW247" t="n">
-        <v>0.4569064146071741</v>
+        <v>0.4577780445832056</v>
       </c>
       <c r="AX247" t="n">
-        <v>-0.4055579729595469</v>
+        <v>-0.4072175840158583</v>
       </c>
     </row>
     <row r="248">
@@ -46450,7 +46450,7 @@
         <v>-16.8846266666666</v>
       </c>
       <c r="C248" t="n">
-        <v>62.00671142578121</v>
+        <v>73.84263610839838</v>
       </c>
       <c r="D248" t="n">
         <v>13.1999998092651</v>
@@ -46622,15 +46622,15 @@
         <v>8.549283812109644</v>
       </c>
       <c r="AW248" t="n">
-        <v>0.1243001862994473</v>
+        <v>0.1223350340965092</v>
       </c>
       <c r="AX248" t="n">
-        <v>0.2581975802579112</v>
+        <v>0.2573202084233881</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>15.15005013999998</v>
+        <v>15.1629133333333</v>
       </c>
       <c r="B249" t="n">
         <v>-16.8718366666666</v>
@@ -46697,7 +46697,7 @@
         <v>2</v>
       </c>
       <c r="V249" t="n">
-        <v>40.233468902</v>
+        <v>41.84299786</v>
       </c>
       <c r="W249" t="n">
         <v>0.07498817808482333</v>
@@ -46805,18 +46805,18 @@
         <v>0</v>
       </c>
       <c r="AV249" t="n">
-        <v>8.598524847652415</v>
+        <v>8.688817566274482</v>
       </c>
       <c r="AW249" t="n">
-        <v>0.5131587006848075</v>
+        <v>0.5145039582736228</v>
       </c>
       <c r="AX249" t="n">
-        <v>-0.6069840964264581</v>
+        <v>-0.607310642471836</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>15.15005013999998</v>
+        <v>15.1627183333333</v>
       </c>
       <c r="B250" t="n">
         <v>-16.87083</v>
@@ -46883,7 +46883,7 @@
         <v>2</v>
       </c>
       <c r="V250" t="n">
-        <v>40.233468902</v>
+        <v>41.83666487</v>
       </c>
       <c r="W250" t="n">
         <v>0.8388379231368659</v>
@@ -46991,18 +46991,18 @@
         <v>0</v>
       </c>
       <c r="AV250" t="n">
-        <v>8.598524847652415</v>
+        <v>8.692993022544076</v>
       </c>
       <c r="AW250" t="n">
-        <v>1.508970607773424</v>
+        <v>1.508868700688042</v>
       </c>
       <c r="AX250" t="n">
-        <v>-0.1984690065540311</v>
+        <v>-0.1980948204602053</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>15.15005013999998</v>
+        <v>15.1630166666666</v>
       </c>
       <c r="B251" t="n">
         <v>-16.8706033333333</v>
@@ -47069,7 +47069,7 @@
         <v>2</v>
       </c>
       <c r="V251" t="n">
-        <v>40.233468902</v>
+        <v>41.87294907</v>
       </c>
       <c r="W251" t="n">
         <v>-0.4289375681384815</v>
@@ -47177,18 +47177,18 @@
         <v>0</v>
       </c>
       <c r="AV251" t="n">
-        <v>8.598524847652415</v>
+        <v>8.69526351642088</v>
       </c>
       <c r="AW251" t="n">
-        <v>0.1243001862994473</v>
+        <v>0.1223350340965092</v>
       </c>
       <c r="AX251" t="n">
-        <v>-0.5292468507275901</v>
+        <v>-0.5289381181042584</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>15.15005013999998</v>
+        <v>15.16188</v>
       </c>
       <c r="B252" t="n">
         <v>-16.8706166666666</v>
@@ -47255,7 +47255,7 @@
         <v>2</v>
       </c>
       <c r="V252" t="n">
-        <v>40.233468902</v>
+        <v>41.74763604</v>
       </c>
       <c r="W252" t="n">
         <v>-0.9118996600528995</v>
@@ -47363,18 +47363,18 @@
         <v>0</v>
       </c>
       <c r="AV252" t="n">
-        <v>8.598524847652415</v>
+        <v>8.6907831223659</v>
       </c>
       <c r="AW252" t="n">
-        <v>0.6222681626616865</v>
+        <v>0.625143411539295</v>
       </c>
       <c r="AX252" t="n">
-        <v>0.5010603137473211</v>
+        <v>0.5019756016971142</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>15.15005013999998</v>
+        <v>15.1554383333333</v>
       </c>
       <c r="B253" t="n">
         <v>-16.8831066666666</v>
@@ -47441,7 +47441,7 @@
         <v>2</v>
       </c>
       <c r="V253" t="n">
-        <v>40.233468902</v>
+        <v>40.8663476</v>
       </c>
       <c r="W253" t="n">
         <v>-0.549678091117086</v>
@@ -47549,18 +47549,18 @@
         <v>0</v>
       </c>
       <c r="AV253" t="n">
-        <v>8.598524847652415</v>
+        <v>8.604067384092247</v>
       </c>
       <c r="AW253" t="n">
-        <v>0.1243001862994473</v>
+        <v>0.1223350340965092</v>
       </c>
       <c r="AX253" t="n">
-        <v>0.4095840417752942</v>
+        <v>0.4125697396638515</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>15.15005013999998</v>
+        <v>15.16313163</v>
       </c>
       <c r="B254" t="n">
         <v>-16.87150831</v>
@@ -47627,7 +47627,7 @@
         <v>2</v>
       </c>
       <c r="V254" t="n">
-        <v>40.233468902</v>
+        <v>41.87193949</v>
       </c>
       <c r="W254" t="n">
         <v>0.1143947852652388</v>
@@ -47717,7 +47717,7 @@
         <v>7.313886831633462</v>
       </c>
       <c r="AP254" t="n">
-        <v>1.791759469228055</v>
+        <v>2</v>
       </c>
       <c r="AQ254" t="n">
         <v>3</v>
@@ -47735,18 +47735,18 @@
         <v>0</v>
       </c>
       <c r="AV254" t="n">
-        <v>8.598524847652415</v>
+        <v>8.691276436749668</v>
       </c>
       <c r="AW254" t="n">
-        <v>-0.02476586554107721</v>
+        <v>-0.02398166959501023</v>
       </c>
       <c r="AX254" t="n">
-        <v>-0.507951056126009</v>
+        <v>-0.5075305101100561</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>15.15005013999998</v>
+        <v>15.16351519</v>
       </c>
       <c r="B255" t="n">
         <v>-16.8706284</v>
@@ -47755,7 +47755,7 @@
         <v>14.3340454101562</v>
       </c>
       <c r="D255" t="n">
-        <v>24.2719993591308</v>
+        <v>27.3059997558593</v>
       </c>
       <c r="E255" t="n">
         <v>1</v>
@@ -47813,7 +47813,7 @@
         <v>2</v>
       </c>
       <c r="V255" t="n">
-        <v>40.233468902</v>
+        <v>41.92744139</v>
       </c>
       <c r="W255" t="n">
         <v>0.3307264075671812</v>
@@ -47921,13 +47921,13 @@
         <v>0</v>
       </c>
       <c r="AV255" t="n">
-        <v>8.598524847652415</v>
+        <v>8.697078798079271</v>
       </c>
       <c r="AW255" t="n">
-        <v>-0.282132065593342</v>
+        <v>-0.2829470531670649</v>
       </c>
       <c r="AX255" t="n">
-        <v>0.2010724220399154</v>
+        <v>0.2020488853571296</v>
       </c>
     </row>
     <row r="256">
@@ -47935,7 +47935,7 @@
         <v>15.1268</v>
       </c>
       <c r="B256" t="n">
-        <v>-16.86551899999998</v>
+        <v>-16.86529</v>
       </c>
       <c r="C256" t="n">
         <v>61.7</v>
@@ -48110,10 +48110,10 @@
         <v>8.584750994059176</v>
       </c>
       <c r="AW256" t="n">
-        <v>0.2289399190012408</v>
+        <v>0.2280960327955515</v>
       </c>
       <c r="AX256" t="n">
-        <v>-0.1812185871450158</v>
+        <v>-0.1808612303238922</v>
       </c>
     </row>
     <row r="257">
@@ -48121,7 +48121,7 @@
         <v>15.1275516666666</v>
       </c>
       <c r="B257" t="n">
-        <v>-16.86551899999998</v>
+        <v>-16.8646516666666</v>
       </c>
       <c r="C257" t="n">
         <v>17.6</v>
@@ -48133,7 +48133,7 @@
         <v>1</v>
       </c>
       <c r="F257" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G257" t="n">
         <v>99</v>
@@ -48188,7 +48188,7 @@
         <v>38.07859931</v>
       </c>
       <c r="W257" t="n">
-        <v>1.140689230583377</v>
+        <v>1.382170276540586</v>
       </c>
       <c r="X257" t="inlineStr">
         <is>
@@ -48296,10 +48296,10 @@
         <v>8.590800737416741</v>
       </c>
       <c r="AW257" t="n">
-        <v>0.6524446519792152</v>
+        <v>0.6521978093359266</v>
       </c>
       <c r="AX257" t="n">
-        <v>-0.03220598707192669</v>
+        <v>-0.03218369947605149</v>
       </c>
     </row>
     <row r="258">
@@ -48307,7 +48307,7 @@
         <v>15.1279433333333</v>
       </c>
       <c r="B258" t="n">
-        <v>-16.86551899999998</v>
+        <v>-16.8644383333333</v>
       </c>
       <c r="C258" t="n">
         <v>-8.1</v>
@@ -48482,10 +48482,10 @@
         <v>8.593339267711942</v>
       </c>
       <c r="AW258" t="n">
-        <v>0.5403557456152196</v>
+        <v>0.5424564546857027</v>
       </c>
       <c r="AX258" t="n">
-        <v>0.4420812326600203</v>
+        <v>0.4448905543066902</v>
       </c>
     </row>
     <row r="259">
@@ -48493,7 +48493,7 @@
         <v>15.1286449999999</v>
       </c>
       <c r="B259" t="n">
-        <v>-16.86551899999998</v>
+        <v>-16.8642883333333</v>
       </c>
       <c r="C259" t="n">
         <v>-7.6</v>
@@ -48668,10 +48668,10 @@
         <v>8.596695248175312</v>
       </c>
       <c r="AW259" t="n">
-        <v>1.700191506719004</v>
+        <v>1.866138849654006</v>
       </c>
       <c r="AX259" t="n">
-        <v>-0.5054395872141672</v>
+        <v>-0.5031850583966416</v>
       </c>
     </row>
     <row r="260">
@@ -48679,7 +48679,7 @@
         <v>15.12882317</v>
       </c>
       <c r="B260" t="n">
-        <v>-16.86551899999998</v>
+        <v>-16.86380546</v>
       </c>
       <c r="C260" t="n">
         <v>21.4237670898437</v>
@@ -48851,13 +48851,13 @@
         <v>1</v>
       </c>
       <c r="AV260" t="n">
-        <v>8.598524847652415</v>
+        <v>8.599828411660317</v>
       </c>
       <c r="AW260" t="n">
-        <v>0.8634683585626816</v>
+        <v>0.866060995932133</v>
       </c>
       <c r="AX260" t="n">
-        <v>-0.6435206509096323</v>
+        <v>-0.6420107325178129</v>
       </c>
     </row>
     <row r="261">
@@ -48865,13 +48865,13 @@
         <v>15.12909453</v>
       </c>
       <c r="B261" t="n">
-        <v>-16.86551899999998</v>
+        <v>-16.86431494</v>
       </c>
       <c r="C261" t="n">
         <v>32.9801635742187</v>
       </c>
       <c r="D261" t="n">
-        <v>24.2719993591308</v>
+        <v>30.3400001525878</v>
       </c>
       <c r="E261" t="n">
         <v>0</v>
@@ -49040,10 +49040,10 @@
         <v>8.598216838973068</v>
       </c>
       <c r="AW261" t="n">
-        <v>-0.1210444117480329</v>
+        <v>-0.1207953499453282</v>
       </c>
       <c r="AX261" t="n">
-        <v>-0.2476308394162443</v>
+        <v>-0.2461398431963183</v>
       </c>
     </row>
     <row r="262">
@@ -49063,7 +49063,7 @@
         <v>1</v>
       </c>
       <c r="F262" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G262" t="n">
         <v>99</v>
@@ -49226,10 +49226,10 @@
         <v>8.581616165967807</v>
       </c>
       <c r="AW262" t="n">
-        <v>-0.2023519118466726</v>
+        <v>-0.2049150057822545</v>
       </c>
       <c r="AX262" t="n">
-        <v>-0.7213828228015811</v>
+        <v>-0.7784691231723301</v>
       </c>
     </row>
     <row r="263">
@@ -49237,7 +49237,7 @@
         <v>15.13053538</v>
       </c>
       <c r="B263" t="n">
-        <v>-16.86551899999998</v>
+        <v>-16.86520443</v>
       </c>
       <c r="C263" t="n">
         <v>23.2001953125</v>
@@ -49409,13 +49409,13 @@
         <v>0</v>
       </c>
       <c r="AV263" t="n">
-        <v>8.598524847652415</v>
+        <v>8.598986860671436</v>
       </c>
       <c r="AW263" t="n">
-        <v>-1.480611892609824</v>
+        <v>-1.485801630336926</v>
       </c>
       <c r="AX263" t="n">
-        <v>-0.1594580759877843</v>
+        <v>-0.1579545754168839</v>
       </c>
     </row>
     <row r="264">
@@ -49598,10 +49598,10 @@
         <v>5.963083010490463</v>
       </c>
       <c r="AW264" t="n">
-        <v>-1.362131916230668</v>
+        <v>-1.367794998109114</v>
       </c>
       <c r="AX264" t="n">
-        <v>0.6111334131225173</v>
+        <v>0.6165415765651445</v>
       </c>
     </row>
     <row r="265">
@@ -49760,7 +49760,7 @@
         <v>0</v>
       </c>
       <c r="AO265" t="n">
-        <v>5.525452939131783</v>
+        <v>5.017279836814924</v>
       </c>
       <c r="AP265" t="n">
         <v>0</v>
@@ -49772,10 +49772,10 @@
         <v>0</v>
       </c>
       <c r="AS265" t="n">
-        <v>11.69525535506279</v>
+        <v>11.51293546492023</v>
       </c>
       <c r="AT265" t="n">
-        <v>12.61154108696612</v>
+        <v>12.20607764551767</v>
       </c>
       <c r="AU265" t="n">
         <v>0</v>
@@ -49784,10 +49784,10 @@
         <v>5.965113527000136</v>
       </c>
       <c r="AW265" t="n">
-        <v>-1.635047341043556</v>
+        <v>-1.882274197524764</v>
       </c>
       <c r="AX265" t="n">
-        <v>0.1052518405793548</v>
+        <v>0.1060129350423443</v>
       </c>
     </row>
     <row r="266">
@@ -49818,7 +49818,7 @@
         </is>
       </c>
       <c r="I266" t="n">
-        <v>28.6</v>
+        <v>27</v>
       </c>
       <c r="J266" t="n">
         <v>3.444444444444445</v>
@@ -49946,7 +49946,7 @@
         <v>0</v>
       </c>
       <c r="AO266" t="n">
-        <v>5.525452939131783</v>
+        <v>4.795790545596741</v>
       </c>
       <c r="AP266" t="n">
         <v>0</v>
@@ -49970,10 +49970,10 @@
         <v>5.962932550348025</v>
       </c>
       <c r="AW266" t="n">
-        <v>-1.635047341043556</v>
+        <v>-1.843977437353766</v>
       </c>
       <c r="AX266" t="n">
-        <v>-0.7128468148837869</v>
+        <v>-0.7154366403143443</v>
       </c>
     </row>
     <row r="267">
@@ -50156,10 +50156,10 @@
         <v>5.976516622582087</v>
       </c>
       <c r="AW267" t="n">
-        <v>0.4557912184505722</v>
+        <v>0.4563041194251137</v>
       </c>
       <c r="AX267" t="n">
-        <v>-0.2799193510140399</v>
+        <v>-0.281323304756434</v>
       </c>
     </row>
     <row r="268">
@@ -50342,10 +50342,10 @@
         <v>5.979147404939939</v>
       </c>
       <c r="AW268" t="n">
-        <v>-0.02060980017297021</v>
+        <v>-0.02365189618341888</v>
       </c>
       <c r="AX268" t="n">
-        <v>-0.2191192814647603</v>
+        <v>-0.2201015315273616</v>
       </c>
     </row>
     <row r="269">
@@ -50376,7 +50376,7 @@
         </is>
       </c>
       <c r="I269" t="n">
-        <v>28.6</v>
+        <v>28</v>
       </c>
       <c r="J269" t="n">
         <v>3.722222222222222</v>
@@ -50528,10 +50528,10 @@
         <v>5.982791260774523</v>
       </c>
       <c r="AW269" t="n">
-        <v>0.2854311669817337</v>
+        <v>0.2857063081591186</v>
       </c>
       <c r="AX269" t="n">
-        <v>-0.7213828228015811</v>
+        <v>-1.222227390302668</v>
       </c>
     </row>
     <row r="270">
@@ -50714,10 +50714,10 @@
         <v>5.985135473821791</v>
       </c>
       <c r="AW270" t="n">
-        <v>-0.1670486640591172</v>
+        <v>-0.171111566844022</v>
       </c>
       <c r="AX270" t="n">
-        <v>-0.4664676450664941</v>
+        <v>-0.4677838043247811</v>
       </c>
     </row>
     <row r="271">
@@ -50900,10 +50900,10 @@
         <v>5.987068406156723</v>
       </c>
       <c r="AW271" t="n">
-        <v>0.1243001862994473</v>
+        <v>0.1223350340965092</v>
       </c>
       <c r="AX271" t="n">
-        <v>-0.229035578237732</v>
+        <v>-0.2292586838540502</v>
       </c>
     </row>
     <row r="272">
@@ -51086,10 +51086,10 @@
         <v>5.989835410927416</v>
       </c>
       <c r="AW272" t="n">
-        <v>-0.9879575828589522</v>
+        <v>-0.9933827107507072</v>
       </c>
       <c r="AX272" t="n">
-        <v>-0.7213828228015811</v>
+        <v>-0.7670651642653835</v>
       </c>
     </row>
     <row r="273">
@@ -51254,7 +51254,7 @@
         <v>0</v>
       </c>
       <c r="AQ273" t="n">
-        <v>2.645751311064591</v>
+        <v>2.23606797749979</v>
       </c>
       <c r="AR273" t="n">
         <v>0</v>
@@ -51272,10 +51272,10 @@
         <v>5.991331499758631</v>
       </c>
       <c r="AW273" t="n">
-        <v>0.1361646287429549</v>
+        <v>0.1341874919434905</v>
       </c>
       <c r="AX273" t="n">
-        <v>-0.6817963967060002</v>
+        <v>-0.6837796317251758</v>
       </c>
     </row>
     <row r="274">
@@ -51458,10 +51458,10 @@
         <v>5.995066932070067</v>
       </c>
       <c r="AW274" t="n">
-        <v>-0.1124479673161441</v>
+        <v>-0.1161725873389513</v>
       </c>
       <c r="AX274" t="n">
-        <v>-0.1365593516552327</v>
+        <v>-0.135143881081154</v>
       </c>
     </row>
     <row r="275">
@@ -51635,7 +51635,7 @@
         <v>11.84940484442307</v>
       </c>
       <c r="AT275" t="n">
-        <v>12.61154108696612</v>
+        <v>12.38839836898211</v>
       </c>
       <c r="AU275" t="n">
         <v>0</v>
@@ -51644,10 +51644,10 @@
         <v>5.993577344958518</v>
       </c>
       <c r="AW275" t="n">
-        <v>-1.421955836979065</v>
+        <v>-1.428431710980876</v>
       </c>
       <c r="AX275" t="n">
-        <v>-0.7213828228015811</v>
+        <v>-0.8131328263705954</v>
       </c>
     </row>
     <row r="276">
@@ -51830,10 +51830,10 @@
         <v>6.0015254569151</v>
       </c>
       <c r="AW276" t="n">
-        <v>0.4681782747439766</v>
+        <v>0.4673681685982166</v>
       </c>
       <c r="AX276" t="n">
-        <v>-0.4427673843732481</v>
+        <v>-0.4415777026469471</v>
       </c>
     </row>
     <row r="277">
@@ -52016,10 +52016,10 @@
         <v>5.99553536141686</v>
       </c>
       <c r="AW277" t="n">
-        <v>-0.02060980017297021</v>
+        <v>-0.02365189618341888</v>
       </c>
       <c r="AX277" t="n">
-        <v>-0.5534415088675492</v>
+        <v>-0.5554087482476778</v>
       </c>
     </row>
     <row r="278">
@@ -52202,10 +52202,10 @@
         <v>5.977799255578929</v>
       </c>
       <c r="AW278" t="n">
-        <v>-0.1793140928698478</v>
+        <v>-0.1797045520830977</v>
       </c>
       <c r="AX278" t="n">
-        <v>-0.295711876639985</v>
+        <v>-0.295338425382758</v>
       </c>
     </row>
     <row r="279">
@@ -52388,10 +52388,10 @@
         <v>5.977037711943936</v>
       </c>
       <c r="AW279" t="n">
-        <v>0.3136702918539308</v>
+        <v>0.3134642568865421</v>
       </c>
       <c r="AX279" t="n">
-        <v>-0.1848882643641053</v>
+        <v>-0.1841949382010443</v>
       </c>
     </row>
     <row r="280">
@@ -52574,10 +52574,10 @@
         <v>5.984928416447435</v>
       </c>
       <c r="AW280" t="n">
-        <v>0.04460402116779992</v>
+        <v>0.04367454155938735</v>
       </c>
       <c r="AX280" t="n">
-        <v>-0.4588010395031096</v>
+        <v>-0.458980252244345</v>
       </c>
     </row>
     <row r="281">
@@ -52614,10 +52614,10 @@
         <v>3.555555555555555</v>
       </c>
       <c r="K281" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L281" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M281" t="n">
         <v>1</v>
@@ -52760,10 +52760,10 @@
         <v>5.985183633774322</v>
       </c>
       <c r="AW281" t="n">
-        <v>-0.5014765523126697</v>
+        <v>-0.503759153500407</v>
       </c>
       <c r="AX281" t="n">
-        <v>0.4884782145927899</v>
+        <v>0.4911115074777781</v>
       </c>
     </row>
     <row r="282">
@@ -52946,10 +52946,10 @@
         <v>5.988718777000637</v>
       </c>
       <c r="AW282" t="n">
-        <v>-1.635047341043556</v>
+        <v>-2.252788963641138</v>
       </c>
       <c r="AX282" t="n">
-        <v>-0.3319890411839294</v>
+        <v>-0.3315991853797554</v>
       </c>
     </row>
     <row r="283">
@@ -53132,10 +53132,10 @@
         <v>5.991284600985001</v>
       </c>
       <c r="AW283" t="n">
-        <v>-1.427563901052492</v>
+        <v>-1.431575602900508</v>
       </c>
       <c r="AX283" t="n">
-        <v>0.1443827745519186</v>
+        <v>0.1455513900310559</v>
       </c>
     </row>
     <row r="284">
@@ -53318,10 +53318,10 @@
         <v>5.995523118127391</v>
       </c>
       <c r="AW284" t="n">
-        <v>-0.1891536857597317</v>
+        <v>-0.1893828242759309</v>
       </c>
       <c r="AX284" t="n">
-        <v>0.2604184549233751</v>
+        <v>0.2624141372156431</v>
       </c>
     </row>
     <row r="285">
@@ -53504,10 +53504,10 @@
         <v>6.002952860884383</v>
       </c>
       <c r="AW285" t="n">
-        <v>-1.369938096581907</v>
+        <v>-1.374157510720286</v>
       </c>
       <c r="AX285" t="n">
-        <v>-0.4914893597367859</v>
+        <v>-0.4933261127898533</v>
       </c>
     </row>
     <row r="286">
@@ -53690,10 +53690,10 @@
         <v>5.998087474353804</v>
       </c>
       <c r="AW286" t="n">
-        <v>-0.16206108486739</v>
+        <v>-0.1620330853237301</v>
       </c>
       <c r="AX286" t="n">
-        <v>0.4545579725278573</v>
+        <v>0.4529074958484732</v>
       </c>
     </row>
     <row r="287">
@@ -53876,10 +53876,10 @@
         <v>5.95220807936013</v>
       </c>
       <c r="AW287" t="n">
-        <v>-0.2525225425244039</v>
+        <v>-0.2570823137467062</v>
       </c>
       <c r="AX287" t="n">
-        <v>-0.1981241357937695</v>
+        <v>-0.1985208769506261</v>
       </c>
     </row>
     <row r="288">
@@ -54038,7 +54038,7 @@
         <v>0</v>
       </c>
       <c r="AO288" t="n">
-        <v>9.546884034617925</v>
+        <v>9.680406499268875</v>
       </c>
       <c r="AP288" t="n">
         <v>0</v>
@@ -54050,7 +54050,7 @@
         <v>0</v>
       </c>
       <c r="AS288" t="n">
-        <v>14.73180168983835</v>
+        <v>14.97866168026991</v>
       </c>
       <c r="AT288" t="n">
         <v>14.97866168026991</v>
@@ -54062,10 +54062,10 @@
         <v>5.965036838947435</v>
       </c>
       <c r="AW288" t="n">
-        <v>1.264280732634204</v>
+        <v>1.269494621867443</v>
       </c>
       <c r="AX288" t="n">
-        <v>-0.7213828228015811</v>
+        <v>-0.9394683511901225</v>
       </c>
     </row>
     <row r="289">
@@ -54248,10 +54248,10 @@
         <v>5.963565066300526</v>
       </c>
       <c r="AW289" t="n">
-        <v>-0.8292379558949445</v>
+        <v>-0.8339159100794491</v>
       </c>
       <c r="AX289" t="n">
-        <v>-0.4486830385021359</v>
+        <v>-0.4489576763450377</v>
       </c>
     </row>
     <row r="290">
@@ -54434,10 +54434,10 @@
         <v>5.961896392088678</v>
       </c>
       <c r="AW290" t="n">
-        <v>-0.2268465493611656</v>
+        <v>-0.2312331364395868</v>
       </c>
       <c r="AX290" t="n">
-        <v>-0.1487953299336995</v>
+        <v>-0.1472332776781823</v>
       </c>
     </row>
     <row r="291">
@@ -54620,10 +54620,10 @@
         <v>5.959713307701974</v>
       </c>
       <c r="AW291" t="n">
-        <v>-0.2642805345012761</v>
+        <v>-0.2651091376419918</v>
       </c>
       <c r="AX291" t="n">
-        <v>0.3583215587800718</v>
+        <v>0.3586122569567627</v>
       </c>
     </row>
     <row r="292">
@@ -54806,10 +54806,10 @@
         <v>5.951574607614358</v>
       </c>
       <c r="AW292" t="n">
-        <v>-0.7088926754902749</v>
+        <v>-0.7120781728002692</v>
       </c>
       <c r="AX292" t="n">
-        <v>-0.3171769701117365</v>
+        <v>-0.3178472217174244</v>
       </c>
     </row>
     <row r="293">
@@ -54992,10 +54992,10 @@
         <v>5.949586868850643</v>
       </c>
       <c r="AW293" t="n">
-        <v>0.1018125644092843</v>
+        <v>0.1034674774048615</v>
       </c>
       <c r="AX293" t="n">
-        <v>-0.6735871580004535</v>
+        <v>-0.6743755260650482</v>
       </c>
     </row>
     <row r="294">
@@ -55178,10 +55178,10 @@
         <v>5.950885103915215</v>
       </c>
       <c r="AW294" t="n">
-        <v>0.6222681626616865</v>
+        <v>0.625143411539295</v>
       </c>
       <c r="AX294" t="n">
-        <v>-0.658023562263118</v>
+        <v>-0.6599468480558632</v>
       </c>
     </row>
     <row r="295">
@@ -55189,7 +55189,7 @@
         <v>14.8902466666666</v>
       </c>
       <c r="B295" t="n">
-        <v>-17.134429198</v>
+        <v>-17.1346133333333</v>
       </c>
       <c r="C295" t="n">
         <v>12.5</v>
@@ -55215,7 +55215,7 @@
         <v>33</v>
       </c>
       <c r="J295" t="n">
-        <v>3</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="K295" t="n">
         <v>1</v>
@@ -55364,10 +55364,10 @@
         <v>5.943019043381907</v>
       </c>
       <c r="AW295" t="n">
-        <v>0.1243001862994473</v>
+        <v>0.1223350340965092</v>
       </c>
       <c r="AX295" t="n">
-        <v>-0.4790595774409206</v>
+        <v>-0.4793390848931967</v>
       </c>
     </row>
     <row r="296">
@@ -55375,7 +55375,7 @@
         <v>14.8900583333333</v>
       </c>
       <c r="B296" t="n">
-        <v>-17.134429198</v>
+        <v>-17.13513</v>
       </c>
       <c r="C296" t="n">
         <v>-11.5</v>
@@ -55387,7 +55387,7 @@
         <v>1</v>
       </c>
       <c r="F296" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G296" t="n">
         <v>4</v>
@@ -55550,10 +55550,10 @@
         <v>5.938049249543153</v>
       </c>
       <c r="AW296" t="n">
-        <v>0.4569064146071741</v>
+        <v>0.4577780445832056</v>
       </c>
       <c r="AX296" t="n">
-        <v>-0.285740426391358</v>
+        <v>-0.2860588220051848</v>
       </c>
     </row>
     <row r="297">
@@ -55561,7 +55561,7 @@
         <v>14.8899116666666</v>
       </c>
       <c r="B297" t="n">
-        <v>-17.134429198</v>
+        <v>-17.1348</v>
       </c>
       <c r="C297" t="n">
         <v>-14.3</v>
@@ -55587,7 +55587,7 @@
         <v>31</v>
       </c>
       <c r="J297" t="n">
-        <v>3</v>
+        <v>2.888888888888889</v>
       </c>
       <c r="K297" t="n">
         <v>5</v>
@@ -55736,10 +55736,10 @@
         <v>5.940115418070595</v>
       </c>
       <c r="AW297" t="n">
-        <v>-1.620958644885168</v>
+        <v>-1.627733689665778</v>
       </c>
       <c r="AX297" t="n">
-        <v>0.2620956077500948</v>
+        <v>0.2633579851965531</v>
       </c>
     </row>
     <row r="298">
@@ -55922,10 +55922,10 @@
         <v>5.951049776299977</v>
       </c>
       <c r="AW298" t="n">
-        <v>-0.7791761678065131</v>
+        <v>-0.7824137442938957</v>
       </c>
       <c r="AX298" t="n">
-        <v>-0.3219028975221357</v>
+        <v>-0.3225058861026168</v>
       </c>
     </row>
     <row r="299">
@@ -56108,10 +56108,10 @@
         <v>5.94500171740934</v>
       </c>
       <c r="AW299" t="n">
-        <v>-0.2917169036526855</v>
+        <v>-0.2925316956745236</v>
       </c>
       <c r="AX299" t="n">
-        <v>-0.3649660832577074</v>
+        <v>-0.3647541357720318</v>
       </c>
     </row>
     <row r="300">
@@ -56294,10 +56294,10 @@
         <v>5.946367532367975</v>
       </c>
       <c r="AW300" t="n">
-        <v>-0.2126275564667504</v>
+        <v>-0.2132589140384845</v>
       </c>
       <c r="AX300" t="n">
-        <v>0.0637400229463701</v>
+        <v>0.0623113512418848</v>
       </c>
     </row>
     <row r="301">
@@ -56480,10 +56480,10 @@
         <v>5.943092267498461</v>
       </c>
       <c r="AW301" t="n">
-        <v>-1.635047341043556</v>
+        <v>-1.651003961654552</v>
       </c>
       <c r="AX301" t="n">
-        <v>0.2221043023793637</v>
+        <v>0.2184270989560609</v>
       </c>
     </row>
     <row r="302">
@@ -56491,7 +56491,7 @@
         <v>14.89019788</v>
       </c>
       <c r="B302" t="n">
-        <v>-17.134429198</v>
+        <v>-17.13549179</v>
       </c>
       <c r="C302" t="n">
         <v>16.1868286132812</v>
@@ -56666,10 +56666,10 @@
         <v>5.935697190726629</v>
       </c>
       <c r="AW302" t="n">
-        <v>0.4879921212994534</v>
+        <v>0.4883800232573737</v>
       </c>
       <c r="AX302" t="n">
-        <v>0.9622892544858042</v>
+        <v>1.359429860236228</v>
       </c>
     </row>
     <row r="303">
@@ -56852,10 +56852,10 @@
         <v>7.217016732695027</v>
       </c>
       <c r="AW303" t="n">
-        <v>0.6222681626616865</v>
+        <v>0.625143411539295</v>
       </c>
       <c r="AX303" t="n">
-        <v>0.2317820339347691</v>
+        <v>0.2298555858820547</v>
       </c>
     </row>
     <row r="304">
@@ -57038,10 +57038,10 @@
         <v>7.213095146329349</v>
       </c>
       <c r="AW304" t="n">
-        <v>0.747150209878931</v>
+        <v>0.7487359611344534</v>
       </c>
       <c r="AX304" t="n">
-        <v>0.4939410494747949</v>
+        <v>0.4925030567883387</v>
       </c>
     </row>
     <row r="305">
@@ -57055,7 +57055,7 @@
         <v>22.5034790039062</v>
       </c>
       <c r="D305" t="n">
-        <v>24.2719993591308</v>
+        <v>25.7889995574951</v>
       </c>
       <c r="E305" t="n">
         <v>0</v>
@@ -57224,10 +57224,10 @@
         <v>7.217471735310087</v>
       </c>
       <c r="AW305" t="n">
-        <v>-0.727964431986075</v>
+        <v>-0.7279453687916102</v>
       </c>
       <c r="AX305" t="n">
-        <v>0.3403989776323806</v>
+        <v>0.3391712698884083</v>
       </c>
     </row>
     <row r="306">
@@ -57410,10 +57410,10 @@
         <v>7.20621581206114</v>
       </c>
       <c r="AW306" t="n">
-        <v>-0.6585299409803269</v>
+        <v>-0.661917088059499</v>
       </c>
       <c r="AX306" t="n">
-        <v>0.1897767920582112</v>
+        <v>0.1886579920351492</v>
       </c>
     </row>
     <row r="307">
@@ -57596,10 +57596,10 @@
         <v>7.206221655625089</v>
       </c>
       <c r="AW307" t="n">
-        <v>-1.277397739552712</v>
+        <v>-1.280982675362728</v>
       </c>
       <c r="AX307" t="n">
-        <v>0.7953406740587596</v>
+        <v>0.793148019206945</v>
       </c>
     </row>
     <row r="308">
@@ -57619,7 +57619,7 @@
         <v>1</v>
       </c>
       <c r="F308" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G308" t="n">
         <v>99</v>
@@ -57630,7 +57630,7 @@
         </is>
       </c>
       <c r="I308" t="n">
-        <v>28.6</v>
+        <v>25</v>
       </c>
       <c r="J308" t="n">
         <v>3.527777777777778</v>
@@ -57782,10 +57782,10 @@
         <v>7.206971959151777</v>
       </c>
       <c r="AW308" t="n">
-        <v>0.4569064146071741</v>
+        <v>0.4577780445832056</v>
       </c>
       <c r="AX308" t="n">
-        <v>0.9622892544858042</v>
+        <v>1.193158479807547</v>
       </c>
     </row>
     <row r="309">
@@ -57819,7 +57819,7 @@
         <v>32</v>
       </c>
       <c r="J309" t="n">
-        <v>3</v>
+        <v>2.972222222222222</v>
       </c>
       <c r="K309" t="n">
         <v>5</v>
@@ -57956,7 +57956,7 @@
         <v>0</v>
       </c>
       <c r="AS309" t="n">
-        <v>14.73180168983835</v>
+        <v>14.84513033228823</v>
       </c>
       <c r="AT309" t="n">
         <v>14.69097971198475</v>
@@ -57968,10 +57968,10 @@
         <v>7.204618941345892</v>
       </c>
       <c r="AW309" t="n">
-        <v>1.700191506719004</v>
+        <v>2.284001804275885</v>
       </c>
       <c r="AX309" t="n">
-        <v>0.9185698613294354</v>
+        <v>0.914540333325866</v>
       </c>
     </row>
     <row r="310">
@@ -58008,10 +58008,10 @@
         <v>3.972222222222222</v>
       </c>
       <c r="K310" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L310" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M310" t="n">
         <v>1</v>
@@ -58154,10 +58154,10 @@
         <v>7.206190851621958</v>
       </c>
       <c r="AW310" t="n">
-        <v>-0.3746918234854023</v>
+        <v>-0.3726056114282152</v>
       </c>
       <c r="AX310" t="n">
-        <v>0.2198122322807905</v>
+        <v>0.2167370919649441</v>
       </c>
     </row>
     <row r="311">
@@ -58316,7 +58316,7 @@
         <v>0</v>
       </c>
       <c r="AO311" t="n">
-        <v>9.546884034617925</v>
+        <v>9.680406499268875</v>
       </c>
       <c r="AP311" t="n">
         <v>0</v>
@@ -58340,10 +58340,10 @@
         <v>7.209569730573385</v>
       </c>
       <c r="AW311" t="n">
-        <v>0.03166460476737118</v>
+        <v>0.03225189055052405</v>
       </c>
       <c r="AX311" t="n">
-        <v>0.1888354884131533</v>
+        <v>0.186818614477393</v>
       </c>
     </row>
     <row r="312">
@@ -58377,7 +58377,7 @@
         <v>38</v>
       </c>
       <c r="J312" t="n">
-        <v>3</v>
+        <v>2.861111111111111</v>
       </c>
       <c r="K312" t="n">
         <v>2</v>
@@ -58526,10 +58526,10 @@
         <v>7.213298727350754</v>
       </c>
       <c r="AW312" t="n">
-        <v>0.4569064146071741</v>
+        <v>0.4577780445832056</v>
       </c>
       <c r="AX312" t="n">
-        <v>0.1815690912306138</v>
+        <v>0.178676917612374</v>
       </c>
     </row>
     <row r="313">
@@ -58712,10 +58712,10 @@
         <v>7.21168511999796</v>
       </c>
       <c r="AW313" t="n">
-        <v>0.1243001862994473</v>
+        <v>0.1223350340965092</v>
       </c>
       <c r="AX313" t="n">
-        <v>0.3111861153889144</v>
+        <v>0.3077812051223475</v>
       </c>
     </row>
     <row r="314">
@@ -58898,10 +58898,10 @@
         <v>7.216006413522648</v>
       </c>
       <c r="AW314" t="n">
-        <v>0.4630915548592586</v>
+        <v>0.4640097199459289</v>
       </c>
       <c r="AX314" t="n">
-        <v>0.3567746709600387</v>
+        <v>0.3551118398172172</v>
       </c>
     </row>
     <row r="315">
@@ -59084,10 +59084,10 @@
         <v>7.209148078656728</v>
       </c>
       <c r="AW315" t="n">
-        <v>0.5634780384942748</v>
+        <v>0.5652469711913986</v>
       </c>
       <c r="AX315" t="n">
-        <v>0.05704511889700193</v>
+        <v>0.05361462072814431</v>
       </c>
     </row>
     <row r="316">
@@ -59270,10 +59270,10 @@
         <v>7.205304023426076</v>
       </c>
       <c r="AW316" t="n">
-        <v>0.3904214894029787</v>
+        <v>0.3907929070597902</v>
       </c>
       <c r="AX316" t="n">
-        <v>0.2603491342276791</v>
+        <v>0.2607406236137195</v>
       </c>
     </row>
     <row r="317">
@@ -59456,10 +59456,10 @@
         <v>7.201980825439624</v>
       </c>
       <c r="AW317" t="n">
-        <v>0.4569064146071741</v>
+        <v>0.4577780445832056</v>
       </c>
       <c r="AX317" t="n">
-        <v>0.8668029232596005</v>
+        <v>0.8642751900029838</v>
       </c>
     </row>
     <row r="318">
@@ -59473,7 +59473,7 @@
         <v>19.5034790039062</v>
       </c>
       <c r="D318" t="n">
-        <v>24.2719993591308</v>
+        <v>34.890998840332</v>
       </c>
       <c r="E318" t="n">
         <v>1</v>
@@ -59642,10 +59642,10 @@
         <v>7.223376183613865</v>
       </c>
       <c r="AW318" t="n">
-        <v>-1.553109967136812</v>
+        <v>-1.558003495388983</v>
       </c>
       <c r="AX318" t="n">
-        <v>0.5946875794216288</v>
+        <v>0.5935467518778363</v>
       </c>
     </row>
     <row r="319">
@@ -59828,10 +59828,10 @@
         <v>7.222069398032672</v>
       </c>
       <c r="AW319" t="n">
-        <v>1.700191506719004</v>
+        <v>1.866138849654006</v>
       </c>
       <c r="AX319" t="n">
-        <v>0.9622892544858042</v>
+        <v>1.218080963535276</v>
       </c>
     </row>
     <row r="320">
@@ -60014,10 +60014,10 @@
         <v>7.227886063020086</v>
       </c>
       <c r="AW320" t="n">
-        <v>-0.1933678680394934</v>
+        <v>-0.1935398990051181</v>
       </c>
       <c r="AX320" t="n">
-        <v>0.9622892544858042</v>
+        <v>1.172785134423258</v>
       </c>
     </row>
     <row r="321">
@@ -60200,10 +60200,10 @@
         <v>7.228798437499831</v>
       </c>
       <c r="AW321" t="n">
-        <v>-1.308565707706286</v>
+        <v>-1.3120794095652</v>
       </c>
       <c r="AX321" t="n">
-        <v>0.2193611936488796</v>
+        <v>0.2170537748967232</v>
       </c>
     </row>
     <row r="322">
@@ -60368,7 +60368,7 @@
         <v>0</v>
       </c>
       <c r="AQ322" t="n">
-        <v>4.58257569495584</v>
+        <v>4.795831523312719</v>
       </c>
       <c r="AR322" t="n">
         <v>0</v>
@@ -60377,7 +60377,7 @@
         <v>13.81551155796377</v>
       </c>
       <c r="AT322" t="n">
-        <v>15.20180516908413</v>
+        <v>15.42494867039835</v>
       </c>
       <c r="AU322" t="n">
         <v>0</v>
@@ -60386,10 +60386,10 @@
         <v>7.22905786669328</v>
       </c>
       <c r="AW322" t="n">
-        <v>0.01489061356692889</v>
+        <v>0.0157052083479422</v>
       </c>
       <c r="AX322" t="n">
-        <v>-0.124217903855458</v>
+        <v>-0.1273442513975657</v>
       </c>
     </row>
     <row r="323">
@@ -60572,10 +60572,10 @@
         <v>7.229657210407697</v>
       </c>
       <c r="AW323" t="n">
-        <v>0.4569064146071741</v>
+        <v>0.4577780445832056</v>
       </c>
       <c r="AX323" t="n">
-        <v>0.1856008939834587</v>
+        <v>0.1845656728978811</v>
       </c>
     </row>
     <row r="324">
@@ -60758,10 +60758,10 @@
         <v>7.232720677587377</v>
       </c>
       <c r="AW324" t="n">
-        <v>0.1243001862994473</v>
+        <v>0.1223350340965092</v>
       </c>
       <c r="AX324" t="n">
-        <v>0.8775739770015711</v>
+        <v>0.8756578267706143</v>
       </c>
     </row>
     <row r="325">
@@ -60772,7 +60772,7 @@
         <v>-17.0226766666666</v>
       </c>
       <c r="C325" t="n">
-        <v>62.00671142578121</v>
+        <v>62.09999999999999</v>
       </c>
       <c r="D325" t="n">
         <v>4</v>
@@ -60944,10 +60944,10 @@
         <v>7.233253733970626</v>
       </c>
       <c r="AW325" t="n">
-        <v>-0.1841429622228759</v>
+        <v>-0.1925288807576147</v>
       </c>
       <c r="AX325" t="n">
-        <v>0.9319801705723065</v>
+        <v>0.929329452408496</v>
       </c>
     </row>
     <row r="326">
@@ -60961,7 +60961,7 @@
         <v>23.5</v>
       </c>
       <c r="D326" t="n">
-        <v>3.5</v>
+        <v>3.20000004768371</v>
       </c>
       <c r="E326" t="n">
         <v>1</v>
@@ -60978,7 +60978,7 @@
         </is>
       </c>
       <c r="I326" t="n">
-        <v>28.6</v>
+        <v>27</v>
       </c>
       <c r="J326" t="n">
         <v>3.166666666666667</v>
@@ -61118,7 +61118,7 @@
         <v>0</v>
       </c>
       <c r="AS326" t="n">
-        <v>14.73180168983835</v>
+        <v>14.84513033228823</v>
       </c>
       <c r="AT326" t="n">
         <v>15.09644468120408</v>
@@ -61130,10 +61130,10 @@
         <v>7.233255451040009</v>
       </c>
       <c r="AW326" t="n">
-        <v>1.700191506719004</v>
+        <v>2.284001804275885</v>
       </c>
       <c r="AX326" t="n">
-        <v>0.5885285354710238</v>
+        <v>0.5865218304262989</v>
       </c>
     </row>
     <row r="327">
@@ -61153,7 +61153,7 @@
         <v>0</v>
       </c>
       <c r="F327" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G327" t="n">
         <v>99</v>
@@ -61208,7 +61208,7 @@
         <v>26.41031069</v>
       </c>
       <c r="W327" t="n">
-        <v>1.140689230583377</v>
+        <v>1.261429753561982</v>
       </c>
       <c r="X327" t="inlineStr">
         <is>
@@ -61316,10 +61316,10 @@
         <v>7.225853088736305</v>
       </c>
       <c r="AW327" t="n">
-        <v>0.4679843983351823</v>
+        <v>0.4755929077479789</v>
       </c>
       <c r="AX327" t="n">
-        <v>0.6038450409992741</v>
+        <v>0.6010544197614277</v>
       </c>
     </row>
     <row r="328">
@@ -61502,10 +61502,10 @@
         <v>7.224140463058563</v>
       </c>
       <c r="AW328" t="n">
-        <v>0.6222681626616865</v>
+        <v>0.625143411539295</v>
       </c>
       <c r="AX328" t="n">
-        <v>0.9506391154493732</v>
+        <v>0.9493032058362036</v>
       </c>
     </row>
     <row r="329">
@@ -61688,10 +61688,10 @@
         <v>7.255575838622321</v>
       </c>
       <c r="AW329" t="n">
-        <v>1.700191506719004</v>
+        <v>1.866138849654006</v>
       </c>
       <c r="AX329" t="n">
-        <v>0.9622892544858042</v>
+        <v>1.254841412093583</v>
       </c>
     </row>
     <row r="330">
@@ -61722,7 +61722,7 @@
         </is>
       </c>
       <c r="I330" t="n">
-        <v>28.6</v>
+        <v>27</v>
       </c>
       <c r="J330" t="n">
         <v>3.361111111111111</v>
@@ -61874,10 +61874,10 @@
         <v>7.227734279150003</v>
       </c>
       <c r="AW330" t="n">
-        <v>0.6222681626616865</v>
+        <v>0.625143411539295</v>
       </c>
       <c r="AX330" t="n">
-        <v>0.6893915525380314</v>
+        <v>0.6876876168144964</v>
       </c>
     </row>
     <row r="331">
@@ -62048,7 +62048,7 @@
         <v>0</v>
       </c>
       <c r="AS331" t="n">
-        <v>14.73180168983835</v>
+        <v>15.03928628370399</v>
       </c>
       <c r="AT331" t="n">
         <v>15.12384364788469</v>
@@ -62060,10 +62060,10 @@
         <v>7.22837792730845</v>
       </c>
       <c r="AW331" t="n">
-        <v>1.322251832789895</v>
+        <v>1.32754362543203</v>
       </c>
       <c r="AX331" t="n">
-        <v>0.9622892544858042</v>
+        <v>1.429561884461841</v>
       </c>
     </row>
     <row r="332">
@@ -62074,7 +62074,7 @@
         <v>-17.02459</v>
       </c>
       <c r="C332" t="n">
-        <v>-39.48</v>
+        <v>-41.1</v>
       </c>
       <c r="D332" t="n">
         <v>7.5</v>
@@ -62094,7 +62094,7 @@
         </is>
       </c>
       <c r="I332" t="n">
-        <v>28.6</v>
+        <v>27</v>
       </c>
       <c r="J332" t="n">
         <v>3.194444444444445</v>
@@ -62246,10 +62246,10 @@
         <v>7.225889128681674</v>
       </c>
       <c r="AW332" t="n">
-        <v>0.4846420747891336</v>
+        <v>0.4926593604697498</v>
       </c>
       <c r="AX332" t="n">
-        <v>-0.2354044929760501</v>
+        <v>-0.23340839943696</v>
       </c>
     </row>
     <row r="333">
@@ -62260,7 +62260,7 @@
         <v>-17.0230933333333</v>
       </c>
       <c r="C333" t="n">
-        <v>-39.48</v>
+        <v>-44.8</v>
       </c>
       <c r="D333" t="n">
         <v>3.5</v>
@@ -62432,7 +62432,7 @@
         <v>7.234040219683604</v>
       </c>
       <c r="AW333" t="n">
-        <v>1.700191506719004</v>
+        <v>1.866138849654006</v>
       </c>
       <c r="AX333" t="inlineStr"/>
     </row>
@@ -62505,7 +62505,7 @@
         <v>2</v>
       </c>
       <c r="V334" t="n">
-        <v>3.5952978724</v>
+        <v>2.815037847</v>
       </c>
       <c r="W334" t="n">
         <v>0.05402452377593658</v>
@@ -62616,7 +62616,7 @@
         <v>7.433959810894864</v>
       </c>
       <c r="AW334" t="n">
-        <v>-0.1880392529738519</v>
+        <v>-0.1919770091126951</v>
       </c>
       <c r="AX334" t="inlineStr"/>
     </row>
